--- a/charList.xlsx
+++ b/charList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/another_picker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{1C47ABA8-6086-45B0-BBFE-001F8D89FB28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{02988B65-6270-4DDB-895A-BDF34F9DD8D2}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{1C47ABA8-6086-45B0-BBFE-001F8D89FB28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5D4D6DB5-6206-46F4-905B-97B10625D3A3}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{FB4A35C3-13BA-439C-92C2-A466A92FB7C5}"/>
   </bookViews>
@@ -1295,7 +1295,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2:P123"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,7 +1350,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>LEFT(A2,(FIND(".",A2,1)-1))</f>
+        <f t="shared" ref="B2:B33" si="0">LEFT(A2,(FIND(".",A2,1)-1))</f>
         <v>Akane</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1385,8 +1385,8 @@
         <v>136</v>
       </c>
       <c r="P2" s="1" t="str">
-        <f>"&lt;tr id='"&amp;B2&amp;"' class='"&amp;D2&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A2&amp;"'&gt;"&amp;IF(H2="Y","&lt;img src='img/"&amp;B2&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K2&amp;".png'&gt;"&amp;IF(L2="","","&lt;img src='img/type/"&amp;L2&amp;".png'&gt;")&amp;IF(M2="","","&lt;img src='img/type/"&amp;M2&amp;".png'&gt;")&amp;IF(N2="","","&lt;img src='img/type/"&amp;N2&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;B2&amp;"_LS'"&amp;" min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;B2&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;B2&amp;"_rank' value='3'"&amp;IF(E2="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;B2&amp;"_rank' value='4'"&amp;IF(F2="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;B2&amp;"_rank' value='5'"&amp;IF(G2="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;B2&amp;"_rank' value='AS'"&amp;IF(H2="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;B2&amp;"_rank' value='Both'"&amp;IF(I2="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr id='Akane' class='Light'&gt;&lt;td&gt;&lt;img src='img/Akane.jpg'&gt;&lt;img src='img/Akane_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Akane&lt;/td&gt;&lt;td&gt;茜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Akane_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Akane_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Akane_rank' value='3'&gt;3 &lt;input type='radio' name='Akane_rank' value='4'&gt;4 &lt;input type='radio' name='Akane_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Akane_rank' value='AS'&gt;AS &lt;input type='radio' name='Akane_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr id='"&amp;B2&amp;"' class='"&amp;D2&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A2&amp;"'&gt;"&amp;IF(H2="Y","&lt;img src='img/"&amp;B2&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K2&amp;".png'&gt;"&amp;IF(L2="","","&lt;img src='img/type/"&amp;L2&amp;".png'&gt;")&amp;IF(M2="","","&lt;img src='img/type/"&amp;M2&amp;".png'&gt;")&amp;IF(N2="","","&lt;img src='img/type/"&amp;N2&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;B2&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;B2&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;B2&amp;"_rank' value='3'"&amp;IF(E2="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;B2&amp;"_rank' value='4'"&amp;IF(F2="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;B2&amp;"_rank' value='5'"&amp;IF(G2="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;B2&amp;"_rank' value='AS'"&amp;IF(H2="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;B2&amp;"_rank' value='Both'"&amp;IF(I2="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr id='Akane' class='Light'&gt;&lt;td&gt;&lt;img src='img/Akane.jpg'&gt;&lt;img src='img/Akane_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Akane&lt;/td&gt;&lt;td&gt;茜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Akane_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Akane_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Akane_rank' value='3'&gt;3 &lt;input type='radio' name='Akane_rank' value='4'&gt;4 &lt;input type='radio' name='Akane_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Akane_rank' value='AS'&gt;AS &lt;input type='radio' name='Akane_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1394,7 +1394,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>LEFT(A3,(FIND(".",A3,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Aldo</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1426,8 +1426,8 @@
         <v>136</v>
       </c>
       <c r="P3" s="1" t="str">
-        <f t="shared" ref="P3:P66" si="0">"&lt;tr id='"&amp;B3&amp;"' class='"&amp;D3&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A3&amp;"'&gt;"&amp;IF(H3="Y","&lt;img src='img/"&amp;B3&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C3&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K3&amp;".png'&gt;"&amp;IF(L3="","","&lt;img src='img/type/"&amp;L3&amp;".png'&gt;")&amp;IF(M3="","","&lt;img src='img/type/"&amp;M3&amp;".png'&gt;")&amp;IF(N3="","","&lt;img src='img/type/"&amp;N3&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;B3&amp;"_LS'"&amp;" min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;B3&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;B3&amp;"_rank' value='3'"&amp;IF(E3="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;B3&amp;"_rank' value='4'"&amp;IF(F3="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;B3&amp;"_rank' value='5'"&amp;IF(G3="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;B3&amp;"_rank' value='AS'"&amp;IF(H3="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;B3&amp;"_rank' value='Both'"&amp;IF(I3="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr id='Aldo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Aldo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Aldo&lt;/td&gt;&lt;td&gt;阿爾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Aldo_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Aldo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Aldo_rank' value='3'&gt;3 &lt;input type='radio' name='Aldo_rank' value='4'&gt;4 &lt;input type='radio' name='Aldo_rank' value='5'&gt;5 &lt;input type='radio' name='Aldo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Aldo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="P3:P66" si="1">"&lt;tr id='"&amp;B3&amp;"' class='"&amp;D3&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A3&amp;"'&gt;"&amp;IF(H3="Y","&lt;img src='img/"&amp;B3&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C3&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K3&amp;".png'&gt;"&amp;IF(L3="","","&lt;img src='img/type/"&amp;L3&amp;".png'&gt;")&amp;IF(M3="","","&lt;img src='img/type/"&amp;M3&amp;".png'&gt;")&amp;IF(N3="","","&lt;img src='img/type/"&amp;N3&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;B3&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;B3&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;B3&amp;"_rank' value='3'"&amp;IF(E3="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;B3&amp;"_rank' value='4'"&amp;IF(F3="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;B3&amp;"_rank' value='5'"&amp;IF(G3="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;B3&amp;"_rank' value='AS'"&amp;IF(H3="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;B3&amp;"_rank' value='Both'"&amp;IF(I3="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr id='Aldo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Aldo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Aldo&lt;/td&gt;&lt;td&gt;阿爾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Aldo_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Aldo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Aldo_rank' value='3'&gt;3 &lt;input type='radio' name='Aldo_rank' value='4'&gt;4 &lt;input type='radio' name='Aldo_rank' value='5'&gt;5 &lt;input type='radio' name='Aldo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Aldo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1435,7 +1435,7 @@
         <v>278</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>LEFT(A4,(FIND(".",A4,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Altena</v>
       </c>
       <c r="C4" t="s">
@@ -1466,8 +1466,8 @@
         <v>135</v>
       </c>
       <c r="P4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Altena' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Altena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Altena&lt;/td&gt;&lt;td&gt;阿露緹娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Altena_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Altena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Altena_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Altena_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Altena_rank' value='5'&gt;5 &lt;input type='radio' name='Altena_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Altena_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Altena' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Altena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Altena&lt;/td&gt;&lt;td&gt;阿露緹娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Altena_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Altena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Altena_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Altena_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Altena_rank' value='5'&gt;5 &lt;input type='radio' name='Altena_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Altena_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1475,7 +1475,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>LEFT(A5,(FIND(".",A5,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Amy</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1497,7 +1497,7 @@
         <v>130</v>
       </c>
       <c r="I5" s="3" t="str">
-        <f>IF(AND(G5="Y",H5="Y"),"Y","N")</f>
+        <f t="shared" ref="I5:I36" si="2">IF(AND(G5="Y",H5="Y"),"Y","N")</f>
         <v>N</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -1507,8 +1507,8 @@
         <v>139</v>
       </c>
       <c r="P5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Amy' class='Light'&gt;&lt;td&gt;&lt;img src='img/Amy.jpg'&gt;&lt;/td&gt;&lt;td&gt;Amy&lt;/td&gt;&lt;td&gt;艾米&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Amy_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Amy_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Amy_rank' value='3'&gt;3 &lt;input type='radio' name='Amy_rank' value='4'&gt;4 &lt;input type='radio' name='Amy_rank' value='5'&gt;5 &lt;input type='radio' name='Amy_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Amy_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Amy' class='Light'&gt;&lt;td&gt;&lt;img src='img/Amy.jpg'&gt;&lt;/td&gt;&lt;td&gt;Amy&lt;/td&gt;&lt;td&gt;艾米&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Amy_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Amy_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Amy_rank' value='3'&gt;3 &lt;input type='radio' name='Amy_rank' value='4'&gt;4 &lt;input type='radio' name='Amy_rank' value='5'&gt;5 &lt;input type='radio' name='Amy_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Amy_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1516,7 +1516,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>LEFT(A6,(FIND(".",A6,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Anabel</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1538,7 +1538,7 @@
         <v>131</v>
       </c>
       <c r="I6" s="3" t="str">
-        <f>IF(AND(G6="Y",H6="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1551,8 +1551,8 @@
         <v>188</v>
       </c>
       <c r="P6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Anabel' class='Light'&gt;&lt;td&gt;&lt;img src='img/Anabel.jpg'&gt;&lt;/td&gt;&lt;td&gt;Anabel&lt;/td&gt;&lt;td&gt;安娜貝爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Anabel_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Anabel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Anabel_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Anabel_rank' value='4'&gt;4 &lt;input type='radio' name='Anabel_rank' value='5'&gt;5 &lt;input type='radio' name='Anabel_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Anabel_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Anabel' class='Light'&gt;&lt;td&gt;&lt;img src='img/Anabel.jpg'&gt;&lt;/td&gt;&lt;td&gt;Anabel&lt;/td&gt;&lt;td&gt;安娜貝爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Anabel_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Anabel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Anabel_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Anabel_rank' value='4'&gt;4 &lt;input type='radio' name='Anabel_rank' value='5'&gt;5 &lt;input type='radio' name='Anabel_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Anabel_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1560,7 +1560,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>LEFT(A7,(FIND(".",A7,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Asia</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1582,15 +1582,15 @@
         <v>130</v>
       </c>
       <c r="I7" s="3" t="str">
-        <f>IF(AND(G7="Y",H7="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>144</v>
       </c>
       <c r="P7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Asia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Asia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Asia&lt;/td&gt;&lt;td&gt;艾希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Asia_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Asia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Asia_rank' value='3'&gt;3 &lt;input type='radio' name='Asia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Asia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Asia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Asia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Asia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Asia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Asia&lt;/td&gt;&lt;td&gt;艾希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Asia_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Asia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Asia_rank' value='3'&gt;3 &lt;input type='radio' name='Asia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Asia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Asia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Asia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1598,7 +1598,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f>LEFT(A8,(FIND(".",A8,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Azami</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1620,7 +1620,7 @@
         <v>130</v>
       </c>
       <c r="I8" s="3" t="str">
-        <f>IF(AND(G8="Y",H8="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -1633,8 +1633,8 @@
         <v>145</v>
       </c>
       <c r="P8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Azami' class='Light'&gt;&lt;td&gt;&lt;img src='img/Azami.jpg'&gt;&lt;/td&gt;&lt;td&gt;Azami&lt;/td&gt;&lt;td&gt;阿佐美&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Azami_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Azami_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Azami_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Azami_rank' value='4'&gt;4 &lt;input type='radio' name='Azami_rank' value='5'&gt;5 &lt;input type='radio' name='Azami_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Azami_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Azami' class='Light'&gt;&lt;td&gt;&lt;img src='img/Azami.jpg'&gt;&lt;/td&gt;&lt;td&gt;Azami&lt;/td&gt;&lt;td&gt;阿佐美&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Azami_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Azami_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Azami_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Azami_rank' value='4'&gt;4 &lt;input type='radio' name='Azami_rank' value='5'&gt;5 &lt;input type='radio' name='Azami_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Azami_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1642,7 +1642,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f>LEFT(A9,(FIND(".",A9,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Benedict</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1664,7 +1664,7 @@
         <v>130</v>
       </c>
       <c r="I9" s="3" t="str">
-        <f>IF(AND(G9="Y",H9="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1674,8 +1674,8 @@
         <v>145</v>
       </c>
       <c r="P9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Benedict' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Benedict.jpg'&gt;&lt;/td&gt;&lt;td&gt;Benedict&lt;/td&gt;&lt;td&gt;貝內迪特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Benedict_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Benedict_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Benedict_rank' value='3'&gt;3 &lt;input type='radio' name='Benedict_rank' value='4'&gt;4 &lt;input type='radio' name='Benedict_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Benedict_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Benedict_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Benedict' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Benedict.jpg'&gt;&lt;/td&gt;&lt;td&gt;Benedict&lt;/td&gt;&lt;td&gt;貝內迪特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Benedict_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Benedict_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Benedict_rank' value='3'&gt;3 &lt;input type='radio' name='Benedict_rank' value='4'&gt;4 &lt;input type='radio' name='Benedict_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Benedict_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Benedict_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1683,7 +1683,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f>LEFT(A10,(FIND(".",A10,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Bertrand</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1705,7 +1705,7 @@
         <v>130</v>
       </c>
       <c r="I10" s="3" t="str">
-        <f>IF(AND(G10="Y",H10="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -1715,8 +1715,8 @@
         <v>158</v>
       </c>
       <c r="P10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Bertrand' class='Light'&gt;&lt;td&gt;&lt;img src='img/Bertrand.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bertrand&lt;/td&gt;&lt;td&gt;貝特朗 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bertrand_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bertrand_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bertrand_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Bertrand_rank' value='4'&gt;4 &lt;input type='radio' name='Bertrand_rank' value='5'&gt;5 &lt;input type='radio' name='Bertrand_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Bertrand_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Bertrand' class='Light'&gt;&lt;td&gt;&lt;img src='img/Bertrand.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bertrand&lt;/td&gt;&lt;td&gt;貝特朗 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bertrand_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bertrand_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bertrand_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Bertrand_rank' value='4'&gt;4 &lt;input type='radio' name='Bertrand_rank' value='5'&gt;5 &lt;input type='radio' name='Bertrand_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Bertrand_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1724,7 +1724,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f>LEFT(A11,(FIND(".",A11,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Biaka</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1746,7 +1746,7 @@
         <v>130</v>
       </c>
       <c r="I11" s="3" t="str">
-        <f>IF(AND(G11="Y",H11="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -1756,8 +1756,8 @@
         <v>139</v>
       </c>
       <c r="P11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Biaka' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Biaka.jpg'&gt;&lt;/td&gt;&lt;td&gt;Biaka&lt;/td&gt;&lt;td&gt;維婭卡 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Biaka_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Biaka_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Biaka_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Biaka_rank' value='4'&gt;4 &lt;input type='radio' name='Biaka_rank' value='5'&gt;5 &lt;input type='radio' name='Biaka_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Biaka_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Biaka' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Biaka.jpg'&gt;&lt;/td&gt;&lt;td&gt;Biaka&lt;/td&gt;&lt;td&gt;維婭卡 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Biaka_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Biaka_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Biaka_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Biaka_rank' value='4'&gt;4 &lt;input type='radio' name='Biaka_rank' value='5'&gt;5 &lt;input type='radio' name='Biaka_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Biaka_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1765,7 +1765,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f>LEFT(A12,(FIND(".",A12,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Bivette</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1787,15 +1787,15 @@
         <v>130</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f>IF(AND(G12="Y",H12="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>148</v>
       </c>
       <c r="P12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Bivette' class='Light'&gt;&lt;td&gt;&lt;img src='img/Bivette.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bivette&lt;/td&gt;&lt;td&gt;碧薇特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bivette_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bivette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bivette_rank' value='3'&gt;3 &lt;input type='radio' name='Bivette_rank' value='4'&gt;4 &lt;input type='radio' name='Bivette_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Bivette_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Bivette_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Bivette' class='Light'&gt;&lt;td&gt;&lt;img src='img/Bivette.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bivette&lt;/td&gt;&lt;td&gt;碧薇特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bivette_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bivette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bivette_rank' value='3'&gt;3 &lt;input type='radio' name='Bivette_rank' value='4'&gt;4 &lt;input type='radio' name='Bivette_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Bivette_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Bivette_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1803,7 +1803,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f>LEFT(A13,(FIND(".",A13,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Breeno</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1825,7 +1825,7 @@
         <v>130</v>
       </c>
       <c r="I13" s="3" t="str">
-        <f>IF(AND(G13="Y",H13="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -1835,8 +1835,8 @@
         <v>157</v>
       </c>
       <c r="P13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Breeno' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Breeno.jpg'&gt;&lt;/td&gt;&lt;td&gt;Breeno&lt;/td&gt;&lt;td&gt;布里諾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Breeno_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Breeno_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Breeno_rank' value='3'&gt;3 &lt;input type='radio' name='Breeno_rank' value='4'&gt;4 &lt;input type='radio' name='Breeno_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Breeno_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Breeno_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Breeno' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Breeno.jpg'&gt;&lt;/td&gt;&lt;td&gt;Breeno&lt;/td&gt;&lt;td&gt;布里諾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Breeno_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Breeno_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Breeno_rank' value='3'&gt;3 &lt;input type='radio' name='Breeno_rank' value='4'&gt;4 &lt;input type='radio' name='Breeno_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Breeno_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Breeno_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1844,7 +1844,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f>LEFT(A14,(FIND(".",A14,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Bria</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1866,7 +1866,7 @@
         <v>130</v>
       </c>
       <c r="I14" s="3" t="str">
-        <f>IF(AND(G14="Y",H14="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -1876,8 +1876,8 @@
         <v>152</v>
       </c>
       <c r="P14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Bria' class='Light'&gt;&lt;td&gt;&lt;img src='img/Bria.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bria&lt;/td&gt;&lt;td&gt;布利亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bria_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bria_rank' value='3'&gt;3 &lt;input type='radio' name='Bria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Bria_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Bria_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Bria_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Bria' class='Light'&gt;&lt;td&gt;&lt;img src='img/Bria.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bria&lt;/td&gt;&lt;td&gt;布利亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bria_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bria_rank' value='3'&gt;3 &lt;input type='radio' name='Bria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Bria_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Bria_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Bria_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1885,7 +1885,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f>LEFT(A15,(FIND(".",A15,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Cerrine</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1907,7 +1907,7 @@
         <v>130</v>
       </c>
       <c r="I15" s="3" t="str">
-        <f>IF(AND(G15="Y",H15="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -1920,8 +1920,8 @@
         <v>159</v>
       </c>
       <c r="P15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Cerrine' class='Light'&gt;&lt;td&gt;&lt;img src='img/Cerrine.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cerrine&lt;/td&gt;&lt;td&gt;思琳&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cerrine_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cerrine_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cerrine_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Cerrine_rank' value='4'&gt;4 &lt;input type='radio' name='Cerrine_rank' value='5'&gt;5 &lt;input type='radio' name='Cerrine_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cerrine_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Cerrine' class='Light'&gt;&lt;td&gt;&lt;img src='img/Cerrine.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cerrine&lt;/td&gt;&lt;td&gt;思琳&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cerrine_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cerrine_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cerrine_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Cerrine_rank' value='4'&gt;4 &lt;input type='radio' name='Cerrine_rank' value='5'&gt;5 &lt;input type='radio' name='Cerrine_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cerrine_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1929,7 +1929,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f>LEFT(A16,(FIND(".",A16,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Cetie</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1951,7 +1951,7 @@
         <v>131</v>
       </c>
       <c r="I16" s="3" t="str">
-        <f>IF(AND(G16="Y",H16="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -1964,8 +1964,8 @@
         <v>150</v>
       </c>
       <c r="P16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Cetie' class='Light'&gt;&lt;td&gt;&lt;img src='img/Cetie.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cetie&lt;/td&gt;&lt;td&gt;謝提&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cetie_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cetie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cetie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Cetie_rank' value='4'&gt;4 &lt;input type='radio' name='Cetie_rank' value='5'&gt;5 &lt;input type='radio' name='Cetie_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cetie_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Cetie' class='Light'&gt;&lt;td&gt;&lt;img src='img/Cetie.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cetie&lt;/td&gt;&lt;td&gt;謝提&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cetie_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cetie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cetie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Cetie_rank' value='4'&gt;4 &lt;input type='radio' name='Cetie_rank' value='5'&gt;5 &lt;input type='radio' name='Cetie_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cetie_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1973,7 +1973,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f>LEFT(A17,(FIND(".",A17,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Chiyo</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1995,15 +1995,15 @@
         <v>130</v>
       </c>
       <c r="I17" s="3" t="str">
-        <f>IF(AND(G17="Y",H17="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>156</v>
       </c>
       <c r="P17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Chiyo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Chiyo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Chiyo&lt;/td&gt;&lt;td&gt;千代&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Chiyo_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Chiyo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Chiyo_rank' value='3'&gt;3 &lt;input type='radio' name='Chiyo_rank' value='4'&gt;4 &lt;input type='radio' name='Chiyo_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Chiyo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Chiyo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Chiyo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Chiyo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Chiyo&lt;/td&gt;&lt;td&gt;千代&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Chiyo_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Chiyo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Chiyo_rank' value='3'&gt;3 &lt;input type='radio' name='Chiyo_rank' value='4'&gt;4 &lt;input type='radio' name='Chiyo_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Chiyo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Chiyo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -2011,7 +2011,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>LEFT(A18,(FIND(".",A18,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Ciel</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2033,7 +2033,7 @@
         <v>131</v>
       </c>
       <c r="I18" s="3" t="str">
-        <f>IF(AND(G18="Y",H18="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K18" s="2" t="s">
@@ -2043,8 +2043,8 @@
         <v>158</v>
       </c>
       <c r="P18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Ciel' class='Light'&gt;&lt;td&gt;&lt;img src='img/Ciel.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ciel&lt;/td&gt;&lt;td&gt;西雅爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ciel_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ciel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ciel_rank' value='3'&gt;3 &lt;input type='radio' name='Ciel_rank' value='4'&gt;4 &lt;input type='radio' name='Ciel_rank' value='5'&gt;5 &lt;input type='radio' name='Ciel_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ciel_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Ciel' class='Light'&gt;&lt;td&gt;&lt;img src='img/Ciel.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ciel&lt;/td&gt;&lt;td&gt;西雅爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ciel_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ciel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ciel_rank' value='3'&gt;3 &lt;input type='radio' name='Ciel_rank' value='4'&gt;4 &lt;input type='radio' name='Ciel_rank' value='5'&gt;5 &lt;input type='radio' name='Ciel_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ciel_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -2052,7 +2052,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f>LEFT(A19,(FIND(".",A19,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Claude</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2074,7 +2074,7 @@
         <v>129</v>
       </c>
       <c r="I19" s="3" t="str">
-        <f>IF(AND(G19="Y",H19="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="K19" s="2" t="s">
@@ -2087,8 +2087,8 @@
         <v>189</v>
       </c>
       <c r="P19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Claude' class='Light'&gt;&lt;td&gt;&lt;img src='img/Claude.jpg'&gt;&lt;img src='img/Claude_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Claude&lt;/td&gt;&lt;td&gt;克勞特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Claude_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Claude_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Claude_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Claude_rank' value='4'&gt;4 &lt;input type='radio' name='Claude_rank' value='5'&gt;5 &lt;input type='radio' name='Claude_rank' value='AS'&gt;AS &lt;input type='radio' name='Claude_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Claude' class='Light'&gt;&lt;td&gt;&lt;img src='img/Claude.jpg'&gt;&lt;img src='img/Claude_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Claude&lt;/td&gt;&lt;td&gt;克勞特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Claude_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Claude_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Claude_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Claude_rank' value='4'&gt;4 &lt;input type='radio' name='Claude_rank' value='5'&gt;5 &lt;input type='radio' name='Claude_rank' value='AS'&gt;AS &lt;input type='radio' name='Claude_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -2096,7 +2096,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f>LEFT(A20,(FIND(".",A20,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Ctos</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2118,15 +2118,15 @@
         <v>130</v>
       </c>
       <c r="I20" s="3" t="str">
-        <f>IF(AND(G20="Y",H20="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>133</v>
       </c>
       <c r="P20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Ctos' class='Light'&gt;&lt;td&gt;&lt;img src='img/Ctos.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ctos&lt;/td&gt;&lt;td&gt;古拓斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ctos_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ctos_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ctos_rank' value='3'&gt;3 &lt;input type='radio' name='Ctos_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Ctos_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Ctos_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ctos_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Ctos' class='Light'&gt;&lt;td&gt;&lt;img src='img/Ctos.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ctos&lt;/td&gt;&lt;td&gt;古拓斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ctos_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ctos_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ctos_rank' value='3'&gt;3 &lt;input type='radio' name='Ctos_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Ctos_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Ctos_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ctos_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -2134,7 +2134,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f>LEFT(A21,(FIND(".",A21,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Cyrus</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2156,7 +2156,7 @@
         <v>130</v>
       </c>
       <c r="I21" s="3" t="str">
-        <f>IF(AND(G21="Y",H21="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K21" s="2" t="s">
@@ -2169,8 +2169,8 @@
         <v>141</v>
       </c>
       <c r="P21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Cyrus' class='Light'&gt;&lt;td&gt;&lt;img src='img/Cyrus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cyrus&lt;/td&gt;&lt;td&gt;賽勒斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cyrus_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cyrus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cyrus_rank' value='3'&gt;3 &lt;input type='radio' name='Cyrus_rank' value='4'&gt;4 &lt;input type='radio' name='Cyrus_rank' value='5'&gt;5 &lt;input type='radio' name='Cyrus_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cyrus_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Cyrus' class='Light'&gt;&lt;td&gt;&lt;img src='img/Cyrus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cyrus&lt;/td&gt;&lt;td&gt;賽勒斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cyrus_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cyrus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cyrus_rank' value='3'&gt;3 &lt;input type='radio' name='Cyrus_rank' value='4'&gt;4 &lt;input type='radio' name='Cyrus_rank' value='5'&gt;5 &lt;input type='radio' name='Cyrus_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cyrus_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -2178,7 +2178,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f>LEFT(A22,(FIND(".",A22,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Cyuca</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2200,7 +2200,7 @@
         <v>130</v>
       </c>
       <c r="I22" s="3" t="str">
-        <f>IF(AND(G22="Y",H22="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K22" s="2" t="s">
@@ -2210,8 +2210,8 @@
         <v>145</v>
       </c>
       <c r="P22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Cyuca' class='Light'&gt;&lt;td&gt;&lt;img src='img/Cyuca.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cyuca&lt;/td&gt;&lt;td&gt;喬卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cyuca_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cyuca_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cyuca_rank' value='3'&gt;3 &lt;input type='radio' name='Cyuca_rank' value='4'&gt;4 &lt;input type='radio' name='Cyuca_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Cyuca_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cyuca_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Cyuca' class='Light'&gt;&lt;td&gt;&lt;img src='img/Cyuca.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cyuca&lt;/td&gt;&lt;td&gt;喬卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cyuca_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cyuca_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cyuca_rank' value='3'&gt;3 &lt;input type='radio' name='Cyuca_rank' value='4'&gt;4 &lt;input type='radio' name='Cyuca_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Cyuca_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cyuca_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2219,7 +2219,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f>LEFT(A23,(FIND(".",A23,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Darunis</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2241,7 +2241,7 @@
         <v>130</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f>IF(AND(G23="Y",H23="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K23" s="2" t="s">
@@ -2251,8 +2251,8 @@
         <v>155</v>
       </c>
       <c r="P23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Darunis' class='Light'&gt;&lt;td&gt;&lt;img src='img/Darunis.jpg'&gt;&lt;/td&gt;&lt;td&gt;Darunis&lt;/td&gt;&lt;td&gt;達爾尼思&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Darunis_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Darunis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Darunis_rank' value='3'&gt;3 &lt;input type='radio' name='Darunis_rank' value='4'&gt;4 &lt;input type='radio' name='Darunis_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Darunis_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Darunis_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Darunis' class='Light'&gt;&lt;td&gt;&lt;img src='img/Darunis.jpg'&gt;&lt;/td&gt;&lt;td&gt;Darunis&lt;/td&gt;&lt;td&gt;達爾尼思&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Darunis_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Darunis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Darunis_rank' value='3'&gt;3 &lt;input type='radio' name='Darunis_rank' value='4'&gt;4 &lt;input type='radio' name='Darunis_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Darunis_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Darunis_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2260,7 +2260,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f>LEFT(A24,(FIND(".",A24,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Deirdre</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2282,7 +2282,7 @@
         <v>130</v>
       </c>
       <c r="I24" s="3" t="str">
-        <f>IF(AND(G24="Y",H24="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K24" s="2" t="s">
@@ -2292,8 +2292,8 @@
         <v>157</v>
       </c>
       <c r="P24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Deirdre' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Deirdre.jpg'&gt;&lt;/td&gt;&lt;td&gt;Deirdre&lt;/td&gt;&lt;td&gt;蒂亞朵拉 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Deirdre_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Deirdre_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Deirdre_rank' value='3'&gt;3 &lt;input type='radio' name='Deirdre_rank' value='4'&gt;4 &lt;input type='radio' name='Deirdre_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Deirdre_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Deirdre_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Deirdre' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Deirdre.jpg'&gt;&lt;/td&gt;&lt;td&gt;Deirdre&lt;/td&gt;&lt;td&gt;蒂亞朵拉 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Deirdre_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Deirdre_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Deirdre_rank' value='3'&gt;3 &lt;input type='radio' name='Deirdre_rank' value='4'&gt;4 &lt;input type='radio' name='Deirdre_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Deirdre_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Deirdre_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2301,7 +2301,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f>LEFT(A25,(FIND(".",A25,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Denny</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2323,7 +2323,7 @@
         <v>130</v>
       </c>
       <c r="I25" s="3" t="str">
-        <f>IF(AND(G25="Y",H25="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K25" s="2" t="s">
@@ -2333,8 +2333,8 @@
         <v>141</v>
       </c>
       <c r="P25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Denny' class='Light'&gt;&lt;td&gt;&lt;img src='img/Denny.jpg'&gt;&lt;/td&gt;&lt;td&gt;Denny&lt;/td&gt;&lt;td&gt;丹尼 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Denny_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Denny_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Denny_rank' value='3'&gt;3 &lt;input type='radio' name='Denny_rank' value='4'&gt;4 &lt;input type='radio' name='Denny_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Denny_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Denny_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Denny' class='Light'&gt;&lt;td&gt;&lt;img src='img/Denny.jpg'&gt;&lt;/td&gt;&lt;td&gt;Denny&lt;/td&gt;&lt;td&gt;丹尼 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Denny_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Denny_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Denny_rank' value='3'&gt;3 &lt;input type='radio' name='Denny_rank' value='4'&gt;4 &lt;input type='radio' name='Denny_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Denny_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Denny_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2342,7 +2342,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f>LEFT(A26,(FIND(".",A26,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Dewey</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2364,7 +2364,7 @@
         <v>130</v>
       </c>
       <c r="I26" s="3" t="str">
-        <f>IF(AND(G26="Y",H26="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K26" s="2" t="s">
@@ -2374,8 +2374,8 @@
         <v>153</v>
       </c>
       <c r="P26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Dewey' class='Light'&gt;&lt;td&gt;&lt;img src='img/Dewey.jpg'&gt;&lt;/td&gt;&lt;td&gt;Dewey&lt;/td&gt;&lt;td&gt;杜伊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Dewey_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Dewey_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Dewey_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Dewey_rank' value='4'&gt;4 &lt;input type='radio' name='Dewey_rank' value='5'&gt;5 &lt;input type='radio' name='Dewey_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Dewey_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Dewey' class='Light'&gt;&lt;td&gt;&lt;img src='img/Dewey.jpg'&gt;&lt;/td&gt;&lt;td&gt;Dewey&lt;/td&gt;&lt;td&gt;杜伊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Dewey_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Dewey_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Dewey_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Dewey_rank' value='4'&gt;4 &lt;input type='radio' name='Dewey_rank' value='5'&gt;5 &lt;input type='radio' name='Dewey_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Dewey_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2383,7 +2383,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f>LEFT(A27,(FIND(".",A27,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Dunarith</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2405,7 +2405,7 @@
         <v>130</v>
       </c>
       <c r="I27" s="3" t="str">
-        <f>IF(AND(G27="Y",H27="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K27" s="2" t="s">
@@ -2415,8 +2415,8 @@
         <v>145</v>
       </c>
       <c r="P27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Dunarith' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Dunarith.jpg'&gt;&lt;/td&gt;&lt;td&gt;Dunarith&lt;/td&gt;&lt;td&gt;杜拿利斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Dunarith_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Dunarith_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Dunarith_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Dunarith_rank' value='4'&gt;4 &lt;input type='radio' name='Dunarith_rank' value='5'&gt;5 &lt;input type='radio' name='Dunarith_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Dunarith_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Dunarith' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Dunarith.jpg'&gt;&lt;/td&gt;&lt;td&gt;Dunarith&lt;/td&gt;&lt;td&gt;杜拿利斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Dunarith_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Dunarith_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Dunarith_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Dunarith_rank' value='4'&gt;4 &lt;input type='radio' name='Dunarith_rank' value='5'&gt;5 &lt;input type='radio' name='Dunarith_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Dunarith_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2424,7 +2424,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f>LEFT(A28,(FIND(".",A28,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Een</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2446,15 +2446,15 @@
         <v>130</v>
       </c>
       <c r="I28" s="3" t="str">
-        <f>IF(AND(G28="Y",H28="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>144</v>
       </c>
       <c r="P28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Een' class='Light'&gt;&lt;td&gt;&lt;img src='img/Een.jpg'&gt;&lt;/td&gt;&lt;td&gt;Een&lt;/td&gt;&lt;td&gt;伊因&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Een_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Een_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Een_rank' value='3'&gt;3 &lt;input type='radio' name='Een_rank' value='4'&gt;4 &lt;input type='radio' name='Een_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Een_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Een_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Een' class='Light'&gt;&lt;td&gt;&lt;img src='img/Een.jpg'&gt;&lt;/td&gt;&lt;td&gt;Een&lt;/td&gt;&lt;td&gt;伊因&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Een_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Een_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Een_rank' value='3'&gt;3 &lt;input type='radio' name='Een_rank' value='4'&gt;4 &lt;input type='radio' name='Een_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Een_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Een_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2462,7 +2462,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f>LEFT(A29,(FIND(".",A29,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Elga</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2484,7 +2484,7 @@
         <v>130</v>
       </c>
       <c r="I29" s="3" t="str">
-        <f>IF(AND(G29="Y",H29="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K29" s="2" t="s">
@@ -2494,8 +2494,8 @@
         <v>157</v>
       </c>
       <c r="P29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Elga' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Elga.jpg'&gt;&lt;/td&gt;&lt;td&gt;Elga&lt;/td&gt;&lt;td&gt;艾露嘉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Elga_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Elga_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Elga_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Elga_rank' value='4'&gt;4 &lt;input type='radio' name='Elga_rank' value='5'&gt;5 &lt;input type='radio' name='Elga_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Elga_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Elga' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Elga.jpg'&gt;&lt;/td&gt;&lt;td&gt;Elga&lt;/td&gt;&lt;td&gt;艾露嘉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Elga_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Elga_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Elga_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Elga_rank' value='4'&gt;4 &lt;input type='radio' name='Elga_rank' value='5'&gt;5 &lt;input type='radio' name='Elga_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Elga_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2503,7 +2503,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f>LEFT(A30,(FIND(".",A30,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Emms</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2525,15 +2525,15 @@
         <v>130</v>
       </c>
       <c r="I30" s="3" t="str">
-        <f>IF(AND(G30="Y",H30="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>133</v>
       </c>
       <c r="P30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Emms' class='Light'&gt;&lt;td&gt;&lt;img src='img/Emms.jpg'&gt;&lt;/td&gt;&lt;td&gt;Emms&lt;/td&gt;&lt;td&gt;艾姆斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Emms_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Emms_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Emms_rank' value='3'&gt;3 &lt;input type='radio' name='Emms_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Emms_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Emms_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Emms_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Emms' class='Light'&gt;&lt;td&gt;&lt;img src='img/Emms.jpg'&gt;&lt;/td&gt;&lt;td&gt;Emms&lt;/td&gt;&lt;td&gt;艾姆斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Emms_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Emms_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Emms_rank' value='3'&gt;3 &lt;input type='radio' name='Emms_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Emms_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Emms_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Emms_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2541,7 +2541,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="1" t="str">
-        <f>LEFT(A31,(FIND(".",A31,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Erina</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2563,15 +2563,15 @@
         <v>130</v>
       </c>
       <c r="I31" s="3" t="str">
-        <f>IF(AND(G31="Y",H31="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>132</v>
       </c>
       <c r="P31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Erina' class='Light'&gt;&lt;td&gt;&lt;img src='img/Erina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Erina&lt;/td&gt;&lt;td&gt;艾莉娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Erina_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Erina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Erina_rank' value='3'&gt;3 &lt;input type='radio' name='Erina_rank' value='4'&gt;4 &lt;input type='radio' name='Erina_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Erina_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Erina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Erina' class='Light'&gt;&lt;td&gt;&lt;img src='img/Erina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Erina&lt;/td&gt;&lt;td&gt;艾莉娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Erina_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Erina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Erina_rank' value='3'&gt;3 &lt;input type='radio' name='Erina_rank' value='4'&gt;4 &lt;input type='radio' name='Erina_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Erina_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Erina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -2579,7 +2579,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f>LEFT(A32,(FIND(".",A32,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Esta</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2601,15 +2601,15 @@
         <v>130</v>
       </c>
       <c r="I32" s="3" t="str">
-        <f>IF(AND(G32="Y",H32="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>135</v>
       </c>
       <c r="P32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Esta' class='Light'&gt;&lt;td&gt;&lt;img src='img/Esta.jpg'&gt;&lt;/td&gt;&lt;td&gt;Esta&lt;/td&gt;&lt;td&gt;艾斯塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Esta_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Esta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Esta_rank' value='3'&gt;3 &lt;input type='radio' name='Esta_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Esta_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Esta_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Esta_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Esta' class='Light'&gt;&lt;td&gt;&lt;img src='img/Esta.jpg'&gt;&lt;/td&gt;&lt;td&gt;Esta&lt;/td&gt;&lt;td&gt;艾斯塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Esta_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Esta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Esta_rank' value='3'&gt;3 &lt;input type='radio' name='Esta_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Esta_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Esta_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Esta_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -2617,7 +2617,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f>LEFT(A33,(FIND(".",A33,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Ewan</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2639,7 +2639,7 @@
         <v>130</v>
       </c>
       <c r="I33" s="3" t="str">
-        <f>IF(AND(G33="Y",H33="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K33" s="2" t="s">
@@ -2649,8 +2649,8 @@
         <v>150</v>
       </c>
       <c r="P33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Ewan' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Ewan.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ewan&lt;/td&gt;&lt;td&gt;尤因&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ewan_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ewan_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ewan_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Ewan_rank' value='4'&gt;4 &lt;input type='radio' name='Ewan_rank' value='5'&gt;5 &lt;input type='radio' name='Ewan_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ewan_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Ewan' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Ewan.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ewan&lt;/td&gt;&lt;td&gt;尤因&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ewan_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ewan_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ewan_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Ewan_rank' value='4'&gt;4 &lt;input type='radio' name='Ewan_rank' value='5'&gt;5 &lt;input type='radio' name='Ewan_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ewan_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -2658,7 +2658,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f>LEFT(A34,(FIND(".",A34,1)-1))</f>
+        <f t="shared" ref="B34:B65" si="3">LEFT(A34,(FIND(".",A34,1)-1))</f>
         <v>Feinne</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2680,15 +2680,15 @@
         <v>130</v>
       </c>
       <c r="I34" s="3" t="str">
-        <f>IF(AND(G34="Y",H34="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>132</v>
       </c>
       <c r="P34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Feinne' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Feinne.jpg'&gt;&lt;/td&gt;&lt;td&gt;Feinne&lt;/td&gt;&lt;td&gt;菲妮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Feinne_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Feinne_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Feinne_rank' value='3'&gt;3 &lt;input type='radio' name='Feinne_rank' value='4'&gt;4 &lt;input type='radio' name='Feinne_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Feinne_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Feinne_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Feinne' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Feinne.jpg'&gt;&lt;/td&gt;&lt;td&gt;Feinne&lt;/td&gt;&lt;td&gt;菲妮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Feinne_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Feinne_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Feinne_rank' value='3'&gt;3 &lt;input type='radio' name='Feinne_rank' value='4'&gt;4 &lt;input type='radio' name='Feinne_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Feinne_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Feinne_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -2696,7 +2696,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f>LEFT(A35,(FIND(".",A35,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Felmina</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2718,7 +2718,7 @@
         <v>131</v>
       </c>
       <c r="I35" s="3" t="str">
-        <f>IF(AND(G35="Y",H35="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K35" s="2" t="s">
@@ -2734,8 +2734,8 @@
         <v>139</v>
       </c>
       <c r="P35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Felmina' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Felmina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Felmina&lt;/td&gt;&lt;td&gt;菲露米娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Felmina_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Felmina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Felmina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Felmina_rank' value='4'&gt;4 &lt;input type='radio' name='Felmina_rank' value='5'&gt;5 &lt;input type='radio' name='Felmina_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Felmina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Felmina' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Felmina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Felmina&lt;/td&gt;&lt;td&gt;菲露米娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Felmina_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Felmina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Felmina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Felmina_rank' value='4'&gt;4 &lt;input type='radio' name='Felmina_rank' value='5'&gt;5 &lt;input type='radio' name='Felmina_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Felmina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -2743,7 +2743,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f>LEFT(A36,(FIND(".",A36,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Foran</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2765,7 +2765,7 @@
         <v>131</v>
       </c>
       <c r="I36" s="3" t="str">
-        <f>IF(AND(G36="Y",H36="Y"),"Y","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K36" s="2" t="s">
@@ -2775,8 +2775,8 @@
         <v>152</v>
       </c>
       <c r="P36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Foran' class='Light'&gt;&lt;td&gt;&lt;img src='img/Foran.jpg'&gt;&lt;/td&gt;&lt;td&gt;Foran&lt;/td&gt;&lt;td&gt;芙朗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Foran_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Foran_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Foran_rank' value='3'&gt;3 &lt;input type='radio' name='Foran_rank' value='4'&gt;4 &lt;input type='radio' name='Foran_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Foran_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Foran_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Foran' class='Light'&gt;&lt;td&gt;&lt;img src='img/Foran.jpg'&gt;&lt;/td&gt;&lt;td&gt;Foran&lt;/td&gt;&lt;td&gt;芙朗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Foran_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Foran_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Foran_rank' value='3'&gt;3 &lt;input type='radio' name='Foran_rank' value='4'&gt;4 &lt;input type='radio' name='Foran_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Foran_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Foran_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -2784,7 +2784,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f>LEFT(A37,(FIND(".",A37,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Galliard</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2806,7 +2806,7 @@
         <v>130</v>
       </c>
       <c r="I37" s="3" t="str">
-        <f>IF(AND(G37="Y",H37="Y"),"Y","N")</f>
+        <f t="shared" ref="I37:I68" si="4">IF(AND(G37="Y",H37="Y"),"Y","N")</f>
         <v>N</v>
       </c>
       <c r="K37" s="2" t="s">
@@ -2816,8 +2816,8 @@
         <v>158</v>
       </c>
       <c r="P37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Galliard' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Galliard.jpg'&gt;&lt;/td&gt;&lt;td&gt;Galliard&lt;/td&gt;&lt;td&gt;嘉里德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Galliard_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Galliard_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Galliard_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Galliard_rank' value='4'&gt;4 &lt;input type='radio' name='Galliard_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Galliard_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Galliard_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Galliard' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Galliard.jpg'&gt;&lt;/td&gt;&lt;td&gt;Galliard&lt;/td&gt;&lt;td&gt;嘉里德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Galliard_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Galliard_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Galliard_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Galliard_rank' value='4'&gt;4 &lt;input type='radio' name='Galliard_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Galliard_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Galliard_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -2825,7 +2825,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f>LEFT(A38,(FIND(".",A38,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Gariyu</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2847,7 +2847,7 @@
         <v>129</v>
       </c>
       <c r="I38" s="3" t="str">
-        <f>IF(AND(G38="Y",H38="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K38" s="2" t="s">
@@ -2857,8 +2857,8 @@
         <v>187</v>
       </c>
       <c r="P38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Gariyu' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Gariyu.jpg'&gt;&lt;img src='img/Gariyu_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Gariyu&lt;/td&gt;&lt;td&gt;伽琉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;img src='img/type/fire_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Gariyu_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Gariyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Gariyu_rank' value='3'&gt;3 &lt;input type='radio' name='Gariyu_rank' value='4'&gt;4 &lt;input type='radio' name='Gariyu_rank' value='5'&gt;5 &lt;input type='radio' name='Gariyu_rank' value='AS'&gt;AS &lt;input type='radio' name='Gariyu_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Gariyu' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Gariyu.jpg'&gt;&lt;img src='img/Gariyu_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Gariyu&lt;/td&gt;&lt;td&gt;伽琉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;img src='img/type/fire_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Gariyu_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Gariyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Gariyu_rank' value='3'&gt;3 &lt;input type='radio' name='Gariyu_rank' value='4'&gt;4 &lt;input type='radio' name='Gariyu_rank' value='5'&gt;5 &lt;input type='radio' name='Gariyu_rank' value='AS'&gt;AS &lt;input type='radio' name='Gariyu_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -2866,7 +2866,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="1" t="str">
-        <f>LEFT(A39,(FIND(".",A39,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Good Macky</v>
       </c>
       <c r="C39" t="s">
@@ -2888,7 +2888,7 @@
         <v>130</v>
       </c>
       <c r="I39" s="3" t="str">
-        <f>IF(AND(G39="Y",H39="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K39" s="2" t="s">
@@ -2898,8 +2898,8 @@
         <v>139</v>
       </c>
       <c r="P39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Good Macky' class='Light'&gt;&lt;td&gt;&lt;img src='img/Good Macky.jpg'&gt;&lt;/td&gt;&lt;td&gt;Good Macky&lt;/td&gt;&lt;td&gt;善良的米可麥克&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Good Macky_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Good Macky_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Good Macky_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Good Macky_rank' value='4'&gt;4 &lt;input type='radio' name='Good Macky_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Good Macky_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Good Macky_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Good Macky' class='Light'&gt;&lt;td&gt;&lt;img src='img/Good Macky.jpg'&gt;&lt;/td&gt;&lt;td&gt;Good Macky&lt;/td&gt;&lt;td&gt;善良的米可麥克&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Good Macky_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Good Macky_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Good Macky_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Good Macky_rank' value='4'&gt;4 &lt;input type='radio' name='Good Macky_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Good Macky_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Good Macky_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -2907,7 +2907,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f>LEFT(A40,(FIND(".",A40,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Guildna</v>
       </c>
       <c r="C40" t="s">
@@ -2929,7 +2929,7 @@
         <v>130</v>
       </c>
       <c r="I40" s="3" t="str">
-        <f>IF(AND(G40="Y",H40="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K40" s="2" t="s">
@@ -2939,8 +2939,8 @@
         <v>136</v>
       </c>
       <c r="P40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Guildna' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Guildna.jpg'&gt;&lt;/td&gt;&lt;td&gt;Guildna&lt;/td&gt;&lt;td&gt;基爾德那&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Guildna_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Guildna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Guildna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Guildna_rank' value='4'&gt;4 &lt;input type='radio' name='Guildna_rank' value='5'&gt;5 &lt;input type='radio' name='Guildna_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Guildna_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Guildna' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Guildna.jpg'&gt;&lt;/td&gt;&lt;td&gt;Guildna&lt;/td&gt;&lt;td&gt;基爾德那&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Guildna_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Guildna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Guildna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Guildna_rank' value='4'&gt;4 &lt;input type='radio' name='Guildna_rank' value='5'&gt;5 &lt;input type='radio' name='Guildna_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Guildna_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -2948,7 +2948,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f>LEFT(A41,(FIND(".",A41,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Helena</v>
       </c>
       <c r="C41" t="s">
@@ -2970,7 +2970,7 @@
         <v>130</v>
       </c>
       <c r="I41" s="3" t="str">
-        <f>IF(AND(G41="Y",H41="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K41" s="2" t="s">
@@ -2980,8 +2980,8 @@
         <v>156</v>
       </c>
       <c r="P41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Helena' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Helena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Helena&lt;/td&gt;&lt;td&gt;海蕾娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Helena_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Helena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Helena_rank' value='3'&gt;3 &lt;input type='radio' name='Helena_rank' value='4'&gt;4 &lt;input type='radio' name='Helena_rank' value='5'&gt;5 &lt;input type='radio' name='Helena_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Helena_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Helena' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Helena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Helena&lt;/td&gt;&lt;td&gt;海蕾娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Helena_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Helena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Helena_rank' value='3'&gt;3 &lt;input type='radio' name='Helena_rank' value='4'&gt;4 &lt;input type='radio' name='Helena_rank' value='5'&gt;5 &lt;input type='radio' name='Helena_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Helena_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -2989,7 +2989,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="1" t="str">
-        <f>LEFT(A42,(FIND(".",A42,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Hismena</v>
       </c>
       <c r="C42" t="s">
@@ -3011,7 +3011,7 @@
         <v>130</v>
       </c>
       <c r="I42" s="3" t="str">
-        <f>IF(AND(G42="Y",H42="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K42" s="2" t="s">
@@ -3021,8 +3021,8 @@
         <v>152</v>
       </c>
       <c r="P42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Hismena' class='Light'&gt;&lt;td&gt;&lt;img src='img/Hismena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Hismena&lt;/td&gt;&lt;td&gt;希斯梅娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Hismena_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Hismena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Hismena_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Hismena_rank' value='4'&gt;4 &lt;input type='radio' name='Hismena_rank' value='5'&gt;5 &lt;input type='radio' name='Hismena_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Hismena_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Hismena' class='Light'&gt;&lt;td&gt;&lt;img src='img/Hismena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Hismena&lt;/td&gt;&lt;td&gt;希斯梅娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Hismena_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Hismena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Hismena_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Hismena_rank' value='4'&gt;4 &lt;input type='radio' name='Hismena_rank' value='5'&gt;5 &lt;input type='radio' name='Hismena_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Hismena_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -3030,7 +3030,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="1" t="str">
-        <f>LEFT(A43,(FIND(".",A43,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Hozuki</v>
       </c>
       <c r="C43" t="s">
@@ -3052,7 +3052,7 @@
         <v>130</v>
       </c>
       <c r="I43" s="3" t="str">
-        <f>IF(AND(G43="Y",H43="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K43" s="2" t="s">
@@ -3062,8 +3062,8 @@
         <v>149</v>
       </c>
       <c r="P43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Hozuki' class='Light'&gt;&lt;td&gt;&lt;img src='img/Hozuki.jpg'&gt;&lt;/td&gt;&lt;td&gt;Hozuki&lt;/td&gt;&lt;td&gt;皓月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Hozuki_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Hozuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Hozuki_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Hozuki_rank' value='4'&gt;4 &lt;input type='radio' name='Hozuki_rank' value='5'&gt;5 &lt;input type='radio' name='Hozuki_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Hozuki_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Hozuki' class='Light'&gt;&lt;td&gt;&lt;img src='img/Hozuki.jpg'&gt;&lt;/td&gt;&lt;td&gt;Hozuki&lt;/td&gt;&lt;td&gt;皓月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Hozuki_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Hozuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Hozuki_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Hozuki_rank' value='4'&gt;4 &lt;input type='radio' name='Hozuki_rank' value='5'&gt;5 &lt;input type='radio' name='Hozuki_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Hozuki_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -3071,7 +3071,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f>LEFT(A44,(FIND(".",A44,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Ilulu</v>
       </c>
       <c r="C44" t="s">
@@ -3093,7 +3093,7 @@
         <v>130</v>
       </c>
       <c r="I44" s="3" t="str">
-        <f>IF(AND(G44="Y",H44="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K44" s="2" t="s">
@@ -3103,8 +3103,8 @@
         <v>145</v>
       </c>
       <c r="P44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Ilulu' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Ilulu.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ilulu&lt;/td&gt;&lt;td&gt;伊露露&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ilulu_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ilulu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ilulu_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Ilulu_rank' value='4'&gt;4 &lt;input type='radio' name='Ilulu_rank' value='5'&gt;5 &lt;input type='radio' name='Ilulu_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ilulu_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Ilulu' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Ilulu.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ilulu&lt;/td&gt;&lt;td&gt;伊露露&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ilulu_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ilulu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ilulu_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Ilulu_rank' value='4'&gt;4 &lt;input type='radio' name='Ilulu_rank' value='5'&gt;5 &lt;input type='radio' name='Ilulu_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ilulu_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -3112,7 +3112,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="1" t="str">
-        <f>LEFT(A45,(FIND(".",A45,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Isuka</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -3134,7 +3134,7 @@
         <v>129</v>
       </c>
       <c r="I45" s="3" t="str">
-        <f>IF(AND(G45="Y",H45="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K45" s="2" t="s">
@@ -3144,8 +3144,8 @@
         <v>145</v>
       </c>
       <c r="P45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Isuka' class='Light'&gt;&lt;td&gt;&lt;img src='img/Isuka.jpg'&gt;&lt;img src='img/Isuka_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Isuka&lt;/td&gt;&lt;td&gt;伊絲卡 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Isuka_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Isuka_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Isuka_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Isuka_rank' value='4'&gt;4 &lt;input type='radio' name='Isuka_rank' value='5'&gt;5 &lt;input type='radio' name='Isuka_rank' value='AS'&gt;AS &lt;input type='radio' name='Isuka_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Isuka' class='Light'&gt;&lt;td&gt;&lt;img src='img/Isuka.jpg'&gt;&lt;img src='img/Isuka_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Isuka&lt;/td&gt;&lt;td&gt;伊絲卡 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Isuka_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Isuka_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Isuka_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Isuka_rank' value='4'&gt;4 &lt;input type='radio' name='Isuka_rank' value='5'&gt;5 &lt;input type='radio' name='Isuka_rank' value='AS'&gt;AS &lt;input type='radio' name='Isuka_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -3153,7 +3153,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="1" t="str">
-        <f>LEFT(A46,(FIND(".",A46,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Jade</v>
       </c>
       <c r="C46" t="s">
@@ -3175,7 +3175,7 @@
         <v>130</v>
       </c>
       <c r="I46" s="3" t="str">
-        <f>IF(AND(G46="Y",H46="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K46" s="2" t="s">
@@ -3185,8 +3185,8 @@
         <v>149</v>
       </c>
       <c r="P46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Jade' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Jade.jpg'&gt;&lt;/td&gt;&lt;td&gt;Jade&lt;/td&gt;&lt;td&gt;賈德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Jade_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Jade_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Jade_rank' value='3'&gt;3 &lt;input type='radio' name='Jade_rank' value='4'&gt;4 &lt;input type='radio' name='Jade_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Jade_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Jade_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Jade' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Jade.jpg'&gt;&lt;/td&gt;&lt;td&gt;Jade&lt;/td&gt;&lt;td&gt;賈德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Jade_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Jade_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Jade_rank' value='3'&gt;3 &lt;input type='radio' name='Jade_rank' value='4'&gt;4 &lt;input type='radio' name='Jade_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Jade_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Jade_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -3194,7 +3194,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="1" t="str">
-        <f>LEFT(A47,(FIND(".",A47,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Joker</v>
       </c>
       <c r="C47" t="s">
@@ -3216,7 +3216,7 @@
         <v>130</v>
       </c>
       <c r="I47" s="3" t="str">
-        <f>IF(AND(G47="Y",H47="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K47" s="2" t="s">
@@ -3229,8 +3229,8 @@
         <v>136</v>
       </c>
       <c r="P47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Joker' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Joker.jpg'&gt;&lt;/td&gt;&lt;td&gt;Joker&lt;/td&gt;&lt;td&gt;JOKER&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Joker_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Joker_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Joker_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Joker_rank' value='4'&gt;4 &lt;input type='radio' name='Joker_rank' value='5'&gt;5 &lt;input type='radio' name='Joker_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Joker_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Joker' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Joker.jpg'&gt;&lt;/td&gt;&lt;td&gt;Joker&lt;/td&gt;&lt;td&gt;JOKER&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Joker_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Joker_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Joker_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Joker_rank' value='4'&gt;4 &lt;input type='radio' name='Joker_rank' value='5'&gt;5 &lt;input type='radio' name='Joker_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Joker_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -3238,7 +3238,7 @@
         <v>276</v>
       </c>
       <c r="B48" s="1" t="str">
-        <f>LEFT(A48,(FIND(".",A48,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Kikyo</v>
       </c>
       <c r="C48" t="s">
@@ -3260,7 +3260,7 @@
         <v>130</v>
       </c>
       <c r="I48" s="3" t="str">
-        <f>IF(AND(G48="Y",H48="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K48" s="2" t="s">
@@ -3270,8 +3270,8 @@
         <v>145</v>
       </c>
       <c r="P48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Kikyo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Kikyo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Kikyo&lt;/td&gt;&lt;td&gt;桔梗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Kikyo_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Kikyo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Kikyo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Kikyo_rank' value='4'&gt;4 &lt;input type='radio' name='Kikyo_rank' value='5'&gt;5 &lt;input type='radio' name='Kikyo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Kikyo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Kikyo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Kikyo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Kikyo&lt;/td&gt;&lt;td&gt;桔梗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Kikyo_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Kikyo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Kikyo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Kikyo_rank' value='4'&gt;4 &lt;input type='radio' name='Kikyo_rank' value='5'&gt;5 &lt;input type='radio' name='Kikyo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Kikyo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -3279,7 +3279,7 @@
         <v>52</v>
       </c>
       <c r="B49" s="1" t="str">
-        <f>LEFT(A49,(FIND(".",A49,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Kilqia</v>
       </c>
       <c r="C49" t="s">
@@ -3301,15 +3301,15 @@
         <v>130</v>
       </c>
       <c r="I49" s="3" t="str">
-        <f>IF(AND(G49="Y",H49="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>132</v>
       </c>
       <c r="P49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Kilqia' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Kilqia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Kilqia&lt;/td&gt;&lt;td&gt;基露琪亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Kilqia_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Kilqia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Kilqia_rank' value='3'&gt;3 &lt;input type='radio' name='Kilqia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Kilqia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Kilqia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Kilqia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Kilqia' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Kilqia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Kilqia&lt;/td&gt;&lt;td&gt;基露琪亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Kilqia_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Kilqia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Kilqia_rank' value='3'&gt;3 &lt;input type='radio' name='Kilqia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Kilqia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Kilqia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Kilqia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -3317,7 +3317,7 @@
         <v>53</v>
       </c>
       <c r="B50" s="1" t="str">
-        <f>LEFT(A50,(FIND(".",A50,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Komachi</v>
       </c>
       <c r="C50" t="s">
@@ -3339,7 +3339,7 @@
         <v>130</v>
       </c>
       <c r="I50" s="3" t="str">
-        <f>IF(AND(G50="Y",H50="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K50" s="2" t="s">
@@ -3349,8 +3349,8 @@
         <v>158</v>
       </c>
       <c r="P50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Komachi' class='Light'&gt;&lt;td&gt;&lt;img src='img/Komachi.jpg'&gt;&lt;/td&gt;&lt;td&gt;Komachi&lt;/td&gt;&lt;td&gt;小町&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Komachi_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Komachi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Komachi_rank' value='3'&gt;3 &lt;input type='radio' name='Komachi_rank' value='4'&gt;4 &lt;input type='radio' name='Komachi_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Komachi_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Komachi_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Komachi' class='Light'&gt;&lt;td&gt;&lt;img src='img/Komachi.jpg'&gt;&lt;/td&gt;&lt;td&gt;Komachi&lt;/td&gt;&lt;td&gt;小町&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Komachi_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Komachi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Komachi_rank' value='3'&gt;3 &lt;input type='radio' name='Komachi_rank' value='4'&gt;4 &lt;input type='radio' name='Komachi_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Komachi_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Komachi_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -3358,7 +3358,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="1" t="str">
-        <f>LEFT(A51,(FIND(".",A51,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Koot</v>
       </c>
       <c r="C51" t="s">
@@ -3380,7 +3380,7 @@
         <v>130</v>
       </c>
       <c r="I51" s="3" t="str">
-        <f>IF(AND(G51="Y",H51="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K51" s="2" t="s">
@@ -3390,8 +3390,8 @@
         <v>133</v>
       </c>
       <c r="P51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Koot' class='Light'&gt;&lt;td&gt;&lt;img src='img/Koot.jpg'&gt;&lt;/td&gt;&lt;td&gt;Koot&lt;/td&gt;&lt;td&gt;庫托&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Koot_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Koot_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Koot_rank' value='3'&gt;3 &lt;input type='radio' name='Koot_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Koot_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Koot_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Koot_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Koot' class='Light'&gt;&lt;td&gt;&lt;img src='img/Koot.jpg'&gt;&lt;/td&gt;&lt;td&gt;Koot&lt;/td&gt;&lt;td&gt;庫托&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Koot_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Koot_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Koot_rank' value='3'&gt;3 &lt;input type='radio' name='Koot_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Koot_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Koot_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Koot_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -3399,7 +3399,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="1" t="str">
-        <f>LEFT(A52,(FIND(".",A52,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Krervo</v>
       </c>
       <c r="C52" t="s">
@@ -3421,15 +3421,15 @@
         <v>130</v>
       </c>
       <c r="I52" s="3" t="str">
-        <f>IF(AND(G52="Y",H52="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>132</v>
       </c>
       <c r="P52" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Krervo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Krervo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Krervo&lt;/td&gt;&lt;td&gt;克利霍&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Krervo_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Krervo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Krervo_rank' value='3'&gt;3 &lt;input type='radio' name='Krervo_rank' value='4'&gt;4 &lt;input type='radio' name='Krervo_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Krervo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Krervo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Krervo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Krervo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Krervo&lt;/td&gt;&lt;td&gt;克利霍&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Krervo_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Krervo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Krervo_rank' value='3'&gt;3 &lt;input type='radio' name='Krervo_rank' value='4'&gt;4 &lt;input type='radio' name='Krervo_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Krervo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Krervo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -3437,7 +3437,7 @@
         <v>56</v>
       </c>
       <c r="B53" s="1" t="str">
-        <f>LEFT(A53,(FIND(".",A53,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Laclair</v>
       </c>
       <c r="C53" t="s">
@@ -3459,7 +3459,7 @@
         <v>129</v>
       </c>
       <c r="I53" s="3" t="str">
-        <f>IF(AND(G53="Y",H53="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K53" s="2" t="s">
@@ -3472,8 +3472,8 @@
         <v>141</v>
       </c>
       <c r="P53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Laclair' class='Light'&gt;&lt;td&gt;&lt;img src='img/Laclair.jpg'&gt;&lt;img src='img/Laclair_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Laclair&lt;/td&gt;&lt;td&gt;拉克萊兒&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Laclair_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Laclair_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Laclair_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Laclair_rank' value='4'&gt;4 &lt;input type='radio' name='Laclair_rank' value='5'&gt;5 &lt;input type='radio' name='Laclair_rank' value='AS'&gt;AS &lt;input type='radio' name='Laclair_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Laclair' class='Light'&gt;&lt;td&gt;&lt;img src='img/Laclair.jpg'&gt;&lt;img src='img/Laclair_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Laclair&lt;/td&gt;&lt;td&gt;拉克萊兒&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Laclair_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Laclair_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Laclair_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Laclair_rank' value='4'&gt;4 &lt;input type='radio' name='Laclair_rank' value='5'&gt;5 &lt;input type='radio' name='Laclair_rank' value='AS'&gt;AS &lt;input type='radio' name='Laclair_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -3481,7 +3481,7 @@
         <v>57</v>
       </c>
       <c r="B54" s="1" t="str">
-        <f>LEFT(A54,(FIND(".",A54,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Lele</v>
       </c>
       <c r="C54" t="s">
@@ -3503,15 +3503,15 @@
         <v>130</v>
       </c>
       <c r="I54" s="3" t="str">
-        <f>IF(AND(G54="Y",H54="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>151</v>
       </c>
       <c r="P54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Lele' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lele.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lele&lt;/td&gt;&lt;td&gt;蕾蕾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lele_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lele_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lele_rank' value='3'&gt;3 &lt;input type='radio' name='Lele_rank' value='4'&gt;4 &lt;input type='radio' name='Lele_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Lele_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lele_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Lele' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lele.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lele&lt;/td&gt;&lt;td&gt;蕾蕾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lele_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lele_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lele_rank' value='3'&gt;3 &lt;input type='radio' name='Lele_rank' value='4'&gt;4 &lt;input type='radio' name='Lele_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Lele_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lele_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -3519,7 +3519,7 @@
         <v>58</v>
       </c>
       <c r="B55" s="1" t="str">
-        <f>LEFT(A55,(FIND(".",A55,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Levia</v>
       </c>
       <c r="C55" t="s">
@@ -3541,15 +3541,15 @@
         <v>130</v>
       </c>
       <c r="I55" s="3" t="str">
-        <f>IF(AND(G55="Y",H55="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>151</v>
       </c>
       <c r="P55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Levia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Levia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Levia&lt;/td&gt;&lt;td&gt;莉維雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Levia_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Levia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Levia_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Levia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Levia_rank' value='5'&gt;5 &lt;input type='radio' name='Levia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Levia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Levia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Levia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Levia&lt;/td&gt;&lt;td&gt;莉維雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Levia_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Levia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Levia_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Levia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Levia_rank' value='5'&gt;5 &lt;input type='radio' name='Levia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Levia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -3557,7 +3557,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="1" t="str">
-        <f>LEFT(A56,(FIND(".",A56,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Lingli</v>
       </c>
       <c r="C56" t="s">
@@ -3579,7 +3579,7 @@
         <v>130</v>
       </c>
       <c r="I56" s="3" t="str">
-        <f>IF(AND(G56="Y",H56="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K56" s="2" t="s">
@@ -3589,8 +3589,8 @@
         <v>150</v>
       </c>
       <c r="P56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Lingli' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lingli.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lingli&lt;/td&gt;&lt;td&gt;林麗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lingli_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lingli_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lingli_rank' value='3'&gt;3 &lt;input type='radio' name='Lingli_rank' value='4'&gt;4 &lt;input type='radio' name='Lingli_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Lingli_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lingli_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Lingli' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lingli.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lingli&lt;/td&gt;&lt;td&gt;林麗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lingli_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lingli_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lingli_rank' value='3'&gt;3 &lt;input type='radio' name='Lingli_rank' value='4'&gt;4 &lt;input type='radio' name='Lingli_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Lingli_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lingli_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -3598,7 +3598,7 @@
         <v>60</v>
       </c>
       <c r="B57" s="1" t="str">
-        <f>LEFT(A57,(FIND(".",A57,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Lokido</v>
       </c>
       <c r="C57" t="s">
@@ -3620,7 +3620,7 @@
         <v>129</v>
       </c>
       <c r="I57" s="3" t="str">
-        <f>IF(AND(G57="Y",H57="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K57" s="2" t="s">
@@ -3630,8 +3630,8 @@
         <v>159</v>
       </c>
       <c r="P57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Lokido' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lokido.jpg'&gt;&lt;img src='img/Lokido_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lokido&lt;/td&gt;&lt;td&gt;洛基德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lokido_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lokido_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lokido_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Lokido_rank' value='4'&gt;4 &lt;input type='radio' name='Lokido_rank' value='5'&gt;5 &lt;input type='radio' name='Lokido_rank' value='AS'&gt;AS &lt;input type='radio' name='Lokido_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Lokido' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lokido.jpg'&gt;&lt;img src='img/Lokido_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lokido&lt;/td&gt;&lt;td&gt;洛基德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lokido_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lokido_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lokido_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Lokido_rank' value='4'&gt;4 &lt;input type='radio' name='Lokido_rank' value='5'&gt;5 &lt;input type='radio' name='Lokido_rank' value='AS'&gt;AS &lt;input type='radio' name='Lokido_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -3639,7 +3639,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="1" t="str">
-        <f>LEFT(A58,(FIND(".",A58,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Lovely</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -3661,15 +3661,15 @@
         <v>130</v>
       </c>
       <c r="I58" s="3" t="str">
-        <f>IF(AND(G58="Y",H58="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>150</v>
       </c>
       <c r="P58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Lovely' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lovely.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lovely&lt;/td&gt;&lt;td&gt;拉布莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lovely_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lovely_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lovely_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Lovely_rank' value='4'&gt;4 &lt;input type='radio' name='Lovely_rank' value='5'&gt;5 &lt;input type='radio' name='Lovely_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lovely_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Lovely' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lovely.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lovely&lt;/td&gt;&lt;td&gt;拉布莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lovely_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lovely_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lovely_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Lovely_rank' value='4'&gt;4 &lt;input type='radio' name='Lovely_rank' value='5'&gt;5 &lt;input type='radio' name='Lovely_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lovely_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -3677,7 +3677,7 @@
         <v>62</v>
       </c>
       <c r="B59" s="1" t="str">
-        <f>LEFT(A59,(FIND(".",A59,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Lovinia</v>
       </c>
       <c r="C59" t="s">
@@ -3699,7 +3699,7 @@
         <v>130</v>
       </c>
       <c r="I59" s="3" t="str">
-        <f>IF(AND(G59="Y",H59="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K59" s="2" t="s">
@@ -3709,8 +3709,8 @@
         <v>155</v>
       </c>
       <c r="P59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Lovinia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lovinia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lovinia&lt;/td&gt;&lt;td&gt;羅維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lovinia_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lovinia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lovinia_rank' value='3'&gt;3 &lt;input type='radio' name='Lovinia_rank' value='4'&gt;4 &lt;input type='radio' name='Lovinia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Lovinia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lovinia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Lovinia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lovinia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lovinia&lt;/td&gt;&lt;td&gt;羅維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lovinia_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lovinia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lovinia_rank' value='3'&gt;3 &lt;input type='radio' name='Lovinia_rank' value='4'&gt;4 &lt;input type='radio' name='Lovinia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Lovinia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lovinia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -3718,7 +3718,7 @@
         <v>63</v>
       </c>
       <c r="B60" s="1" t="str">
-        <f>LEFT(A60,(FIND(".",A60,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Mana</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -3740,15 +3740,15 @@
         <v>130</v>
       </c>
       <c r="I60" s="3" t="str">
-        <f>IF(AND(G60="Y",H60="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>144</v>
       </c>
       <c r="P60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Mana' class='Light'&gt;&lt;td&gt;&lt;img src='img/Mana.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mana&lt;/td&gt;&lt;td&gt;瑪娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mana_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Mana_rank' value='5'&gt;5 &lt;input type='radio' name='Mana_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Mana_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Mana' class='Light'&gt;&lt;td&gt;&lt;img src='img/Mana.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mana&lt;/td&gt;&lt;td&gt;瑪娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mana_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Mana_rank' value='5'&gt;5 &lt;input type='radio' name='Mana_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Mana_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -3756,7 +3756,7 @@
         <v>64</v>
       </c>
       <c r="B61" s="1" t="str">
-        <f>LEFT(A61,(FIND(".",A61,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Mariel</v>
       </c>
       <c r="C61" t="s">
@@ -3778,15 +3778,15 @@
         <v>129</v>
       </c>
       <c r="I61" s="3" t="str">
-        <f>IF(AND(G61="Y",H61="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>132</v>
       </c>
       <c r="P61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Mariel' class='Light'&gt;&lt;td&gt;&lt;img src='img/Mariel.jpg'&gt;&lt;img src='img/Mariel_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mariel&lt;/td&gt;&lt;td&gt;瑪莉艾爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mariel_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mariel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mariel_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mariel_rank' value='4'&gt;4 &lt;input type='radio' name='Mariel_rank' value='5'&gt;5 &lt;input type='radio' name='Mariel_rank' value='AS'&gt;AS &lt;input type='radio' name='Mariel_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Mariel' class='Light'&gt;&lt;td&gt;&lt;img src='img/Mariel.jpg'&gt;&lt;img src='img/Mariel_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mariel&lt;/td&gt;&lt;td&gt;瑪莉艾爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mariel_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mariel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mariel_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mariel_rank' value='4'&gt;4 &lt;input type='radio' name='Mariel_rank' value='5'&gt;5 &lt;input type='radio' name='Mariel_rank' value='AS'&gt;AS &lt;input type='radio' name='Mariel_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -3794,7 +3794,7 @@
         <v>65</v>
       </c>
       <c r="B62" s="1" t="str">
-        <f>LEFT(A62,(FIND(".",A62,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>May</v>
       </c>
       <c r="C62" t="s">
@@ -3816,7 +3816,7 @@
         <v>130</v>
       </c>
       <c r="I62" s="3" t="str">
-        <f>IF(AND(G62="Y",H62="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K62" s="2" t="s">
@@ -3826,8 +3826,8 @@
         <v>159</v>
       </c>
       <c r="P62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='May' class='Light'&gt;&lt;td&gt;&lt;img src='img/May.jpg'&gt;&lt;/td&gt;&lt;td&gt;May&lt;/td&gt;&lt;td&gt;玫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='May_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='May_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='May_rank' value='3'&gt;3 &lt;input type='radio' name='May_rank' value='4'&gt;4 &lt;input type='radio' name='May_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='May_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='May_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='May' class='Light'&gt;&lt;td&gt;&lt;img src='img/May.jpg'&gt;&lt;/td&gt;&lt;td&gt;May&lt;/td&gt;&lt;td&gt;玫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='May_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='May_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='May_rank' value='3'&gt;3 &lt;input type='radio' name='May_rank' value='4'&gt;4 &lt;input type='radio' name='May_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='May_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='May_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -3835,7 +3835,7 @@
         <v>66</v>
       </c>
       <c r="B63" s="1" t="str">
-        <f>LEFT(A63,(FIND(".",A63,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Melina</v>
       </c>
       <c r="C63" t="s">
@@ -3857,7 +3857,7 @@
         <v>129</v>
       </c>
       <c r="I63" s="3" t="str">
-        <f>IF(AND(G63="Y",H63="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K63" s="2" t="s">
@@ -3870,8 +3870,8 @@
         <v>153</v>
       </c>
       <c r="P63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Melina' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Melina.jpg'&gt;&lt;img src='img/Melina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Melina&lt;/td&gt;&lt;td&gt;玫莉娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Melina_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Melina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Melina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Melina_rank' value='4'&gt;4 &lt;input type='radio' name='Melina_rank' value='5'&gt;5 &lt;input type='radio' name='Melina_rank' value='AS'&gt;AS &lt;input type='radio' name='Melina_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Melina' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Melina.jpg'&gt;&lt;img src='img/Melina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Melina&lt;/td&gt;&lt;td&gt;玫莉娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Melina_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Melina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Melina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Melina_rank' value='4'&gt;4 &lt;input type='radio' name='Melina_rank' value='5'&gt;5 &lt;input type='radio' name='Melina_rank' value='AS'&gt;AS &lt;input type='radio' name='Melina_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -3879,7 +3879,7 @@
         <v>67</v>
       </c>
       <c r="B64" s="1" t="str">
-        <f>LEFT(A64,(FIND(".",A64,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Menesia</v>
       </c>
       <c r="C64" t="s">
@@ -3901,7 +3901,7 @@
         <v>130</v>
       </c>
       <c r="I64" s="3" t="str">
-        <f>IF(AND(G64="Y",H64="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K64" s="2" t="s">
@@ -3911,8 +3911,8 @@
         <v>133</v>
       </c>
       <c r="P64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Menesia' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Menesia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Menesia&lt;/td&gt;&lt;td&gt;梅尼西雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Menesia_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Menesia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Menesia_rank' value='3'&gt;3 &lt;input type='radio' name='Menesia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Menesia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Menesia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Menesia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Menesia' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Menesia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Menesia&lt;/td&gt;&lt;td&gt;梅尼西雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Menesia_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Menesia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Menesia_rank' value='3'&gt;3 &lt;input type='radio' name='Menesia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Menesia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Menesia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Menesia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -3920,7 +3920,7 @@
         <v>68</v>
       </c>
       <c r="B65" s="1" t="str">
-        <f>LEFT(A65,(FIND(".",A65,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Mighty</v>
       </c>
       <c r="C65" t="s">
@@ -3942,15 +3942,15 @@
         <v>129</v>
       </c>
       <c r="I65" s="3" t="str">
-        <f>IF(AND(G65="Y",H65="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>151</v>
       </c>
       <c r="P65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Mighty' class='Light'&gt;&lt;td&gt;&lt;img src='img/Mighty.jpg'&gt;&lt;img src='img/Mighty_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mighty&lt;/td&gt;&lt;td&gt;麥提&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mighty_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mighty_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mighty_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mighty_rank' value='4'&gt;4 &lt;input type='radio' name='Mighty_rank' value='5'&gt;5 &lt;input type='radio' name='Mighty_rank' value='AS'&gt;AS &lt;input type='radio' name='Mighty_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Mighty' class='Light'&gt;&lt;td&gt;&lt;img src='img/Mighty.jpg'&gt;&lt;img src='img/Mighty_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mighty&lt;/td&gt;&lt;td&gt;麥提&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mighty_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mighty_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mighty_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mighty_rank' value='4'&gt;4 &lt;input type='radio' name='Mighty_rank' value='5'&gt;5 &lt;input type='radio' name='Mighty_rank' value='AS'&gt;AS &lt;input type='radio' name='Mighty_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -3958,7 +3958,7 @@
         <v>69</v>
       </c>
       <c r="B66" s="1" t="str">
-        <f>LEFT(A66,(FIND(".",A66,1)-1))</f>
+        <f t="shared" ref="B66:B97" si="5">LEFT(A66,(FIND(".",A66,1)-1))</f>
         <v>Miranda</v>
       </c>
       <c r="C66" t="s">
@@ -3980,7 +3980,7 @@
         <v>130</v>
       </c>
       <c r="I66" s="3" t="str">
-        <f>IF(AND(G66="Y",H66="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K66" s="2" t="s">
@@ -3990,8 +3990,8 @@
         <v>136</v>
       </c>
       <c r="P66" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Miranda' class='Light'&gt;&lt;td&gt;&lt;img src='img/Miranda.jpg'&gt;&lt;/td&gt;&lt;td&gt;Miranda&lt;/td&gt;&lt;td&gt;米蘭達&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miranda_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miranda_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miranda_rank' value='3'&gt;3 &lt;input type='radio' name='Miranda_rank' value='4'&gt;4 &lt;input type='radio' name='Miranda_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Miranda_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Miranda_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Miranda' class='Light'&gt;&lt;td&gt;&lt;img src='img/Miranda.jpg'&gt;&lt;/td&gt;&lt;td&gt;Miranda&lt;/td&gt;&lt;td&gt;米蘭達&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miranda_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miranda_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miranda_rank' value='3'&gt;3 &lt;input type='radio' name='Miranda_rank' value='4'&gt;4 &lt;input type='radio' name='Miranda_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Miranda_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Miranda_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -3999,7 +3999,7 @@
         <v>70</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f>LEFT(A67,(FIND(".",A67,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Miyu</v>
       </c>
       <c r="C67" t="s">
@@ -4021,7 +4021,7 @@
         <v>130</v>
       </c>
       <c r="I67" s="3" t="str">
-        <f>IF(AND(G67="Y",H67="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K67" s="2" t="s">
@@ -4031,8 +4031,8 @@
         <v>136</v>
       </c>
       <c r="P67" s="1" t="str">
-        <f t="shared" ref="P67:P123" si="1">"&lt;tr id='"&amp;B67&amp;"' class='"&amp;D67&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A67&amp;"'&gt;"&amp;IF(H67="Y","&lt;img src='img/"&amp;B67&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B67&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C67&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K67&amp;".png'&gt;"&amp;IF(L67="","","&lt;img src='img/type/"&amp;L67&amp;".png'&gt;")&amp;IF(M67="","","&lt;img src='img/type/"&amp;M67&amp;".png'&gt;")&amp;IF(N67="","","&lt;img src='img/type/"&amp;N67&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;B67&amp;"_LS'"&amp;" min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;B67&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;B67&amp;"_rank' value='3'"&amp;IF(E67="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;B67&amp;"_rank' value='4'"&amp;IF(F67="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;B67&amp;"_rank' value='5'"&amp;IF(G67="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;B67&amp;"_rank' value='AS'"&amp;IF(H67="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;B67&amp;"_rank' value='Both'"&amp;IF(I67="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr id='Miyu' class='Light'&gt;&lt;td&gt;&lt;img src='img/Miyu.jpg'&gt;&lt;/td&gt;&lt;td&gt;Miyu&lt;/td&gt;&lt;td&gt;米悠&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miyu_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miyu_rank' value='3'&gt;3 &lt;input type='radio' name='Miyu_rank' value='4'&gt;4 &lt;input type='radio' name='Miyu_rank' value='5'&gt;5 &lt;input type='radio' name='Miyu_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Miyu_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="P67:P123" si="6">"&lt;tr id='"&amp;B67&amp;"' class='"&amp;D67&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A67&amp;"'&gt;"&amp;IF(H67="Y","&lt;img src='img/"&amp;B67&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B67&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C67&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K67&amp;".png'&gt;"&amp;IF(L67="","","&lt;img src='img/type/"&amp;L67&amp;".png'&gt;")&amp;IF(M67="","","&lt;img src='img/type/"&amp;M67&amp;".png'&gt;")&amp;IF(N67="","","&lt;img src='img/type/"&amp;N67&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;B67&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;B67&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;B67&amp;"_rank' value='3'"&amp;IF(E67="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;B67&amp;"_rank' value='4'"&amp;IF(F67="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;B67&amp;"_rank' value='5'"&amp;IF(G67="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;B67&amp;"_rank' value='AS'"&amp;IF(H67="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;B67&amp;"_rank' value='Both'"&amp;IF(I67="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr id='Miyu' class='Light'&gt;&lt;td&gt;&lt;img src='img/Miyu.jpg'&gt;&lt;/td&gt;&lt;td&gt;Miyu&lt;/td&gt;&lt;td&gt;米悠&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miyu_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miyu_rank' value='3'&gt;3 &lt;input type='radio' name='Miyu_rank' value='4'&gt;4 &lt;input type='radio' name='Miyu_rank' value='5'&gt;5 &lt;input type='radio' name='Miyu_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Miyu_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -4040,7 +4040,7 @@
         <v>71</v>
       </c>
       <c r="B68" s="1" t="str">
-        <f>LEFT(A68,(FIND(".",A68,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Morgana</v>
       </c>
       <c r="C68" t="s">
@@ -4062,7 +4062,7 @@
         <v>130</v>
       </c>
       <c r="I68" s="3" t="str">
-        <f>IF(AND(G68="Y",H68="Y"),"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K68" s="2" t="s">
@@ -4072,8 +4072,8 @@
         <v>139</v>
       </c>
       <c r="P68" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Morgana' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Morgana.jpg'&gt;&lt;/td&gt;&lt;td&gt;Morgana&lt;/td&gt;&lt;td&gt;摩爾加納&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Morgana_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Morgana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Morgana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Morgana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Morgana_rank' value='5'&gt;5 &lt;input type='radio' name='Morgana_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Morgana_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Morgana' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Morgana.jpg'&gt;&lt;/td&gt;&lt;td&gt;Morgana&lt;/td&gt;&lt;td&gt;摩爾加納&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Morgana_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Morgana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Morgana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Morgana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Morgana_rank' value='5'&gt;5 &lt;input type='radio' name='Morgana_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Morgana_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4081,7 +4081,7 @@
         <v>72</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f>LEFT(A69,(FIND(".",A69,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Myron</v>
       </c>
       <c r="C69" t="s">
@@ -4103,7 +4103,7 @@
         <v>130</v>
       </c>
       <c r="I69" s="3" t="str">
-        <f>IF(AND(G69="Y",H69="Y"),"Y","N")</f>
+        <f t="shared" ref="I69:I100" si="7">IF(AND(G69="Y",H69="Y"),"Y","N")</f>
         <v>N</v>
       </c>
       <c r="K69" s="2" t="s">
@@ -4113,8 +4113,8 @@
         <v>157</v>
       </c>
       <c r="P69" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Myron' class='Light'&gt;&lt;td&gt;&lt;img src='img/Myron.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myron&lt;/td&gt;&lt;td&gt;繆倫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myron_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myron_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myron_rank' value='3'&gt;3 &lt;input type='radio' name='Myron_rank' value='4'&gt;4 &lt;input type='radio' name='Myron_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Myron_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Myron_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Myron' class='Light'&gt;&lt;td&gt;&lt;img src='img/Myron.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myron&lt;/td&gt;&lt;td&gt;繆倫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myron_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myron_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myron_rank' value='3'&gt;3 &lt;input type='radio' name='Myron_rank' value='4'&gt;4 &lt;input type='radio' name='Myron_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Myron_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Myron_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -4122,7 +4122,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="1" t="str">
-        <f>LEFT(A70,(FIND(".",A70,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Myrus</v>
       </c>
       <c r="C70" t="s">
@@ -4144,15 +4144,15 @@
         <v>131</v>
       </c>
       <c r="I70" s="3" t="str">
-        <f>IF(AND(G70="Y",H70="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>156</v>
       </c>
       <c r="P70" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Myrus' class='Light'&gt;&lt;td&gt;&lt;img src='img/Myrus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myrus&lt;/td&gt;&lt;td&gt;繆露絲&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myrus_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myrus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myrus_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Myrus_rank' value='4'&gt;4 &lt;input type='radio' name='Myrus_rank' value='5'&gt;5 &lt;input type='radio' name='Myrus_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Myrus_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Myrus' class='Light'&gt;&lt;td&gt;&lt;img src='img/Myrus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myrus&lt;/td&gt;&lt;td&gt;繆露絲&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myrus_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myrus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myrus_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Myrus_rank' value='4'&gt;4 &lt;input type='radio' name='Myrus_rank' value='5'&gt;5 &lt;input type='radio' name='Myrus_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Myrus_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -4160,7 +4160,7 @@
         <v>74</v>
       </c>
       <c r="B71" s="1" t="str">
-        <f>LEFT(A71,(FIND(".",A71,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Nagi</v>
       </c>
       <c r="C71" t="s">
@@ -4182,7 +4182,7 @@
         <v>129</v>
       </c>
       <c r="I71" s="3" t="str">
-        <f>IF(AND(G71="Y",H71="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="K71" s="2" t="s">
@@ -4192,8 +4192,8 @@
         <v>157</v>
       </c>
       <c r="P71" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Nagi' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Nagi.jpg'&gt;&lt;img src='img/Nagi_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nagi&lt;/td&gt;&lt;td&gt;娜基&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nagi_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nagi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nagi_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Nagi_rank' value='4'&gt;4 &lt;input type='radio' name='Nagi_rank' value='5'&gt;5 &lt;input type='radio' name='Nagi_rank' value='AS'&gt;AS &lt;input type='radio' name='Nagi_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Nagi' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Nagi.jpg'&gt;&lt;img src='img/Nagi_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nagi&lt;/td&gt;&lt;td&gt;娜基&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nagi_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nagi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nagi_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Nagi_rank' value='4'&gt;4 &lt;input type='radio' name='Nagi_rank' value='5'&gt;5 &lt;input type='radio' name='Nagi_rank' value='AS'&gt;AS &lt;input type='radio' name='Nagi_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -4201,7 +4201,7 @@
         <v>75</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f>LEFT(A72,(FIND(".",A72,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Natore</v>
       </c>
       <c r="C72" t="s">
@@ -4223,15 +4223,15 @@
         <v>130</v>
       </c>
       <c r="I72" s="3" t="str">
-        <f>IF(AND(G72="Y",H72="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>135</v>
       </c>
       <c r="P72" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Natore' class='Light'&gt;&lt;td&gt;&lt;img src='img/Natore.jpg'&gt;&lt;/td&gt;&lt;td&gt;Natore&lt;/td&gt;&lt;td&gt;娜托雷&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Natore_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Natore_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Natore_rank' value='3'&gt;3 &lt;input type='radio' name='Natore_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Natore_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Natore_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Natore_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Natore' class='Light'&gt;&lt;td&gt;&lt;img src='img/Natore.jpg'&gt;&lt;/td&gt;&lt;td&gt;Natore&lt;/td&gt;&lt;td&gt;娜托雷&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Natore_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Natore_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Natore_rank' value='3'&gt;3 &lt;input type='radio' name='Natore_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Natore_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Natore_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Natore_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -4239,7 +4239,7 @@
         <v>76</v>
       </c>
       <c r="B73" s="1" t="str">
-        <f>LEFT(A73,(FIND(".",A73,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Naylia</v>
       </c>
       <c r="C73" t="s">
@@ -4261,15 +4261,15 @@
         <v>130</v>
       </c>
       <c r="I73" s="3" t="str">
-        <f>IF(AND(G73="Y",H73="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>135</v>
       </c>
       <c r="P73" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Naylia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Naylia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Naylia&lt;/td&gt;&lt;td&gt;內莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Naylia_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Naylia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Naylia_rank' value='3'&gt;3 &lt;input type='radio' name='Naylia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Naylia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Naylia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Naylia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Naylia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Naylia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Naylia&lt;/td&gt;&lt;td&gt;內莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Naylia_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Naylia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Naylia_rank' value='3'&gt;3 &lt;input type='radio' name='Naylia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Naylia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Naylia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Naylia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -4277,7 +4277,7 @@
         <v>77</v>
       </c>
       <c r="B74" s="1" t="str">
-        <f>LEFT(A74,(FIND(".",A74,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Nero</v>
       </c>
       <c r="C74" t="s">
@@ -4299,15 +4299,15 @@
         <v>130</v>
       </c>
       <c r="I74" s="3" t="str">
-        <f>IF(AND(G74="Y",H74="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>153</v>
       </c>
       <c r="P74" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Nero' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Nero.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nero&lt;/td&gt;&lt;td&gt;尼洛&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nero_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nero_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nero_rank' value='3'&gt;3 &lt;input type='radio' name='Nero_rank' value='4'&gt;4 &lt;input type='radio' name='Nero_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nero_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nero_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Nero' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Nero.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nero&lt;/td&gt;&lt;td&gt;尼洛&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nero_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nero_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nero_rank' value='3'&gt;3 &lt;input type='radio' name='Nero_rank' value='4'&gt;4 &lt;input type='radio' name='Nero_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nero_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nero_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -4315,7 +4315,7 @@
         <v>78</v>
       </c>
       <c r="B75" s="1" t="str">
-        <f>LEFT(A75,(FIND(".",A75,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Nikeh</v>
       </c>
       <c r="C75" t="s">
@@ -4337,7 +4337,7 @@
         <v>129</v>
       </c>
       <c r="I75" s="3" t="str">
-        <f>IF(AND(G75="Y",H75="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K75" s="2" t="s">
@@ -4347,8 +4347,8 @@
         <v>141</v>
       </c>
       <c r="P75" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Nikeh' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Nikeh.jpg'&gt;&lt;img src='img/Nikeh_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nikeh&lt;/td&gt;&lt;td&gt;尼姬&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nikeh_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nikeh_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nikeh_rank' value='3'&gt;3 &lt;input type='radio' name='Nikeh_rank' value='4'&gt;4 &lt;input type='radio' name='Nikeh_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nikeh_rank' value='AS'&gt;AS &lt;input type='radio' name='Nikeh_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Nikeh' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Nikeh.jpg'&gt;&lt;img src='img/Nikeh_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nikeh&lt;/td&gt;&lt;td&gt;尼姬&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nikeh_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nikeh_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nikeh_rank' value='3'&gt;3 &lt;input type='radio' name='Nikeh_rank' value='4'&gt;4 &lt;input type='radio' name='Nikeh_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nikeh_rank' value='AS'&gt;AS &lt;input type='radio' name='Nikeh_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -4356,7 +4356,7 @@
         <v>79</v>
       </c>
       <c r="B76" s="1" t="str">
-        <f>LEFT(A76,(FIND(".",A76,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Nixa</v>
       </c>
       <c r="C76" t="s">
@@ -4378,15 +4378,15 @@
         <v>130</v>
       </c>
       <c r="I76" s="3" t="str">
-        <f>IF(AND(G76="Y",H76="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>144</v>
       </c>
       <c r="P76" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Nixa' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nixa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nixa&lt;/td&gt;&lt;td&gt;妮克薩&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nixa_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nixa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nixa_rank' value='3'&gt;3 &lt;input type='radio' name='Nixa_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Nixa_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nixa_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nixa_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Nixa' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nixa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nixa&lt;/td&gt;&lt;td&gt;妮克薩&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nixa_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nixa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nixa_rank' value='3'&gt;3 &lt;input type='radio' name='Nixa_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Nixa_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nixa_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nixa_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -4394,7 +4394,7 @@
         <v>80</v>
       </c>
       <c r="B77" s="1" t="str">
-        <f>LEFT(A77,(FIND(".",A77,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Nomar</v>
       </c>
       <c r="C77" t="s">
@@ -4416,7 +4416,7 @@
         <v>130</v>
       </c>
       <c r="I77" s="3" t="str">
-        <f>IF(AND(G77="Y",H77="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K77" s="2" t="s">
@@ -4426,8 +4426,8 @@
         <v>152</v>
       </c>
       <c r="P77" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Nomar' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nomar.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nomar&lt;/td&gt;&lt;td&gt;諾馬爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nomar_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nomar_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nomar_rank' value='3'&gt;3 &lt;input type='radio' name='Nomar_rank' value='4'&gt;4 &lt;input type='radio' name='Nomar_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nomar_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nomar_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Nomar' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nomar.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nomar&lt;/td&gt;&lt;td&gt;諾馬爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nomar_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nomar_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nomar_rank' value='3'&gt;3 &lt;input type='radio' name='Nomar_rank' value='4'&gt;4 &lt;input type='radio' name='Nomar_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nomar_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nomar_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -4435,7 +4435,7 @@
         <v>81</v>
       </c>
       <c r="B78" s="1" t="str">
-        <f>LEFT(A78,(FIND(".",A78,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Nonold</v>
       </c>
       <c r="C78" t="s">
@@ -4457,15 +4457,15 @@
         <v>130</v>
       </c>
       <c r="I78" s="3" t="str">
-        <f>IF(AND(G78="Y",H78="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>132</v>
       </c>
       <c r="P78" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Nonold' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nonold.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nonold&lt;/td&gt;&lt;td&gt;諾諾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nonold_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nonold_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nonold_rank' value='3'&gt;3 &lt;input type='radio' name='Nonold_rank' value='4'&gt;4 &lt;input type='radio' name='Nonold_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nonold_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nonold_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Nonold' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nonold.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nonold&lt;/td&gt;&lt;td&gt;諾諾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nonold_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nonold_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nonold_rank' value='3'&gt;3 &lt;input type='radio' name='Nonold_rank' value='4'&gt;4 &lt;input type='radio' name='Nonold_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nonold_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nonold_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -4473,7 +4473,7 @@
         <v>82</v>
       </c>
       <c r="B79" s="1" t="str">
-        <f>LEFT(A79,(FIND(".",A79,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Noome</v>
       </c>
       <c r="C79" t="s">
@@ -4495,15 +4495,15 @@
         <v>130</v>
       </c>
       <c r="I79" s="3" t="str">
-        <f>IF(AND(G79="Y",H79="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>132</v>
       </c>
       <c r="P79" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Noome' class='Light'&gt;&lt;td&gt;&lt;img src='img/Noome.jpg'&gt;&lt;/td&gt;&lt;td&gt;Noome&lt;/td&gt;&lt;td&gt;諾暮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Noome_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Noome_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Noome_rank' value='3'&gt;3 &lt;input type='radio' name='Noome_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Noome_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Noome_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Noome_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Noome' class='Light'&gt;&lt;td&gt;&lt;img src='img/Noome.jpg'&gt;&lt;/td&gt;&lt;td&gt;Noome&lt;/td&gt;&lt;td&gt;諾暮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Noome_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Noome_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Noome_rank' value='3'&gt;3 &lt;input type='radio' name='Noome_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Noome_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Noome_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Noome_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -4511,7 +4511,7 @@
         <v>83</v>
       </c>
       <c r="B80" s="1" t="str">
-        <f>LEFT(A80,(FIND(".",A80,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Nopaew</v>
       </c>
       <c r="C80" t="s">
@@ -4533,15 +4533,15 @@
         <v>130</v>
       </c>
       <c r="I80" s="3" t="str">
-        <f>IF(AND(G80="Y",H80="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>154</v>
       </c>
       <c r="P80" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Nopaew' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nopaew.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nopaew&lt;/td&gt;&lt;td&gt;波波羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nopaew_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nopaew_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nopaew_rank' value='3'&gt;3 &lt;input type='radio' name='Nopaew_rank' value='4'&gt;4 &lt;input type='radio' name='Nopaew_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nopaew_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nopaew_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Nopaew' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nopaew.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nopaew&lt;/td&gt;&lt;td&gt;波波羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nopaew_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nopaew_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nopaew_rank' value='3'&gt;3 &lt;input type='radio' name='Nopaew_rank' value='4'&gt;4 &lt;input type='radio' name='Nopaew_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nopaew_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nopaew_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
@@ -4549,7 +4549,7 @@
         <v>84</v>
       </c>
       <c r="B81" s="1" t="str">
-        <f>LEFT(A81,(FIND(".",A81,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Oor</v>
       </c>
       <c r="C81" t="s">
@@ -4571,15 +4571,15 @@
         <v>130</v>
       </c>
       <c r="I81" s="3" t="str">
-        <f>IF(AND(G81="Y",H81="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>135</v>
       </c>
       <c r="P81" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Oor' class='Light'&gt;&lt;td&gt;&lt;img src='img/Oor.jpg'&gt;&lt;/td&gt;&lt;td&gt;Oor&lt;/td&gt;&lt;td&gt;歐爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Oor_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Oor_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Oor_rank' value='3'&gt;3 &lt;input type='radio' name='Oor_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Oor_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Oor_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Oor_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Oor' class='Light'&gt;&lt;td&gt;&lt;img src='img/Oor.jpg'&gt;&lt;/td&gt;&lt;td&gt;Oor&lt;/td&gt;&lt;td&gt;歐爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Oor_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Oor_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Oor_rank' value='3'&gt;3 &lt;input type='radio' name='Oor_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Oor_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Oor_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Oor_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -4587,7 +4587,7 @@
         <v>85</v>
       </c>
       <c r="B82" s="1" t="str">
-        <f>LEFT(A82,(FIND(".",A82,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Otoha</v>
       </c>
       <c r="C82" t="s">
@@ -4609,7 +4609,7 @@
         <v>130</v>
       </c>
       <c r="I82" s="3" t="str">
-        <f>IF(AND(G82="Y",H82="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K82" s="2" t="s">
@@ -4619,8 +4619,8 @@
         <v>157</v>
       </c>
       <c r="P82" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Otoha' class='Light'&gt;&lt;td&gt;&lt;img src='img/Otoha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Otoha&lt;/td&gt;&lt;td&gt;乙葉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Otoha_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Otoha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Otoha_rank' value='3'&gt;3 &lt;input type='radio' name='Otoha_rank' value='4'&gt;4 &lt;input type='radio' name='Otoha_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Otoha_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Otoha_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Otoha' class='Light'&gt;&lt;td&gt;&lt;img src='img/Otoha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Otoha&lt;/td&gt;&lt;td&gt;乙葉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Otoha_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Otoha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Otoha_rank' value='3'&gt;3 &lt;input type='radio' name='Otoha_rank' value='4'&gt;4 &lt;input type='radio' name='Otoha_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Otoha_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Otoha_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -4628,7 +4628,7 @@
         <v>86</v>
       </c>
       <c r="B83" s="1" t="str">
-        <f>LEFT(A83,(FIND(".",A83,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Parisa</v>
       </c>
       <c r="C83" t="s">
@@ -4650,7 +4650,7 @@
         <v>130</v>
       </c>
       <c r="I83" s="3" t="str">
-        <f>IF(AND(G83="Y",H83="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K83" s="2" t="s">
@@ -4660,8 +4660,8 @@
         <v>149</v>
       </c>
       <c r="P83" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Parisa' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Parisa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Parisa&lt;/td&gt;&lt;td&gt;帕莉莎&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Parisa_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Parisa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Parisa_rank' value='3'&gt;3 &lt;input type='radio' name='Parisa_rank' value='4'&gt;4 &lt;input type='radio' name='Parisa_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Parisa_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Parisa_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Parisa' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Parisa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Parisa&lt;/td&gt;&lt;td&gt;帕莉莎&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Parisa_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Parisa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Parisa_rank' value='3'&gt;3 &lt;input type='radio' name='Parisa_rank' value='4'&gt;4 &lt;input type='radio' name='Parisa_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Parisa_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Parisa_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
@@ -4669,7 +4669,7 @@
         <v>87</v>
       </c>
       <c r="B84" s="1" t="str">
-        <f>LEFT(A84,(FIND(".",A84,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Pasia</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -4691,15 +4691,15 @@
         <v>130</v>
       </c>
       <c r="I84" s="3" t="str">
-        <f>IF(AND(G84="Y",H84="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>133</v>
       </c>
       <c r="P84" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Pasia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Pasia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pasia&lt;/td&gt;&lt;td&gt;帕希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pasia_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pasia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pasia_rank' value='3'&gt;3 &lt;input type='radio' name='Pasia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Pasia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Pasia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Pasia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Pasia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Pasia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pasia&lt;/td&gt;&lt;td&gt;帕希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pasia_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pasia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pasia_rank' value='3'&gt;3 &lt;input type='radio' name='Pasia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Pasia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Pasia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Pasia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
@@ -4707,7 +4707,7 @@
         <v>88</v>
       </c>
       <c r="B85" s="1" t="str">
-        <f>LEFT(A85,(FIND(".",A85,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Philo</v>
       </c>
       <c r="C85" t="s">
@@ -4729,7 +4729,7 @@
         <v>130</v>
       </c>
       <c r="I85" s="3" t="str">
-        <f>IF(AND(G85="Y",H85="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K85" s="2" t="s">
@@ -4739,8 +4739,8 @@
         <v>141</v>
       </c>
       <c r="P85" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Philo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Philo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Philo&lt;/td&gt;&lt;td&gt;菲羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Philo_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Philo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Philo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Philo_rank' value='4'&gt;4 &lt;input type='radio' name='Philo_rank' value='5'&gt;5 &lt;input type='radio' name='Philo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Philo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Philo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Philo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Philo&lt;/td&gt;&lt;td&gt;菲羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Philo_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Philo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Philo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Philo_rank' value='4'&gt;4 &lt;input type='radio' name='Philo_rank' value='5'&gt;5 &lt;input type='radio' name='Philo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Philo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
@@ -4748,7 +4748,7 @@
         <v>89</v>
       </c>
       <c r="B86" s="1" t="str">
-        <f>LEFT(A86,(FIND(".",A86,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Pom</v>
       </c>
       <c r="C86" t="s">
@@ -4770,15 +4770,15 @@
         <v>130</v>
       </c>
       <c r="I86" s="3" t="str">
-        <f>IF(AND(G86="Y",H86="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>132</v>
       </c>
       <c r="P86" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Pom' class='Light'&gt;&lt;td&gt;&lt;img src='img/Pom.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pom&lt;/td&gt;&lt;td&gt;波姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pom_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pom_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pom_rank' value='3'&gt;3 &lt;input type='radio' name='Pom_rank' value='4'&gt;4 &lt;input type='radio' name='Pom_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Pom_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Pom_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Pom' class='Light'&gt;&lt;td&gt;&lt;img src='img/Pom.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pom&lt;/td&gt;&lt;td&gt;波姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pom_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pom_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pom_rank' value='3'&gt;3 &lt;input type='radio' name='Pom_rank' value='4'&gt;4 &lt;input type='radio' name='Pom_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Pom_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Pom_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
@@ -4786,7 +4786,7 @@
         <v>90</v>
       </c>
       <c r="B87" s="1" t="str">
-        <f>LEFT(A87,(FIND(".",A87,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Prai</v>
       </c>
       <c r="C87" t="s">
@@ -4808,15 +4808,15 @@
         <v>130</v>
       </c>
       <c r="I87" s="3" t="str">
-        <f>IF(AND(G87="Y",H87="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>133</v>
       </c>
       <c r="P87" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Prai' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Prai.jpg'&gt;&lt;/td&gt;&lt;td&gt;Prai&lt;/td&gt;&lt;td&gt;普萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Prai_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Prai_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Prai_rank' value='3'&gt;3 &lt;input type='radio' name='Prai_rank' value='4'&gt;4 &lt;input type='radio' name='Prai_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Prai_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Prai_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Prai' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Prai.jpg'&gt;&lt;/td&gt;&lt;td&gt;Prai&lt;/td&gt;&lt;td&gt;普萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Prai_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Prai_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Prai_rank' value='3'&gt;3 &lt;input type='radio' name='Prai_rank' value='4'&gt;4 &lt;input type='radio' name='Prai_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Prai_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Prai_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
@@ -4824,7 +4824,7 @@
         <v>91</v>
       </c>
       <c r="B88" s="1" t="str">
-        <f>LEFT(A88,(FIND(".",A88,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Premaya</v>
       </c>
       <c r="C88" t="s">
@@ -4846,7 +4846,7 @@
         <v>130</v>
       </c>
       <c r="I88" s="3" t="str">
-        <f>IF(AND(G88="Y",H88="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K88" s="2" t="s">
@@ -4856,8 +4856,8 @@
         <v>158</v>
       </c>
       <c r="P88" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Premaya' class='Light'&gt;&lt;td&gt;&lt;img src='img/Premaya.jpg'&gt;&lt;/td&gt;&lt;td&gt;Premaya&lt;/td&gt;&lt;td&gt;普蕾米婭&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Premaya_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Premaya_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Premaya_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Premaya_rank' value='4'&gt;4 &lt;input type='radio' name='Premaya_rank' value='5'&gt;5 &lt;input type='radio' name='Premaya_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Premaya_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Premaya' class='Light'&gt;&lt;td&gt;&lt;img src='img/Premaya.jpg'&gt;&lt;/td&gt;&lt;td&gt;Premaya&lt;/td&gt;&lt;td&gt;普蕾米婭&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Premaya_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Premaya_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Premaya_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Premaya_rank' value='4'&gt;4 &lt;input type='radio' name='Premaya_rank' value='5'&gt;5 &lt;input type='radio' name='Premaya_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Premaya_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
@@ -4865,7 +4865,7 @@
         <v>92</v>
       </c>
       <c r="B89" s="1" t="str">
-        <f>LEFT(A89,(FIND(".",A89,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Radica</v>
       </c>
       <c r="C89" t="s">
@@ -4887,7 +4887,7 @@
         <v>130</v>
       </c>
       <c r="I89" s="3" t="str">
-        <f>IF(AND(G89="Y",H89="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K89" s="2" t="s">
@@ -4900,8 +4900,8 @@
         <v>148</v>
       </c>
       <c r="P89" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Radica' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Radica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Radica&lt;/td&gt;&lt;td&gt;拉蒂卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Radica_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Radica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Radica_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Radica_rank' value='4'&gt;4 &lt;input type='radio' name='Radica_rank' value='5'&gt;5 &lt;input type='radio' name='Radica_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Radica_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Radica' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Radica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Radica&lt;/td&gt;&lt;td&gt;拉蒂卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Radica_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Radica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Radica_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Radica_rank' value='4'&gt;4 &lt;input type='radio' name='Radica_rank' value='5'&gt;5 &lt;input type='radio' name='Radica_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Radica_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
@@ -4909,7 +4909,7 @@
         <v>93</v>
       </c>
       <c r="B90" s="1" t="str">
-        <f>LEFT(A90,(FIND(".",A90,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Raven</v>
       </c>
       <c r="C90" t="s">
@@ -4931,7 +4931,7 @@
         <v>130</v>
       </c>
       <c r="I90" s="3" t="str">
-        <f>IF(AND(G90="Y",H90="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K90" s="2" t="s">
@@ -4941,8 +4941,8 @@
         <v>156</v>
       </c>
       <c r="P90" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Raven' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Raven.jpg'&gt;&lt;/td&gt;&lt;td&gt;Raven&lt;/td&gt;&lt;td&gt;雷文&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Raven_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Raven_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Raven_rank' value='3'&gt;3 &lt;input type='radio' name='Raven_rank' value='4'&gt;4 &lt;input type='radio' name='Raven_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Raven_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Raven_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Raven' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Raven.jpg'&gt;&lt;/td&gt;&lt;td&gt;Raven&lt;/td&gt;&lt;td&gt;雷文&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Raven_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Raven_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Raven_rank' value='3'&gt;3 &lt;input type='radio' name='Raven_rank' value='4'&gt;4 &lt;input type='radio' name='Raven_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Raven_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Raven_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
@@ -4950,7 +4950,7 @@
         <v>94</v>
       </c>
       <c r="B91" s="1" t="str">
-        <f>LEFT(A91,(FIND(".",A91,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Renri</v>
       </c>
       <c r="C91" t="s">
@@ -4972,7 +4972,7 @@
         <v>131</v>
       </c>
       <c r="I91" s="3" t="str">
-        <f>IF(AND(G91="Y",H91="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K91" s="2" t="s">
@@ -4982,8 +4982,8 @@
         <v>136</v>
       </c>
       <c r="P91" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Renri' class='Light'&gt;&lt;td&gt;&lt;img src='img/Renri.jpg'&gt;&lt;/td&gt;&lt;td&gt;Renri&lt;/td&gt;&lt;td&gt;雷莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Renri_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Renri_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Renri_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Renri_rank' value='4'&gt;4 &lt;input type='radio' name='Renri_rank' value='5'&gt;5 &lt;input type='radio' name='Renri_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Renri_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Renri' class='Light'&gt;&lt;td&gt;&lt;img src='img/Renri.jpg'&gt;&lt;/td&gt;&lt;td&gt;Renri&lt;/td&gt;&lt;td&gt;雷莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Renri_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Renri_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Renri_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Renri_rank' value='4'&gt;4 &lt;input type='radio' name='Renri_rank' value='5'&gt;5 &lt;input type='radio' name='Renri_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Renri_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
@@ -4991,7 +4991,7 @@
         <v>95</v>
       </c>
       <c r="B92" s="1" t="str">
-        <f>LEFT(A92,(FIND(".",A92,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Riica</v>
       </c>
       <c r="C92" t="s">
@@ -5013,7 +5013,7 @@
         <v>130</v>
       </c>
       <c r="I92" s="3" t="str">
-        <f>IF(AND(G92="Y",H92="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K92" s="2" t="s">
@@ -5026,8 +5026,8 @@
         <v>159</v>
       </c>
       <c r="P92" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Riica' class='Light'&gt;&lt;td&gt;&lt;img src='img/Riica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Riica&lt;/td&gt;&lt;td&gt;莉卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Riica_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Riica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Riica_rank' value='3'&gt;3 &lt;input type='radio' name='Riica_rank' value='4'&gt;4 &lt;input type='radio' name='Riica_rank' value='5'&gt;5 &lt;input type='radio' name='Riica_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Riica_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Riica' class='Light'&gt;&lt;td&gt;&lt;img src='img/Riica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Riica&lt;/td&gt;&lt;td&gt;莉卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Riica_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Riica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Riica_rank' value='3'&gt;3 &lt;input type='radio' name='Riica_rank' value='4'&gt;4 &lt;input type='radio' name='Riica_rank' value='5'&gt;5 &lt;input type='radio' name='Riica_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Riica_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
@@ -5035,7 +5035,7 @@
         <v>96</v>
       </c>
       <c r="B93" s="1" t="str">
-        <f>LEFT(A93,(FIND(".",A93,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Rodeia</v>
       </c>
       <c r="C93" t="s">
@@ -5057,15 +5057,15 @@
         <v>130</v>
       </c>
       <c r="I93" s="3" t="str">
-        <f>IF(AND(G93="Y",H93="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>135</v>
       </c>
       <c r="P93" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Rodeia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Rodeia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rodeia&lt;/td&gt;&lt;td&gt;羅蒂亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rodeia_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rodeia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rodeia_rank' value='3'&gt;3 &lt;input type='radio' name='Rodeia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Rodeia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rodeia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rodeia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Rodeia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Rodeia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rodeia&lt;/td&gt;&lt;td&gt;羅蒂亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rodeia_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rodeia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rodeia_rank' value='3'&gt;3 &lt;input type='radio' name='Rodeia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Rodeia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rodeia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rodeia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
@@ -5073,7 +5073,7 @@
         <v>97</v>
       </c>
       <c r="B94" s="1" t="str">
-        <f>LEFT(A94,(FIND(".",A94,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Rosetta</v>
       </c>
       <c r="C94" t="s">
@@ -5095,7 +5095,7 @@
         <v>130</v>
       </c>
       <c r="I94" s="3" t="str">
-        <f>IF(AND(G94="Y",H94="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K94" s="2" t="s">
@@ -5105,8 +5105,8 @@
         <v>148</v>
       </c>
       <c r="P94" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Rosetta' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Rosetta.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rosetta&lt;/td&gt;&lt;td&gt;蘿潔塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rosetta_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rosetta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rosetta_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Rosetta_rank' value='4'&gt;4 &lt;input type='radio' name='Rosetta_rank' value='5'&gt;5 &lt;input type='radio' name='Rosetta_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rosetta_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Rosetta' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Rosetta.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rosetta&lt;/td&gt;&lt;td&gt;蘿潔塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rosetta_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rosetta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rosetta_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Rosetta_rank' value='4'&gt;4 &lt;input type='radio' name='Rosetta_rank' value='5'&gt;5 &lt;input type='radio' name='Rosetta_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rosetta_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
@@ -5114,7 +5114,7 @@
         <v>98</v>
       </c>
       <c r="B95" s="1" t="str">
-        <f>LEFT(A95,(FIND(".",A95,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Rovella</v>
       </c>
       <c r="C95" t="s">
@@ -5136,7 +5136,7 @@
         <v>130</v>
       </c>
       <c r="I95" s="3" t="str">
-        <f>IF(AND(G95="Y",H95="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K95" s="2" t="s">
@@ -5146,8 +5146,8 @@
         <v>152</v>
       </c>
       <c r="P95" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Rovella' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Rovella.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rovella&lt;/td&gt;&lt;td&gt;羅貝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rovella_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rovella_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rovella_rank' value='3'&gt;3 &lt;input type='radio' name='Rovella_rank' value='4'&gt;4 &lt;input type='radio' name='Rovella_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rovella_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rovella_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Rovella' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Rovella.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rovella&lt;/td&gt;&lt;td&gt;羅貝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rovella_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rovella_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rovella_rank' value='3'&gt;3 &lt;input type='radio' name='Rovella_rank' value='4'&gt;4 &lt;input type='radio' name='Rovella_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rovella_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rovella_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
@@ -5155,7 +5155,7 @@
         <v>99</v>
       </c>
       <c r="B96" s="1" t="str">
-        <f>LEFT(A96,(FIND(".",A96,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Rufus</v>
       </c>
       <c r="C96" t="s">
@@ -5177,7 +5177,7 @@
         <v>130</v>
       </c>
       <c r="I96" s="3" t="str">
-        <f>IF(AND(G96="Y",H96="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K96" s="2" t="s">
@@ -5187,8 +5187,8 @@
         <v>150</v>
       </c>
       <c r="P96" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Rufus' class='Light'&gt;&lt;td&gt;&lt;img src='img/Rufus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rufus&lt;/td&gt;&lt;td&gt;洛福斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rufus_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rufus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rufus_rank' value='3'&gt;3 &lt;input type='radio' name='Rufus_rank' value='4'&gt;4 &lt;input type='radio' name='Rufus_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rufus_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rufus_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Rufus' class='Light'&gt;&lt;td&gt;&lt;img src='img/Rufus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rufus&lt;/td&gt;&lt;td&gt;洛福斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rufus_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rufus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rufus_rank' value='3'&gt;3 &lt;input type='radio' name='Rufus_rank' value='4'&gt;4 &lt;input type='radio' name='Rufus_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rufus_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rufus_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
@@ -5196,7 +5196,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="1" t="str">
-        <f>LEFT(A97,(FIND(".",A97,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Ruina</v>
       </c>
       <c r="C97" t="s">
@@ -5218,7 +5218,7 @@
         <v>129</v>
       </c>
       <c r="I97" s="3" t="str">
-        <f>IF(AND(G97="Y",H97="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K97" s="2" t="s">
@@ -5228,8 +5228,8 @@
         <v>145</v>
       </c>
       <c r="P97" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Ruina' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Ruina.jpg'&gt;&lt;img src='img/Ruina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ruina&lt;/td&gt;&lt;td&gt;路伊娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ruina_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ruina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ruina_rank' value='3'&gt;3 &lt;input type='radio' name='Ruina_rank' value='4'&gt;4 &lt;input type='radio' name='Ruina_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Ruina_rank' value='AS'&gt;AS &lt;input type='radio' name='Ruina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Ruina' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Ruina.jpg'&gt;&lt;img src='img/Ruina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ruina&lt;/td&gt;&lt;td&gt;路伊娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ruina_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ruina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ruina_rank' value='3'&gt;3 &lt;input type='radio' name='Ruina_rank' value='4'&gt;4 &lt;input type='radio' name='Ruina_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Ruina_rank' value='AS'&gt;AS &lt;input type='radio' name='Ruina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
@@ -5237,7 +5237,7 @@
         <v>101</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f>LEFT(A98,(FIND(".",A98,1)-1))</f>
+        <f t="shared" ref="B98:B129" si="8">LEFT(A98,(FIND(".",A98,1)-1))</f>
         <v>Saithe</v>
       </c>
       <c r="C98" t="s">
@@ -5259,15 +5259,15 @@
         <v>130</v>
       </c>
       <c r="I98" s="3" t="str">
-        <f>IF(AND(G98="Y",H98="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>144</v>
       </c>
       <c r="P98" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Saithe' class='Light'&gt;&lt;td&gt;&lt;img src='img/Saithe.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saithe&lt;/td&gt;&lt;td&gt;賽斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saithe_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saithe_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saithe_rank' value='3'&gt;3 &lt;input type='radio' name='Saithe_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Saithe_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Saithe_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Saithe_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Saithe' class='Light'&gt;&lt;td&gt;&lt;img src='img/Saithe.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saithe&lt;/td&gt;&lt;td&gt;賽斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saithe_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saithe_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saithe_rank' value='3'&gt;3 &lt;input type='radio' name='Saithe_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Saithe_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Saithe_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Saithe_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -5275,7 +5275,7 @@
         <v>102</v>
       </c>
       <c r="B99" s="1" t="str">
-        <f>LEFT(A99,(FIND(".",A99,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Saki</v>
       </c>
       <c r="C99" t="s">
@@ -5297,15 +5297,15 @@
         <v>129</v>
       </c>
       <c r="I99" s="3" t="str">
-        <f>IF(AND(G99="Y",H99="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>151</v>
       </c>
       <c r="P99" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Saki' class='Light'&gt;&lt;td&gt;&lt;img src='img/Saki.jpg'&gt;&lt;img src='img/Saki_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saki&lt;/td&gt;&lt;td&gt;紗希&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saki_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saki_rank' value='3'&gt;3 &lt;input type='radio' name='Saki_rank' value='4'&gt;4 &lt;input type='radio' name='Saki_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Saki_rank' value='AS'&gt;AS &lt;input type='radio' name='Saki_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Saki' class='Light'&gt;&lt;td&gt;&lt;img src='img/Saki.jpg'&gt;&lt;img src='img/Saki_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saki&lt;/td&gt;&lt;td&gt;紗希&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saki_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saki_rank' value='3'&gt;3 &lt;input type='radio' name='Saki_rank' value='4'&gt;4 &lt;input type='radio' name='Saki_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Saki_rank' value='AS'&gt;AS &lt;input type='radio' name='Saki_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
@@ -5313,7 +5313,7 @@
         <v>103</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f>LEFT(A100,(FIND(".",A100,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Samora</v>
       </c>
       <c r="C100" t="s">
@@ -5335,7 +5335,7 @@
         <v>130</v>
       </c>
       <c r="I100" s="3" t="str">
-        <f>IF(AND(G100="Y",H100="Y"),"Y","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="K100" s="2" t="s">
@@ -5345,8 +5345,8 @@
         <v>150</v>
       </c>
       <c r="P100" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Samora' class='Light'&gt;&lt;td&gt;&lt;img src='img/Samora.jpg'&gt;&lt;/td&gt;&lt;td&gt;Samora&lt;/td&gt;&lt;td&gt;薩摩拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Samora_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Samora_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Samora_rank' value='3'&gt;3 &lt;input type='radio' name='Samora_rank' value='4'&gt;4 &lt;input type='radio' name='Samora_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Samora_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Samora_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Samora' class='Light'&gt;&lt;td&gt;&lt;img src='img/Samora.jpg'&gt;&lt;/td&gt;&lt;td&gt;Samora&lt;/td&gt;&lt;td&gt;薩摩拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Samora_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Samora_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Samora_rank' value='3'&gt;3 &lt;input type='radio' name='Samora_rank' value='4'&gt;4 &lt;input type='radio' name='Samora_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Samora_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Samora_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
@@ -5354,7 +5354,7 @@
         <v>104</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f>LEFT(A101,(FIND(".",A101,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Sauria</v>
       </c>
       <c r="C101" t="s">
@@ -5376,15 +5376,15 @@
         <v>130</v>
       </c>
       <c r="I101" s="3" t="str">
-        <f>IF(AND(G101="Y",H101="Y"),"Y","N")</f>
+        <f t="shared" ref="I101:I132" si="9">IF(AND(G101="Y",H101="Y"),"Y","N")</f>
         <v>N</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>144</v>
       </c>
       <c r="P101" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Sauria' class='Light'&gt;&lt;td&gt;&lt;img src='img/Sauria.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sauria&lt;/td&gt;&lt;td&gt;秀莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sauria_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sauria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sauria_rank' value='3'&gt;3 &lt;input type='radio' name='Sauria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Sauria_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sauria_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sauria_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Sauria' class='Light'&gt;&lt;td&gt;&lt;img src='img/Sauria.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sauria&lt;/td&gt;&lt;td&gt;秀莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sauria_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sauria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sauria_rank' value='3'&gt;3 &lt;input type='radio' name='Sauria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Sauria_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sauria_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sauria_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
@@ -5392,7 +5392,7 @@
         <v>105</v>
       </c>
       <c r="B102" s="1" t="str">
-        <f>LEFT(A102,(FIND(".",A102,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Sevyn</v>
       </c>
       <c r="C102" t="s">
@@ -5414,7 +5414,7 @@
         <v>130</v>
       </c>
       <c r="I102" s="3" t="str">
-        <f>IF(AND(G102="Y",H102="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K102" s="2" t="s">
@@ -5424,8 +5424,8 @@
         <v>145</v>
       </c>
       <c r="P102" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Sevyn' class='Light'&gt;&lt;td&gt;&lt;img src='img/Sevyn.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sevyn&lt;/td&gt;&lt;td&gt;賽溫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sevyn_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sevyn_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sevyn_rank' value='3'&gt;3 &lt;input type='radio' name='Sevyn_rank' value='4'&gt;4 &lt;input type='radio' name='Sevyn_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sevyn_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sevyn_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Sevyn' class='Light'&gt;&lt;td&gt;&lt;img src='img/Sevyn.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sevyn&lt;/td&gt;&lt;td&gt;賽溫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sevyn_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sevyn_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sevyn_rank' value='3'&gt;3 &lt;input type='radio' name='Sevyn_rank' value='4'&gt;4 &lt;input type='radio' name='Sevyn_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sevyn_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sevyn_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
@@ -5433,7 +5433,7 @@
         <v>106</v>
       </c>
       <c r="B103" s="1" t="str">
-        <f>LEFT(A103,(FIND(".",A103,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Shanie</v>
       </c>
       <c r="C103" t="s">
@@ -5455,7 +5455,7 @@
         <v>129</v>
       </c>
       <c r="I103" s="3" t="str">
-        <f>IF(AND(G103="Y",H103="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="K103" s="2" t="s">
@@ -5465,8 +5465,8 @@
         <v>141</v>
       </c>
       <c r="P103" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Shanie' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shanie.jpg'&gt;&lt;img src='img/Shanie_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shanie&lt;/td&gt;&lt;td&gt;謝奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shanie_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shanie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shanie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shanie_rank' value='4'&gt;4 &lt;input type='radio' name='Shanie_rank' value='5'&gt;5 &lt;input type='radio' name='Shanie_rank' value='AS'&gt;AS &lt;input type='radio' name='Shanie_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Shanie' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shanie.jpg'&gt;&lt;img src='img/Shanie_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shanie&lt;/td&gt;&lt;td&gt;謝奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shanie_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shanie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shanie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shanie_rank' value='4'&gt;4 &lt;input type='radio' name='Shanie_rank' value='5'&gt;5 &lt;input type='radio' name='Shanie_rank' value='AS'&gt;AS &lt;input type='radio' name='Shanie_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
@@ -5474,7 +5474,7 @@
         <v>107</v>
       </c>
       <c r="B104" s="1" t="str">
-        <f>LEFT(A104,(FIND(".",A104,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Shannon</v>
       </c>
       <c r="C104" t="s">
@@ -5496,7 +5496,7 @@
         <v>131</v>
       </c>
       <c r="I104" s="3" t="str">
-        <f>IF(AND(G104="Y",H104="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K104" s="2" t="s">
@@ -5506,8 +5506,8 @@
         <v>145</v>
       </c>
       <c r="P104" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Shannon' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shannon.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shannon&lt;/td&gt;&lt;td&gt;夏濃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shannon_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shannon_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shannon_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shannon_rank' value='4'&gt;4 &lt;input type='radio' name='Shannon_rank' value='5'&gt;5 &lt;input type='radio' name='Shannon_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Shannon_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Shannon' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shannon.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shannon&lt;/td&gt;&lt;td&gt;夏濃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shannon_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shannon_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shannon_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shannon_rank' value='4'&gt;4 &lt;input type='radio' name='Shannon_rank' value='5'&gt;5 &lt;input type='radio' name='Shannon_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Shannon_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
@@ -5515,7 +5515,7 @@
         <v>108</v>
       </c>
       <c r="B105" s="1" t="str">
-        <f>LEFT(A105,(FIND(".",A105,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Sheila</v>
       </c>
       <c r="C105" t="s">
@@ -5537,7 +5537,7 @@
         <v>130</v>
       </c>
       <c r="I105" s="3" t="str">
-        <f>IF(AND(G105="Y",H105="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K105" s="2" t="s">
@@ -5547,8 +5547,8 @@
         <v>152</v>
       </c>
       <c r="P105" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Sheila' class='Light'&gt;&lt;td&gt;&lt;img src='img/Sheila.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sheila&lt;/td&gt;&lt;td&gt;謝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sheila_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sheila_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sheila_rank' value='3'&gt;3 &lt;input type='radio' name='Sheila_rank' value='4'&gt;4 &lt;input type='radio' name='Sheila_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sheila_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sheila_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Sheila' class='Light'&gt;&lt;td&gt;&lt;img src='img/Sheila.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sheila&lt;/td&gt;&lt;td&gt;謝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sheila_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sheila_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sheila_rank' value='3'&gt;3 &lt;input type='radio' name='Sheila_rank' value='4'&gt;4 &lt;input type='radio' name='Sheila_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sheila_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sheila_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
@@ -5556,7 +5556,7 @@
         <v>109</v>
       </c>
       <c r="B106" s="1" t="str">
-        <f>LEFT(A106,(FIND(".",A106,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Shigure</v>
       </c>
       <c r="C106" t="s">
@@ -5578,7 +5578,7 @@
         <v>130</v>
       </c>
       <c r="I106" s="3" t="str">
-        <f>IF(AND(G106="Y",H106="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K106" s="2" t="s">
@@ -5588,8 +5588,8 @@
         <v>152</v>
       </c>
       <c r="P106" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Shigure' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shigure.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shigure&lt;/td&gt;&lt;td&gt;時雨&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shigure_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shigure_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shigure_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shigure_rank' value='4'&gt;4 &lt;input type='radio' name='Shigure_rank' value='5'&gt;5 &lt;input type='radio' name='Shigure_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Shigure_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Shigure' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shigure.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shigure&lt;/td&gt;&lt;td&gt;時雨&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shigure_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shigure_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shigure_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shigure_rank' value='4'&gt;4 &lt;input type='radio' name='Shigure_rank' value='5'&gt;5 &lt;input type='radio' name='Shigure_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Shigure_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
@@ -5597,7 +5597,7 @@
         <v>110</v>
       </c>
       <c r="B107" s="1" t="str">
-        <f>LEFT(A107,(FIND(".",A107,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Shion</v>
       </c>
       <c r="C107" t="s">
@@ -5619,7 +5619,7 @@
         <v>129</v>
       </c>
       <c r="I107" s="3" t="str">
-        <f>IF(AND(G107="Y",H107="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="K107" s="2" t="s">
@@ -5629,8 +5629,8 @@
         <v>136</v>
       </c>
       <c r="P107" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Shion' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shion.jpg'&gt;&lt;img src='img/Shion_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shion&lt;/td&gt;&lt;td&gt;紫央&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shion_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shion_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shion_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shion_rank' value='4'&gt;4 &lt;input type='radio' name='Shion_rank' value='5'&gt;5 &lt;input type='radio' name='Shion_rank' value='AS'&gt;AS &lt;input type='radio' name='Shion_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Shion' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shion.jpg'&gt;&lt;img src='img/Shion_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shion&lt;/td&gt;&lt;td&gt;紫央&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shion_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shion_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shion_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shion_rank' value='4'&gt;4 &lt;input type='radio' name='Shion_rank' value='5'&gt;5 &lt;input type='radio' name='Shion_rank' value='AS'&gt;AS &lt;input type='radio' name='Shion_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
@@ -5638,7 +5638,7 @@
         <v>111</v>
       </c>
       <c r="B108" s="1" t="str">
-        <f>LEFT(A108,(FIND(".",A108,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Soira</v>
       </c>
       <c r="C108" t="s">
@@ -5660,7 +5660,7 @@
         <v>130</v>
       </c>
       <c r="I108" s="3" t="str">
-        <f>IF(AND(G108="Y",H108="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K108" s="2" t="s">
@@ -5670,8 +5670,8 @@
         <v>155</v>
       </c>
       <c r="P108" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Soira' class='Light'&gt;&lt;td&gt;&lt;img src='img/Soira.jpg'&gt;&lt;/td&gt;&lt;td&gt;Soira&lt;/td&gt;&lt;td&gt;蘇依萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Soira_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Soira_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Soira_rank' value='3'&gt;3 &lt;input type='radio' name='Soira_rank' value='4'&gt;4 &lt;input type='radio' name='Soira_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Soira_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Soira_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Soira' class='Light'&gt;&lt;td&gt;&lt;img src='img/Soira.jpg'&gt;&lt;/td&gt;&lt;td&gt;Soira&lt;/td&gt;&lt;td&gt;蘇依萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Soira_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Soira_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Soira_rank' value='3'&gt;3 &lt;input type='radio' name='Soira_rank' value='4'&gt;4 &lt;input type='radio' name='Soira_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Soira_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Soira_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
@@ -5679,7 +5679,7 @@
         <v>112</v>
       </c>
       <c r="B109" s="1" t="str">
-        <f>LEFT(A109,(FIND(".",A109,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Suzette</v>
       </c>
       <c r="C109" t="s">
@@ -5701,7 +5701,7 @@
         <v>129</v>
       </c>
       <c r="I109" s="3" t="str">
-        <f>IF(AND(G109="Y",H109="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="K109" s="2" t="s">
@@ -5711,8 +5711,8 @@
         <v>155</v>
       </c>
       <c r="P109" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Suzette' class='Light'&gt;&lt;td&gt;&lt;img src='img/Suzette.jpg'&gt;&lt;img src='img/Suzette_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Suzette&lt;/td&gt;&lt;td&gt;蘇賽特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Suzette_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Suzette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Suzette_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Suzette_rank' value='4'&gt;4 &lt;input type='radio' name='Suzette_rank' value='5'&gt;5 &lt;input type='radio' name='Suzette_rank' value='AS'&gt;AS &lt;input type='radio' name='Suzette_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Suzette' class='Light'&gt;&lt;td&gt;&lt;img src='img/Suzette.jpg'&gt;&lt;img src='img/Suzette_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Suzette&lt;/td&gt;&lt;td&gt;蘇賽特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Suzette_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Suzette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Suzette_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Suzette_rank' value='4'&gt;4 &lt;input type='radio' name='Suzette_rank' value='5'&gt;5 &lt;input type='radio' name='Suzette_rank' value='AS'&gt;AS &lt;input type='radio' name='Suzette_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
@@ -5720,7 +5720,7 @@
         <v>113</v>
       </c>
       <c r="B110" s="1" t="str">
-        <f>LEFT(A110,(FIND(".",A110,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Tayme</v>
       </c>
       <c r="C110" t="s">
@@ -5742,15 +5742,15 @@
         <v>130</v>
       </c>
       <c r="I110" s="3" t="str">
-        <f>IF(AND(G110="Y",H110="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>133</v>
       </c>
       <c r="P110" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Tayme' class='Light'&gt;&lt;td&gt;&lt;img src='img/Tayme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tayme&lt;/td&gt;&lt;td&gt;提姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tayme_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tayme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tayme_rank' value='3'&gt;3 &lt;input type='radio' name='Tayme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tayme_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Tayme_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tayme_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Tayme' class='Light'&gt;&lt;td&gt;&lt;img src='img/Tayme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tayme&lt;/td&gt;&lt;td&gt;提姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tayme_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tayme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tayme_rank' value='3'&gt;3 &lt;input type='radio' name='Tayme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tayme_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Tayme_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tayme_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
@@ -5758,7 +5758,7 @@
         <v>114</v>
       </c>
       <c r="B111" s="1" t="str">
-        <f>LEFT(A111,(FIND(".",A111,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Tohme</v>
       </c>
       <c r="C111" t="s">
@@ -5780,7 +5780,7 @@
         <v>130</v>
       </c>
       <c r="I111" s="3" t="str">
-        <f>IF(AND(G111="Y",H111="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K111" s="2" t="s">
@@ -5790,8 +5790,8 @@
         <v>133</v>
       </c>
       <c r="P111" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Tohme' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Tohme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tohme&lt;/td&gt;&lt;td&gt;托姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tohme_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tohme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tohme_rank' value='3'&gt;3 &lt;input type='radio' name='Tohme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tohme_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Tohme_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tohme_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Tohme' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Tohme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tohme&lt;/td&gt;&lt;td&gt;托姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tohme_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tohme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tohme_rank' value='3'&gt;3 &lt;input type='radio' name='Tohme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tohme_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Tohme_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tohme_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
@@ -5799,7 +5799,7 @@
         <v>115</v>
       </c>
       <c r="B112" s="1" t="str">
-        <f>LEFT(A112,(FIND(".",A112,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Toole</v>
       </c>
       <c r="C112" t="s">
@@ -5821,15 +5821,15 @@
         <v>130</v>
       </c>
       <c r="I112" s="3" t="str">
-        <f>IF(AND(G112="Y",H112="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>133</v>
       </c>
       <c r="P112" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Toole' class='Light'&gt;&lt;td&gt;&lt;img src='img/Toole.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toole&lt;/td&gt;&lt;td&gt;托爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toole_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toole_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toole_rank' value='3'&gt;3 &lt;input type='radio' name='Toole_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Toole_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Toole_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Toole_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Toole' class='Light'&gt;&lt;td&gt;&lt;img src='img/Toole.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toole&lt;/td&gt;&lt;td&gt;托爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toole_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toole_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toole_rank' value='3'&gt;3 &lt;input type='radio' name='Toole_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Toole_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Toole_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Toole_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
@@ -5837,7 +5837,7 @@
         <v>116</v>
       </c>
       <c r="B113" s="1" t="str">
-        <f>LEFT(A113,(FIND(".",A113,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Toova</v>
       </c>
       <c r="C113" t="s">
@@ -5859,7 +5859,7 @@
         <v>129</v>
       </c>
       <c r="I113" s="3" t="str">
-        <f>IF(AND(G113="Y",H113="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="K113" s="2" t="s">
@@ -5869,8 +5869,8 @@
         <v>156</v>
       </c>
       <c r="P113" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Toova' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Toova.jpg'&gt;&lt;img src='img/Toova_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toova&lt;/td&gt;&lt;td&gt;杜娃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toova_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toova_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toova_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Toova_rank' value='4'&gt;4 &lt;input type='radio' name='Toova_rank' value='5'&gt;5 &lt;input type='radio' name='Toova_rank' value='AS'&gt;AS &lt;input type='radio' name='Toova_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Toova' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Toova.jpg'&gt;&lt;img src='img/Toova_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toova&lt;/td&gt;&lt;td&gt;杜娃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toova_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toova_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toova_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Toova_rank' value='4'&gt;4 &lt;input type='radio' name='Toova_rank' value='5'&gt;5 &lt;input type='radio' name='Toova_rank' value='AS'&gt;AS &lt;input type='radio' name='Toova_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
@@ -5878,7 +5878,7 @@
         <v>117</v>
       </c>
       <c r="B114" s="1" t="str">
-        <f>LEFT(A114,(FIND(".",A114,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Tsubame</v>
       </c>
       <c r="C114" t="s">
@@ -5900,7 +5900,7 @@
         <v>130</v>
       </c>
       <c r="I114" s="3" t="str">
-        <f>IF(AND(G114="Y",H114="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K114" s="2" t="s">
@@ -5913,8 +5913,8 @@
         <v>159</v>
       </c>
       <c r="P114" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Tsubame' class='Light'&gt;&lt;td&gt;&lt;img src='img/Tsubame.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsubame&lt;/td&gt;&lt;td&gt;燕&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsubame_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsubame_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsubame_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsubame_rank' value='4'&gt;4 &lt;input type='radio' name='Tsubame_rank' value='5'&gt;5 &lt;input type='radio' name='Tsubame_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tsubame_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Tsubame' class='Light'&gt;&lt;td&gt;&lt;img src='img/Tsubame.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsubame&lt;/td&gt;&lt;td&gt;燕&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsubame_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsubame_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsubame_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsubame_rank' value='4'&gt;4 &lt;input type='radio' name='Tsubame_rank' value='5'&gt;5 &lt;input type='radio' name='Tsubame_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tsubame_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
@@ -5922,7 +5922,7 @@
         <v>118</v>
       </c>
       <c r="B115" s="1" t="str">
-        <f>LEFT(A115,(FIND(".",A115,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Tsukiha</v>
       </c>
       <c r="C115" t="s">
@@ -5944,7 +5944,7 @@
         <v>130</v>
       </c>
       <c r="I115" s="3" t="str">
-        <f>IF(AND(G115="Y",H115="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K115" s="2" t="s">
@@ -5954,8 +5954,8 @@
         <v>136</v>
       </c>
       <c r="P115" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Tsukiha' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Tsukiha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsukiha&lt;/td&gt;&lt;td&gt;月華&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsukiha_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsukiha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsukiha_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsukiha_rank' value='4'&gt;4 &lt;input type='radio' name='Tsukiha_rank' value='5'&gt;5 &lt;input type='radio' name='Tsukiha_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tsukiha_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Tsukiha' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Tsukiha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsukiha&lt;/td&gt;&lt;td&gt;月華&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsukiha_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsukiha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsukiha_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsukiha_rank' value='4'&gt;4 &lt;input type='radio' name='Tsukiha_rank' value='5'&gt;5 &lt;input type='radio' name='Tsukiha_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tsukiha_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
@@ -5963,7 +5963,7 @@
         <v>119</v>
       </c>
       <c r="B116" s="1" t="str">
-        <f>LEFT(A116,(FIND(".",A116,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Urania</v>
       </c>
       <c r="C116" t="s">
@@ -5985,15 +5985,15 @@
         <v>130</v>
       </c>
       <c r="I116" s="3" t="str">
-        <f>IF(AND(G116="Y",H116="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>133</v>
       </c>
       <c r="P116" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Urania' class='Light'&gt;&lt;td&gt;&lt;img src='img/Urania.jpg'&gt;&lt;/td&gt;&lt;td&gt;Urania&lt;/td&gt;&lt;td&gt;烏拉尼雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Urania_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Urania_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Urania_rank' value='3'&gt;3 &lt;input type='radio' name='Urania_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Urania_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Urania_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Urania_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Urania' class='Light'&gt;&lt;td&gt;&lt;img src='img/Urania.jpg'&gt;&lt;/td&gt;&lt;td&gt;Urania&lt;/td&gt;&lt;td&gt;烏拉尼雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Urania_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Urania_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Urania_rank' value='3'&gt;3 &lt;input type='radio' name='Urania_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Urania_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Urania_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Urania_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
@@ -6001,7 +6001,7 @@
         <v>120</v>
       </c>
       <c r="B117" s="1" t="str">
-        <f>LEFT(A117,(FIND(".",A117,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Uuo</v>
       </c>
       <c r="C117" t="s">
@@ -6023,15 +6023,15 @@
         <v>130</v>
       </c>
       <c r="I117" s="3" t="str">
-        <f>IF(AND(G117="Y",H117="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>135</v>
       </c>
       <c r="P117" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Uuo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Uuo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Uuo&lt;/td&gt;&lt;td&gt;烏奧&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Uuo_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Uuo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Uuo_rank' value='3'&gt;3 &lt;input type='radio' name='Uuo_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Uuo_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Uuo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Uuo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Uuo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Uuo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Uuo&lt;/td&gt;&lt;td&gt;烏奧&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Uuo_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Uuo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Uuo_rank' value='3'&gt;3 &lt;input type='radio' name='Uuo_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Uuo_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Uuo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Uuo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
@@ -6039,7 +6039,7 @@
         <v>121</v>
       </c>
       <c r="B118" s="1" t="str">
-        <f>LEFT(A118,(FIND(".",A118,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Veina</v>
       </c>
       <c r="C118" t="s">
@@ -6061,7 +6061,7 @@
         <v>131</v>
       </c>
       <c r="I118" s="3" t="str">
-        <f>IF(AND(G118="Y",H118="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K118" s="2" t="s">
@@ -6071,8 +6071,8 @@
         <v>189</v>
       </c>
       <c r="P118" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Veina' class='Light'&gt;&lt;td&gt;&lt;img src='img/Veina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Veina&lt;/td&gt;&lt;td&gt;維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Veina_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Veina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Veina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Veina_rank' value='4'&gt;4 &lt;input type='radio' name='Veina_rank' value='5'&gt;5 &lt;input type='radio' name='Veina_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Veina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Veina' class='Light'&gt;&lt;td&gt;&lt;img src='img/Veina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Veina&lt;/td&gt;&lt;td&gt;維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Veina_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Veina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Veina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Veina_rank' value='4'&gt;4 &lt;input type='radio' name='Veina_rank' value='5'&gt;5 &lt;input type='radio' name='Veina_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Veina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
@@ -6080,7 +6080,7 @@
         <v>122</v>
       </c>
       <c r="B119" s="1" t="str">
-        <f>LEFT(A119,(FIND(".",A119,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Yazuki</v>
       </c>
       <c r="C119" t="s">
@@ -6102,15 +6102,15 @@
         <v>130</v>
       </c>
       <c r="I119" s="3" t="str">
-        <f>IF(AND(G119="Y",H119="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>145</v>
       </c>
       <c r="P119" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Yazuki' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yazuki.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yazuki&lt;/td&gt;&lt;td&gt;耶月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yazuki_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yazuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yazuki_rank' value='3'&gt;3 &lt;input type='radio' name='Yazuki_rank' value='4'&gt;4 &lt;input type='radio' name='Yazuki_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yazuki_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yazuki_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Yazuki' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yazuki.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yazuki&lt;/td&gt;&lt;td&gt;耶月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yazuki_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yazuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yazuki_rank' value='3'&gt;3 &lt;input type='radio' name='Yazuki_rank' value='4'&gt;4 &lt;input type='radio' name='Yazuki_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yazuki_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yazuki_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
@@ -6118,7 +6118,7 @@
         <v>123</v>
       </c>
       <c r="B120" s="1" t="str">
-        <f>LEFT(A120,(FIND(".",A120,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Yio</v>
       </c>
       <c r="C120" t="s">
@@ -6140,7 +6140,7 @@
         <v>130</v>
       </c>
       <c r="I120" s="3" t="str">
-        <f>IF(AND(G120="Y",H120="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K120" s="2" t="s">
@@ -6150,8 +6150,8 @@
         <v>157</v>
       </c>
       <c r="P120" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Yio' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yio.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yio&lt;/td&gt;&lt;td&gt;伊俄&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yio_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yio_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yio_rank' value='3'&gt;3 &lt;input type='radio' name='Yio_rank' value='4'&gt;4 &lt;input type='radio' name='Yio_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yio_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yio_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Yio' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yio.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yio&lt;/td&gt;&lt;td&gt;伊俄&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yio_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yio_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yio_rank' value='3'&gt;3 &lt;input type='radio' name='Yio_rank' value='4'&gt;4 &lt;input type='radio' name='Yio_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yio_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yio_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
@@ -6159,7 +6159,7 @@
         <v>124</v>
       </c>
       <c r="B121" s="1" t="str">
-        <f>LEFT(A121,(FIND(".",A121,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Yssis</v>
       </c>
       <c r="C121" t="s">
@@ -6181,15 +6181,15 @@
         <v>130</v>
       </c>
       <c r="I121" s="3" t="str">
-        <f>IF(AND(G121="Y",H121="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>132</v>
       </c>
       <c r="P121" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Yssis' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yssis.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yssis&lt;/td&gt;&lt;td&gt;伊西斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yssis_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yssis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yssis_rank' value='3'&gt;3 &lt;input type='radio' name='Yssis_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Yssis_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yssis_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yssis_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Yssis' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yssis.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yssis&lt;/td&gt;&lt;td&gt;伊西斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yssis_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yssis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yssis_rank' value='3'&gt;3 &lt;input type='radio' name='Yssis_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Yssis_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yssis_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yssis_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
@@ -6197,7 +6197,7 @@
         <v>125</v>
       </c>
       <c r="B122" s="1" t="str">
-        <f>LEFT(A122,(FIND(".",A122,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Yuna</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -6219,7 +6219,7 @@
         <v>129</v>
       </c>
       <c r="I122" s="3" t="str">
-        <f>IF(AND(G122="Y",H122="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="K122" s="2" t="s">
@@ -6232,8 +6232,8 @@
         <v>188</v>
       </c>
       <c r="P122" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Yuna' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yuna.jpg'&gt;&lt;img src='img/Yuna_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yuna&lt;/td&gt;&lt;td&gt;由奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yuna_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yuna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yuna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Yuna_rank' value='4'&gt;4 &lt;input type='radio' name='Yuna_rank' value='5'&gt;5 &lt;input type='radio' name='Yuna_rank' value='AS'&gt;AS &lt;input type='radio' name='Yuna_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Yuna' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yuna.jpg'&gt;&lt;img src='img/Yuna_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yuna&lt;/td&gt;&lt;td&gt;由奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yuna_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yuna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yuna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Yuna_rank' value='4'&gt;4 &lt;input type='radio' name='Yuna_rank' value='5'&gt;5 &lt;input type='radio' name='Yuna_rank' value='AS'&gt;AS &lt;input type='radio' name='Yuna_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
@@ -6241,7 +6241,7 @@
         <v>126</v>
       </c>
       <c r="B123" s="1" t="str">
-        <f>LEFT(A123,(FIND(".",A123,1)-1))</f>
+        <f t="shared" si="8"/>
         <v>Zilva</v>
       </c>
       <c r="C123" t="s">
@@ -6263,7 +6263,7 @@
         <v>130</v>
       </c>
       <c r="I123" s="3" t="str">
-        <f>IF(AND(G123="Y",H123="Y"),"Y","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K123" s="2" t="s">
@@ -6273,8 +6273,8 @@
         <v>157</v>
       </c>
       <c r="P123" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Zilva' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Zilva.jpg'&gt;&lt;/td&gt;&lt;td&gt;Zilva&lt;/td&gt;&lt;td&gt;茲爾巴&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Zilva_LS' min='0' max='255' value='0'&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Zilva_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Zilva_rank' value='3'&gt;3 &lt;input type='radio' name='Zilva_rank' value='4'&gt;4 &lt;input type='radio' name='Zilva_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Zilva_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Zilva_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr id='Zilva' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Zilva.jpg'&gt;&lt;/td&gt;&lt;td&gt;Zilva&lt;/td&gt;&lt;td&gt;茲爾巴&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Zilva_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Zilva_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Zilva_rank' value='3'&gt;3 &lt;input type='radio' name='Zilva_rank' value='4'&gt;4 &lt;input type='radio' name='Zilva_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Zilva_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Zilva_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/charList.xlsx
+++ b/charList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/another_picker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{1C47ABA8-6086-45B0-BBFE-001F8D89FB28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5D4D6DB5-6206-46F4-905B-97B10625D3A3}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="113_{EDAF8704-33BD-42A1-9BF0-839D1C6DA06E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{90C2BA62-A5B2-4D63-AB8B-82D69AACE0FF}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{FB4A35C3-13BA-439C-92C2-A466A92FB7C5}"/>
   </bookViews>
@@ -1295,7 +1295,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2:P123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1385,8 +1385,8 @@
         <v>136</v>
       </c>
       <c r="P2" s="1" t="str">
-        <f>"&lt;tr id='"&amp;B2&amp;"' class='"&amp;D2&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A2&amp;"'&gt;"&amp;IF(H2="Y","&lt;img src='img/"&amp;B2&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K2&amp;".png'&gt;"&amp;IF(L2="","","&lt;img src='img/type/"&amp;L2&amp;".png'&gt;")&amp;IF(M2="","","&lt;img src='img/type/"&amp;M2&amp;".png'&gt;")&amp;IF(N2="","","&lt;img src='img/type/"&amp;N2&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;B2&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;B2&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;B2&amp;"_rank' value='3'"&amp;IF(E2="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;B2&amp;"_rank' value='4'"&amp;IF(F2="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;B2&amp;"_rank' value='5'"&amp;IF(G2="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;B2&amp;"_rank' value='AS'"&amp;IF(H2="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;B2&amp;"_rank' value='Both'"&amp;IF(I2="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr id='Akane' class='Light'&gt;&lt;td&gt;&lt;img src='img/Akane.jpg'&gt;&lt;img src='img/Akane_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Akane&lt;/td&gt;&lt;td&gt;茜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Akane_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Akane_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Akane_rank' value='3'&gt;3 &lt;input type='radio' name='Akane_rank' value='4'&gt;4 &lt;input type='radio' name='Akane_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Akane_rank' value='AS'&gt;AS &lt;input type='radio' name='Akane_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr id='"&amp;SUBSTITUTE(B2," ","")&amp;"' class='"&amp;D2&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A2&amp;"'&gt;"&amp;IF(H2="Y","&lt;img src='img/"&amp;B2&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K2&amp;".png'&gt;"&amp;IF(L2="","","&lt;img src='img/type/"&amp;L2&amp;".png'&gt;")&amp;IF(M2="","","&lt;img src='img/type/"&amp;M2&amp;".png'&gt;")&amp;IF(N2="","","&lt;img src='img/type/"&amp;N2&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B2," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='3'"&amp;IF(E2="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='4'"&amp;IF(F2="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='5'"&amp;IF(G2="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='AS'"&amp;IF(H2="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='Both'"&amp;IF(I2="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr id='Akane' class='Light'&gt;&lt;td&gt;&lt;img src='img/Akane.jpg'&gt;&lt;img src='img/Akane_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Akane&lt;/td&gt;&lt;td&gt;茜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Akane_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Akane_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Akane_rank' value='3'&gt;3 &lt;input type='radio' name='Akane_rank' value='4'&gt;4 &lt;input type='radio' name='Akane_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Akane_rank' value='AS'&gt;AS &lt;input type='radio' name='Akane_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1426,8 +1426,8 @@
         <v>136</v>
       </c>
       <c r="P3" s="1" t="str">
-        <f t="shared" ref="P3:P66" si="1">"&lt;tr id='"&amp;B3&amp;"' class='"&amp;D3&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A3&amp;"'&gt;"&amp;IF(H3="Y","&lt;img src='img/"&amp;B3&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C3&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K3&amp;".png'&gt;"&amp;IF(L3="","","&lt;img src='img/type/"&amp;L3&amp;".png'&gt;")&amp;IF(M3="","","&lt;img src='img/type/"&amp;M3&amp;".png'&gt;")&amp;IF(N3="","","&lt;img src='img/type/"&amp;N3&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;B3&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;B3&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;B3&amp;"_rank' value='3'"&amp;IF(E3="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;B3&amp;"_rank' value='4'"&amp;IF(F3="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;B3&amp;"_rank' value='5'"&amp;IF(G3="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;B3&amp;"_rank' value='AS'"&amp;IF(H3="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;B3&amp;"_rank' value='Both'"&amp;IF(I3="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr id='Aldo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Aldo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Aldo&lt;/td&gt;&lt;td&gt;阿爾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Aldo_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Aldo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Aldo_rank' value='3'&gt;3 &lt;input type='radio' name='Aldo_rank' value='4'&gt;4 &lt;input type='radio' name='Aldo_rank' value='5'&gt;5 &lt;input type='radio' name='Aldo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Aldo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="P3:P66" si="1">"&lt;tr id='"&amp;SUBSTITUTE(B3," ","")&amp;"' class='"&amp;D3&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A3&amp;"'&gt;"&amp;IF(H3="Y","&lt;img src='img/"&amp;B3&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C3&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K3&amp;".png'&gt;"&amp;IF(L3="","","&lt;img src='img/type/"&amp;L3&amp;".png'&gt;")&amp;IF(M3="","","&lt;img src='img/type/"&amp;M3&amp;".png'&gt;")&amp;IF(N3="","","&lt;img src='img/type/"&amp;N3&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B3," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='3'"&amp;IF(E3="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='4'"&amp;IF(F3="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='5'"&amp;IF(G3="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='AS'"&amp;IF(H3="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='Both'"&amp;IF(I3="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr id='Aldo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Aldo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Aldo&lt;/td&gt;&lt;td&gt;阿爾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Aldo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Aldo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Aldo_rank' value='3'&gt;3 &lt;input type='radio' name='Aldo_rank' value='4'&gt;4 &lt;input type='radio' name='Aldo_rank' value='5'&gt;5 &lt;input type='radio' name='Aldo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Aldo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="P4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Altena' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Altena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Altena&lt;/td&gt;&lt;td&gt;阿露緹娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Altena_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Altena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Altena_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Altena_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Altena_rank' value='5'&gt;5 &lt;input type='radio' name='Altena_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Altena_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Altena' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Altena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Altena&lt;/td&gt;&lt;td&gt;阿露緹娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Altena_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Altena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Altena_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Altena_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Altena_rank' value='5'&gt;5 &lt;input type='radio' name='Altena_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Altena_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="P5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Amy' class='Light'&gt;&lt;td&gt;&lt;img src='img/Amy.jpg'&gt;&lt;/td&gt;&lt;td&gt;Amy&lt;/td&gt;&lt;td&gt;艾米&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Amy_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Amy_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Amy_rank' value='3'&gt;3 &lt;input type='radio' name='Amy_rank' value='4'&gt;4 &lt;input type='radio' name='Amy_rank' value='5'&gt;5 &lt;input type='radio' name='Amy_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Amy_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Amy' class='Light'&gt;&lt;td&gt;&lt;img src='img/Amy.jpg'&gt;&lt;/td&gt;&lt;td&gt;Amy&lt;/td&gt;&lt;td&gt;艾米&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Amy_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Amy_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Amy_rank' value='3'&gt;3 &lt;input type='radio' name='Amy_rank' value='4'&gt;4 &lt;input type='radio' name='Amy_rank' value='5'&gt;5 &lt;input type='radio' name='Amy_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Amy_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="P6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Anabel' class='Light'&gt;&lt;td&gt;&lt;img src='img/Anabel.jpg'&gt;&lt;/td&gt;&lt;td&gt;Anabel&lt;/td&gt;&lt;td&gt;安娜貝爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Anabel_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Anabel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Anabel_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Anabel_rank' value='4'&gt;4 &lt;input type='radio' name='Anabel_rank' value='5'&gt;5 &lt;input type='radio' name='Anabel_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Anabel_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Anabel' class='Light'&gt;&lt;td&gt;&lt;img src='img/Anabel.jpg'&gt;&lt;/td&gt;&lt;td&gt;Anabel&lt;/td&gt;&lt;td&gt;安娜貝爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Anabel_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Anabel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Anabel_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Anabel_rank' value='4'&gt;4 &lt;input type='radio' name='Anabel_rank' value='5'&gt;5 &lt;input type='radio' name='Anabel_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Anabel_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="P7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Asia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Asia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Asia&lt;/td&gt;&lt;td&gt;艾希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Asia_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Asia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Asia_rank' value='3'&gt;3 &lt;input type='radio' name='Asia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Asia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Asia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Asia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Asia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Asia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Asia&lt;/td&gt;&lt;td&gt;艾希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Asia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Asia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Asia_rank' value='3'&gt;3 &lt;input type='radio' name='Asia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Asia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Asia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Asia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="P8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Azami' class='Light'&gt;&lt;td&gt;&lt;img src='img/Azami.jpg'&gt;&lt;/td&gt;&lt;td&gt;Azami&lt;/td&gt;&lt;td&gt;阿佐美&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Azami_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Azami_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Azami_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Azami_rank' value='4'&gt;4 &lt;input type='radio' name='Azami_rank' value='5'&gt;5 &lt;input type='radio' name='Azami_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Azami_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Azami' class='Light'&gt;&lt;td&gt;&lt;img src='img/Azami.jpg'&gt;&lt;/td&gt;&lt;td&gt;Azami&lt;/td&gt;&lt;td&gt;阿佐美&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Azami_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Azami_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Azami_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Azami_rank' value='4'&gt;4 &lt;input type='radio' name='Azami_rank' value='5'&gt;5 &lt;input type='radio' name='Azami_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Azami_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="P9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Benedict' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Benedict.jpg'&gt;&lt;/td&gt;&lt;td&gt;Benedict&lt;/td&gt;&lt;td&gt;貝內迪特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Benedict_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Benedict_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Benedict_rank' value='3'&gt;3 &lt;input type='radio' name='Benedict_rank' value='4'&gt;4 &lt;input type='radio' name='Benedict_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Benedict_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Benedict_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Benedict' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Benedict.jpg'&gt;&lt;/td&gt;&lt;td&gt;Benedict&lt;/td&gt;&lt;td&gt;貝內迪特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Benedict_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Benedict_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Benedict_rank' value='3'&gt;3 &lt;input type='radio' name='Benedict_rank' value='4'&gt;4 &lt;input type='radio' name='Benedict_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Benedict_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Benedict_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="P10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Bertrand' class='Light'&gt;&lt;td&gt;&lt;img src='img/Bertrand.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bertrand&lt;/td&gt;&lt;td&gt;貝特朗 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bertrand_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bertrand_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bertrand_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Bertrand_rank' value='4'&gt;4 &lt;input type='radio' name='Bertrand_rank' value='5'&gt;5 &lt;input type='radio' name='Bertrand_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Bertrand_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Bertrand' class='Light'&gt;&lt;td&gt;&lt;img src='img/Bertrand.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bertrand&lt;/td&gt;&lt;td&gt;貝特朗 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bertrand_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bertrand_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bertrand_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Bertrand_rank' value='4'&gt;4 &lt;input type='radio' name='Bertrand_rank' value='5'&gt;5 &lt;input type='radio' name='Bertrand_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Bertrand_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="P11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Biaka' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Biaka.jpg'&gt;&lt;/td&gt;&lt;td&gt;Biaka&lt;/td&gt;&lt;td&gt;維婭卡 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Biaka_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Biaka_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Biaka_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Biaka_rank' value='4'&gt;4 &lt;input type='radio' name='Biaka_rank' value='5'&gt;5 &lt;input type='radio' name='Biaka_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Biaka_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Biaka' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Biaka.jpg'&gt;&lt;/td&gt;&lt;td&gt;Biaka&lt;/td&gt;&lt;td&gt;維婭卡 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Biaka_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Biaka_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Biaka_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Biaka_rank' value='4'&gt;4 &lt;input type='radio' name='Biaka_rank' value='5'&gt;5 &lt;input type='radio' name='Biaka_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Biaka_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="P12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Bivette' class='Light'&gt;&lt;td&gt;&lt;img src='img/Bivette.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bivette&lt;/td&gt;&lt;td&gt;碧薇特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bivette_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bivette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bivette_rank' value='3'&gt;3 &lt;input type='radio' name='Bivette_rank' value='4'&gt;4 &lt;input type='radio' name='Bivette_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Bivette_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Bivette_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Bivette' class='Light'&gt;&lt;td&gt;&lt;img src='img/Bivette.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bivette&lt;/td&gt;&lt;td&gt;碧薇特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bivette_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bivette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bivette_rank' value='3'&gt;3 &lt;input type='radio' name='Bivette_rank' value='4'&gt;4 &lt;input type='radio' name='Bivette_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Bivette_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Bivette_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="P13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Breeno' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Breeno.jpg'&gt;&lt;/td&gt;&lt;td&gt;Breeno&lt;/td&gt;&lt;td&gt;布里諾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Breeno_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Breeno_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Breeno_rank' value='3'&gt;3 &lt;input type='radio' name='Breeno_rank' value='4'&gt;4 &lt;input type='radio' name='Breeno_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Breeno_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Breeno_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Breeno' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Breeno.jpg'&gt;&lt;/td&gt;&lt;td&gt;Breeno&lt;/td&gt;&lt;td&gt;布里諾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Breeno_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Breeno_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Breeno_rank' value='3'&gt;3 &lt;input type='radio' name='Breeno_rank' value='4'&gt;4 &lt;input type='radio' name='Breeno_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Breeno_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Breeno_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="P14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Bria' class='Light'&gt;&lt;td&gt;&lt;img src='img/Bria.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bria&lt;/td&gt;&lt;td&gt;布利亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bria_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bria_rank' value='3'&gt;3 &lt;input type='radio' name='Bria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Bria_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Bria_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Bria_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Bria' class='Light'&gt;&lt;td&gt;&lt;img src='img/Bria.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bria&lt;/td&gt;&lt;td&gt;布利亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bria_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bria_rank' value='3'&gt;3 &lt;input type='radio' name='Bria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Bria_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Bria_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Bria_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="P15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Cerrine' class='Light'&gt;&lt;td&gt;&lt;img src='img/Cerrine.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cerrine&lt;/td&gt;&lt;td&gt;思琳&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cerrine_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cerrine_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cerrine_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Cerrine_rank' value='4'&gt;4 &lt;input type='radio' name='Cerrine_rank' value='5'&gt;5 &lt;input type='radio' name='Cerrine_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cerrine_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Cerrine' class='Light'&gt;&lt;td&gt;&lt;img src='img/Cerrine.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cerrine&lt;/td&gt;&lt;td&gt;思琳&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cerrine_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cerrine_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cerrine_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Cerrine_rank' value='4'&gt;4 &lt;input type='radio' name='Cerrine_rank' value='5'&gt;5 &lt;input type='radio' name='Cerrine_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cerrine_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="P16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Cetie' class='Light'&gt;&lt;td&gt;&lt;img src='img/Cetie.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cetie&lt;/td&gt;&lt;td&gt;謝提&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cetie_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cetie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cetie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Cetie_rank' value='4'&gt;4 &lt;input type='radio' name='Cetie_rank' value='5'&gt;5 &lt;input type='radio' name='Cetie_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cetie_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Cetie' class='Light'&gt;&lt;td&gt;&lt;img src='img/Cetie.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cetie&lt;/td&gt;&lt;td&gt;謝提&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cetie_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cetie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cetie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Cetie_rank' value='4'&gt;4 &lt;input type='radio' name='Cetie_rank' value='5'&gt;5 &lt;input type='radio' name='Cetie_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cetie_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Chiyo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Chiyo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Chiyo&lt;/td&gt;&lt;td&gt;千代&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Chiyo_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Chiyo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Chiyo_rank' value='3'&gt;3 &lt;input type='radio' name='Chiyo_rank' value='4'&gt;4 &lt;input type='radio' name='Chiyo_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Chiyo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Chiyo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Chiyo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Chiyo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Chiyo&lt;/td&gt;&lt;td&gt;千代&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Chiyo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Chiyo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Chiyo_rank' value='3'&gt;3 &lt;input type='radio' name='Chiyo_rank' value='4'&gt;4 &lt;input type='radio' name='Chiyo_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Chiyo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Chiyo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="P18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Ciel' class='Light'&gt;&lt;td&gt;&lt;img src='img/Ciel.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ciel&lt;/td&gt;&lt;td&gt;西雅爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ciel_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ciel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ciel_rank' value='3'&gt;3 &lt;input type='radio' name='Ciel_rank' value='4'&gt;4 &lt;input type='radio' name='Ciel_rank' value='5'&gt;5 &lt;input type='radio' name='Ciel_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ciel_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Ciel' class='Light'&gt;&lt;td&gt;&lt;img src='img/Ciel.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ciel&lt;/td&gt;&lt;td&gt;西雅爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ciel_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ciel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ciel_rank' value='3'&gt;3 &lt;input type='radio' name='Ciel_rank' value='4'&gt;4 &lt;input type='radio' name='Ciel_rank' value='5'&gt;5 &lt;input type='radio' name='Ciel_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ciel_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="P19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Claude' class='Light'&gt;&lt;td&gt;&lt;img src='img/Claude.jpg'&gt;&lt;img src='img/Claude_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Claude&lt;/td&gt;&lt;td&gt;克勞特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Claude_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Claude_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Claude_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Claude_rank' value='4'&gt;4 &lt;input type='radio' name='Claude_rank' value='5'&gt;5 &lt;input type='radio' name='Claude_rank' value='AS'&gt;AS &lt;input type='radio' name='Claude_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Claude' class='Light'&gt;&lt;td&gt;&lt;img src='img/Claude.jpg'&gt;&lt;img src='img/Claude_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Claude&lt;/td&gt;&lt;td&gt;克勞特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Claude_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Claude_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Claude_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Claude_rank' value='4'&gt;4 &lt;input type='radio' name='Claude_rank' value='5'&gt;5 &lt;input type='radio' name='Claude_rank' value='AS'&gt;AS &lt;input type='radio' name='Claude_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="P20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Ctos' class='Light'&gt;&lt;td&gt;&lt;img src='img/Ctos.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ctos&lt;/td&gt;&lt;td&gt;古拓斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ctos_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ctos_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ctos_rank' value='3'&gt;3 &lt;input type='radio' name='Ctos_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Ctos_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Ctos_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ctos_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Ctos' class='Light'&gt;&lt;td&gt;&lt;img src='img/Ctos.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ctos&lt;/td&gt;&lt;td&gt;古拓斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ctos_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ctos_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ctos_rank' value='3'&gt;3 &lt;input type='radio' name='Ctos_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Ctos_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Ctos_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ctos_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="P21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Cyrus' class='Light'&gt;&lt;td&gt;&lt;img src='img/Cyrus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cyrus&lt;/td&gt;&lt;td&gt;賽勒斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cyrus_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cyrus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cyrus_rank' value='3'&gt;3 &lt;input type='radio' name='Cyrus_rank' value='4'&gt;4 &lt;input type='radio' name='Cyrus_rank' value='5'&gt;5 &lt;input type='radio' name='Cyrus_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cyrus_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Cyrus' class='Light'&gt;&lt;td&gt;&lt;img src='img/Cyrus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cyrus&lt;/td&gt;&lt;td&gt;賽勒斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cyrus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cyrus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cyrus_rank' value='3'&gt;3 &lt;input type='radio' name='Cyrus_rank' value='4'&gt;4 &lt;input type='radio' name='Cyrus_rank' value='5'&gt;5 &lt;input type='radio' name='Cyrus_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cyrus_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="P22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Cyuca' class='Light'&gt;&lt;td&gt;&lt;img src='img/Cyuca.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cyuca&lt;/td&gt;&lt;td&gt;喬卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cyuca_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cyuca_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cyuca_rank' value='3'&gt;3 &lt;input type='radio' name='Cyuca_rank' value='4'&gt;4 &lt;input type='radio' name='Cyuca_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Cyuca_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cyuca_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Cyuca' class='Light'&gt;&lt;td&gt;&lt;img src='img/Cyuca.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cyuca&lt;/td&gt;&lt;td&gt;喬卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cyuca_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cyuca_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cyuca_rank' value='3'&gt;3 &lt;input type='radio' name='Cyuca_rank' value='4'&gt;4 &lt;input type='radio' name='Cyuca_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Cyuca_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cyuca_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="P23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Darunis' class='Light'&gt;&lt;td&gt;&lt;img src='img/Darunis.jpg'&gt;&lt;/td&gt;&lt;td&gt;Darunis&lt;/td&gt;&lt;td&gt;達爾尼思&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Darunis_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Darunis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Darunis_rank' value='3'&gt;3 &lt;input type='radio' name='Darunis_rank' value='4'&gt;4 &lt;input type='radio' name='Darunis_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Darunis_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Darunis_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Darunis' class='Light'&gt;&lt;td&gt;&lt;img src='img/Darunis.jpg'&gt;&lt;/td&gt;&lt;td&gt;Darunis&lt;/td&gt;&lt;td&gt;達爾尼思&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Darunis_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Darunis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Darunis_rank' value='3'&gt;3 &lt;input type='radio' name='Darunis_rank' value='4'&gt;4 &lt;input type='radio' name='Darunis_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Darunis_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Darunis_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="P24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Deirdre' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Deirdre.jpg'&gt;&lt;/td&gt;&lt;td&gt;Deirdre&lt;/td&gt;&lt;td&gt;蒂亞朵拉 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Deirdre_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Deirdre_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Deirdre_rank' value='3'&gt;3 &lt;input type='radio' name='Deirdre_rank' value='4'&gt;4 &lt;input type='radio' name='Deirdre_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Deirdre_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Deirdre_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Deirdre' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Deirdre.jpg'&gt;&lt;/td&gt;&lt;td&gt;Deirdre&lt;/td&gt;&lt;td&gt;蒂亞朵拉 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Deirdre_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Deirdre_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Deirdre_rank' value='3'&gt;3 &lt;input type='radio' name='Deirdre_rank' value='4'&gt;4 &lt;input type='radio' name='Deirdre_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Deirdre_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Deirdre_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="P25" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Denny' class='Light'&gt;&lt;td&gt;&lt;img src='img/Denny.jpg'&gt;&lt;/td&gt;&lt;td&gt;Denny&lt;/td&gt;&lt;td&gt;丹尼 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Denny_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Denny_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Denny_rank' value='3'&gt;3 &lt;input type='radio' name='Denny_rank' value='4'&gt;4 &lt;input type='radio' name='Denny_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Denny_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Denny_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Denny' class='Light'&gt;&lt;td&gt;&lt;img src='img/Denny.jpg'&gt;&lt;/td&gt;&lt;td&gt;Denny&lt;/td&gt;&lt;td&gt;丹尼 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Denny_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Denny_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Denny_rank' value='3'&gt;3 &lt;input type='radio' name='Denny_rank' value='4'&gt;4 &lt;input type='radio' name='Denny_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Denny_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Denny_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="P26" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Dewey' class='Light'&gt;&lt;td&gt;&lt;img src='img/Dewey.jpg'&gt;&lt;/td&gt;&lt;td&gt;Dewey&lt;/td&gt;&lt;td&gt;杜伊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Dewey_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Dewey_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Dewey_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Dewey_rank' value='4'&gt;4 &lt;input type='radio' name='Dewey_rank' value='5'&gt;5 &lt;input type='radio' name='Dewey_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Dewey_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Dewey' class='Light'&gt;&lt;td&gt;&lt;img src='img/Dewey.jpg'&gt;&lt;/td&gt;&lt;td&gt;Dewey&lt;/td&gt;&lt;td&gt;杜伊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Dewey_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Dewey_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Dewey_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Dewey_rank' value='4'&gt;4 &lt;input type='radio' name='Dewey_rank' value='5'&gt;5 &lt;input type='radio' name='Dewey_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Dewey_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="P27" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Dunarith' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Dunarith.jpg'&gt;&lt;/td&gt;&lt;td&gt;Dunarith&lt;/td&gt;&lt;td&gt;杜拿利斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Dunarith_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Dunarith_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Dunarith_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Dunarith_rank' value='4'&gt;4 &lt;input type='radio' name='Dunarith_rank' value='5'&gt;5 &lt;input type='radio' name='Dunarith_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Dunarith_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Dunarith' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Dunarith.jpg'&gt;&lt;/td&gt;&lt;td&gt;Dunarith&lt;/td&gt;&lt;td&gt;杜拿利斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Dunarith_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Dunarith_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Dunarith_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Dunarith_rank' value='4'&gt;4 &lt;input type='radio' name='Dunarith_rank' value='5'&gt;5 &lt;input type='radio' name='Dunarith_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Dunarith_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="P28" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Een' class='Light'&gt;&lt;td&gt;&lt;img src='img/Een.jpg'&gt;&lt;/td&gt;&lt;td&gt;Een&lt;/td&gt;&lt;td&gt;伊因&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Een_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Een_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Een_rank' value='3'&gt;3 &lt;input type='radio' name='Een_rank' value='4'&gt;4 &lt;input type='radio' name='Een_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Een_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Een_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Een' class='Light'&gt;&lt;td&gt;&lt;img src='img/Een.jpg'&gt;&lt;/td&gt;&lt;td&gt;Een&lt;/td&gt;&lt;td&gt;伊因&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Een_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Een_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Een_rank' value='3'&gt;3 &lt;input type='radio' name='Een_rank' value='4'&gt;4 &lt;input type='radio' name='Een_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Een_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Een_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="P29" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Elga' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Elga.jpg'&gt;&lt;/td&gt;&lt;td&gt;Elga&lt;/td&gt;&lt;td&gt;艾露嘉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Elga_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Elga_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Elga_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Elga_rank' value='4'&gt;4 &lt;input type='radio' name='Elga_rank' value='5'&gt;5 &lt;input type='radio' name='Elga_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Elga_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Elga' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Elga.jpg'&gt;&lt;/td&gt;&lt;td&gt;Elga&lt;/td&gt;&lt;td&gt;艾露嘉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Elga_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Elga_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Elga_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Elga_rank' value='4'&gt;4 &lt;input type='radio' name='Elga_rank' value='5'&gt;5 &lt;input type='radio' name='Elga_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Elga_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="P30" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Emms' class='Light'&gt;&lt;td&gt;&lt;img src='img/Emms.jpg'&gt;&lt;/td&gt;&lt;td&gt;Emms&lt;/td&gt;&lt;td&gt;艾姆斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Emms_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Emms_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Emms_rank' value='3'&gt;3 &lt;input type='radio' name='Emms_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Emms_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Emms_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Emms_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Emms' class='Light'&gt;&lt;td&gt;&lt;img src='img/Emms.jpg'&gt;&lt;/td&gt;&lt;td&gt;Emms&lt;/td&gt;&lt;td&gt;艾姆斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Emms_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Emms_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Emms_rank' value='3'&gt;3 &lt;input type='radio' name='Emms_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Emms_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Emms_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Emms_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="P31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Erina' class='Light'&gt;&lt;td&gt;&lt;img src='img/Erina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Erina&lt;/td&gt;&lt;td&gt;艾莉娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Erina_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Erina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Erina_rank' value='3'&gt;3 &lt;input type='radio' name='Erina_rank' value='4'&gt;4 &lt;input type='radio' name='Erina_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Erina_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Erina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Erina' class='Light'&gt;&lt;td&gt;&lt;img src='img/Erina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Erina&lt;/td&gt;&lt;td&gt;艾莉娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Erina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Erina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Erina_rank' value='3'&gt;3 &lt;input type='radio' name='Erina_rank' value='4'&gt;4 &lt;input type='radio' name='Erina_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Erina_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Erina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="P32" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Esta' class='Light'&gt;&lt;td&gt;&lt;img src='img/Esta.jpg'&gt;&lt;/td&gt;&lt;td&gt;Esta&lt;/td&gt;&lt;td&gt;艾斯塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Esta_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Esta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Esta_rank' value='3'&gt;3 &lt;input type='radio' name='Esta_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Esta_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Esta_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Esta_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Esta' class='Light'&gt;&lt;td&gt;&lt;img src='img/Esta.jpg'&gt;&lt;/td&gt;&lt;td&gt;Esta&lt;/td&gt;&lt;td&gt;艾斯塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Esta_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Esta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Esta_rank' value='3'&gt;3 &lt;input type='radio' name='Esta_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Esta_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Esta_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Esta_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="P33" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Ewan' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Ewan.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ewan&lt;/td&gt;&lt;td&gt;尤因&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ewan_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ewan_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ewan_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Ewan_rank' value='4'&gt;4 &lt;input type='radio' name='Ewan_rank' value='5'&gt;5 &lt;input type='radio' name='Ewan_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ewan_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Ewan' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Ewan.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ewan&lt;/td&gt;&lt;td&gt;尤因&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ewan_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ewan_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ewan_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Ewan_rank' value='4'&gt;4 &lt;input type='radio' name='Ewan_rank' value='5'&gt;5 &lt;input type='radio' name='Ewan_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ewan_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="P34" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Feinne' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Feinne.jpg'&gt;&lt;/td&gt;&lt;td&gt;Feinne&lt;/td&gt;&lt;td&gt;菲妮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Feinne_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Feinne_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Feinne_rank' value='3'&gt;3 &lt;input type='radio' name='Feinne_rank' value='4'&gt;4 &lt;input type='radio' name='Feinne_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Feinne_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Feinne_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Feinne' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Feinne.jpg'&gt;&lt;/td&gt;&lt;td&gt;Feinne&lt;/td&gt;&lt;td&gt;菲妮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Feinne_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Feinne_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Feinne_rank' value='3'&gt;3 &lt;input type='radio' name='Feinne_rank' value='4'&gt;4 &lt;input type='radio' name='Feinne_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Feinne_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Feinne_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="P35" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Felmina' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Felmina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Felmina&lt;/td&gt;&lt;td&gt;菲露米娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Felmina_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Felmina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Felmina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Felmina_rank' value='4'&gt;4 &lt;input type='radio' name='Felmina_rank' value='5'&gt;5 &lt;input type='radio' name='Felmina_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Felmina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Felmina' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Felmina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Felmina&lt;/td&gt;&lt;td&gt;菲露米娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Felmina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Felmina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Felmina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Felmina_rank' value='4'&gt;4 &lt;input type='radio' name='Felmina_rank' value='5'&gt;5 &lt;input type='radio' name='Felmina_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Felmina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="P36" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Foran' class='Light'&gt;&lt;td&gt;&lt;img src='img/Foran.jpg'&gt;&lt;/td&gt;&lt;td&gt;Foran&lt;/td&gt;&lt;td&gt;芙朗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Foran_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Foran_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Foran_rank' value='3'&gt;3 &lt;input type='radio' name='Foran_rank' value='4'&gt;4 &lt;input type='radio' name='Foran_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Foran_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Foran_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Foran' class='Light'&gt;&lt;td&gt;&lt;img src='img/Foran.jpg'&gt;&lt;/td&gt;&lt;td&gt;Foran&lt;/td&gt;&lt;td&gt;芙朗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Foran_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Foran_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Foran_rank' value='3'&gt;3 &lt;input type='radio' name='Foran_rank' value='4'&gt;4 &lt;input type='radio' name='Foran_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Foran_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Foran_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="P37" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Galliard' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Galliard.jpg'&gt;&lt;/td&gt;&lt;td&gt;Galliard&lt;/td&gt;&lt;td&gt;嘉里德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Galliard_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Galliard_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Galliard_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Galliard_rank' value='4'&gt;4 &lt;input type='radio' name='Galliard_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Galliard_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Galliard_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Galliard' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Galliard.jpg'&gt;&lt;/td&gt;&lt;td&gt;Galliard&lt;/td&gt;&lt;td&gt;嘉里德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Galliard_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Galliard_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Galliard_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Galliard_rank' value='4'&gt;4 &lt;input type='radio' name='Galliard_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Galliard_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Galliard_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="P38" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Gariyu' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Gariyu.jpg'&gt;&lt;img src='img/Gariyu_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Gariyu&lt;/td&gt;&lt;td&gt;伽琉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;img src='img/type/fire_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Gariyu_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Gariyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Gariyu_rank' value='3'&gt;3 &lt;input type='radio' name='Gariyu_rank' value='4'&gt;4 &lt;input type='radio' name='Gariyu_rank' value='5'&gt;5 &lt;input type='radio' name='Gariyu_rank' value='AS'&gt;AS &lt;input type='radio' name='Gariyu_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Gariyu' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Gariyu.jpg'&gt;&lt;img src='img/Gariyu_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Gariyu&lt;/td&gt;&lt;td&gt;伽琉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;img src='img/type/fire_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Gariyu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Gariyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Gariyu_rank' value='3'&gt;3 &lt;input type='radio' name='Gariyu_rank' value='4'&gt;4 &lt;input type='radio' name='Gariyu_rank' value='5'&gt;5 &lt;input type='radio' name='Gariyu_rank' value='AS'&gt;AS &lt;input type='radio' name='Gariyu_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="P39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Good Macky' class='Light'&gt;&lt;td&gt;&lt;img src='img/Good Macky.jpg'&gt;&lt;/td&gt;&lt;td&gt;Good Macky&lt;/td&gt;&lt;td&gt;善良的米可麥克&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Good Macky_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Good Macky_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Good Macky_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Good Macky_rank' value='4'&gt;4 &lt;input type='radio' name='Good Macky_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Good Macky_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Good Macky_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='GoodMacky' class='Light'&gt;&lt;td&gt;&lt;img src='img/Good Macky.jpg'&gt;&lt;/td&gt;&lt;td&gt;Good Macky&lt;/td&gt;&lt;td&gt;善良的米可麥克&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='GoodMacky_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='GoodMacky_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='GoodMacky_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='GoodMacky_rank' value='4'&gt;4 &lt;input type='radio' name='GoodMacky_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='GoodMacky_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='GoodMacky_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="P40" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Guildna' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Guildna.jpg'&gt;&lt;/td&gt;&lt;td&gt;Guildna&lt;/td&gt;&lt;td&gt;基爾德那&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Guildna_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Guildna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Guildna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Guildna_rank' value='4'&gt;4 &lt;input type='radio' name='Guildna_rank' value='5'&gt;5 &lt;input type='radio' name='Guildna_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Guildna_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Guildna' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Guildna.jpg'&gt;&lt;/td&gt;&lt;td&gt;Guildna&lt;/td&gt;&lt;td&gt;基爾德那&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Guildna_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Guildna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Guildna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Guildna_rank' value='4'&gt;4 &lt;input type='radio' name='Guildna_rank' value='5'&gt;5 &lt;input type='radio' name='Guildna_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Guildna_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="P41" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Helena' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Helena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Helena&lt;/td&gt;&lt;td&gt;海蕾娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Helena_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Helena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Helena_rank' value='3'&gt;3 &lt;input type='radio' name='Helena_rank' value='4'&gt;4 &lt;input type='radio' name='Helena_rank' value='5'&gt;5 &lt;input type='radio' name='Helena_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Helena_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Helena' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Helena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Helena&lt;/td&gt;&lt;td&gt;海蕾娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Helena_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Helena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Helena_rank' value='3'&gt;3 &lt;input type='radio' name='Helena_rank' value='4'&gt;4 &lt;input type='radio' name='Helena_rank' value='5'&gt;5 &lt;input type='radio' name='Helena_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Helena_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="P42" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Hismena' class='Light'&gt;&lt;td&gt;&lt;img src='img/Hismena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Hismena&lt;/td&gt;&lt;td&gt;希斯梅娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Hismena_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Hismena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Hismena_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Hismena_rank' value='4'&gt;4 &lt;input type='radio' name='Hismena_rank' value='5'&gt;5 &lt;input type='radio' name='Hismena_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Hismena_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Hismena' class='Light'&gt;&lt;td&gt;&lt;img src='img/Hismena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Hismena&lt;/td&gt;&lt;td&gt;希斯梅娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Hismena_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Hismena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Hismena_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Hismena_rank' value='4'&gt;4 &lt;input type='radio' name='Hismena_rank' value='5'&gt;5 &lt;input type='radio' name='Hismena_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Hismena_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="P43" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Hozuki' class='Light'&gt;&lt;td&gt;&lt;img src='img/Hozuki.jpg'&gt;&lt;/td&gt;&lt;td&gt;Hozuki&lt;/td&gt;&lt;td&gt;皓月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Hozuki_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Hozuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Hozuki_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Hozuki_rank' value='4'&gt;4 &lt;input type='radio' name='Hozuki_rank' value='5'&gt;5 &lt;input type='radio' name='Hozuki_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Hozuki_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Hozuki' class='Light'&gt;&lt;td&gt;&lt;img src='img/Hozuki.jpg'&gt;&lt;/td&gt;&lt;td&gt;Hozuki&lt;/td&gt;&lt;td&gt;皓月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Hozuki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Hozuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Hozuki_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Hozuki_rank' value='4'&gt;4 &lt;input type='radio' name='Hozuki_rank' value='5'&gt;5 &lt;input type='radio' name='Hozuki_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Hozuki_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="P44" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Ilulu' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Ilulu.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ilulu&lt;/td&gt;&lt;td&gt;伊露露&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ilulu_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ilulu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ilulu_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Ilulu_rank' value='4'&gt;4 &lt;input type='radio' name='Ilulu_rank' value='5'&gt;5 &lt;input type='radio' name='Ilulu_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ilulu_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Ilulu' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Ilulu.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ilulu&lt;/td&gt;&lt;td&gt;伊露露&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ilulu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ilulu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ilulu_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Ilulu_rank' value='4'&gt;4 &lt;input type='radio' name='Ilulu_rank' value='5'&gt;5 &lt;input type='radio' name='Ilulu_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ilulu_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="P45" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Isuka' class='Light'&gt;&lt;td&gt;&lt;img src='img/Isuka.jpg'&gt;&lt;img src='img/Isuka_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Isuka&lt;/td&gt;&lt;td&gt;伊絲卡 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Isuka_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Isuka_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Isuka_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Isuka_rank' value='4'&gt;4 &lt;input type='radio' name='Isuka_rank' value='5'&gt;5 &lt;input type='radio' name='Isuka_rank' value='AS'&gt;AS &lt;input type='radio' name='Isuka_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Isuka' class='Light'&gt;&lt;td&gt;&lt;img src='img/Isuka.jpg'&gt;&lt;img src='img/Isuka_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Isuka&lt;/td&gt;&lt;td&gt;伊絲卡 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Isuka_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Isuka_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Isuka_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Isuka_rank' value='4'&gt;4 &lt;input type='radio' name='Isuka_rank' value='5'&gt;5 &lt;input type='radio' name='Isuka_rank' value='AS'&gt;AS &lt;input type='radio' name='Isuka_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="P46" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Jade' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Jade.jpg'&gt;&lt;/td&gt;&lt;td&gt;Jade&lt;/td&gt;&lt;td&gt;賈德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Jade_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Jade_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Jade_rank' value='3'&gt;3 &lt;input type='radio' name='Jade_rank' value='4'&gt;4 &lt;input type='radio' name='Jade_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Jade_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Jade_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Jade' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Jade.jpg'&gt;&lt;/td&gt;&lt;td&gt;Jade&lt;/td&gt;&lt;td&gt;賈德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Jade_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Jade_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Jade_rank' value='3'&gt;3 &lt;input type='radio' name='Jade_rank' value='4'&gt;4 &lt;input type='radio' name='Jade_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Jade_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Jade_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="P47" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Joker' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Joker.jpg'&gt;&lt;/td&gt;&lt;td&gt;Joker&lt;/td&gt;&lt;td&gt;JOKER&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Joker_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Joker_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Joker_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Joker_rank' value='4'&gt;4 &lt;input type='radio' name='Joker_rank' value='5'&gt;5 &lt;input type='radio' name='Joker_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Joker_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Joker' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Joker.jpg'&gt;&lt;/td&gt;&lt;td&gt;Joker&lt;/td&gt;&lt;td&gt;JOKER&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Joker_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Joker_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Joker_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Joker_rank' value='4'&gt;4 &lt;input type='radio' name='Joker_rank' value='5'&gt;5 &lt;input type='radio' name='Joker_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Joker_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="P48" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Kikyo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Kikyo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Kikyo&lt;/td&gt;&lt;td&gt;桔梗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Kikyo_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Kikyo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Kikyo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Kikyo_rank' value='4'&gt;4 &lt;input type='radio' name='Kikyo_rank' value='5'&gt;5 &lt;input type='radio' name='Kikyo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Kikyo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Kikyo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Kikyo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Kikyo&lt;/td&gt;&lt;td&gt;桔梗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Kikyo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Kikyo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Kikyo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Kikyo_rank' value='4'&gt;4 &lt;input type='radio' name='Kikyo_rank' value='5'&gt;5 &lt;input type='radio' name='Kikyo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Kikyo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="P49" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Kilqia' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Kilqia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Kilqia&lt;/td&gt;&lt;td&gt;基露琪亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Kilqia_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Kilqia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Kilqia_rank' value='3'&gt;3 &lt;input type='radio' name='Kilqia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Kilqia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Kilqia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Kilqia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Kilqia' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Kilqia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Kilqia&lt;/td&gt;&lt;td&gt;基露琪亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Kilqia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Kilqia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Kilqia_rank' value='3'&gt;3 &lt;input type='radio' name='Kilqia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Kilqia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Kilqia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Kilqia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="P50" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Komachi' class='Light'&gt;&lt;td&gt;&lt;img src='img/Komachi.jpg'&gt;&lt;/td&gt;&lt;td&gt;Komachi&lt;/td&gt;&lt;td&gt;小町&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Komachi_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Komachi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Komachi_rank' value='3'&gt;3 &lt;input type='radio' name='Komachi_rank' value='4'&gt;4 &lt;input type='radio' name='Komachi_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Komachi_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Komachi_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Komachi' class='Light'&gt;&lt;td&gt;&lt;img src='img/Komachi.jpg'&gt;&lt;/td&gt;&lt;td&gt;Komachi&lt;/td&gt;&lt;td&gt;小町&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Komachi_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Komachi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Komachi_rank' value='3'&gt;3 &lt;input type='radio' name='Komachi_rank' value='4'&gt;4 &lt;input type='radio' name='Komachi_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Komachi_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Komachi_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="P51" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Koot' class='Light'&gt;&lt;td&gt;&lt;img src='img/Koot.jpg'&gt;&lt;/td&gt;&lt;td&gt;Koot&lt;/td&gt;&lt;td&gt;庫托&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Koot_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Koot_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Koot_rank' value='3'&gt;3 &lt;input type='radio' name='Koot_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Koot_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Koot_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Koot_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Koot' class='Light'&gt;&lt;td&gt;&lt;img src='img/Koot.jpg'&gt;&lt;/td&gt;&lt;td&gt;Koot&lt;/td&gt;&lt;td&gt;庫托&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Koot_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Koot_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Koot_rank' value='3'&gt;3 &lt;input type='radio' name='Koot_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Koot_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Koot_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Koot_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="P52" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Krervo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Krervo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Krervo&lt;/td&gt;&lt;td&gt;克利霍&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Krervo_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Krervo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Krervo_rank' value='3'&gt;3 &lt;input type='radio' name='Krervo_rank' value='4'&gt;4 &lt;input type='radio' name='Krervo_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Krervo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Krervo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Krervo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Krervo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Krervo&lt;/td&gt;&lt;td&gt;克利霍&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Krervo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Krervo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Krervo_rank' value='3'&gt;3 &lt;input type='radio' name='Krervo_rank' value='4'&gt;4 &lt;input type='radio' name='Krervo_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Krervo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Krervo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="P53" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Laclair' class='Light'&gt;&lt;td&gt;&lt;img src='img/Laclair.jpg'&gt;&lt;img src='img/Laclair_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Laclair&lt;/td&gt;&lt;td&gt;拉克萊兒&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Laclair_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Laclair_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Laclair_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Laclair_rank' value='4'&gt;4 &lt;input type='radio' name='Laclair_rank' value='5'&gt;5 &lt;input type='radio' name='Laclair_rank' value='AS'&gt;AS &lt;input type='radio' name='Laclair_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Laclair' class='Light'&gt;&lt;td&gt;&lt;img src='img/Laclair.jpg'&gt;&lt;img src='img/Laclair_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Laclair&lt;/td&gt;&lt;td&gt;拉克萊兒&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Laclair_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Laclair_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Laclair_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Laclair_rank' value='4'&gt;4 &lt;input type='radio' name='Laclair_rank' value='5'&gt;5 &lt;input type='radio' name='Laclair_rank' value='AS'&gt;AS &lt;input type='radio' name='Laclair_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="P54" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Lele' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lele.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lele&lt;/td&gt;&lt;td&gt;蕾蕾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lele_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lele_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lele_rank' value='3'&gt;3 &lt;input type='radio' name='Lele_rank' value='4'&gt;4 &lt;input type='radio' name='Lele_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Lele_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lele_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Lele' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lele.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lele&lt;/td&gt;&lt;td&gt;蕾蕾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lele_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lele_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lele_rank' value='3'&gt;3 &lt;input type='radio' name='Lele_rank' value='4'&gt;4 &lt;input type='radio' name='Lele_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Lele_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lele_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="P55" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Levia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Levia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Levia&lt;/td&gt;&lt;td&gt;莉維雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Levia_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Levia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Levia_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Levia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Levia_rank' value='5'&gt;5 &lt;input type='radio' name='Levia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Levia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Levia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Levia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Levia&lt;/td&gt;&lt;td&gt;莉維雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Levia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Levia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Levia_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Levia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Levia_rank' value='5'&gt;5 &lt;input type='radio' name='Levia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Levia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="P56" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Lingli' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lingli.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lingli&lt;/td&gt;&lt;td&gt;林麗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lingli_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lingli_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lingli_rank' value='3'&gt;3 &lt;input type='radio' name='Lingli_rank' value='4'&gt;4 &lt;input type='radio' name='Lingli_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Lingli_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lingli_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Lingli' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lingli.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lingli&lt;/td&gt;&lt;td&gt;林麗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lingli_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lingli_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lingli_rank' value='3'&gt;3 &lt;input type='radio' name='Lingli_rank' value='4'&gt;4 &lt;input type='radio' name='Lingli_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Lingli_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lingli_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="P57" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Lokido' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lokido.jpg'&gt;&lt;img src='img/Lokido_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lokido&lt;/td&gt;&lt;td&gt;洛基德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lokido_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lokido_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lokido_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Lokido_rank' value='4'&gt;4 &lt;input type='radio' name='Lokido_rank' value='5'&gt;5 &lt;input type='radio' name='Lokido_rank' value='AS'&gt;AS &lt;input type='radio' name='Lokido_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Lokido' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lokido.jpg'&gt;&lt;img src='img/Lokido_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lokido&lt;/td&gt;&lt;td&gt;洛基德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lokido_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lokido_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lokido_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Lokido_rank' value='4'&gt;4 &lt;input type='radio' name='Lokido_rank' value='5'&gt;5 &lt;input type='radio' name='Lokido_rank' value='AS'&gt;AS &lt;input type='radio' name='Lokido_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="P58" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Lovely' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lovely.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lovely&lt;/td&gt;&lt;td&gt;拉布莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lovely_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lovely_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lovely_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Lovely_rank' value='4'&gt;4 &lt;input type='radio' name='Lovely_rank' value='5'&gt;5 &lt;input type='radio' name='Lovely_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lovely_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Lovely' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lovely.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lovely&lt;/td&gt;&lt;td&gt;拉布莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lovely_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lovely_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lovely_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Lovely_rank' value='4'&gt;4 &lt;input type='radio' name='Lovely_rank' value='5'&gt;5 &lt;input type='radio' name='Lovely_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lovely_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="P59" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Lovinia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lovinia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lovinia&lt;/td&gt;&lt;td&gt;羅維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lovinia_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lovinia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lovinia_rank' value='3'&gt;3 &lt;input type='radio' name='Lovinia_rank' value='4'&gt;4 &lt;input type='radio' name='Lovinia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Lovinia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lovinia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Lovinia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lovinia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lovinia&lt;/td&gt;&lt;td&gt;羅維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lovinia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lovinia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lovinia_rank' value='3'&gt;3 &lt;input type='radio' name='Lovinia_rank' value='4'&gt;4 &lt;input type='radio' name='Lovinia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Lovinia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lovinia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="P60" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Mana' class='Light'&gt;&lt;td&gt;&lt;img src='img/Mana.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mana&lt;/td&gt;&lt;td&gt;瑪娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mana_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Mana_rank' value='5'&gt;5 &lt;input type='radio' name='Mana_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Mana_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Mana' class='Light'&gt;&lt;td&gt;&lt;img src='img/Mana.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mana&lt;/td&gt;&lt;td&gt;瑪娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mana_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Mana_rank' value='5'&gt;5 &lt;input type='radio' name='Mana_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Mana_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="P61" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Mariel' class='Light'&gt;&lt;td&gt;&lt;img src='img/Mariel.jpg'&gt;&lt;img src='img/Mariel_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mariel&lt;/td&gt;&lt;td&gt;瑪莉艾爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mariel_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mariel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mariel_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mariel_rank' value='4'&gt;4 &lt;input type='radio' name='Mariel_rank' value='5'&gt;5 &lt;input type='radio' name='Mariel_rank' value='AS'&gt;AS &lt;input type='radio' name='Mariel_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Mariel' class='Light'&gt;&lt;td&gt;&lt;img src='img/Mariel.jpg'&gt;&lt;img src='img/Mariel_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mariel&lt;/td&gt;&lt;td&gt;瑪莉艾爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mariel_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mariel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mariel_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mariel_rank' value='4'&gt;4 &lt;input type='radio' name='Mariel_rank' value='5'&gt;5 &lt;input type='radio' name='Mariel_rank' value='AS'&gt;AS &lt;input type='radio' name='Mariel_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="P62" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='May' class='Light'&gt;&lt;td&gt;&lt;img src='img/May.jpg'&gt;&lt;/td&gt;&lt;td&gt;May&lt;/td&gt;&lt;td&gt;玫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='May_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='May_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='May_rank' value='3'&gt;3 &lt;input type='radio' name='May_rank' value='4'&gt;4 &lt;input type='radio' name='May_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='May_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='May_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='May' class='Light'&gt;&lt;td&gt;&lt;img src='img/May.jpg'&gt;&lt;/td&gt;&lt;td&gt;May&lt;/td&gt;&lt;td&gt;玫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='May_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='May_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='May_rank' value='3'&gt;3 &lt;input type='radio' name='May_rank' value='4'&gt;4 &lt;input type='radio' name='May_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='May_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='May_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="P63" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Melina' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Melina.jpg'&gt;&lt;img src='img/Melina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Melina&lt;/td&gt;&lt;td&gt;玫莉娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Melina_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Melina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Melina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Melina_rank' value='4'&gt;4 &lt;input type='radio' name='Melina_rank' value='5'&gt;5 &lt;input type='radio' name='Melina_rank' value='AS'&gt;AS &lt;input type='radio' name='Melina_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Melina' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Melina.jpg'&gt;&lt;img src='img/Melina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Melina&lt;/td&gt;&lt;td&gt;玫莉娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Melina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Melina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Melina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Melina_rank' value='4'&gt;4 &lt;input type='radio' name='Melina_rank' value='5'&gt;5 &lt;input type='radio' name='Melina_rank' value='AS'&gt;AS &lt;input type='radio' name='Melina_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="P64" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Menesia' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Menesia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Menesia&lt;/td&gt;&lt;td&gt;梅尼西雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Menesia_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Menesia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Menesia_rank' value='3'&gt;3 &lt;input type='radio' name='Menesia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Menesia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Menesia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Menesia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Menesia' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Menesia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Menesia&lt;/td&gt;&lt;td&gt;梅尼西雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Menesia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Menesia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Menesia_rank' value='3'&gt;3 &lt;input type='radio' name='Menesia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Menesia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Menesia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Menesia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="P65" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Mighty' class='Light'&gt;&lt;td&gt;&lt;img src='img/Mighty.jpg'&gt;&lt;img src='img/Mighty_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mighty&lt;/td&gt;&lt;td&gt;麥提&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mighty_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mighty_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mighty_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mighty_rank' value='4'&gt;4 &lt;input type='radio' name='Mighty_rank' value='5'&gt;5 &lt;input type='radio' name='Mighty_rank' value='AS'&gt;AS &lt;input type='radio' name='Mighty_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Mighty' class='Light'&gt;&lt;td&gt;&lt;img src='img/Mighty.jpg'&gt;&lt;img src='img/Mighty_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mighty&lt;/td&gt;&lt;td&gt;麥提&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mighty_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mighty_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mighty_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mighty_rank' value='4'&gt;4 &lt;input type='radio' name='Mighty_rank' value='5'&gt;5 &lt;input type='radio' name='Mighty_rank' value='AS'&gt;AS &lt;input type='radio' name='Mighty_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="P66" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Miranda' class='Light'&gt;&lt;td&gt;&lt;img src='img/Miranda.jpg'&gt;&lt;/td&gt;&lt;td&gt;Miranda&lt;/td&gt;&lt;td&gt;米蘭達&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miranda_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miranda_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miranda_rank' value='3'&gt;3 &lt;input type='radio' name='Miranda_rank' value='4'&gt;4 &lt;input type='radio' name='Miranda_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Miranda_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Miranda_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Miranda' class='Light'&gt;&lt;td&gt;&lt;img src='img/Miranda.jpg'&gt;&lt;/td&gt;&lt;td&gt;Miranda&lt;/td&gt;&lt;td&gt;米蘭達&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miranda_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miranda_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miranda_rank' value='3'&gt;3 &lt;input type='radio' name='Miranda_rank' value='4'&gt;4 &lt;input type='radio' name='Miranda_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Miranda_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Miranda_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -4031,8 +4031,8 @@
         <v>136</v>
       </c>
       <c r="P67" s="1" t="str">
-        <f t="shared" ref="P67:P123" si="6">"&lt;tr id='"&amp;B67&amp;"' class='"&amp;D67&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A67&amp;"'&gt;"&amp;IF(H67="Y","&lt;img src='img/"&amp;B67&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B67&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C67&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K67&amp;".png'&gt;"&amp;IF(L67="","","&lt;img src='img/type/"&amp;L67&amp;".png'&gt;")&amp;IF(M67="","","&lt;img src='img/type/"&amp;M67&amp;".png'&gt;")&amp;IF(N67="","","&lt;img src='img/type/"&amp;N67&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;B67&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;B67&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;B67&amp;"_rank' value='3'"&amp;IF(E67="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;B67&amp;"_rank' value='4'"&amp;IF(F67="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;B67&amp;"_rank' value='5'"&amp;IF(G67="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;B67&amp;"_rank' value='AS'"&amp;IF(H67="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;B67&amp;"_rank' value='Both'"&amp;IF(I67="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr id='Miyu' class='Light'&gt;&lt;td&gt;&lt;img src='img/Miyu.jpg'&gt;&lt;/td&gt;&lt;td&gt;Miyu&lt;/td&gt;&lt;td&gt;米悠&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miyu_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miyu_rank' value='3'&gt;3 &lt;input type='radio' name='Miyu_rank' value='4'&gt;4 &lt;input type='radio' name='Miyu_rank' value='5'&gt;5 &lt;input type='radio' name='Miyu_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Miyu_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="P67:P123" si="6">"&lt;tr id='"&amp;SUBSTITUTE(B67," ","")&amp;"' class='"&amp;D67&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A67&amp;"'&gt;"&amp;IF(H67="Y","&lt;img src='img/"&amp;B67&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B67&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C67&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K67&amp;".png'&gt;"&amp;IF(L67="","","&lt;img src='img/type/"&amp;L67&amp;".png'&gt;")&amp;IF(M67="","","&lt;img src='img/type/"&amp;M67&amp;".png'&gt;")&amp;IF(N67="","","&lt;img src='img/type/"&amp;N67&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B67," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='3'"&amp;IF(E67="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='4'"&amp;IF(F67="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='5'"&amp;IF(G67="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='AS'"&amp;IF(H67="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='Both'"&amp;IF(I67="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr id='Miyu' class='Light'&gt;&lt;td&gt;&lt;img src='img/Miyu.jpg'&gt;&lt;/td&gt;&lt;td&gt;Miyu&lt;/td&gt;&lt;td&gt;米悠&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miyu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miyu_rank' value='3'&gt;3 &lt;input type='radio' name='Miyu_rank' value='4'&gt;4 &lt;input type='radio' name='Miyu_rank' value='5'&gt;5 &lt;input type='radio' name='Miyu_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Miyu_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="P68" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Morgana' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Morgana.jpg'&gt;&lt;/td&gt;&lt;td&gt;Morgana&lt;/td&gt;&lt;td&gt;摩爾加納&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Morgana_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Morgana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Morgana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Morgana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Morgana_rank' value='5'&gt;5 &lt;input type='radio' name='Morgana_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Morgana_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Morgana' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Morgana.jpg'&gt;&lt;/td&gt;&lt;td&gt;Morgana&lt;/td&gt;&lt;td&gt;摩爾加納&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Morgana_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Morgana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Morgana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Morgana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Morgana_rank' value='5'&gt;5 &lt;input type='radio' name='Morgana_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Morgana_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="P69" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Myron' class='Light'&gt;&lt;td&gt;&lt;img src='img/Myron.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myron&lt;/td&gt;&lt;td&gt;繆倫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myron_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myron_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myron_rank' value='3'&gt;3 &lt;input type='radio' name='Myron_rank' value='4'&gt;4 &lt;input type='radio' name='Myron_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Myron_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Myron_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Myron' class='Light'&gt;&lt;td&gt;&lt;img src='img/Myron.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myron&lt;/td&gt;&lt;td&gt;繆倫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myron_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myron_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myron_rank' value='3'&gt;3 &lt;input type='radio' name='Myron_rank' value='4'&gt;4 &lt;input type='radio' name='Myron_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Myron_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Myron_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="P70" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Myrus' class='Light'&gt;&lt;td&gt;&lt;img src='img/Myrus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myrus&lt;/td&gt;&lt;td&gt;繆露絲&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myrus_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myrus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myrus_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Myrus_rank' value='4'&gt;4 &lt;input type='radio' name='Myrus_rank' value='5'&gt;5 &lt;input type='radio' name='Myrus_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Myrus_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Myrus' class='Light'&gt;&lt;td&gt;&lt;img src='img/Myrus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myrus&lt;/td&gt;&lt;td&gt;繆露絲&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myrus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myrus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myrus_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Myrus_rank' value='4'&gt;4 &lt;input type='radio' name='Myrus_rank' value='5'&gt;5 &lt;input type='radio' name='Myrus_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Myrus_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="P71" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Nagi' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Nagi.jpg'&gt;&lt;img src='img/Nagi_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nagi&lt;/td&gt;&lt;td&gt;娜基&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nagi_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nagi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nagi_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Nagi_rank' value='4'&gt;4 &lt;input type='radio' name='Nagi_rank' value='5'&gt;5 &lt;input type='radio' name='Nagi_rank' value='AS'&gt;AS &lt;input type='radio' name='Nagi_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Nagi' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Nagi.jpg'&gt;&lt;img src='img/Nagi_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nagi&lt;/td&gt;&lt;td&gt;娜基&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nagi_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nagi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nagi_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Nagi_rank' value='4'&gt;4 &lt;input type='radio' name='Nagi_rank' value='5'&gt;5 &lt;input type='radio' name='Nagi_rank' value='AS'&gt;AS &lt;input type='radio' name='Nagi_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="P72" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Natore' class='Light'&gt;&lt;td&gt;&lt;img src='img/Natore.jpg'&gt;&lt;/td&gt;&lt;td&gt;Natore&lt;/td&gt;&lt;td&gt;娜托雷&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Natore_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Natore_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Natore_rank' value='3'&gt;3 &lt;input type='radio' name='Natore_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Natore_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Natore_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Natore_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Natore' class='Light'&gt;&lt;td&gt;&lt;img src='img/Natore.jpg'&gt;&lt;/td&gt;&lt;td&gt;Natore&lt;/td&gt;&lt;td&gt;娜托雷&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Natore_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Natore_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Natore_rank' value='3'&gt;3 &lt;input type='radio' name='Natore_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Natore_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Natore_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Natore_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="P73" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Naylia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Naylia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Naylia&lt;/td&gt;&lt;td&gt;內莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Naylia_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Naylia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Naylia_rank' value='3'&gt;3 &lt;input type='radio' name='Naylia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Naylia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Naylia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Naylia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Naylia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Naylia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Naylia&lt;/td&gt;&lt;td&gt;內莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Naylia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Naylia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Naylia_rank' value='3'&gt;3 &lt;input type='radio' name='Naylia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Naylia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Naylia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Naylia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="P74" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Nero' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Nero.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nero&lt;/td&gt;&lt;td&gt;尼洛&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nero_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nero_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nero_rank' value='3'&gt;3 &lt;input type='radio' name='Nero_rank' value='4'&gt;4 &lt;input type='radio' name='Nero_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nero_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nero_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Nero' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Nero.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nero&lt;/td&gt;&lt;td&gt;尼洛&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nero_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nero_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nero_rank' value='3'&gt;3 &lt;input type='radio' name='Nero_rank' value='4'&gt;4 &lt;input type='radio' name='Nero_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nero_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nero_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="P75" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Nikeh' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Nikeh.jpg'&gt;&lt;img src='img/Nikeh_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nikeh&lt;/td&gt;&lt;td&gt;尼姬&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nikeh_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nikeh_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nikeh_rank' value='3'&gt;3 &lt;input type='radio' name='Nikeh_rank' value='4'&gt;4 &lt;input type='radio' name='Nikeh_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nikeh_rank' value='AS'&gt;AS &lt;input type='radio' name='Nikeh_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Nikeh' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Nikeh.jpg'&gt;&lt;img src='img/Nikeh_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nikeh&lt;/td&gt;&lt;td&gt;尼姬&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nikeh_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nikeh_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nikeh_rank' value='3'&gt;3 &lt;input type='radio' name='Nikeh_rank' value='4'&gt;4 &lt;input type='radio' name='Nikeh_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nikeh_rank' value='AS'&gt;AS &lt;input type='radio' name='Nikeh_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="P76" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Nixa' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nixa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nixa&lt;/td&gt;&lt;td&gt;妮克薩&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nixa_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nixa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nixa_rank' value='3'&gt;3 &lt;input type='radio' name='Nixa_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Nixa_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nixa_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nixa_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Nixa' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nixa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nixa&lt;/td&gt;&lt;td&gt;妮克薩&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nixa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nixa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nixa_rank' value='3'&gt;3 &lt;input type='radio' name='Nixa_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Nixa_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nixa_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nixa_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="P77" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Nomar' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nomar.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nomar&lt;/td&gt;&lt;td&gt;諾馬爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nomar_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nomar_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nomar_rank' value='3'&gt;3 &lt;input type='radio' name='Nomar_rank' value='4'&gt;4 &lt;input type='radio' name='Nomar_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nomar_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nomar_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Nomar' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nomar.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nomar&lt;/td&gt;&lt;td&gt;諾馬爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nomar_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nomar_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nomar_rank' value='3'&gt;3 &lt;input type='radio' name='Nomar_rank' value='4'&gt;4 &lt;input type='radio' name='Nomar_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nomar_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nomar_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="P78" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Nonold' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nonold.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nonold&lt;/td&gt;&lt;td&gt;諾諾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nonold_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nonold_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nonold_rank' value='3'&gt;3 &lt;input type='radio' name='Nonold_rank' value='4'&gt;4 &lt;input type='radio' name='Nonold_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nonold_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nonold_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Nonold' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nonold.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nonold&lt;/td&gt;&lt;td&gt;諾諾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nonold_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nonold_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nonold_rank' value='3'&gt;3 &lt;input type='radio' name='Nonold_rank' value='4'&gt;4 &lt;input type='radio' name='Nonold_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nonold_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nonold_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="P79" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Noome' class='Light'&gt;&lt;td&gt;&lt;img src='img/Noome.jpg'&gt;&lt;/td&gt;&lt;td&gt;Noome&lt;/td&gt;&lt;td&gt;諾暮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Noome_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Noome_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Noome_rank' value='3'&gt;3 &lt;input type='radio' name='Noome_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Noome_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Noome_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Noome_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Noome' class='Light'&gt;&lt;td&gt;&lt;img src='img/Noome.jpg'&gt;&lt;/td&gt;&lt;td&gt;Noome&lt;/td&gt;&lt;td&gt;諾暮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Noome_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Noome_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Noome_rank' value='3'&gt;3 &lt;input type='radio' name='Noome_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Noome_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Noome_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Noome_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="P80" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Nopaew' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nopaew.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nopaew&lt;/td&gt;&lt;td&gt;波波羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nopaew_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nopaew_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nopaew_rank' value='3'&gt;3 &lt;input type='radio' name='Nopaew_rank' value='4'&gt;4 &lt;input type='radio' name='Nopaew_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nopaew_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nopaew_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Nopaew' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nopaew.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nopaew&lt;/td&gt;&lt;td&gt;波波羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nopaew_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nopaew_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nopaew_rank' value='3'&gt;3 &lt;input type='radio' name='Nopaew_rank' value='4'&gt;4 &lt;input type='radio' name='Nopaew_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nopaew_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nopaew_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="P81" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Oor' class='Light'&gt;&lt;td&gt;&lt;img src='img/Oor.jpg'&gt;&lt;/td&gt;&lt;td&gt;Oor&lt;/td&gt;&lt;td&gt;歐爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Oor_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Oor_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Oor_rank' value='3'&gt;3 &lt;input type='radio' name='Oor_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Oor_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Oor_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Oor_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Oor' class='Light'&gt;&lt;td&gt;&lt;img src='img/Oor.jpg'&gt;&lt;/td&gt;&lt;td&gt;Oor&lt;/td&gt;&lt;td&gt;歐爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Oor_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Oor_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Oor_rank' value='3'&gt;3 &lt;input type='radio' name='Oor_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Oor_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Oor_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Oor_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="P82" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Otoha' class='Light'&gt;&lt;td&gt;&lt;img src='img/Otoha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Otoha&lt;/td&gt;&lt;td&gt;乙葉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Otoha_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Otoha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Otoha_rank' value='3'&gt;3 &lt;input type='radio' name='Otoha_rank' value='4'&gt;4 &lt;input type='radio' name='Otoha_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Otoha_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Otoha_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Otoha' class='Light'&gt;&lt;td&gt;&lt;img src='img/Otoha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Otoha&lt;/td&gt;&lt;td&gt;乙葉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Otoha_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Otoha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Otoha_rank' value='3'&gt;3 &lt;input type='radio' name='Otoha_rank' value='4'&gt;4 &lt;input type='radio' name='Otoha_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Otoha_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Otoha_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="P83" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Parisa' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Parisa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Parisa&lt;/td&gt;&lt;td&gt;帕莉莎&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Parisa_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Parisa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Parisa_rank' value='3'&gt;3 &lt;input type='radio' name='Parisa_rank' value='4'&gt;4 &lt;input type='radio' name='Parisa_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Parisa_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Parisa_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Parisa' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Parisa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Parisa&lt;/td&gt;&lt;td&gt;帕莉莎&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Parisa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Parisa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Parisa_rank' value='3'&gt;3 &lt;input type='radio' name='Parisa_rank' value='4'&gt;4 &lt;input type='radio' name='Parisa_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Parisa_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Parisa_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
@@ -4699,7 +4699,7 @@
       </c>
       <c r="P84" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Pasia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Pasia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pasia&lt;/td&gt;&lt;td&gt;帕希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pasia_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pasia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pasia_rank' value='3'&gt;3 &lt;input type='radio' name='Pasia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Pasia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Pasia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Pasia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Pasia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Pasia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pasia&lt;/td&gt;&lt;td&gt;帕希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pasia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pasia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pasia_rank' value='3'&gt;3 &lt;input type='radio' name='Pasia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Pasia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Pasia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Pasia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="P85" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Philo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Philo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Philo&lt;/td&gt;&lt;td&gt;菲羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Philo_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Philo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Philo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Philo_rank' value='4'&gt;4 &lt;input type='radio' name='Philo_rank' value='5'&gt;5 &lt;input type='radio' name='Philo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Philo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Philo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Philo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Philo&lt;/td&gt;&lt;td&gt;菲羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Philo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Philo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Philo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Philo_rank' value='4'&gt;4 &lt;input type='radio' name='Philo_rank' value='5'&gt;5 &lt;input type='radio' name='Philo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Philo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="P86" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Pom' class='Light'&gt;&lt;td&gt;&lt;img src='img/Pom.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pom&lt;/td&gt;&lt;td&gt;波姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pom_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pom_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pom_rank' value='3'&gt;3 &lt;input type='radio' name='Pom_rank' value='4'&gt;4 &lt;input type='radio' name='Pom_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Pom_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Pom_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Pom' class='Light'&gt;&lt;td&gt;&lt;img src='img/Pom.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pom&lt;/td&gt;&lt;td&gt;波姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pom_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pom_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pom_rank' value='3'&gt;3 &lt;input type='radio' name='Pom_rank' value='4'&gt;4 &lt;input type='radio' name='Pom_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Pom_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Pom_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="P87" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Prai' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Prai.jpg'&gt;&lt;/td&gt;&lt;td&gt;Prai&lt;/td&gt;&lt;td&gt;普萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Prai_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Prai_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Prai_rank' value='3'&gt;3 &lt;input type='radio' name='Prai_rank' value='4'&gt;4 &lt;input type='radio' name='Prai_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Prai_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Prai_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Prai' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Prai.jpg'&gt;&lt;/td&gt;&lt;td&gt;Prai&lt;/td&gt;&lt;td&gt;普萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Prai_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Prai_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Prai_rank' value='3'&gt;3 &lt;input type='radio' name='Prai_rank' value='4'&gt;4 &lt;input type='radio' name='Prai_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Prai_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Prai_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="P88" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Premaya' class='Light'&gt;&lt;td&gt;&lt;img src='img/Premaya.jpg'&gt;&lt;/td&gt;&lt;td&gt;Premaya&lt;/td&gt;&lt;td&gt;普蕾米婭&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Premaya_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Premaya_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Premaya_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Premaya_rank' value='4'&gt;4 &lt;input type='radio' name='Premaya_rank' value='5'&gt;5 &lt;input type='radio' name='Premaya_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Premaya_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Premaya' class='Light'&gt;&lt;td&gt;&lt;img src='img/Premaya.jpg'&gt;&lt;/td&gt;&lt;td&gt;Premaya&lt;/td&gt;&lt;td&gt;普蕾米婭&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Premaya_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Premaya_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Premaya_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Premaya_rank' value='4'&gt;4 &lt;input type='radio' name='Premaya_rank' value='5'&gt;5 &lt;input type='radio' name='Premaya_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Premaya_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="P89" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Radica' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Radica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Radica&lt;/td&gt;&lt;td&gt;拉蒂卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Radica_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Radica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Radica_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Radica_rank' value='4'&gt;4 &lt;input type='radio' name='Radica_rank' value='5'&gt;5 &lt;input type='radio' name='Radica_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Radica_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Radica' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Radica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Radica&lt;/td&gt;&lt;td&gt;拉蒂卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Radica_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Radica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Radica_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Radica_rank' value='4'&gt;4 &lt;input type='radio' name='Radica_rank' value='5'&gt;5 &lt;input type='radio' name='Radica_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Radica_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="P90" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Raven' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Raven.jpg'&gt;&lt;/td&gt;&lt;td&gt;Raven&lt;/td&gt;&lt;td&gt;雷文&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Raven_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Raven_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Raven_rank' value='3'&gt;3 &lt;input type='radio' name='Raven_rank' value='4'&gt;4 &lt;input type='radio' name='Raven_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Raven_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Raven_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Raven' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Raven.jpg'&gt;&lt;/td&gt;&lt;td&gt;Raven&lt;/td&gt;&lt;td&gt;雷文&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Raven_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Raven_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Raven_rank' value='3'&gt;3 &lt;input type='radio' name='Raven_rank' value='4'&gt;4 &lt;input type='radio' name='Raven_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Raven_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Raven_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="P91" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Renri' class='Light'&gt;&lt;td&gt;&lt;img src='img/Renri.jpg'&gt;&lt;/td&gt;&lt;td&gt;Renri&lt;/td&gt;&lt;td&gt;雷莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Renri_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Renri_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Renri_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Renri_rank' value='4'&gt;4 &lt;input type='radio' name='Renri_rank' value='5'&gt;5 &lt;input type='radio' name='Renri_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Renri_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Renri' class='Light'&gt;&lt;td&gt;&lt;img src='img/Renri.jpg'&gt;&lt;/td&gt;&lt;td&gt;Renri&lt;/td&gt;&lt;td&gt;雷莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Renri_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Renri_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Renri_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Renri_rank' value='4'&gt;4 &lt;input type='radio' name='Renri_rank' value='5'&gt;5 &lt;input type='radio' name='Renri_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Renri_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="P92" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Riica' class='Light'&gt;&lt;td&gt;&lt;img src='img/Riica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Riica&lt;/td&gt;&lt;td&gt;莉卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Riica_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Riica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Riica_rank' value='3'&gt;3 &lt;input type='radio' name='Riica_rank' value='4'&gt;4 &lt;input type='radio' name='Riica_rank' value='5'&gt;5 &lt;input type='radio' name='Riica_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Riica_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Riica' class='Light'&gt;&lt;td&gt;&lt;img src='img/Riica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Riica&lt;/td&gt;&lt;td&gt;莉卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Riica_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Riica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Riica_rank' value='3'&gt;3 &lt;input type='radio' name='Riica_rank' value='4'&gt;4 &lt;input type='radio' name='Riica_rank' value='5'&gt;5 &lt;input type='radio' name='Riica_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Riica_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="P93" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Rodeia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Rodeia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rodeia&lt;/td&gt;&lt;td&gt;羅蒂亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rodeia_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rodeia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rodeia_rank' value='3'&gt;3 &lt;input type='radio' name='Rodeia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Rodeia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rodeia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rodeia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Rodeia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Rodeia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rodeia&lt;/td&gt;&lt;td&gt;羅蒂亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rodeia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rodeia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rodeia_rank' value='3'&gt;3 &lt;input type='radio' name='Rodeia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Rodeia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rodeia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rodeia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="P94" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Rosetta' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Rosetta.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rosetta&lt;/td&gt;&lt;td&gt;蘿潔塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rosetta_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rosetta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rosetta_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Rosetta_rank' value='4'&gt;4 &lt;input type='radio' name='Rosetta_rank' value='5'&gt;5 &lt;input type='radio' name='Rosetta_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rosetta_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Rosetta' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Rosetta.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rosetta&lt;/td&gt;&lt;td&gt;蘿潔塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rosetta_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rosetta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rosetta_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Rosetta_rank' value='4'&gt;4 &lt;input type='radio' name='Rosetta_rank' value='5'&gt;5 &lt;input type='radio' name='Rosetta_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rosetta_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="P95" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Rovella' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Rovella.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rovella&lt;/td&gt;&lt;td&gt;羅貝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rovella_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rovella_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rovella_rank' value='3'&gt;3 &lt;input type='radio' name='Rovella_rank' value='4'&gt;4 &lt;input type='radio' name='Rovella_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rovella_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rovella_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Rovella' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Rovella.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rovella&lt;/td&gt;&lt;td&gt;羅貝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rovella_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rovella_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rovella_rank' value='3'&gt;3 &lt;input type='radio' name='Rovella_rank' value='4'&gt;4 &lt;input type='radio' name='Rovella_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rovella_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rovella_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="P96" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Rufus' class='Light'&gt;&lt;td&gt;&lt;img src='img/Rufus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rufus&lt;/td&gt;&lt;td&gt;洛福斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rufus_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rufus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rufus_rank' value='3'&gt;3 &lt;input type='radio' name='Rufus_rank' value='4'&gt;4 &lt;input type='radio' name='Rufus_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rufus_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rufus_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Rufus' class='Light'&gt;&lt;td&gt;&lt;img src='img/Rufus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rufus&lt;/td&gt;&lt;td&gt;洛福斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rufus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rufus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rufus_rank' value='3'&gt;3 &lt;input type='radio' name='Rufus_rank' value='4'&gt;4 &lt;input type='radio' name='Rufus_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rufus_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rufus_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="P97" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Ruina' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Ruina.jpg'&gt;&lt;img src='img/Ruina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ruina&lt;/td&gt;&lt;td&gt;路伊娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ruina_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ruina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ruina_rank' value='3'&gt;3 &lt;input type='radio' name='Ruina_rank' value='4'&gt;4 &lt;input type='radio' name='Ruina_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Ruina_rank' value='AS'&gt;AS &lt;input type='radio' name='Ruina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Ruina' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Ruina.jpg'&gt;&lt;img src='img/Ruina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ruina&lt;/td&gt;&lt;td&gt;路伊娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ruina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ruina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ruina_rank' value='3'&gt;3 &lt;input type='radio' name='Ruina_rank' value='4'&gt;4 &lt;input type='radio' name='Ruina_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Ruina_rank' value='AS'&gt;AS &lt;input type='radio' name='Ruina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
@@ -5237,7 +5237,7 @@
         <v>101</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f t="shared" ref="B98:B129" si="8">LEFT(A98,(FIND(".",A98,1)-1))</f>
+        <f t="shared" ref="B98:B123" si="8">LEFT(A98,(FIND(".",A98,1)-1))</f>
         <v>Saithe</v>
       </c>
       <c r="C98" t="s">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="P98" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Saithe' class='Light'&gt;&lt;td&gt;&lt;img src='img/Saithe.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saithe&lt;/td&gt;&lt;td&gt;賽斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saithe_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saithe_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saithe_rank' value='3'&gt;3 &lt;input type='radio' name='Saithe_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Saithe_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Saithe_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Saithe_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Saithe' class='Light'&gt;&lt;td&gt;&lt;img src='img/Saithe.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saithe&lt;/td&gt;&lt;td&gt;賽斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saithe_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saithe_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saithe_rank' value='3'&gt;3 &lt;input type='radio' name='Saithe_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Saithe_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Saithe_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Saithe_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="P99" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Saki' class='Light'&gt;&lt;td&gt;&lt;img src='img/Saki.jpg'&gt;&lt;img src='img/Saki_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saki&lt;/td&gt;&lt;td&gt;紗希&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saki_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saki_rank' value='3'&gt;3 &lt;input type='radio' name='Saki_rank' value='4'&gt;4 &lt;input type='radio' name='Saki_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Saki_rank' value='AS'&gt;AS &lt;input type='radio' name='Saki_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Saki' class='Light'&gt;&lt;td&gt;&lt;img src='img/Saki.jpg'&gt;&lt;img src='img/Saki_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saki&lt;/td&gt;&lt;td&gt;紗希&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saki_rank' value='3'&gt;3 &lt;input type='radio' name='Saki_rank' value='4'&gt;4 &lt;input type='radio' name='Saki_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Saki_rank' value='AS'&gt;AS &lt;input type='radio' name='Saki_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="P100" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Samora' class='Light'&gt;&lt;td&gt;&lt;img src='img/Samora.jpg'&gt;&lt;/td&gt;&lt;td&gt;Samora&lt;/td&gt;&lt;td&gt;薩摩拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Samora_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Samora_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Samora_rank' value='3'&gt;3 &lt;input type='radio' name='Samora_rank' value='4'&gt;4 &lt;input type='radio' name='Samora_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Samora_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Samora_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Samora' class='Light'&gt;&lt;td&gt;&lt;img src='img/Samora.jpg'&gt;&lt;/td&gt;&lt;td&gt;Samora&lt;/td&gt;&lt;td&gt;薩摩拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Samora_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Samora_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Samora_rank' value='3'&gt;3 &lt;input type='radio' name='Samora_rank' value='4'&gt;4 &lt;input type='radio' name='Samora_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Samora_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Samora_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
@@ -5376,7 +5376,7 @@
         <v>130</v>
       </c>
       <c r="I101" s="3" t="str">
-        <f t="shared" ref="I101:I132" si="9">IF(AND(G101="Y",H101="Y"),"Y","N")</f>
+        <f t="shared" ref="I101:I123" si="9">IF(AND(G101="Y",H101="Y"),"Y","N")</f>
         <v>N</v>
       </c>
       <c r="K101" s="2" t="s">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="P101" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Sauria' class='Light'&gt;&lt;td&gt;&lt;img src='img/Sauria.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sauria&lt;/td&gt;&lt;td&gt;秀莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sauria_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sauria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sauria_rank' value='3'&gt;3 &lt;input type='radio' name='Sauria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Sauria_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sauria_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sauria_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Sauria' class='Light'&gt;&lt;td&gt;&lt;img src='img/Sauria.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sauria&lt;/td&gt;&lt;td&gt;秀莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sauria_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sauria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sauria_rank' value='3'&gt;3 &lt;input type='radio' name='Sauria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Sauria_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sauria_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sauria_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
@@ -5425,7 +5425,7 @@
       </c>
       <c r="P102" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Sevyn' class='Light'&gt;&lt;td&gt;&lt;img src='img/Sevyn.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sevyn&lt;/td&gt;&lt;td&gt;賽溫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sevyn_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sevyn_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sevyn_rank' value='3'&gt;3 &lt;input type='radio' name='Sevyn_rank' value='4'&gt;4 &lt;input type='radio' name='Sevyn_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sevyn_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sevyn_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Sevyn' class='Light'&gt;&lt;td&gt;&lt;img src='img/Sevyn.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sevyn&lt;/td&gt;&lt;td&gt;賽溫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sevyn_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sevyn_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sevyn_rank' value='3'&gt;3 &lt;input type='radio' name='Sevyn_rank' value='4'&gt;4 &lt;input type='radio' name='Sevyn_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sevyn_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sevyn_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="P103" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Shanie' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shanie.jpg'&gt;&lt;img src='img/Shanie_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shanie&lt;/td&gt;&lt;td&gt;謝奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shanie_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shanie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shanie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shanie_rank' value='4'&gt;4 &lt;input type='radio' name='Shanie_rank' value='5'&gt;5 &lt;input type='radio' name='Shanie_rank' value='AS'&gt;AS &lt;input type='radio' name='Shanie_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Shanie' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shanie.jpg'&gt;&lt;img src='img/Shanie_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shanie&lt;/td&gt;&lt;td&gt;謝奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shanie_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shanie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shanie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shanie_rank' value='4'&gt;4 &lt;input type='radio' name='Shanie_rank' value='5'&gt;5 &lt;input type='radio' name='Shanie_rank' value='AS'&gt;AS &lt;input type='radio' name='Shanie_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="P104" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Shannon' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shannon.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shannon&lt;/td&gt;&lt;td&gt;夏濃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shannon_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shannon_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shannon_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shannon_rank' value='4'&gt;4 &lt;input type='radio' name='Shannon_rank' value='5'&gt;5 &lt;input type='radio' name='Shannon_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Shannon_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Shannon' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shannon.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shannon&lt;/td&gt;&lt;td&gt;夏濃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shannon_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shannon_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shannon_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shannon_rank' value='4'&gt;4 &lt;input type='radio' name='Shannon_rank' value='5'&gt;5 &lt;input type='radio' name='Shannon_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Shannon_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="P105" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Sheila' class='Light'&gt;&lt;td&gt;&lt;img src='img/Sheila.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sheila&lt;/td&gt;&lt;td&gt;謝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sheila_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sheila_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sheila_rank' value='3'&gt;3 &lt;input type='radio' name='Sheila_rank' value='4'&gt;4 &lt;input type='radio' name='Sheila_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sheila_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sheila_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Sheila' class='Light'&gt;&lt;td&gt;&lt;img src='img/Sheila.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sheila&lt;/td&gt;&lt;td&gt;謝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sheila_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sheila_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sheila_rank' value='3'&gt;3 &lt;input type='radio' name='Sheila_rank' value='4'&gt;4 &lt;input type='radio' name='Sheila_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sheila_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sheila_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="P106" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Shigure' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shigure.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shigure&lt;/td&gt;&lt;td&gt;時雨&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shigure_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shigure_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shigure_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shigure_rank' value='4'&gt;4 &lt;input type='radio' name='Shigure_rank' value='5'&gt;5 &lt;input type='radio' name='Shigure_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Shigure_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Shigure' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shigure.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shigure&lt;/td&gt;&lt;td&gt;時雨&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shigure_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shigure_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shigure_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shigure_rank' value='4'&gt;4 &lt;input type='radio' name='Shigure_rank' value='5'&gt;5 &lt;input type='radio' name='Shigure_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Shigure_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="P107" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Shion' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shion.jpg'&gt;&lt;img src='img/Shion_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shion&lt;/td&gt;&lt;td&gt;紫央&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shion_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shion_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shion_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shion_rank' value='4'&gt;4 &lt;input type='radio' name='Shion_rank' value='5'&gt;5 &lt;input type='radio' name='Shion_rank' value='AS'&gt;AS &lt;input type='radio' name='Shion_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Shion' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shion.jpg'&gt;&lt;img src='img/Shion_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shion&lt;/td&gt;&lt;td&gt;紫央&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shion_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shion_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shion_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shion_rank' value='4'&gt;4 &lt;input type='radio' name='Shion_rank' value='5'&gt;5 &lt;input type='radio' name='Shion_rank' value='AS'&gt;AS &lt;input type='radio' name='Shion_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="P108" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Soira' class='Light'&gt;&lt;td&gt;&lt;img src='img/Soira.jpg'&gt;&lt;/td&gt;&lt;td&gt;Soira&lt;/td&gt;&lt;td&gt;蘇依萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Soira_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Soira_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Soira_rank' value='3'&gt;3 &lt;input type='radio' name='Soira_rank' value='4'&gt;4 &lt;input type='radio' name='Soira_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Soira_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Soira_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Soira' class='Light'&gt;&lt;td&gt;&lt;img src='img/Soira.jpg'&gt;&lt;/td&gt;&lt;td&gt;Soira&lt;/td&gt;&lt;td&gt;蘇依萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Soira_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Soira_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Soira_rank' value='3'&gt;3 &lt;input type='radio' name='Soira_rank' value='4'&gt;4 &lt;input type='radio' name='Soira_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Soira_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Soira_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="P109" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Suzette' class='Light'&gt;&lt;td&gt;&lt;img src='img/Suzette.jpg'&gt;&lt;img src='img/Suzette_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Suzette&lt;/td&gt;&lt;td&gt;蘇賽特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Suzette_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Suzette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Suzette_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Suzette_rank' value='4'&gt;4 &lt;input type='radio' name='Suzette_rank' value='5'&gt;5 &lt;input type='radio' name='Suzette_rank' value='AS'&gt;AS &lt;input type='radio' name='Suzette_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Suzette' class='Light'&gt;&lt;td&gt;&lt;img src='img/Suzette.jpg'&gt;&lt;img src='img/Suzette_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Suzette&lt;/td&gt;&lt;td&gt;蘇賽特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Suzette_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Suzette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Suzette_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Suzette_rank' value='4'&gt;4 &lt;input type='radio' name='Suzette_rank' value='5'&gt;5 &lt;input type='radio' name='Suzette_rank' value='AS'&gt;AS &lt;input type='radio' name='Suzette_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="P110" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Tayme' class='Light'&gt;&lt;td&gt;&lt;img src='img/Tayme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tayme&lt;/td&gt;&lt;td&gt;提姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tayme_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tayme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tayme_rank' value='3'&gt;3 &lt;input type='radio' name='Tayme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tayme_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Tayme_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tayme_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Tayme' class='Light'&gt;&lt;td&gt;&lt;img src='img/Tayme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tayme&lt;/td&gt;&lt;td&gt;提姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tayme_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tayme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tayme_rank' value='3'&gt;3 &lt;input type='radio' name='Tayme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tayme_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Tayme_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tayme_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="P111" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Tohme' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Tohme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tohme&lt;/td&gt;&lt;td&gt;托姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tohme_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tohme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tohme_rank' value='3'&gt;3 &lt;input type='radio' name='Tohme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tohme_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Tohme_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tohme_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Tohme' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Tohme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tohme&lt;/td&gt;&lt;td&gt;托姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tohme_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tohme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tohme_rank' value='3'&gt;3 &lt;input type='radio' name='Tohme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tohme_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Tohme_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tohme_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="P112" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Toole' class='Light'&gt;&lt;td&gt;&lt;img src='img/Toole.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toole&lt;/td&gt;&lt;td&gt;托爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toole_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toole_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toole_rank' value='3'&gt;3 &lt;input type='radio' name='Toole_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Toole_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Toole_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Toole_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Toole' class='Light'&gt;&lt;td&gt;&lt;img src='img/Toole.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toole&lt;/td&gt;&lt;td&gt;托爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toole_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toole_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toole_rank' value='3'&gt;3 &lt;input type='radio' name='Toole_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Toole_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Toole_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Toole_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="P113" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Toova' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Toova.jpg'&gt;&lt;img src='img/Toova_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toova&lt;/td&gt;&lt;td&gt;杜娃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toova_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toova_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toova_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Toova_rank' value='4'&gt;4 &lt;input type='radio' name='Toova_rank' value='5'&gt;5 &lt;input type='radio' name='Toova_rank' value='AS'&gt;AS &lt;input type='radio' name='Toova_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Toova' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Toova.jpg'&gt;&lt;img src='img/Toova_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toova&lt;/td&gt;&lt;td&gt;杜娃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toova_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toova_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toova_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Toova_rank' value='4'&gt;4 &lt;input type='radio' name='Toova_rank' value='5'&gt;5 &lt;input type='radio' name='Toova_rank' value='AS'&gt;AS &lt;input type='radio' name='Toova_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
@@ -5914,7 +5914,7 @@
       </c>
       <c r="P114" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Tsubame' class='Light'&gt;&lt;td&gt;&lt;img src='img/Tsubame.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsubame&lt;/td&gt;&lt;td&gt;燕&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsubame_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsubame_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsubame_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsubame_rank' value='4'&gt;4 &lt;input type='radio' name='Tsubame_rank' value='5'&gt;5 &lt;input type='radio' name='Tsubame_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tsubame_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Tsubame' class='Light'&gt;&lt;td&gt;&lt;img src='img/Tsubame.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsubame&lt;/td&gt;&lt;td&gt;燕&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsubame_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsubame_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsubame_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsubame_rank' value='4'&gt;4 &lt;input type='radio' name='Tsubame_rank' value='5'&gt;5 &lt;input type='radio' name='Tsubame_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tsubame_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="P115" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Tsukiha' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Tsukiha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsukiha&lt;/td&gt;&lt;td&gt;月華&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsukiha_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsukiha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsukiha_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsukiha_rank' value='4'&gt;4 &lt;input type='radio' name='Tsukiha_rank' value='5'&gt;5 &lt;input type='radio' name='Tsukiha_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tsukiha_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Tsukiha' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Tsukiha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsukiha&lt;/td&gt;&lt;td&gt;月華&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsukiha_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsukiha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsukiha_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsukiha_rank' value='4'&gt;4 &lt;input type='radio' name='Tsukiha_rank' value='5'&gt;5 &lt;input type='radio' name='Tsukiha_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tsukiha_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
@@ -5993,7 +5993,7 @@
       </c>
       <c r="P116" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Urania' class='Light'&gt;&lt;td&gt;&lt;img src='img/Urania.jpg'&gt;&lt;/td&gt;&lt;td&gt;Urania&lt;/td&gt;&lt;td&gt;烏拉尼雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Urania_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Urania_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Urania_rank' value='3'&gt;3 &lt;input type='radio' name='Urania_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Urania_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Urania_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Urania_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Urania' class='Light'&gt;&lt;td&gt;&lt;img src='img/Urania.jpg'&gt;&lt;/td&gt;&lt;td&gt;Urania&lt;/td&gt;&lt;td&gt;烏拉尼雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Urania_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Urania_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Urania_rank' value='3'&gt;3 &lt;input type='radio' name='Urania_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Urania_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Urania_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Urania_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="P117" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Uuo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Uuo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Uuo&lt;/td&gt;&lt;td&gt;烏奧&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Uuo_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Uuo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Uuo_rank' value='3'&gt;3 &lt;input type='radio' name='Uuo_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Uuo_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Uuo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Uuo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Uuo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Uuo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Uuo&lt;/td&gt;&lt;td&gt;烏奧&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Uuo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Uuo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Uuo_rank' value='3'&gt;3 &lt;input type='radio' name='Uuo_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Uuo_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Uuo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Uuo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="P118" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Veina' class='Light'&gt;&lt;td&gt;&lt;img src='img/Veina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Veina&lt;/td&gt;&lt;td&gt;維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Veina_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Veina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Veina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Veina_rank' value='4'&gt;4 &lt;input type='radio' name='Veina_rank' value='5'&gt;5 &lt;input type='radio' name='Veina_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Veina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Veina' class='Light'&gt;&lt;td&gt;&lt;img src='img/Veina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Veina&lt;/td&gt;&lt;td&gt;維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Veina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Veina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Veina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Veina_rank' value='4'&gt;4 &lt;input type='radio' name='Veina_rank' value='5'&gt;5 &lt;input type='radio' name='Veina_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Veina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="P119" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Yazuki' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yazuki.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yazuki&lt;/td&gt;&lt;td&gt;耶月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yazuki_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yazuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yazuki_rank' value='3'&gt;3 &lt;input type='radio' name='Yazuki_rank' value='4'&gt;4 &lt;input type='radio' name='Yazuki_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yazuki_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yazuki_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Yazuki' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yazuki.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yazuki&lt;/td&gt;&lt;td&gt;耶月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yazuki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yazuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yazuki_rank' value='3'&gt;3 &lt;input type='radio' name='Yazuki_rank' value='4'&gt;4 &lt;input type='radio' name='Yazuki_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yazuki_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yazuki_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="P120" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Yio' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yio.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yio&lt;/td&gt;&lt;td&gt;伊俄&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yio_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yio_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yio_rank' value='3'&gt;3 &lt;input type='radio' name='Yio_rank' value='4'&gt;4 &lt;input type='radio' name='Yio_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yio_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yio_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Yio' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yio.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yio&lt;/td&gt;&lt;td&gt;伊俄&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yio_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yio_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yio_rank' value='3'&gt;3 &lt;input type='radio' name='Yio_rank' value='4'&gt;4 &lt;input type='radio' name='Yio_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yio_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yio_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
@@ -6189,7 +6189,7 @@
       </c>
       <c r="P121" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Yssis' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yssis.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yssis&lt;/td&gt;&lt;td&gt;伊西斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yssis_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yssis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yssis_rank' value='3'&gt;3 &lt;input type='radio' name='Yssis_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Yssis_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yssis_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yssis_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Yssis' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yssis.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yssis&lt;/td&gt;&lt;td&gt;伊西斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yssis_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yssis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yssis_rank' value='3'&gt;3 &lt;input type='radio' name='Yssis_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Yssis_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yssis_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yssis_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="P122" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Yuna' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yuna.jpg'&gt;&lt;img src='img/Yuna_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yuna&lt;/td&gt;&lt;td&gt;由奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yuna_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yuna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yuna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Yuna_rank' value='4'&gt;4 &lt;input type='radio' name='Yuna_rank' value='5'&gt;5 &lt;input type='radio' name='Yuna_rank' value='AS'&gt;AS &lt;input type='radio' name='Yuna_rank' value='Both'&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Yuna' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yuna.jpg'&gt;&lt;img src='img/Yuna_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yuna&lt;/td&gt;&lt;td&gt;由奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yuna_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yuna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yuna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Yuna_rank' value='4'&gt;4 &lt;input type='radio' name='Yuna_rank' value='5'&gt;5 &lt;input type='radio' name='Yuna_rank' value='AS'&gt;AS &lt;input type='radio' name='Yuna_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="P123" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tr id='Zilva' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Zilva.jpg'&gt;&lt;/td&gt;&lt;td&gt;Zilva&lt;/td&gt;&lt;td&gt;茲爾巴&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Zilva_LS' min='0' max='255' value=''&gt;&lt;/input&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Zilva_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Zilva_rank' value='3'&gt;3 &lt;input type='radio' name='Zilva_rank' value='4'&gt;4 &lt;input type='radio' name='Zilva_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Zilva_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Zilva_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/form&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Zilva' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Zilva.jpg'&gt;&lt;/td&gt;&lt;td&gt;Zilva&lt;/td&gt;&lt;td&gt;茲爾巴&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Zilva_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Zilva_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Zilva_rank' value='3'&gt;3 &lt;input type='radio' name='Zilva_rank' value='4'&gt;4 &lt;input type='radio' name='Zilva_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Zilva_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Zilva_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/charList.xlsx
+++ b/charList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/another_picker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="113_{EDAF8704-33BD-42A1-9BF0-839D1C6DA06E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{90C2BA62-A5B2-4D63-AB8B-82D69AACE0FF}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="113_{EDAF8704-33BD-42A1-9BF0-839D1C6DA06E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2FD5B654-E0EF-41E9-A9DD-BDBF219FA2E4}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{FB4A35C3-13BA-439C-92C2-A466A92FB7C5}"/>
   </bookViews>
@@ -166,9 +166,6 @@
     <t>Gariyu.jpg</t>
   </si>
   <si>
-    <t>Good Macky.jpg</t>
-  </si>
-  <si>
     <t>Guildna.jpg</t>
   </si>
   <si>
@@ -878,6 +875,9 @@
   </si>
   <si>
     <t>Convertor</t>
+  </si>
+  <si>
+    <t>Good-Macky.jpg</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:P123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P2" sqref="P2:P123"/>
     </sheetView>
   </sheetViews>
@@ -1312,7 +1312,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -1339,10 +1339,10 @@
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1354,35 +1354,35 @@
         <v>Akane</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>IF(AND(G2="Y",H2="Y"),"Y","N")</f>
         <v>N</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="P2" s="1" t="str">
         <f>"&lt;tr id='"&amp;SUBSTITUTE(B2," ","")&amp;"' class='"&amp;D2&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A2&amp;"'&gt;"&amp;IF(H2="Y","&lt;img src='img/"&amp;B2&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K2&amp;".png'&gt;"&amp;IF(L2="","","&lt;img src='img/type/"&amp;L2&amp;".png'&gt;")&amp;IF(M2="","","&lt;img src='img/type/"&amp;M2&amp;".png'&gt;")&amp;IF(N2="","","&lt;img src='img/type/"&amp;N2&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B2," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='3'"&amp;IF(E2="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='4'"&amp;IF(F2="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='5'"&amp;IF(G2="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='AS'"&amp;IF(H2="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='Both'"&amp;IF(I2="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -1398,32 +1398,32 @@
         <v>Aldo</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>IF(AND(G3="Y",H3="Y"),"Y","N")</f>
         <v>N</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="P3" s="1" t="str">
         <f t="shared" ref="P3:P66" si="1">"&lt;tr id='"&amp;SUBSTITUTE(B3," ","")&amp;"' class='"&amp;D3&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A3&amp;"'&gt;"&amp;IF(H3="Y","&lt;img src='img/"&amp;B3&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C3&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K3&amp;".png'&gt;"&amp;IF(L3="","","&lt;img src='img/type/"&amp;L3&amp;".png'&gt;")&amp;IF(M3="","","&lt;img src='img/type/"&amp;M3&amp;".png'&gt;")&amp;IF(N3="","","&lt;img src='img/type/"&amp;N3&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B3," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='3'"&amp;IF(E3="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='4'"&amp;IF(F3="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='5'"&amp;IF(G3="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='AS'"&amp;IF(H3="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='Both'"&amp;IF(I3="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -1432,38 +1432,38 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Altena</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1475,36 +1475,36 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(LEFT(A5,(FIND(".",A5,1)-1)),"-"," ")</f>
         <v>Amy</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" ref="I5:I36" si="2">IF(AND(G5="Y",H5="Y"),"Y","N")</f>
         <v>N</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1516,39 +1516,39 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B6:B69" si="3">SUBSTITUTE(LEFT(A6,(FIND(".",A6,1)-1)),"-"," ")</f>
         <v>Anabel</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1560,33 +1560,33 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Asia</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1598,39 +1598,39 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Azami</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1642,36 +1642,36 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Benedict</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1683,36 +1683,36 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Bertrand</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1724,36 +1724,36 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Biaka</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1765,33 +1765,33 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Bivette</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1803,36 +1803,36 @@
         <v>17</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Breeno</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1844,36 +1844,36 @@
         <v>18</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Bria</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P14" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1885,39 +1885,39 @@
         <v>19</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Cerrine</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="P15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1929,39 +1929,39 @@
         <v>20</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Cetie</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="P16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1973,33 +1973,33 @@
         <v>21</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Chiyo</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2011,36 +2011,36 @@
         <v>22</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Ciel</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2052,39 +2052,39 @@
         <v>23</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Claude</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P19" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2096,33 +2096,33 @@
         <v>24</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Ctos</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P20" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2134,39 +2134,39 @@
         <v>25</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Cyrus</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P21" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2178,36 +2178,36 @@
         <v>26</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Cyuca</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2219,36 +2219,36 @@
         <v>27</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Darunis</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2260,36 +2260,36 @@
         <v>28</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Deirdre</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2301,36 +2301,36 @@
         <v>29</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Denny</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P25" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2342,36 +2342,36 @@
         <v>30</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Dewey</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P26" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2383,36 +2383,36 @@
         <v>31</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Dunarith</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P27" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2424,33 +2424,33 @@
         <v>32</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Een</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P28" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2462,36 +2462,36 @@
         <v>33</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Elga</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P29" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2503,33 +2503,33 @@
         <v>34</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Emms</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P30" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2541,33 +2541,33 @@
         <v>35</v>
       </c>
       <c r="B31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Erina</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P31" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2579,33 +2579,33 @@
         <v>36</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Esta</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P32" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2617,36 +2617,36 @@
         <v>37</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Ewan</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I33" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P33" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2658,33 +2658,33 @@
         <v>38</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f t="shared" ref="B34:B65" si="3">LEFT(A34,(FIND(".",A34,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Feinne</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I34" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P34" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2700,38 +2700,38 @@
         <v>Felmina</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="I35" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P35" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2747,32 +2747,32 @@
         <v>Foran</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G36" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="I36" s="3" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P36" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2788,32 +2788,32 @@
         <v>Galliard</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I37" s="3" t="str">
         <f t="shared" ref="I37:I68" si="4">IF(AND(G37="Y",H37="Y"),"Y","N")</f>
         <v>N</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P37" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2829,32 +2829,32 @@
         <v>Gariyu</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P38" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2863,80 +2863,80 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>280</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Good Macky</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I39" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='GoodMacky' class='Light'&gt;&lt;td&gt;&lt;img src='img/Good Macky.jpg'&gt;&lt;/td&gt;&lt;td&gt;Good Macky&lt;/td&gt;&lt;td&gt;善良的米可麥克&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='GoodMacky_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='GoodMacky_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='GoodMacky_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='GoodMacky_rank' value='4'&gt;4 &lt;input type='radio' name='GoodMacky_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='GoodMacky_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='GoodMacky_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='GoodMacky' class='Light'&gt;&lt;td&gt;&lt;img src='img/Good-Macky.jpg'&gt;&lt;/td&gt;&lt;td&gt;Good Macky&lt;/td&gt;&lt;td&gt;善良的米可麥克&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='GoodMacky_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='GoodMacky_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='GoodMacky_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='GoodMacky_rank' value='4'&gt;4 &lt;input type='radio' name='GoodMacky_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='GoodMacky_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='GoodMacky_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Guildna</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="P40" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2945,39 +2945,39 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Helena</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P41" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2986,39 +2986,39 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Hismena</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P42" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3027,39 +3027,39 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Hozuki</v>
       </c>
       <c r="C43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P43" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3068,39 +3068,39 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Ilulu</v>
       </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P44" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3122,26 +3122,26 @@
         <v>1</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3150,39 +3150,39 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Jade</v>
       </c>
       <c r="C46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I46" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3191,42 +3191,42 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Joker</v>
       </c>
       <c r="C47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I47" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3235,39 +3235,39 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B48" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Kikyo</v>
       </c>
       <c r="C48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I48" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3276,36 +3276,36 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Kilqia</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I49" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3314,39 +3314,39 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Komachi</v>
       </c>
       <c r="C50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I50" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3355,39 +3355,39 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Koot</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I51" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3396,36 +3396,36 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Krervo</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I52" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P52" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3434,42 +3434,42 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Laclair</v>
       </c>
       <c r="C53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I53" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P53" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3478,36 +3478,36 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Lele</v>
       </c>
       <c r="C54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I54" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P54" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3516,36 +3516,36 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Levia</v>
       </c>
       <c r="C55" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I55" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P55" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3554,39 +3554,39 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Lingli</v>
       </c>
       <c r="C56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I56" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P56" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3595,39 +3595,39 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Lokido</v>
       </c>
       <c r="C57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I57" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P57" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3636,36 +3636,36 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Lovely</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I58" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P58" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3674,39 +3674,39 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Lovinia</v>
       </c>
       <c r="C59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I59" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P59" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3715,36 +3715,36 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Mana</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I60" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P60" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3753,36 +3753,36 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Mariel</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I61" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P61" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3791,39 +3791,39 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="1" t="str">
         <f t="shared" si="3"/>
         <v>May</v>
       </c>
       <c r="C62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I62" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P62" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3832,42 +3832,42 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Melina</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I63" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P63" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3876,39 +3876,39 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Menesia</v>
       </c>
       <c r="C64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I64" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P64" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3917,36 +3917,36 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Mighty</v>
       </c>
       <c r="C65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I65" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P65" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3955,39 +3955,39 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" s="1" t="str">
-        <f t="shared" ref="B66:B97" si="5">LEFT(A66,(FIND(".",A66,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Miranda</v>
       </c>
       <c r="C66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I66" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K66" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L66" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="P66" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3996,2284 +3996,2284 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Miyu</v>
       </c>
       <c r="C67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I67" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L67" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L67" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="P67" s="1" t="str">
-        <f t="shared" ref="P67:P123" si="6">"&lt;tr id='"&amp;SUBSTITUTE(B67," ","")&amp;"' class='"&amp;D67&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A67&amp;"'&gt;"&amp;IF(H67="Y","&lt;img src='img/"&amp;B67&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B67&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C67&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K67&amp;".png'&gt;"&amp;IF(L67="","","&lt;img src='img/type/"&amp;L67&amp;".png'&gt;")&amp;IF(M67="","","&lt;img src='img/type/"&amp;M67&amp;".png'&gt;")&amp;IF(N67="","","&lt;img src='img/type/"&amp;N67&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B67," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='3'"&amp;IF(E67="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='4'"&amp;IF(F67="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='5'"&amp;IF(G67="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='AS'"&amp;IF(H67="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='Both'"&amp;IF(I67="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" ref="P67:P123" si="5">"&lt;tr id='"&amp;SUBSTITUTE(B67," ","")&amp;"' class='"&amp;D67&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A67&amp;"'&gt;"&amp;IF(H67="Y","&lt;img src='img/"&amp;B67&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B67&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C67&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K67&amp;".png'&gt;"&amp;IF(L67="","","&lt;img src='img/type/"&amp;L67&amp;".png'&gt;")&amp;IF(M67="","","&lt;img src='img/type/"&amp;M67&amp;".png'&gt;")&amp;IF(N67="","","&lt;img src='img/type/"&amp;N67&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B67," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='3'"&amp;IF(E67="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='4'"&amp;IF(F67="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='5'"&amp;IF(G67="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='AS'"&amp;IF(H67="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='Both'"&amp;IF(I67="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr id='Miyu' class='Light'&gt;&lt;td&gt;&lt;img src='img/Miyu.jpg'&gt;&lt;/td&gt;&lt;td&gt;Miyu&lt;/td&gt;&lt;td&gt;米悠&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miyu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miyu_rank' value='3'&gt;3 &lt;input type='radio' name='Miyu_rank' value='4'&gt;4 &lt;input type='radio' name='Miyu_rank' value='5'&gt;5 &lt;input type='radio' name='Miyu_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Miyu_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Morgana</v>
       </c>
       <c r="C68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I68" s="3" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P68" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Morgana' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Morgana.jpg'&gt;&lt;/td&gt;&lt;td&gt;Morgana&lt;/td&gt;&lt;td&gt;摩爾加納&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Morgana_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Morgana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Morgana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Morgana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Morgana_rank' value='5'&gt;5 &lt;input type='radio' name='Morgana_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Morgana_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Myron</v>
+      </c>
+      <c r="C69" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I69" s="3" t="str">
+        <f t="shared" ref="I69:I100" si="6">IF(AND(G69="Y",H69="Y"),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P69" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Myron</v>
-      </c>
-      <c r="C69" t="s">
-        <v>221</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I69" s="3" t="str">
-        <f t="shared" ref="I69:I100" si="7">IF(AND(G69="Y",H69="Y"),"Y","N")</f>
-        <v>N</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P69" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Myron' class='Light'&gt;&lt;td&gt;&lt;img src='img/Myron.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myron&lt;/td&gt;&lt;td&gt;繆倫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myron_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myron_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myron_rank' value='3'&gt;3 &lt;input type='radio' name='Myron_rank' value='4'&gt;4 &lt;input type='radio' name='Myron_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Myron_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Myron_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" s="1" t="str">
+        <f t="shared" ref="B70:B123" si="7">SUBSTITUTE(LEFT(A70,(FIND(".",A70,1)-1)),"-"," ")</f>
+        <v>Myrus</v>
+      </c>
+      <c r="C70" t="s">
+        <v>221</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I70" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P70" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Myrus</v>
-      </c>
-      <c r="C70" t="s">
-        <v>222</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I70" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P70" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Myrus' class='Light'&gt;&lt;td&gt;&lt;img src='img/Myrus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myrus&lt;/td&gt;&lt;td&gt;繆露絲&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myrus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myrus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myrus_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Myrus_rank' value='4'&gt;4 &lt;input type='radio' name='Myrus_rank' value='5'&gt;5 &lt;input type='radio' name='Myrus_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Myrus_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Nagi</v>
+      </c>
+      <c r="C71" t="s">
+        <v>222</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I71" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Y</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P71" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Nagi</v>
-      </c>
-      <c r="C71" t="s">
-        <v>223</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I71" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Y</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P71" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Nagi' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Nagi.jpg'&gt;&lt;img src='img/Nagi_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nagi&lt;/td&gt;&lt;td&gt;娜基&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nagi_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nagi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nagi_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Nagi_rank' value='4'&gt;4 &lt;input type='radio' name='Nagi_rank' value='5'&gt;5 &lt;input type='radio' name='Nagi_rank' value='AS'&gt;AS &lt;input type='radio' name='Nagi_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Natore</v>
+      </c>
+      <c r="C72" t="s">
+        <v>223</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I72" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P72" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Natore</v>
-      </c>
-      <c r="C72" t="s">
-        <v>224</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I72" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P72" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Natore' class='Light'&gt;&lt;td&gt;&lt;img src='img/Natore.jpg'&gt;&lt;/td&gt;&lt;td&gt;Natore&lt;/td&gt;&lt;td&gt;娜托雷&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Natore_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Natore_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Natore_rank' value='3'&gt;3 &lt;input type='radio' name='Natore_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Natore_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Natore_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Natore_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Naylia</v>
+      </c>
+      <c r="C73" t="s">
+        <v>224</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I73" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P73" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Naylia</v>
-      </c>
-      <c r="C73" t="s">
-        <v>225</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I73" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P73" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Naylia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Naylia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Naylia&lt;/td&gt;&lt;td&gt;內莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Naylia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Naylia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Naylia_rank' value='3'&gt;3 &lt;input type='radio' name='Naylia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Naylia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Naylia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Naylia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Nero</v>
+      </c>
+      <c r="C74" t="s">
+        <v>225</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I74" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P74" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Nero</v>
-      </c>
-      <c r="C74" t="s">
-        <v>226</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I74" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="P74" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Nero' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Nero.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nero&lt;/td&gt;&lt;td&gt;尼洛&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nero_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nero_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nero_rank' value='3'&gt;3 &lt;input type='radio' name='Nero_rank' value='4'&gt;4 &lt;input type='radio' name='Nero_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nero_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nero_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Nikeh</v>
+      </c>
+      <c r="C75" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I75" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P75" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Nikeh</v>
-      </c>
-      <c r="C75" t="s">
-        <v>227</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I75" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P75" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Nikeh' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Nikeh.jpg'&gt;&lt;img src='img/Nikeh_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nikeh&lt;/td&gt;&lt;td&gt;尼姬&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nikeh_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nikeh_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nikeh_rank' value='3'&gt;3 &lt;input type='radio' name='Nikeh_rank' value='4'&gt;4 &lt;input type='radio' name='Nikeh_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nikeh_rank' value='AS'&gt;AS &lt;input type='radio' name='Nikeh_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Nixa</v>
+      </c>
+      <c r="C76" t="s">
+        <v>227</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I76" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P76" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Nixa</v>
-      </c>
-      <c r="C76" t="s">
-        <v>228</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I76" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="P76" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Nixa' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nixa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nixa&lt;/td&gt;&lt;td&gt;妮克薩&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nixa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nixa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nixa_rank' value='3'&gt;3 &lt;input type='radio' name='Nixa_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Nixa_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nixa_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nixa_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Nomar</v>
+      </c>
+      <c r="C77" t="s">
+        <v>228</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I77" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="P77" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Nomar</v>
-      </c>
-      <c r="C77" t="s">
-        <v>229</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I77" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P77" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Nomar' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nomar.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nomar&lt;/td&gt;&lt;td&gt;諾馬爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nomar_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nomar_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nomar_rank' value='3'&gt;3 &lt;input type='radio' name='Nomar_rank' value='4'&gt;4 &lt;input type='radio' name='Nomar_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nomar_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nomar_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Nonold</v>
+      </c>
+      <c r="C78" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I78" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P78" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Nonold</v>
-      </c>
-      <c r="C78" t="s">
-        <v>230</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I78" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="P78" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Nonold' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nonold.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nonold&lt;/td&gt;&lt;td&gt;諾諾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nonold_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nonold_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nonold_rank' value='3'&gt;3 &lt;input type='radio' name='Nonold_rank' value='4'&gt;4 &lt;input type='radio' name='Nonold_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nonold_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nonold_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Noome</v>
+      </c>
+      <c r="C79" t="s">
+        <v>230</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I79" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P79" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Noome</v>
-      </c>
-      <c r="C79" t="s">
-        <v>231</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I79" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="P79" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Noome' class='Light'&gt;&lt;td&gt;&lt;img src='img/Noome.jpg'&gt;&lt;/td&gt;&lt;td&gt;Noome&lt;/td&gt;&lt;td&gt;諾暮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Noome_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Noome_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Noome_rank' value='3'&gt;3 &lt;input type='radio' name='Noome_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Noome_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Noome_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Noome_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Nopaew</v>
+      </c>
+      <c r="C80" t="s">
+        <v>231</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I80" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P80" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Nopaew</v>
-      </c>
-      <c r="C80" t="s">
-        <v>232</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I80" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="P80" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Nopaew' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nopaew.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nopaew&lt;/td&gt;&lt;td&gt;波波羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nopaew_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nopaew_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nopaew_rank' value='3'&gt;3 &lt;input type='radio' name='Nopaew_rank' value='4'&gt;4 &lt;input type='radio' name='Nopaew_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nopaew_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nopaew_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Oor</v>
+      </c>
+      <c r="C81" t="s">
+        <v>232</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I81" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P81" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Oor</v>
-      </c>
-      <c r="C81" t="s">
-        <v>233</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I81" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P81" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Oor' class='Light'&gt;&lt;td&gt;&lt;img src='img/Oor.jpg'&gt;&lt;/td&gt;&lt;td&gt;Oor&lt;/td&gt;&lt;td&gt;歐爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Oor_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Oor_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Oor_rank' value='3'&gt;3 &lt;input type='radio' name='Oor_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Oor_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Oor_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Oor_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Otoha</v>
+      </c>
+      <c r="C82" t="s">
+        <v>233</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I82" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P82" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Otoha</v>
-      </c>
-      <c r="C82" t="s">
-        <v>234</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I82" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P82" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Otoha' class='Light'&gt;&lt;td&gt;&lt;img src='img/Otoha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Otoha&lt;/td&gt;&lt;td&gt;乙葉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Otoha_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Otoha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Otoha_rank' value='3'&gt;3 &lt;input type='radio' name='Otoha_rank' value='4'&gt;4 &lt;input type='radio' name='Otoha_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Otoha_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Otoha_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Parisa</v>
+      </c>
+      <c r="C83" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I83" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P83" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Parisa</v>
-      </c>
-      <c r="C83" t="s">
-        <v>235</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I83" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="P83" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Parisa' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Parisa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Parisa&lt;/td&gt;&lt;td&gt;帕莉莎&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Parisa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Parisa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Parisa_rank' value='3'&gt;3 &lt;input type='radio' name='Parisa_rank' value='4'&gt;4 &lt;input type='radio' name='Parisa_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Parisa_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Parisa_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Pasia</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I84" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="P84" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Pasia</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I84" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P84" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Pasia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Pasia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pasia&lt;/td&gt;&lt;td&gt;帕希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pasia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pasia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pasia_rank' value='3'&gt;3 &lt;input type='radio' name='Pasia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Pasia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Pasia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Pasia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Philo</v>
+      </c>
+      <c r="C85" t="s">
+        <v>236</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I85" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P85" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Philo</v>
-      </c>
-      <c r="C85" t="s">
-        <v>237</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I85" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P85" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Philo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Philo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Philo&lt;/td&gt;&lt;td&gt;菲羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Philo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Philo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Philo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Philo_rank' value='4'&gt;4 &lt;input type='radio' name='Philo_rank' value='5'&gt;5 &lt;input type='radio' name='Philo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Philo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Pom</v>
+      </c>
+      <c r="C86" t="s">
+        <v>237</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I86" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P86" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Pom</v>
-      </c>
-      <c r="C86" t="s">
-        <v>238</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I86" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="P86" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Pom' class='Light'&gt;&lt;td&gt;&lt;img src='img/Pom.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pom&lt;/td&gt;&lt;td&gt;波姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pom_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pom_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pom_rank' value='3'&gt;3 &lt;input type='radio' name='Pom_rank' value='4'&gt;4 &lt;input type='radio' name='Pom_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Pom_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Pom_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Prai</v>
+      </c>
+      <c r="C87" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I87" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="P87" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Prai</v>
-      </c>
-      <c r="C87" t="s">
-        <v>239</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I87" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P87" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Prai' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Prai.jpg'&gt;&lt;/td&gt;&lt;td&gt;Prai&lt;/td&gt;&lt;td&gt;普萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Prai_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Prai_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Prai_rank' value='3'&gt;3 &lt;input type='radio' name='Prai_rank' value='4'&gt;4 &lt;input type='radio' name='Prai_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Prai_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Prai_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Premaya</v>
+      </c>
+      <c r="C88" t="s">
+        <v>239</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I88" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P88" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Premaya</v>
-      </c>
-      <c r="C88" t="s">
-        <v>240</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I88" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="P88" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Premaya' class='Light'&gt;&lt;td&gt;&lt;img src='img/Premaya.jpg'&gt;&lt;/td&gt;&lt;td&gt;Premaya&lt;/td&gt;&lt;td&gt;普蕾米婭&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Premaya_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Premaya_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Premaya_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Premaya_rank' value='4'&gt;4 &lt;input type='radio' name='Premaya_rank' value='5'&gt;5 &lt;input type='radio' name='Premaya_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Premaya_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Radica</v>
+      </c>
+      <c r="C89" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I89" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P89" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Radica</v>
-      </c>
-      <c r="C89" t="s">
-        <v>241</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I89" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P89" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Radica' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Radica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Radica&lt;/td&gt;&lt;td&gt;拉蒂卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Radica_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Radica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Radica_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Radica_rank' value='4'&gt;4 &lt;input type='radio' name='Radica_rank' value='5'&gt;5 &lt;input type='radio' name='Radica_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Radica_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Raven</v>
+      </c>
+      <c r="C90" t="s">
+        <v>241</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I90" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P90" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Raven</v>
-      </c>
-      <c r="C90" t="s">
-        <v>242</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I90" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P90" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Raven' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Raven.jpg'&gt;&lt;/td&gt;&lt;td&gt;Raven&lt;/td&gt;&lt;td&gt;雷文&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Raven_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Raven_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Raven_rank' value='3'&gt;3 &lt;input type='radio' name='Raven_rank' value='4'&gt;4 &lt;input type='radio' name='Raven_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Raven_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Raven_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B91" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Renri</v>
+      </c>
+      <c r="C91" t="s">
+        <v>242</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I91" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P91" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Renri</v>
-      </c>
-      <c r="C91" t="s">
-        <v>243</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I91" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="P91" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Renri' class='Light'&gt;&lt;td&gt;&lt;img src='img/Renri.jpg'&gt;&lt;/td&gt;&lt;td&gt;Renri&lt;/td&gt;&lt;td&gt;雷莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Renri_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Renri_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Renri_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Renri_rank' value='4'&gt;4 &lt;input type='radio' name='Renri_rank' value='5'&gt;5 &lt;input type='radio' name='Renri_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Renri_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Riica</v>
+      </c>
+      <c r="C92" t="s">
+        <v>243</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I92" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P92" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Riica</v>
-      </c>
-      <c r="C92" t="s">
-        <v>244</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I92" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="P92" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Riica' class='Light'&gt;&lt;td&gt;&lt;img src='img/Riica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Riica&lt;/td&gt;&lt;td&gt;莉卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Riica_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Riica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Riica_rank' value='3'&gt;3 &lt;input type='radio' name='Riica_rank' value='4'&gt;4 &lt;input type='radio' name='Riica_rank' value='5'&gt;5 &lt;input type='radio' name='Riica_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Riica_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B93" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Rodeia</v>
+      </c>
+      <c r="C93" t="s">
+        <v>244</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I93" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P93" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Rodeia</v>
-      </c>
-      <c r="C93" t="s">
-        <v>245</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I93" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P93" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Rodeia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Rodeia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rodeia&lt;/td&gt;&lt;td&gt;羅蒂亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rodeia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rodeia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rodeia_rank' value='3'&gt;3 &lt;input type='radio' name='Rodeia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Rodeia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rodeia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rodeia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B94" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Rosetta</v>
+      </c>
+      <c r="C94" t="s">
+        <v>245</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I94" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P94" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Rosetta</v>
-      </c>
-      <c r="C94" t="s">
-        <v>246</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I94" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P94" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Rosetta' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Rosetta.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rosetta&lt;/td&gt;&lt;td&gt;蘿潔塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rosetta_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rosetta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rosetta_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Rosetta_rank' value='4'&gt;4 &lt;input type='radio' name='Rosetta_rank' value='5'&gt;5 &lt;input type='radio' name='Rosetta_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rosetta_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Rovella</v>
+      </c>
+      <c r="C95" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I95" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="P95" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Rovella</v>
-      </c>
-      <c r="C95" t="s">
-        <v>247</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I95" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P95" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Rovella' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Rovella.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rovella&lt;/td&gt;&lt;td&gt;羅貝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rovella_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rovella_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rovella_rank' value='3'&gt;3 &lt;input type='radio' name='Rovella_rank' value='4'&gt;4 &lt;input type='radio' name='Rovella_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rovella_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rovella_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Rufus</v>
+      </c>
+      <c r="C96" t="s">
+        <v>247</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I96" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="P96" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Rufus</v>
-      </c>
-      <c r="C96" t="s">
-        <v>248</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I96" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P96" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Rufus' class='Light'&gt;&lt;td&gt;&lt;img src='img/Rufus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rufus&lt;/td&gt;&lt;td&gt;洛福斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rufus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rufus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rufus_rank' value='3'&gt;3 &lt;input type='radio' name='Rufus_rank' value='4'&gt;4 &lt;input type='radio' name='Rufus_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rufus_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rufus_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B97" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Ruina</v>
+      </c>
+      <c r="C97" t="s">
+        <v>248</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I97" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P97" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Ruina</v>
-      </c>
-      <c r="C97" t="s">
-        <v>249</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I97" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="P97" s="1" t="str">
-        <f t="shared" si="6"/>
         <v>&lt;tr id='Ruina' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Ruina.jpg'&gt;&lt;img src='img/Ruina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ruina&lt;/td&gt;&lt;td&gt;路伊娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ruina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ruina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ruina_rank' value='3'&gt;3 &lt;input type='radio' name='Ruina_rank' value='4'&gt;4 &lt;input type='radio' name='Ruina_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Ruina_rank' value='AS'&gt;AS &lt;input type='radio' name='Ruina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f t="shared" ref="B98:B123" si="8">LEFT(A98,(FIND(".",A98,1)-1))</f>
+        <f t="shared" si="7"/>
         <v>Saithe</v>
       </c>
       <c r="C98" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I98" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P98" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Saithe' class='Light'&gt;&lt;td&gt;&lt;img src='img/Saithe.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saithe&lt;/td&gt;&lt;td&gt;賽斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saithe_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saithe_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saithe_rank' value='3'&gt;3 &lt;input type='radio' name='Saithe_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Saithe_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Saithe_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Saithe_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Saki</v>
       </c>
       <c r="C99" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I99" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P99" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Saki' class='Light'&gt;&lt;td&gt;&lt;img src='img/Saki.jpg'&gt;&lt;img src='img/Saki_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saki&lt;/td&gt;&lt;td&gt;紗希&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saki_rank' value='3'&gt;3 &lt;input type='radio' name='Saki_rank' value='4'&gt;4 &lt;input type='radio' name='Saki_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Saki_rank' value='AS'&gt;AS &lt;input type='radio' name='Saki_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Samora</v>
       </c>
       <c r="C100" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I100" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P100" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Samora' class='Light'&gt;&lt;td&gt;&lt;img src='img/Samora.jpg'&gt;&lt;/td&gt;&lt;td&gt;Samora&lt;/td&gt;&lt;td&gt;薩摩拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Samora_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Samora_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Samora_rank' value='3'&gt;3 &lt;input type='radio' name='Samora_rank' value='4'&gt;4 &lt;input type='radio' name='Samora_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Samora_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Samora_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Sauria</v>
       </c>
       <c r="C101" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I101" s="3" t="str">
-        <f t="shared" ref="I101:I123" si="9">IF(AND(G101="Y",H101="Y"),"Y","N")</f>
+        <f t="shared" ref="I101:I123" si="8">IF(AND(G101="Y",H101="Y"),"Y","N")</f>
         <v>N</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P101" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Sauria' class='Light'&gt;&lt;td&gt;&lt;img src='img/Sauria.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sauria&lt;/td&gt;&lt;td&gt;秀莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sauria_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sauria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sauria_rank' value='3'&gt;3 &lt;input type='radio' name='Sauria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Sauria_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sauria_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sauria_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B102" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Sevyn</v>
+      </c>
+      <c r="C102" t="s">
+        <v>253</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I102" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Sevyn</v>
-      </c>
-      <c r="C102" t="s">
-        <v>254</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I102" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P102" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Sevyn' class='Light'&gt;&lt;td&gt;&lt;img src='img/Sevyn.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sevyn&lt;/td&gt;&lt;td&gt;賽溫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sevyn_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sevyn_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sevyn_rank' value='3'&gt;3 &lt;input type='radio' name='Sevyn_rank' value='4'&gt;4 &lt;input type='radio' name='Sevyn_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sevyn_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sevyn_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B103" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Shanie</v>
+      </c>
+      <c r="C103" t="s">
+        <v>254</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I103" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Shanie</v>
-      </c>
-      <c r="C103" t="s">
-        <v>255</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I103" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P103" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Shanie' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shanie.jpg'&gt;&lt;img src='img/Shanie_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shanie&lt;/td&gt;&lt;td&gt;謝奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shanie_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shanie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shanie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shanie_rank' value='4'&gt;4 &lt;input type='radio' name='Shanie_rank' value='5'&gt;5 &lt;input type='radio' name='Shanie_rank' value='AS'&gt;AS &lt;input type='radio' name='Shanie_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Shannon</v>
+      </c>
+      <c r="C104" t="s">
+        <v>255</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I104" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Shannon</v>
-      </c>
-      <c r="C104" t="s">
-        <v>256</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I104" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P104" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Shannon' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shannon.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shannon&lt;/td&gt;&lt;td&gt;夏濃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shannon_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shannon_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shannon_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shannon_rank' value='4'&gt;4 &lt;input type='radio' name='Shannon_rank' value='5'&gt;5 &lt;input type='radio' name='Shannon_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Shannon_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Sheila</v>
+      </c>
+      <c r="C105" t="s">
+        <v>256</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I105" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Sheila</v>
-      </c>
-      <c r="C105" t="s">
-        <v>257</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I105" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P105" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Sheila' class='Light'&gt;&lt;td&gt;&lt;img src='img/Sheila.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sheila&lt;/td&gt;&lt;td&gt;謝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sheila_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sheila_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sheila_rank' value='3'&gt;3 &lt;input type='radio' name='Sheila_rank' value='4'&gt;4 &lt;input type='radio' name='Sheila_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sheila_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sheila_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B106" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Shigure</v>
+      </c>
+      <c r="C106" t="s">
+        <v>257</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I106" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Shigure</v>
-      </c>
-      <c r="C106" t="s">
-        <v>258</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I106" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P106" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Shigure' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shigure.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shigure&lt;/td&gt;&lt;td&gt;時雨&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shigure_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shigure_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shigure_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shigure_rank' value='4'&gt;4 &lt;input type='radio' name='Shigure_rank' value='5'&gt;5 &lt;input type='radio' name='Shigure_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Shigure_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B107" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Shion</v>
+      </c>
+      <c r="C107" t="s">
+        <v>258</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I107" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Shion</v>
-      </c>
-      <c r="C107" t="s">
-        <v>259</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I107" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="K107" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L107" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L107" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="P107" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Shion' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shion.jpg'&gt;&lt;img src='img/Shion_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shion&lt;/td&gt;&lt;td&gt;紫央&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shion_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shion_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shion_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shion_rank' value='4'&gt;4 &lt;input type='radio' name='Shion_rank' value='5'&gt;5 &lt;input type='radio' name='Shion_rank' value='AS'&gt;AS &lt;input type='radio' name='Shion_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B108" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Soira</v>
+      </c>
+      <c r="C108" t="s">
+        <v>259</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I108" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Soira</v>
-      </c>
-      <c r="C108" t="s">
-        <v>260</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I108" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P108" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Soira' class='Light'&gt;&lt;td&gt;&lt;img src='img/Soira.jpg'&gt;&lt;/td&gt;&lt;td&gt;Soira&lt;/td&gt;&lt;td&gt;蘇依萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Soira_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Soira_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Soira_rank' value='3'&gt;3 &lt;input type='radio' name='Soira_rank' value='4'&gt;4 &lt;input type='radio' name='Soira_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Soira_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Soira_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B109" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Suzette</v>
+      </c>
+      <c r="C109" t="s">
+        <v>260</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I109" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Suzette</v>
-      </c>
-      <c r="C109" t="s">
-        <v>261</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I109" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P109" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Suzette' class='Light'&gt;&lt;td&gt;&lt;img src='img/Suzette.jpg'&gt;&lt;img src='img/Suzette_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Suzette&lt;/td&gt;&lt;td&gt;蘇賽特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Suzette_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Suzette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Suzette_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Suzette_rank' value='4'&gt;4 &lt;input type='radio' name='Suzette_rank' value='5'&gt;5 &lt;input type='radio' name='Suzette_rank' value='AS'&gt;AS &lt;input type='radio' name='Suzette_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B110" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Tayme</v>
+      </c>
+      <c r="C110" t="s">
+        <v>261</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I110" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Tayme</v>
-      </c>
-      <c r="C110" t="s">
-        <v>262</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I110" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P110" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Tayme' class='Light'&gt;&lt;td&gt;&lt;img src='img/Tayme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tayme&lt;/td&gt;&lt;td&gt;提姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tayme_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tayme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tayme_rank' value='3'&gt;3 &lt;input type='radio' name='Tayme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tayme_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Tayme_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tayme_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Tohme</v>
+      </c>
+      <c r="C111" t="s">
+        <v>262</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I111" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Tohme</v>
-      </c>
-      <c r="C111" t="s">
-        <v>263</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I111" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P111" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Tohme' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Tohme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tohme&lt;/td&gt;&lt;td&gt;托姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tohme_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tohme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tohme_rank' value='3'&gt;3 &lt;input type='radio' name='Tohme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tohme_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Tohme_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tohme_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B112" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Toole</v>
+      </c>
+      <c r="C112" t="s">
+        <v>263</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I112" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Toole</v>
-      </c>
-      <c r="C112" t="s">
-        <v>264</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I112" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P112" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Toole' class='Light'&gt;&lt;td&gt;&lt;img src='img/Toole.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toole&lt;/td&gt;&lt;td&gt;托爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toole_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toole_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toole_rank' value='3'&gt;3 &lt;input type='radio' name='Toole_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Toole_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Toole_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Toole_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B113" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Toova</v>
+      </c>
+      <c r="C113" t="s">
+        <v>264</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I113" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Toova</v>
-      </c>
-      <c r="C113" t="s">
-        <v>265</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I113" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P113" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Toova' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Toova.jpg'&gt;&lt;img src='img/Toova_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toova&lt;/td&gt;&lt;td&gt;杜娃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toova_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toova_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toova_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Toova_rank' value='4'&gt;4 &lt;input type='radio' name='Toova_rank' value='5'&gt;5 &lt;input type='radio' name='Toova_rank' value='AS'&gt;AS &lt;input type='radio' name='Toova_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B114" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Tsubame</v>
+      </c>
+      <c r="C114" t="s">
+        <v>265</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I114" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Tsubame</v>
-      </c>
-      <c r="C114" t="s">
-        <v>266</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I114" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P114" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Tsubame' class='Light'&gt;&lt;td&gt;&lt;img src='img/Tsubame.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsubame&lt;/td&gt;&lt;td&gt;燕&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsubame_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsubame_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsubame_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsubame_rank' value='4'&gt;4 &lt;input type='radio' name='Tsubame_rank' value='5'&gt;5 &lt;input type='radio' name='Tsubame_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tsubame_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B115" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Tsukiha</v>
+      </c>
+      <c r="C115" t="s">
+        <v>266</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I115" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Tsukiha</v>
-      </c>
-      <c r="C115" t="s">
-        <v>267</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I115" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K115" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L115" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L115" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="P115" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Tsukiha' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Tsukiha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsukiha&lt;/td&gt;&lt;td&gt;月華&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsukiha_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsukiha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsukiha_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsukiha_rank' value='4'&gt;4 &lt;input type='radio' name='Tsukiha_rank' value='5'&gt;5 &lt;input type='radio' name='Tsukiha_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tsukiha_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B116" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Urania</v>
+      </c>
+      <c r="C116" t="s">
+        <v>267</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I116" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Urania</v>
-      </c>
-      <c r="C116" t="s">
-        <v>268</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I116" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P116" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Urania' class='Light'&gt;&lt;td&gt;&lt;img src='img/Urania.jpg'&gt;&lt;/td&gt;&lt;td&gt;Urania&lt;/td&gt;&lt;td&gt;烏拉尼雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Urania_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Urania_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Urania_rank' value='3'&gt;3 &lt;input type='radio' name='Urania_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Urania_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Urania_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Urania_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B117" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Uuo</v>
+      </c>
+      <c r="C117" t="s">
+        <v>268</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I117" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Uuo</v>
-      </c>
-      <c r="C117" t="s">
-        <v>269</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I117" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P117" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Uuo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Uuo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Uuo&lt;/td&gt;&lt;td&gt;烏奧&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Uuo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Uuo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Uuo_rank' value='3'&gt;3 &lt;input type='radio' name='Uuo_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Uuo_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Uuo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Uuo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B118" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Veina</v>
+      </c>
+      <c r="C118" t="s">
+        <v>269</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I118" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Veina</v>
-      </c>
-      <c r="C118" t="s">
-        <v>270</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I118" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P118" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Veina' class='Light'&gt;&lt;td&gt;&lt;img src='img/Veina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Veina&lt;/td&gt;&lt;td&gt;維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Veina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Veina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Veina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Veina_rank' value='4'&gt;4 &lt;input type='radio' name='Veina_rank' value='5'&gt;5 &lt;input type='radio' name='Veina_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Veina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B119" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Yazuki</v>
+      </c>
+      <c r="C119" t="s">
+        <v>270</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I119" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Yazuki</v>
-      </c>
-      <c r="C119" t="s">
-        <v>271</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I119" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P119" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Yazuki' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yazuki.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yazuki&lt;/td&gt;&lt;td&gt;耶月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yazuki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yazuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yazuki_rank' value='3'&gt;3 &lt;input type='radio' name='Yazuki_rank' value='4'&gt;4 &lt;input type='radio' name='Yazuki_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yazuki_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yazuki_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B120" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Yio</v>
+      </c>
+      <c r="C120" t="s">
+        <v>271</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I120" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Yio</v>
-      </c>
-      <c r="C120" t="s">
-        <v>272</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I120" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P120" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Yio' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yio.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yio&lt;/td&gt;&lt;td&gt;伊俄&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yio_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yio_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yio_rank' value='3'&gt;3 &lt;input type='radio' name='Yio_rank' value='4'&gt;4 &lt;input type='radio' name='Yio_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yio_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yio_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B121" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Yssis</v>
+      </c>
+      <c r="C121" t="s">
+        <v>272</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I121" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Yssis</v>
-      </c>
-      <c r="C121" t="s">
-        <v>273</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I121" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P121" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Yssis' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yssis.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yssis&lt;/td&gt;&lt;td&gt;伊西斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yssis_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yssis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yssis_rank' value='3'&gt;3 &lt;input type='radio' name='Yssis_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Yssis_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yssis_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yssis_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B122" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Yuna</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I122" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Yuna</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I122" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P122" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Yuna' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yuna.jpg'&gt;&lt;img src='img/Yuna_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yuna&lt;/td&gt;&lt;td&gt;由奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yuna_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yuna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yuna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Yuna_rank' value='4'&gt;4 &lt;input type='radio' name='Yuna_rank' value='5'&gt;5 &lt;input type='radio' name='Yuna_rank' value='AS'&gt;AS &lt;input type='radio' name='Yuna_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B123" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Zilva</v>
+      </c>
+      <c r="C123" t="s">
+        <v>274</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I123" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Zilva</v>
-      </c>
-      <c r="C123" t="s">
-        <v>275</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I123" s="3" t="str">
-        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P123" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr id='Zilva' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Zilva.jpg'&gt;&lt;/td&gt;&lt;td&gt;Zilva&lt;/td&gt;&lt;td&gt;茲爾巴&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Zilva_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Zilva_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Zilva_rank' value='3'&gt;3 &lt;input type='radio' name='Zilva_rank' value='4'&gt;4 &lt;input type='radio' name='Zilva_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Zilva_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Zilva_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -6359,137 +6359,137 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/charList.xlsx
+++ b/charList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/another_picker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="113_{EDAF8704-33BD-42A1-9BF0-839D1C6DA06E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2FD5B654-E0EF-41E9-A9DD-BDBF219FA2E4}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="113_{EDAF8704-33BD-42A1-9BF0-839D1C6DA06E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9CBDAAF-C969-453F-8B88-A8A6132D3FE0}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{FB4A35C3-13BA-439C-92C2-A466A92FB7C5}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$123</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="288">
   <si>
     <t xml:space="preserve">伊絲卡 </t>
   </si>
@@ -878,6 +878,27 @@
   </si>
   <si>
     <t>Good-Macky.jpg</t>
+  </si>
+  <si>
+    <t>Strawboy.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草人小子 </t>
+  </si>
+  <si>
+    <t>all_null</t>
+  </si>
+  <si>
+    <t>all_slash</t>
+  </si>
+  <si>
+    <t>all_pierce</t>
+  </si>
+  <si>
+    <t>all_blunt</t>
+  </si>
+  <si>
+    <t>Free</t>
   </si>
 </sst>
 </file>
@@ -1291,11 +1312,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B535A930-5FFC-4C28-93C5-DE94369B070D}">
-  <dimension ref="A1:P123"/>
+  <dimension ref="A1:Q124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2:P123"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2:Q124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1304,13 +1325,13 @@
     <col min="2" max="2" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="4.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.796875" style="1"/>
-    <col min="11" max="14" width="10.69921875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="10" width="4.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.796875" style="1"/>
+    <col min="12" max="15" width="10.69921875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
@@ -1338,19 +1359,22 @@
       <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f t="shared" ref="B2:B33" si="0">LEFT(A2,(FIND(".",A2,1)-1))</f>
+        <f t="shared" ref="B2:B4" si="0">LEFT(A2,(FIND(".",A2,1)-1))</f>
         <v>Akane</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1375,21 +1399,24 @@
         <f>IF(AND(G2="Y",H2="Y"),"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P2" s="1" t="str">
-        <f>"&lt;tr id='"&amp;SUBSTITUTE(B2," ","")&amp;"' class='"&amp;D2&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A2&amp;"'&gt;"&amp;IF(H2="Y","&lt;img src='img/"&amp;B2&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K2&amp;".png'&gt;"&amp;IF(L2="","","&lt;img src='img/type/"&amp;L2&amp;".png'&gt;")&amp;IF(M2="","","&lt;img src='img/type/"&amp;M2&amp;".png'&gt;")&amp;IF(N2="","","&lt;img src='img/type/"&amp;N2&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B2," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='3'"&amp;IF(E2="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='4'"&amp;IF(F2="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='5'"&amp;IF(G2="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='AS'"&amp;IF(H2="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='Both'"&amp;IF(I2="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr id='Akane' class='Light'&gt;&lt;td&gt;&lt;img src='img/Akane.jpg'&gt;&lt;img src='img/Akane_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Akane&lt;/td&gt;&lt;td&gt;茜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Akane_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Akane_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Akane_rank' value='3'&gt;3 &lt;input type='radio' name='Akane_rank' value='4'&gt;4 &lt;input type='radio' name='Akane_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Akane_rank' value='AS'&gt;AS &lt;input type='radio' name='Akane_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" s="1" t="str">
+        <f>"&lt;tr id='"&amp;SUBSTITUTE(B2," ","")&amp;"' class='"&amp;D2&amp;IF(J2="N"," Dream", " Free")&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A2&amp;"'&gt;"&amp;IF(H2="Y","&lt;img src='img/"&amp;B2&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;L2&amp;".png'&gt;"&amp;IF(M2="","","&lt;img src='img/type/"&amp;M2&amp;".png'&gt;")&amp;IF(N2="","","&lt;img src='img/type/"&amp;N2&amp;".png'&gt;")&amp;IF(O2="","","&lt;img src='img/type/"&amp;O2&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B2," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='3'"&amp;IF(E2="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='4'"&amp;IF(F2="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='5'"&amp;IF(G2="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='AS'"&amp;IF(H2="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='Both'"&amp;IF(I2="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr id='Akane' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Akane.jpg'&gt;&lt;img src='img/Akane_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Akane&lt;/td&gt;&lt;td&gt;茜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Akane_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Akane_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Akane_rank' value='3'&gt;3 &lt;input type='radio' name='Akane_rank' value='4'&gt;4 &lt;input type='radio' name='Akane_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Akane_rank' value='AS'&gt;AS &lt;input type='radio' name='Akane_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1419,18 +1446,21 @@
         <f>IF(AND(G3="Y",H3="Y"),"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P3" s="1" t="str">
-        <f t="shared" ref="P3:P66" si="1">"&lt;tr id='"&amp;SUBSTITUTE(B3," ","")&amp;"' class='"&amp;D3&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A3&amp;"'&gt;"&amp;IF(H3="Y","&lt;img src='img/"&amp;B3&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C3&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K3&amp;".png'&gt;"&amp;IF(L3="","","&lt;img src='img/type/"&amp;L3&amp;".png'&gt;")&amp;IF(M3="","","&lt;img src='img/type/"&amp;M3&amp;".png'&gt;")&amp;IF(N3="","","&lt;img src='img/type/"&amp;N3&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B3," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='3'"&amp;IF(E3="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='4'"&amp;IF(F3="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='5'"&amp;IF(G3="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='AS'"&amp;IF(H3="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='Both'"&amp;IF(I3="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr id='Aldo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Aldo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Aldo&lt;/td&gt;&lt;td&gt;阿爾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Aldo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Aldo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Aldo_rank' value='3'&gt;3 &lt;input type='radio' name='Aldo_rank' value='4'&gt;4 &lt;input type='radio' name='Aldo_rank' value='5'&gt;5 &lt;input type='radio' name='Aldo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Aldo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="1" t="str">
+        <f t="shared" ref="Q3:Q66" si="1">"&lt;tr id='"&amp;SUBSTITUTE(B3," ","")&amp;"' class='"&amp;D3&amp;IF(J3="N"," Dream", " Free")&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A3&amp;"'&gt;"&amp;IF(H3="Y","&lt;img src='img/"&amp;B3&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C3&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;L3&amp;".png'&gt;"&amp;IF(M3="","","&lt;img src='img/type/"&amp;M3&amp;".png'&gt;")&amp;IF(N3="","","&lt;img src='img/type/"&amp;N3&amp;".png'&gt;")&amp;IF(O3="","","&lt;img src='img/type/"&amp;O3&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B3," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='3'"&amp;IF(E3="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='4'"&amp;IF(F3="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='5'"&amp;IF(G3="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='AS'"&amp;IF(H3="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='Both'"&amp;IF(I3="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr id='Aldo' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Aldo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Aldo&lt;/td&gt;&lt;td&gt;阿爾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Aldo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Aldo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Aldo_rank' value='3'&gt;3 &lt;input type='radio' name='Aldo_rank' value='4'&gt;4 &lt;input type='radio' name='Aldo_rank' value='5'&gt;5 &lt;input type='radio' name='Aldo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Aldo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>277</v>
       </c>
@@ -1459,18 +1489,21 @@
       <c r="I4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P4" s="1" t="str">
+      <c r="Q4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Altena' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Altena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Altena&lt;/td&gt;&lt;td&gt;阿露緹娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Altena_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Altena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Altena_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Altena_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Altena_rank' value='5'&gt;5 &lt;input type='radio' name='Altena_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Altena_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Altena' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Altena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Altena&lt;/td&gt;&lt;td&gt;阿露緹娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Altena_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Altena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Altena_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Altena_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Altena_rank' value='5'&gt;5 &lt;input type='radio' name='Altena_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Altena_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1500,18 +1533,21 @@
         <f t="shared" ref="I5:I36" si="2">IF(AND(G5="Y",H5="Y"),"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="P5" s="1" t="str">
+      <c r="Q5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Amy' class='Light'&gt;&lt;td&gt;&lt;img src='img/Amy.jpg'&gt;&lt;/td&gt;&lt;td&gt;Amy&lt;/td&gt;&lt;td&gt;艾米&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Amy_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Amy_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Amy_rank' value='3'&gt;3 &lt;input type='radio' name='Amy_rank' value='4'&gt;4 &lt;input type='radio' name='Amy_rank' value='5'&gt;5 &lt;input type='radio' name='Amy_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Amy_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Amy' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Amy.jpg'&gt;&lt;/td&gt;&lt;td&gt;Amy&lt;/td&gt;&lt;td&gt;艾米&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Amy_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Amy_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Amy_rank' value='3'&gt;3 &lt;input type='radio' name='Amy_rank' value='4'&gt;4 &lt;input type='radio' name='Amy_rank' value='5'&gt;5 &lt;input type='radio' name='Amy_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Amy_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1541,21 +1577,24 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="P6" s="1" t="str">
+      <c r="Q6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Anabel' class='Light'&gt;&lt;td&gt;&lt;img src='img/Anabel.jpg'&gt;&lt;/td&gt;&lt;td&gt;Anabel&lt;/td&gt;&lt;td&gt;安娜貝爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Anabel_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Anabel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Anabel_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Anabel_rank' value='4'&gt;4 &lt;input type='radio' name='Anabel_rank' value='5'&gt;5 &lt;input type='radio' name='Anabel_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Anabel_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Anabel' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Anabel.jpg'&gt;&lt;/td&gt;&lt;td&gt;Anabel&lt;/td&gt;&lt;td&gt;安娜貝爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Anabel_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Anabel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Anabel_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Anabel_rank' value='4'&gt;4 &lt;input type='radio' name='Anabel_rank' value='5'&gt;5 &lt;input type='radio' name='Anabel_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Anabel_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1585,15 +1624,18 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P7" s="1" t="str">
+      <c r="Q7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Asia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Asia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Asia&lt;/td&gt;&lt;td&gt;艾希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Asia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Asia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Asia_rank' value='3'&gt;3 &lt;input type='radio' name='Asia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Asia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Asia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Asia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Asia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Asia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Asia&lt;/td&gt;&lt;td&gt;艾希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Asia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Asia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Asia_rank' value='3'&gt;3 &lt;input type='radio' name='Asia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Asia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Asia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Asia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1623,21 +1665,24 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P8" s="1" t="str">
+      <c r="Q8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Azami' class='Light'&gt;&lt;td&gt;&lt;img src='img/Azami.jpg'&gt;&lt;/td&gt;&lt;td&gt;Azami&lt;/td&gt;&lt;td&gt;阿佐美&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Azami_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Azami_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Azami_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Azami_rank' value='4'&gt;4 &lt;input type='radio' name='Azami_rank' value='5'&gt;5 &lt;input type='radio' name='Azami_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Azami_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Azami' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Azami.jpg'&gt;&lt;/td&gt;&lt;td&gt;Azami&lt;/td&gt;&lt;td&gt;阿佐美&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Azami_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Azami_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Azami_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Azami_rank' value='4'&gt;4 &lt;input type='radio' name='Azami_rank' value='5'&gt;5 &lt;input type='radio' name='Azami_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Azami_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1667,18 +1712,21 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P9" s="1" t="str">
+      <c r="Q9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Benedict' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Benedict.jpg'&gt;&lt;/td&gt;&lt;td&gt;Benedict&lt;/td&gt;&lt;td&gt;貝內迪特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Benedict_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Benedict_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Benedict_rank' value='3'&gt;3 &lt;input type='radio' name='Benedict_rank' value='4'&gt;4 &lt;input type='radio' name='Benedict_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Benedict_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Benedict_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Benedict' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Benedict.jpg'&gt;&lt;/td&gt;&lt;td&gt;Benedict&lt;/td&gt;&lt;td&gt;貝內迪特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Benedict_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Benedict_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Benedict_rank' value='3'&gt;3 &lt;input type='radio' name='Benedict_rank' value='4'&gt;4 &lt;input type='radio' name='Benedict_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Benedict_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Benedict_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1708,18 +1756,21 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P10" s="1" t="str">
+      <c r="Q10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Bertrand' class='Light'&gt;&lt;td&gt;&lt;img src='img/Bertrand.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bertrand&lt;/td&gt;&lt;td&gt;貝特朗 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bertrand_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bertrand_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bertrand_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Bertrand_rank' value='4'&gt;4 &lt;input type='radio' name='Bertrand_rank' value='5'&gt;5 &lt;input type='radio' name='Bertrand_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Bertrand_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Bertrand' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Bertrand.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bertrand&lt;/td&gt;&lt;td&gt;貝特朗 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bertrand_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bertrand_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bertrand_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Bertrand_rank' value='4'&gt;4 &lt;input type='radio' name='Bertrand_rank' value='5'&gt;5 &lt;input type='radio' name='Bertrand_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Bertrand_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1749,18 +1800,21 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="P11" s="1" t="str">
+      <c r="Q11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Biaka' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Biaka.jpg'&gt;&lt;/td&gt;&lt;td&gt;Biaka&lt;/td&gt;&lt;td&gt;維婭卡 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Biaka_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Biaka_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Biaka_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Biaka_rank' value='4'&gt;4 &lt;input type='radio' name='Biaka_rank' value='5'&gt;5 &lt;input type='radio' name='Biaka_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Biaka_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Biaka' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Biaka.jpg'&gt;&lt;/td&gt;&lt;td&gt;Biaka&lt;/td&gt;&lt;td&gt;維婭卡 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Biaka_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Biaka_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Biaka_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Biaka_rank' value='4'&gt;4 &lt;input type='radio' name='Biaka_rank' value='5'&gt;5 &lt;input type='radio' name='Biaka_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Biaka_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1790,15 +1844,18 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="P12" s="1" t="str">
+      <c r="Q12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Bivette' class='Light'&gt;&lt;td&gt;&lt;img src='img/Bivette.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bivette&lt;/td&gt;&lt;td&gt;碧薇特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bivette_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bivette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bivette_rank' value='3'&gt;3 &lt;input type='radio' name='Bivette_rank' value='4'&gt;4 &lt;input type='radio' name='Bivette_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Bivette_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Bivette_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Bivette' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Bivette.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bivette&lt;/td&gt;&lt;td&gt;碧薇特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bivette_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bivette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bivette_rank' value='3'&gt;3 &lt;input type='radio' name='Bivette_rank' value='4'&gt;4 &lt;input type='radio' name='Bivette_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Bivette_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Bivette_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1828,18 +1885,21 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P13" s="1" t="str">
+      <c r="Q13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Breeno' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Breeno.jpg'&gt;&lt;/td&gt;&lt;td&gt;Breeno&lt;/td&gt;&lt;td&gt;布里諾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Breeno_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Breeno_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Breeno_rank' value='3'&gt;3 &lt;input type='radio' name='Breeno_rank' value='4'&gt;4 &lt;input type='radio' name='Breeno_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Breeno_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Breeno_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Breeno' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Breeno.jpg'&gt;&lt;/td&gt;&lt;td&gt;Breeno&lt;/td&gt;&lt;td&gt;布里諾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Breeno_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Breeno_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Breeno_rank' value='3'&gt;3 &lt;input type='radio' name='Breeno_rank' value='4'&gt;4 &lt;input type='radio' name='Breeno_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Breeno_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Breeno_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1869,18 +1929,21 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="P14" s="1" t="str">
+      <c r="Q14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Bria' class='Light'&gt;&lt;td&gt;&lt;img src='img/Bria.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bria&lt;/td&gt;&lt;td&gt;布利亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bria_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bria_rank' value='3'&gt;3 &lt;input type='radio' name='Bria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Bria_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Bria_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Bria_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Bria' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Bria.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bria&lt;/td&gt;&lt;td&gt;布利亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bria_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bria_rank' value='3'&gt;3 &lt;input type='radio' name='Bria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Bria_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Bria_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Bria_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1910,21 +1973,24 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="P15" s="1" t="str">
+      <c r="Q15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Cerrine' class='Light'&gt;&lt;td&gt;&lt;img src='img/Cerrine.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cerrine&lt;/td&gt;&lt;td&gt;思琳&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cerrine_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cerrine_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cerrine_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Cerrine_rank' value='4'&gt;4 &lt;input type='radio' name='Cerrine_rank' value='5'&gt;5 &lt;input type='radio' name='Cerrine_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cerrine_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Cerrine' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Cerrine.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cerrine&lt;/td&gt;&lt;td&gt;思琳&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cerrine_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cerrine_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cerrine_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Cerrine_rank' value='4'&gt;4 &lt;input type='radio' name='Cerrine_rank' value='5'&gt;5 &lt;input type='radio' name='Cerrine_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cerrine_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1948,27 +2014,30 @@
         <v>128</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>N</v>
-      </c>
-      <c r="K16" s="2" t="s">
+        <v>Y</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="P16" s="1" t="str">
+      <c r="Q16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Cetie' class='Light'&gt;&lt;td&gt;&lt;img src='img/Cetie.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cetie&lt;/td&gt;&lt;td&gt;謝提&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cetie_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cetie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cetie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Cetie_rank' value='4'&gt;4 &lt;input type='radio' name='Cetie_rank' value='5'&gt;5 &lt;input type='radio' name='Cetie_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cetie_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Cetie' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Cetie.jpg'&gt;&lt;img src='img/Cetie_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cetie&lt;/td&gt;&lt;td&gt;謝提&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cetie_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cetie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cetie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Cetie_rank' value='4'&gt;4 &lt;input type='radio' name='Cetie_rank' value='5'&gt;5 &lt;input type='radio' name='Cetie_rank' value='AS'&gt;AS &lt;input type='radio' name='Cetie_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1998,15 +2067,18 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P17" s="1" t="str">
+      <c r="Q17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Chiyo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Chiyo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Chiyo&lt;/td&gt;&lt;td&gt;千代&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Chiyo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Chiyo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Chiyo_rank' value='3'&gt;3 &lt;input type='radio' name='Chiyo_rank' value='4'&gt;4 &lt;input type='radio' name='Chiyo_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Chiyo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Chiyo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Chiyo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Chiyo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Chiyo&lt;/td&gt;&lt;td&gt;千代&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Chiyo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Chiyo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Chiyo_rank' value='3'&gt;3 &lt;input type='radio' name='Chiyo_rank' value='4'&gt;4 &lt;input type='radio' name='Chiyo_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Chiyo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Chiyo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -2036,18 +2108,21 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P18" s="1" t="str">
+      <c r="Q18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Ciel' class='Light'&gt;&lt;td&gt;&lt;img src='img/Ciel.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ciel&lt;/td&gt;&lt;td&gt;西雅爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ciel_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ciel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ciel_rank' value='3'&gt;3 &lt;input type='radio' name='Ciel_rank' value='4'&gt;4 &lt;input type='radio' name='Ciel_rank' value='5'&gt;5 &lt;input type='radio' name='Ciel_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ciel_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Ciel' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Ciel.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ciel&lt;/td&gt;&lt;td&gt;西雅爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ciel_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ciel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ciel_rank' value='3'&gt;3 &lt;input type='radio' name='Ciel_rank' value='4'&gt;4 &lt;input type='radio' name='Ciel_rank' value='5'&gt;5 &lt;input type='radio' name='Ciel_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ciel_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -2077,21 +2152,24 @@
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="P19" s="1" t="str">
+      <c r="Q19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Claude' class='Light'&gt;&lt;td&gt;&lt;img src='img/Claude.jpg'&gt;&lt;img src='img/Claude_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Claude&lt;/td&gt;&lt;td&gt;克勞特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Claude_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Claude_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Claude_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Claude_rank' value='4'&gt;4 &lt;input type='radio' name='Claude_rank' value='5'&gt;5 &lt;input type='radio' name='Claude_rank' value='AS'&gt;AS &lt;input type='radio' name='Claude_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Claude' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Claude.jpg'&gt;&lt;img src='img/Claude_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Claude&lt;/td&gt;&lt;td&gt;克勞特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Claude_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Claude_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Claude_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Claude_rank' value='4'&gt;4 &lt;input type='radio' name='Claude_rank' value='5'&gt;5 &lt;input type='radio' name='Claude_rank' value='AS'&gt;AS &lt;input type='radio' name='Claude_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -2121,15 +2199,18 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="1" t="str">
+      <c r="Q20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Ctos' class='Light'&gt;&lt;td&gt;&lt;img src='img/Ctos.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ctos&lt;/td&gt;&lt;td&gt;古拓斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ctos_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ctos_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ctos_rank' value='3'&gt;3 &lt;input type='radio' name='Ctos_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Ctos_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Ctos_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ctos_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Ctos' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Ctos.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ctos&lt;/td&gt;&lt;td&gt;古拓斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ctos_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ctos_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ctos_rank' value='3'&gt;3 &lt;input type='radio' name='Ctos_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Ctos_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Ctos_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ctos_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -2159,21 +2240,24 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="1" t="str">
+      <c r="Q21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Cyrus' class='Light'&gt;&lt;td&gt;&lt;img src='img/Cyrus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cyrus&lt;/td&gt;&lt;td&gt;賽勒斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cyrus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cyrus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cyrus_rank' value='3'&gt;3 &lt;input type='radio' name='Cyrus_rank' value='4'&gt;4 &lt;input type='radio' name='Cyrus_rank' value='5'&gt;5 &lt;input type='radio' name='Cyrus_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cyrus_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Cyrus' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Cyrus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cyrus&lt;/td&gt;&lt;td&gt;賽勒斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cyrus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cyrus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cyrus_rank' value='3'&gt;3 &lt;input type='radio' name='Cyrus_rank' value='4'&gt;4 &lt;input type='radio' name='Cyrus_rank' value='5'&gt;5 &lt;input type='radio' name='Cyrus_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cyrus_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -2203,18 +2287,21 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P22" s="1" t="str">
+      <c r="Q22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Cyuca' class='Light'&gt;&lt;td&gt;&lt;img src='img/Cyuca.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cyuca&lt;/td&gt;&lt;td&gt;喬卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cyuca_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cyuca_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cyuca_rank' value='3'&gt;3 &lt;input type='radio' name='Cyuca_rank' value='4'&gt;4 &lt;input type='radio' name='Cyuca_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Cyuca_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cyuca_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Cyuca' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Cyuca.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cyuca&lt;/td&gt;&lt;td&gt;喬卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cyuca_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cyuca_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cyuca_rank' value='3'&gt;3 &lt;input type='radio' name='Cyuca_rank' value='4'&gt;4 &lt;input type='radio' name='Cyuca_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Cyuca_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Cyuca_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -2244,18 +2331,21 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="P23" s="1" t="str">
+      <c r="Q23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Darunis' class='Light'&gt;&lt;td&gt;&lt;img src='img/Darunis.jpg'&gt;&lt;/td&gt;&lt;td&gt;Darunis&lt;/td&gt;&lt;td&gt;達爾尼思&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Darunis_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Darunis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Darunis_rank' value='3'&gt;3 &lt;input type='radio' name='Darunis_rank' value='4'&gt;4 &lt;input type='radio' name='Darunis_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Darunis_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Darunis_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Darunis' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Darunis.jpg'&gt;&lt;/td&gt;&lt;td&gt;Darunis&lt;/td&gt;&lt;td&gt;達爾尼思&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Darunis_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Darunis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Darunis_rank' value='3'&gt;3 &lt;input type='radio' name='Darunis_rank' value='4'&gt;4 &lt;input type='radio' name='Darunis_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Darunis_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Darunis_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -2285,18 +2375,21 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="1" t="str">
+      <c r="Q24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Deirdre' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Deirdre.jpg'&gt;&lt;/td&gt;&lt;td&gt;Deirdre&lt;/td&gt;&lt;td&gt;蒂亞朵拉 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Deirdre_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Deirdre_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Deirdre_rank' value='3'&gt;3 &lt;input type='radio' name='Deirdre_rank' value='4'&gt;4 &lt;input type='radio' name='Deirdre_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Deirdre_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Deirdre_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Deirdre' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Deirdre.jpg'&gt;&lt;/td&gt;&lt;td&gt;Deirdre&lt;/td&gt;&lt;td&gt;蒂亞朵拉 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Deirdre_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Deirdre_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Deirdre_rank' value='3'&gt;3 &lt;input type='radio' name='Deirdre_rank' value='4'&gt;4 &lt;input type='radio' name='Deirdre_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Deirdre_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Deirdre_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -2326,18 +2419,21 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P25" s="1" t="str">
+      <c r="Q25" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Denny' class='Light'&gt;&lt;td&gt;&lt;img src='img/Denny.jpg'&gt;&lt;/td&gt;&lt;td&gt;Denny&lt;/td&gt;&lt;td&gt;丹尼 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Denny_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Denny_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Denny_rank' value='3'&gt;3 &lt;input type='radio' name='Denny_rank' value='4'&gt;4 &lt;input type='radio' name='Denny_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Denny_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Denny_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Denny' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Denny.jpg'&gt;&lt;/td&gt;&lt;td&gt;Denny&lt;/td&gt;&lt;td&gt;丹尼 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Denny_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Denny_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Denny_rank' value='3'&gt;3 &lt;input type='radio' name='Denny_rank' value='4'&gt;4 &lt;input type='radio' name='Denny_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Denny_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Denny_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -2367,18 +2463,21 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P26" s="1" t="str">
+      <c r="Q26" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Dewey' class='Light'&gt;&lt;td&gt;&lt;img src='img/Dewey.jpg'&gt;&lt;/td&gt;&lt;td&gt;Dewey&lt;/td&gt;&lt;td&gt;杜伊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Dewey_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Dewey_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Dewey_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Dewey_rank' value='4'&gt;4 &lt;input type='radio' name='Dewey_rank' value='5'&gt;5 &lt;input type='radio' name='Dewey_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Dewey_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Dewey' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Dewey.jpg'&gt;&lt;/td&gt;&lt;td&gt;Dewey&lt;/td&gt;&lt;td&gt;杜伊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Dewey_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Dewey_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Dewey_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Dewey_rank' value='4'&gt;4 &lt;input type='radio' name='Dewey_rank' value='5'&gt;5 &lt;input type='radio' name='Dewey_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Dewey_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -2408,18 +2507,21 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P27" s="1" t="str">
+      <c r="Q27" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Dunarith' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Dunarith.jpg'&gt;&lt;/td&gt;&lt;td&gt;Dunarith&lt;/td&gt;&lt;td&gt;杜拿利斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Dunarith_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Dunarith_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Dunarith_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Dunarith_rank' value='4'&gt;4 &lt;input type='radio' name='Dunarith_rank' value='5'&gt;5 &lt;input type='radio' name='Dunarith_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Dunarith_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Dunarith' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Dunarith.jpg'&gt;&lt;/td&gt;&lt;td&gt;Dunarith&lt;/td&gt;&lt;td&gt;杜拿利斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Dunarith_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Dunarith_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Dunarith_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Dunarith_rank' value='4'&gt;4 &lt;input type='radio' name='Dunarith_rank' value='5'&gt;5 &lt;input type='radio' name='Dunarith_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Dunarith_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -2449,15 +2551,18 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P28" s="1" t="str">
+      <c r="Q28" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Een' class='Light'&gt;&lt;td&gt;&lt;img src='img/Een.jpg'&gt;&lt;/td&gt;&lt;td&gt;Een&lt;/td&gt;&lt;td&gt;伊因&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Een_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Een_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Een_rank' value='3'&gt;3 &lt;input type='radio' name='Een_rank' value='4'&gt;4 &lt;input type='radio' name='Een_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Een_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Een_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Een' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Een.jpg'&gt;&lt;/td&gt;&lt;td&gt;Een&lt;/td&gt;&lt;td&gt;伊因&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Een_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Een_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Een_rank' value='3'&gt;3 &lt;input type='radio' name='Een_rank' value='4'&gt;4 &lt;input type='radio' name='Een_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Een_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Een_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,18 +2592,21 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P29" s="1" t="str">
+      <c r="Q29" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Elga' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Elga.jpg'&gt;&lt;/td&gt;&lt;td&gt;Elga&lt;/td&gt;&lt;td&gt;艾露嘉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Elga_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Elga_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Elga_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Elga_rank' value='4'&gt;4 &lt;input type='radio' name='Elga_rank' value='5'&gt;5 &lt;input type='radio' name='Elga_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Elga_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Elga' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Elga.jpg'&gt;&lt;/td&gt;&lt;td&gt;Elga&lt;/td&gt;&lt;td&gt;艾露嘉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Elga_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Elga_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Elga_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Elga_rank' value='4'&gt;4 &lt;input type='radio' name='Elga_rank' value='5'&gt;5 &lt;input type='radio' name='Elga_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Elga_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -2528,15 +2636,18 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P30" s="1" t="str">
+      <c r="Q30" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Emms' class='Light'&gt;&lt;td&gt;&lt;img src='img/Emms.jpg'&gt;&lt;/td&gt;&lt;td&gt;Emms&lt;/td&gt;&lt;td&gt;艾姆斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Emms_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Emms_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Emms_rank' value='3'&gt;3 &lt;input type='radio' name='Emms_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Emms_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Emms_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Emms_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Emms' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Emms.jpg'&gt;&lt;/td&gt;&lt;td&gt;Emms&lt;/td&gt;&lt;td&gt;艾姆斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Emms_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Emms_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Emms_rank' value='3'&gt;3 &lt;input type='radio' name='Emms_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Emms_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Emms_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Emms_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -2566,15 +2677,18 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P31" s="1" t="str">
+      <c r="Q31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Erina' class='Light'&gt;&lt;td&gt;&lt;img src='img/Erina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Erina&lt;/td&gt;&lt;td&gt;艾莉娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Erina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Erina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Erina_rank' value='3'&gt;3 &lt;input type='radio' name='Erina_rank' value='4'&gt;4 &lt;input type='radio' name='Erina_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Erina_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Erina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Erina' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Erina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Erina&lt;/td&gt;&lt;td&gt;艾莉娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Erina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Erina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Erina_rank' value='3'&gt;3 &lt;input type='radio' name='Erina_rank' value='4'&gt;4 &lt;input type='radio' name='Erina_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Erina_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Erina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -2604,15 +2718,18 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P32" s="1" t="str">
+      <c r="Q32" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Esta' class='Light'&gt;&lt;td&gt;&lt;img src='img/Esta.jpg'&gt;&lt;/td&gt;&lt;td&gt;Esta&lt;/td&gt;&lt;td&gt;艾斯塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Esta_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Esta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Esta_rank' value='3'&gt;3 &lt;input type='radio' name='Esta_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Esta_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Esta_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Esta_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Esta' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Esta.jpg'&gt;&lt;/td&gt;&lt;td&gt;Esta&lt;/td&gt;&lt;td&gt;艾斯塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Esta_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Esta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Esta_rank' value='3'&gt;3 &lt;input type='radio' name='Esta_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Esta_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Esta_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Esta_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -2642,18 +2759,21 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="M33" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="P33" s="1" t="str">
+      <c r="Q33" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Ewan' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Ewan.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ewan&lt;/td&gt;&lt;td&gt;尤因&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ewan_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ewan_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ewan_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Ewan_rank' value='4'&gt;4 &lt;input type='radio' name='Ewan_rank' value='5'&gt;5 &lt;input type='radio' name='Ewan_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ewan_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Ewan' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Ewan.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ewan&lt;/td&gt;&lt;td&gt;尤因&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ewan_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ewan_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ewan_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Ewan_rank' value='4'&gt;4 &lt;input type='radio' name='Ewan_rank' value='5'&gt;5 &lt;input type='radio' name='Ewan_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ewan_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -2683,15 +2803,18 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P34" s="1" t="str">
+      <c r="Q34" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Feinne' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Feinne.jpg'&gt;&lt;/td&gt;&lt;td&gt;Feinne&lt;/td&gt;&lt;td&gt;菲妮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Feinne_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Feinne_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Feinne_rank' value='3'&gt;3 &lt;input type='radio' name='Feinne_rank' value='4'&gt;4 &lt;input type='radio' name='Feinne_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Feinne_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Feinne_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Feinne' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Feinne.jpg'&gt;&lt;/td&gt;&lt;td&gt;Feinne&lt;/td&gt;&lt;td&gt;菲妮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Feinne_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Feinne_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Feinne_rank' value='3'&gt;3 &lt;input type='radio' name='Feinne_rank' value='4'&gt;4 &lt;input type='radio' name='Feinne_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Feinne_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Feinne_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -2721,24 +2844,27 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="O35" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="P35" s="1" t="str">
+      <c r="Q35" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Felmina' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Felmina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Felmina&lt;/td&gt;&lt;td&gt;菲露米娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Felmina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Felmina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Felmina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Felmina_rank' value='4'&gt;4 &lt;input type='radio' name='Felmina_rank' value='5'&gt;5 &lt;input type='radio' name='Felmina_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Felmina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Felmina' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Felmina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Felmina&lt;/td&gt;&lt;td&gt;菲露米娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Felmina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Felmina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Felmina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Felmina_rank' value='4'&gt;4 &lt;input type='radio' name='Felmina_rank' value='5'&gt;5 &lt;input type='radio' name='Felmina_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Felmina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -2768,18 +2894,21 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="P36" s="1" t="str">
+      <c r="Q36" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Foran' class='Light'&gt;&lt;td&gt;&lt;img src='img/Foran.jpg'&gt;&lt;/td&gt;&lt;td&gt;Foran&lt;/td&gt;&lt;td&gt;芙朗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Foran_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Foran_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Foran_rank' value='3'&gt;3 &lt;input type='radio' name='Foran_rank' value='4'&gt;4 &lt;input type='radio' name='Foran_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Foran_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Foran_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Foran' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Foran.jpg'&gt;&lt;/td&gt;&lt;td&gt;Foran&lt;/td&gt;&lt;td&gt;芙朗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Foran_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Foran_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Foran_rank' value='3'&gt;3 &lt;input type='radio' name='Foran_rank' value='4'&gt;4 &lt;input type='radio' name='Foran_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Foran_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Foran_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -2809,18 +2938,21 @@
         <f t="shared" ref="I37:I68" si="4">IF(AND(G37="Y",H37="Y"),"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P37" s="1" t="str">
+      <c r="Q37" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Galliard' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Galliard.jpg'&gt;&lt;/td&gt;&lt;td&gt;Galliard&lt;/td&gt;&lt;td&gt;嘉里德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Galliard_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Galliard_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Galliard_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Galliard_rank' value='4'&gt;4 &lt;input type='radio' name='Galliard_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Galliard_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Galliard_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Galliard' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Galliard.jpg'&gt;&lt;/td&gt;&lt;td&gt;Galliard&lt;/td&gt;&lt;td&gt;嘉里德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Galliard_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Galliard_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Galliard_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Galliard_rank' value='4'&gt;4 &lt;input type='radio' name='Galliard_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Galliard_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Galliard_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -2850,18 +2982,21 @@
         <f t="shared" si="4"/>
         <v>Y</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="P38" s="1" t="str">
+      <c r="Q38" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Gariyu' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Gariyu.jpg'&gt;&lt;img src='img/Gariyu_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Gariyu&lt;/td&gt;&lt;td&gt;伽琉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;img src='img/type/fire_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Gariyu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Gariyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Gariyu_rank' value='3'&gt;3 &lt;input type='radio' name='Gariyu_rank' value='4'&gt;4 &lt;input type='radio' name='Gariyu_rank' value='5'&gt;5 &lt;input type='radio' name='Gariyu_rank' value='AS'&gt;AS &lt;input type='radio' name='Gariyu_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Gariyu' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Gariyu.jpg'&gt;&lt;img src='img/Gariyu_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Gariyu&lt;/td&gt;&lt;td&gt;伽琉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;img src='img/type/fire_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Gariyu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Gariyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Gariyu_rank' value='3'&gt;3 &lt;input type='radio' name='Gariyu_rank' value='4'&gt;4 &lt;input type='radio' name='Gariyu_rank' value='5'&gt;5 &lt;input type='radio' name='Gariyu_rank' value='AS'&gt;AS &lt;input type='radio' name='Gariyu_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>280</v>
       </c>
@@ -2891,18 +3026,21 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="P39" s="1" t="str">
+      <c r="Q39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='GoodMacky' class='Light'&gt;&lt;td&gt;&lt;img src='img/Good-Macky.jpg'&gt;&lt;/td&gt;&lt;td&gt;Good Macky&lt;/td&gt;&lt;td&gt;善良的米可麥克&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='GoodMacky_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='GoodMacky_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='GoodMacky_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='GoodMacky_rank' value='4'&gt;4 &lt;input type='radio' name='GoodMacky_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='GoodMacky_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='GoodMacky_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='GoodMacky' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Good-Macky.jpg'&gt;&lt;/td&gt;&lt;td&gt;Good Macky&lt;/td&gt;&lt;td&gt;善良的米可麥克&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='GoodMacky_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='GoodMacky_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='GoodMacky_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='GoodMacky_rank' value='4'&gt;4 &lt;input type='radio' name='GoodMacky_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='GoodMacky_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='GoodMacky_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
@@ -2932,18 +3070,21 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P40" s="1" t="str">
+      <c r="Q40" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Guildna' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Guildna.jpg'&gt;&lt;/td&gt;&lt;td&gt;Guildna&lt;/td&gt;&lt;td&gt;基爾德那&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Guildna_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Guildna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Guildna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Guildna_rank' value='4'&gt;4 &lt;input type='radio' name='Guildna_rank' value='5'&gt;5 &lt;input type='radio' name='Guildna_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Guildna_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Guildna' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Guildna.jpg'&gt;&lt;/td&gt;&lt;td&gt;Guildna&lt;/td&gt;&lt;td&gt;基爾德那&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Guildna_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Guildna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Guildna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Guildna_rank' value='4'&gt;4 &lt;input type='radio' name='Guildna_rank' value='5'&gt;5 &lt;input type='radio' name='Guildna_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Guildna_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
@@ -2973,18 +3114,21 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="M41" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P41" s="1" t="str">
+      <c r="Q41" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Helena' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Helena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Helena&lt;/td&gt;&lt;td&gt;海蕾娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Helena_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Helena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Helena_rank' value='3'&gt;3 &lt;input type='radio' name='Helena_rank' value='4'&gt;4 &lt;input type='radio' name='Helena_rank' value='5'&gt;5 &lt;input type='radio' name='Helena_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Helena_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Helena' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Helena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Helena&lt;/td&gt;&lt;td&gt;海蕾娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Helena_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Helena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Helena_rank' value='3'&gt;3 &lt;input type='radio' name='Helena_rank' value='4'&gt;4 &lt;input type='radio' name='Helena_rank' value='5'&gt;5 &lt;input type='radio' name='Helena_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Helena_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -3014,18 +3158,21 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="P42" s="1" t="str">
+      <c r="Q42" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Hismena' class='Light'&gt;&lt;td&gt;&lt;img src='img/Hismena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Hismena&lt;/td&gt;&lt;td&gt;希斯梅娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Hismena_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Hismena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Hismena_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Hismena_rank' value='4'&gt;4 &lt;input type='radio' name='Hismena_rank' value='5'&gt;5 &lt;input type='radio' name='Hismena_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Hismena_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Hismena' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Hismena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Hismena&lt;/td&gt;&lt;td&gt;希斯梅娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Hismena_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Hismena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Hismena_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Hismena_rank' value='4'&gt;4 &lt;input type='radio' name='Hismena_rank' value='5'&gt;5 &lt;input type='radio' name='Hismena_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Hismena_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
@@ -3055,18 +3202,21 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="P43" s="1" t="str">
+      <c r="Q43" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Hozuki' class='Light'&gt;&lt;td&gt;&lt;img src='img/Hozuki.jpg'&gt;&lt;/td&gt;&lt;td&gt;Hozuki&lt;/td&gt;&lt;td&gt;皓月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Hozuki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Hozuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Hozuki_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Hozuki_rank' value='4'&gt;4 &lt;input type='radio' name='Hozuki_rank' value='5'&gt;5 &lt;input type='radio' name='Hozuki_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Hozuki_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Hozuki' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Hozuki.jpg'&gt;&lt;/td&gt;&lt;td&gt;Hozuki&lt;/td&gt;&lt;td&gt;皓月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Hozuki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Hozuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Hozuki_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Hozuki_rank' value='4'&gt;4 &lt;input type='radio' name='Hozuki_rank' value='5'&gt;5 &lt;input type='radio' name='Hozuki_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Hozuki_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -3096,18 +3246,21 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L44" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="M44" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P44" s="1" t="str">
+      <c r="Q44" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Ilulu' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Ilulu.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ilulu&lt;/td&gt;&lt;td&gt;伊露露&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ilulu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ilulu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ilulu_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Ilulu_rank' value='4'&gt;4 &lt;input type='radio' name='Ilulu_rank' value='5'&gt;5 &lt;input type='radio' name='Ilulu_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ilulu_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Ilulu' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Ilulu.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ilulu&lt;/td&gt;&lt;td&gt;伊露露&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ilulu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ilulu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ilulu_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Ilulu_rank' value='4'&gt;4 &lt;input type='radio' name='Ilulu_rank' value='5'&gt;5 &lt;input type='radio' name='Ilulu_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Ilulu_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
@@ -3137,18 +3290,21 @@
         <f t="shared" si="4"/>
         <v>Y</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L45" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="M45" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P45" s="1" t="str">
+      <c r="Q45" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Isuka' class='Light'&gt;&lt;td&gt;&lt;img src='img/Isuka.jpg'&gt;&lt;img src='img/Isuka_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Isuka&lt;/td&gt;&lt;td&gt;伊絲卡 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Isuka_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Isuka_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Isuka_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Isuka_rank' value='4'&gt;4 &lt;input type='radio' name='Isuka_rank' value='5'&gt;5 &lt;input type='radio' name='Isuka_rank' value='AS'&gt;AS &lt;input type='radio' name='Isuka_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Isuka' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Isuka.jpg'&gt;&lt;img src='img/Isuka_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Isuka&lt;/td&gt;&lt;td&gt;伊絲卡 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Isuka_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Isuka_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Isuka_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Isuka_rank' value='4'&gt;4 &lt;input type='radio' name='Isuka_rank' value='5'&gt;5 &lt;input type='radio' name='Isuka_rank' value='AS'&gt;AS &lt;input type='radio' name='Isuka_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
@@ -3178,18 +3334,21 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="M46" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="P46" s="1" t="str">
+      <c r="Q46" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Jade' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Jade.jpg'&gt;&lt;/td&gt;&lt;td&gt;Jade&lt;/td&gt;&lt;td&gt;賈德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Jade_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Jade_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Jade_rank' value='3'&gt;3 &lt;input type='radio' name='Jade_rank' value='4'&gt;4 &lt;input type='radio' name='Jade_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Jade_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Jade_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Jade' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Jade.jpg'&gt;&lt;/td&gt;&lt;td&gt;Jade&lt;/td&gt;&lt;td&gt;賈德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Jade_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Jade_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Jade_rank' value='3'&gt;3 &lt;input type='radio' name='Jade_rank' value='4'&gt;4 &lt;input type='radio' name='Jade_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Jade_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Jade_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
@@ -3219,21 +3378,24 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L47" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="M47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="N47" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P47" s="1" t="str">
+      <c r="Q47" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Joker' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Joker.jpg'&gt;&lt;/td&gt;&lt;td&gt;Joker&lt;/td&gt;&lt;td&gt;JOKER&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Joker_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Joker_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Joker_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Joker_rank' value='4'&gt;4 &lt;input type='radio' name='Joker_rank' value='5'&gt;5 &lt;input type='radio' name='Joker_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Joker_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Joker' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Joker.jpg'&gt;&lt;/td&gt;&lt;td&gt;Joker&lt;/td&gt;&lt;td&gt;JOKER&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Joker_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Joker_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Joker_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Joker_rank' value='4'&gt;4 &lt;input type='radio' name='Joker_rank' value='5'&gt;5 &lt;input type='radio' name='Joker_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Joker_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>275</v>
       </c>
@@ -3263,18 +3425,21 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L48" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="M48" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P48" s="1" t="str">
+      <c r="Q48" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Kikyo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Kikyo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Kikyo&lt;/td&gt;&lt;td&gt;桔梗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Kikyo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Kikyo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Kikyo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Kikyo_rank' value='4'&gt;4 &lt;input type='radio' name='Kikyo_rank' value='5'&gt;5 &lt;input type='radio' name='Kikyo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Kikyo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Kikyo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Kikyo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Kikyo&lt;/td&gt;&lt;td&gt;桔梗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Kikyo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Kikyo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Kikyo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Kikyo_rank' value='4'&gt;4 &lt;input type='radio' name='Kikyo_rank' value='5'&gt;5 &lt;input type='radio' name='Kikyo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Kikyo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
@@ -3304,15 +3469,18 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P49" s="1" t="str">
+      <c r="Q49" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Kilqia' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Kilqia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Kilqia&lt;/td&gt;&lt;td&gt;基露琪亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Kilqia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Kilqia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Kilqia_rank' value='3'&gt;3 &lt;input type='radio' name='Kilqia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Kilqia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Kilqia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Kilqia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Kilqia' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Kilqia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Kilqia&lt;/td&gt;&lt;td&gt;基露琪亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Kilqia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Kilqia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Kilqia_rank' value='3'&gt;3 &lt;input type='radio' name='Kilqia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Kilqia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Kilqia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Kilqia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
@@ -3342,18 +3510,21 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L50" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="M50" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P50" s="1" t="str">
+      <c r="Q50" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Komachi' class='Light'&gt;&lt;td&gt;&lt;img src='img/Komachi.jpg'&gt;&lt;/td&gt;&lt;td&gt;Komachi&lt;/td&gt;&lt;td&gt;小町&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Komachi_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Komachi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Komachi_rank' value='3'&gt;3 &lt;input type='radio' name='Komachi_rank' value='4'&gt;4 &lt;input type='radio' name='Komachi_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Komachi_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Komachi_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Komachi' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Komachi.jpg'&gt;&lt;/td&gt;&lt;td&gt;Komachi&lt;/td&gt;&lt;td&gt;小町&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Komachi_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Komachi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Komachi_rank' value='3'&gt;3 &lt;input type='radio' name='Komachi_rank' value='4'&gt;4 &lt;input type='radio' name='Komachi_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Komachi_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Komachi_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -3383,18 +3554,21 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L51" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="M51" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P51" s="1" t="str">
+      <c r="Q51" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Koot' class='Light'&gt;&lt;td&gt;&lt;img src='img/Koot.jpg'&gt;&lt;/td&gt;&lt;td&gt;Koot&lt;/td&gt;&lt;td&gt;庫托&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Koot_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Koot_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Koot_rank' value='3'&gt;3 &lt;input type='radio' name='Koot_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Koot_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Koot_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Koot_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Koot' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Koot.jpg'&gt;&lt;/td&gt;&lt;td&gt;Koot&lt;/td&gt;&lt;td&gt;庫托&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Koot_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Koot_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Koot_rank' value='3'&gt;3 &lt;input type='radio' name='Koot_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Koot_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Koot_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Koot_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -3424,15 +3598,18 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L52" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P52" s="1" t="str">
+      <c r="Q52" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Krervo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Krervo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Krervo&lt;/td&gt;&lt;td&gt;克利霍&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Krervo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Krervo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Krervo_rank' value='3'&gt;3 &lt;input type='radio' name='Krervo_rank' value='4'&gt;4 &lt;input type='radio' name='Krervo_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Krervo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Krervo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Krervo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Krervo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Krervo&lt;/td&gt;&lt;td&gt;克利霍&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Krervo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Krervo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Krervo_rank' value='3'&gt;3 &lt;input type='radio' name='Krervo_rank' value='4'&gt;4 &lt;input type='radio' name='Krervo_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Krervo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Krervo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -3462,21 +3639,24 @@
         <f t="shared" si="4"/>
         <v>Y</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L53" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="M53" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M53" s="2" t="s">
+      <c r="N53" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P53" s="1" t="str">
+      <c r="Q53" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Laclair' class='Light'&gt;&lt;td&gt;&lt;img src='img/Laclair.jpg'&gt;&lt;img src='img/Laclair_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Laclair&lt;/td&gt;&lt;td&gt;拉克萊兒&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Laclair_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Laclair_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Laclair_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Laclair_rank' value='4'&gt;4 &lt;input type='radio' name='Laclair_rank' value='5'&gt;5 &lt;input type='radio' name='Laclair_rank' value='AS'&gt;AS &lt;input type='radio' name='Laclair_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Laclair' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Laclair.jpg'&gt;&lt;img src='img/Laclair_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Laclair&lt;/td&gt;&lt;td&gt;拉克萊兒&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Laclair_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Laclair_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Laclair_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Laclair_rank' value='4'&gt;4 &lt;input type='radio' name='Laclair_rank' value='5'&gt;5 &lt;input type='radio' name='Laclair_rank' value='AS'&gt;AS &lt;input type='radio' name='Laclair_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -3506,15 +3686,18 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L54" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="P54" s="1" t="str">
+      <c r="Q54" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Lele' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lele.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lele&lt;/td&gt;&lt;td&gt;蕾蕾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lele_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lele_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lele_rank' value='3'&gt;3 &lt;input type='radio' name='Lele_rank' value='4'&gt;4 &lt;input type='radio' name='Lele_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Lele_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lele_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Lele' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Lele.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lele&lt;/td&gt;&lt;td&gt;蕾蕾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lele_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lele_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lele_rank' value='3'&gt;3 &lt;input type='radio' name='Lele_rank' value='4'&gt;4 &lt;input type='radio' name='Lele_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Lele_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lele_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
@@ -3544,15 +3727,18 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L55" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="P55" s="1" t="str">
+      <c r="Q55" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Levia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Levia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Levia&lt;/td&gt;&lt;td&gt;莉維雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Levia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Levia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Levia_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Levia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Levia_rank' value='5'&gt;5 &lt;input type='radio' name='Levia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Levia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Levia' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Levia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Levia&lt;/td&gt;&lt;td&gt;莉維雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Levia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Levia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Levia_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Levia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Levia_rank' value='5'&gt;5 &lt;input type='radio' name='Levia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Levia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -3582,18 +3768,21 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L56" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="M56" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="P56" s="1" t="str">
+      <c r="Q56" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Lingli' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lingli.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lingli&lt;/td&gt;&lt;td&gt;林麗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lingli_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lingli_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lingli_rank' value='3'&gt;3 &lt;input type='radio' name='Lingli_rank' value='4'&gt;4 &lt;input type='radio' name='Lingli_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Lingli_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lingli_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Lingli' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Lingli.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lingli&lt;/td&gt;&lt;td&gt;林麗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lingli_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lingli_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lingli_rank' value='3'&gt;3 &lt;input type='radio' name='Lingli_rank' value='4'&gt;4 &lt;input type='radio' name='Lingli_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Lingli_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lingli_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
@@ -3623,18 +3812,21 @@
         <f t="shared" si="4"/>
         <v>Y</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L57" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="M57" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="P57" s="1" t="str">
+      <c r="Q57" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Lokido' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lokido.jpg'&gt;&lt;img src='img/Lokido_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lokido&lt;/td&gt;&lt;td&gt;洛基德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lokido_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lokido_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lokido_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Lokido_rank' value='4'&gt;4 &lt;input type='radio' name='Lokido_rank' value='5'&gt;5 &lt;input type='radio' name='Lokido_rank' value='AS'&gt;AS &lt;input type='radio' name='Lokido_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Lokido' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Lokido.jpg'&gt;&lt;img src='img/Lokido_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lokido&lt;/td&gt;&lt;td&gt;洛基德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lokido_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lokido_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lokido_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Lokido_rank' value='4'&gt;4 &lt;input type='radio' name='Lokido_rank' value='5'&gt;5 &lt;input type='radio' name='Lokido_rank' value='AS'&gt;AS &lt;input type='radio' name='Lokido_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
@@ -3664,15 +3856,18 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L58" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="P58" s="1" t="str">
+      <c r="Q58" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Lovely' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lovely.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lovely&lt;/td&gt;&lt;td&gt;拉布莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lovely_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lovely_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lovely_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Lovely_rank' value='4'&gt;4 &lt;input type='radio' name='Lovely_rank' value='5'&gt;5 &lt;input type='radio' name='Lovely_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lovely_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Lovely' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Lovely.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lovely&lt;/td&gt;&lt;td&gt;拉布莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lovely_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lovely_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lovely_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Lovely_rank' value='4'&gt;4 &lt;input type='radio' name='Lovely_rank' value='5'&gt;5 &lt;input type='radio' name='Lovely_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lovely_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -3702,18 +3897,21 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L59" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="M59" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="P59" s="1" t="str">
+      <c r="Q59" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Lovinia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Lovinia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lovinia&lt;/td&gt;&lt;td&gt;羅維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lovinia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lovinia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lovinia_rank' value='3'&gt;3 &lt;input type='radio' name='Lovinia_rank' value='4'&gt;4 &lt;input type='radio' name='Lovinia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Lovinia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lovinia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Lovinia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Lovinia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lovinia&lt;/td&gt;&lt;td&gt;羅維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lovinia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lovinia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lovinia_rank' value='3'&gt;3 &lt;input type='radio' name='Lovinia_rank' value='4'&gt;4 &lt;input type='radio' name='Lovinia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Lovinia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Lovinia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
@@ -3743,15 +3941,18 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L60" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P60" s="1" t="str">
+      <c r="Q60" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Mana' class='Light'&gt;&lt;td&gt;&lt;img src='img/Mana.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mana&lt;/td&gt;&lt;td&gt;瑪娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mana_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Mana_rank' value='5'&gt;5 &lt;input type='radio' name='Mana_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Mana_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Mana' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Mana.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mana&lt;/td&gt;&lt;td&gt;瑪娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mana_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Mana_rank' value='5'&gt;5 &lt;input type='radio' name='Mana_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Mana_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
@@ -3781,15 +3982,18 @@
         <f t="shared" si="4"/>
         <v>Y</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L61" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P61" s="1" t="str">
+      <c r="Q61" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Mariel' class='Light'&gt;&lt;td&gt;&lt;img src='img/Mariel.jpg'&gt;&lt;img src='img/Mariel_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mariel&lt;/td&gt;&lt;td&gt;瑪莉艾爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mariel_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mariel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mariel_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mariel_rank' value='4'&gt;4 &lt;input type='radio' name='Mariel_rank' value='5'&gt;5 &lt;input type='radio' name='Mariel_rank' value='AS'&gt;AS &lt;input type='radio' name='Mariel_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Mariel' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Mariel.jpg'&gt;&lt;img src='img/Mariel_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mariel&lt;/td&gt;&lt;td&gt;瑪莉艾爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mariel_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mariel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mariel_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mariel_rank' value='4'&gt;4 &lt;input type='radio' name='Mariel_rank' value='5'&gt;5 &lt;input type='radio' name='Mariel_rank' value='AS'&gt;AS &lt;input type='radio' name='Mariel_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
@@ -3819,18 +4023,21 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L62" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="M62" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="P62" s="1" t="str">
+      <c r="Q62" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='May' class='Light'&gt;&lt;td&gt;&lt;img src='img/May.jpg'&gt;&lt;/td&gt;&lt;td&gt;May&lt;/td&gt;&lt;td&gt;玫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='May_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='May_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='May_rank' value='3'&gt;3 &lt;input type='radio' name='May_rank' value='4'&gt;4 &lt;input type='radio' name='May_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='May_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='May_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='May' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/May.jpg'&gt;&lt;/td&gt;&lt;td&gt;May&lt;/td&gt;&lt;td&gt;玫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='May_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='May_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='May_rank' value='3'&gt;3 &lt;input type='radio' name='May_rank' value='4'&gt;4 &lt;input type='radio' name='May_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='May_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='May_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
@@ -3860,21 +4067,24 @@
         <f t="shared" si="4"/>
         <v>Y</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L63" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="M63" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="M63" s="2" t="s">
+      <c r="N63" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P63" s="1" t="str">
+      <c r="Q63" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Melina' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Melina.jpg'&gt;&lt;img src='img/Melina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Melina&lt;/td&gt;&lt;td&gt;玫莉娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Melina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Melina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Melina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Melina_rank' value='4'&gt;4 &lt;input type='radio' name='Melina_rank' value='5'&gt;5 &lt;input type='radio' name='Melina_rank' value='AS'&gt;AS &lt;input type='radio' name='Melina_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Melina' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Melina.jpg'&gt;&lt;img src='img/Melina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Melina&lt;/td&gt;&lt;td&gt;玫莉娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Melina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Melina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Melina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Melina_rank' value='4'&gt;4 &lt;input type='radio' name='Melina_rank' value='5'&gt;5 &lt;input type='radio' name='Melina_rank' value='AS'&gt;AS &lt;input type='radio' name='Melina_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
@@ -3904,18 +4114,21 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L64" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="M64" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P64" s="1" t="str">
+      <c r="Q64" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Menesia' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Menesia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Menesia&lt;/td&gt;&lt;td&gt;梅尼西雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Menesia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Menesia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Menesia_rank' value='3'&gt;3 &lt;input type='radio' name='Menesia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Menesia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Menesia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Menesia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Menesia' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Menesia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Menesia&lt;/td&gt;&lt;td&gt;梅尼西雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Menesia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Menesia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Menesia_rank' value='3'&gt;3 &lt;input type='radio' name='Menesia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Menesia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Menesia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Menesia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
@@ -3945,15 +4158,18 @@
         <f t="shared" si="4"/>
         <v>Y</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L65" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="P65" s="1" t="str">
+      <c r="Q65" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Mighty' class='Light'&gt;&lt;td&gt;&lt;img src='img/Mighty.jpg'&gt;&lt;img src='img/Mighty_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mighty&lt;/td&gt;&lt;td&gt;麥提&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mighty_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mighty_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mighty_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mighty_rank' value='4'&gt;4 &lt;input type='radio' name='Mighty_rank' value='5'&gt;5 &lt;input type='radio' name='Mighty_rank' value='AS'&gt;AS &lt;input type='radio' name='Mighty_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Mighty' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Mighty.jpg'&gt;&lt;img src='img/Mighty_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mighty&lt;/td&gt;&lt;td&gt;麥提&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mighty_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mighty_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mighty_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mighty_rank' value='4'&gt;4 &lt;input type='radio' name='Mighty_rank' value='5'&gt;5 &lt;input type='radio' name='Mighty_rank' value='AS'&gt;AS &lt;input type='radio' name='Mighty_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -3983,18 +4199,21 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L66" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="M66" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P66" s="1" t="str">
+      <c r="Q66" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr id='Miranda' class='Light'&gt;&lt;td&gt;&lt;img src='img/Miranda.jpg'&gt;&lt;/td&gt;&lt;td&gt;Miranda&lt;/td&gt;&lt;td&gt;米蘭達&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miranda_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miranda_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miranda_rank' value='3'&gt;3 &lt;input type='radio' name='Miranda_rank' value='4'&gt;4 &lt;input type='radio' name='Miranda_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Miranda_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Miranda_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Miranda' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Miranda.jpg'&gt;&lt;/td&gt;&lt;td&gt;Miranda&lt;/td&gt;&lt;td&gt;米蘭達&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miranda_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miranda_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miranda_rank' value='3'&gt;3 &lt;input type='radio' name='Miranda_rank' value='4'&gt;4 &lt;input type='radio' name='Miranda_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Miranda_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Miranda_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
@@ -4024,18 +4243,21 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L67" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="M67" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P67" s="1" t="str">
-        <f t="shared" ref="P67:P123" si="5">"&lt;tr id='"&amp;SUBSTITUTE(B67," ","")&amp;"' class='"&amp;D67&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A67&amp;"'&gt;"&amp;IF(H67="Y","&lt;img src='img/"&amp;B67&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B67&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C67&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K67&amp;".png'&gt;"&amp;IF(L67="","","&lt;img src='img/type/"&amp;L67&amp;".png'&gt;")&amp;IF(M67="","","&lt;img src='img/type/"&amp;M67&amp;".png'&gt;")&amp;IF(N67="","","&lt;img src='img/type/"&amp;N67&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B67," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='3'"&amp;IF(E67="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='4'"&amp;IF(F67="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='5'"&amp;IF(G67="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='AS'"&amp;IF(H67="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='Both'"&amp;IF(I67="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr id='Miyu' class='Light'&gt;&lt;td&gt;&lt;img src='img/Miyu.jpg'&gt;&lt;/td&gt;&lt;td&gt;Miyu&lt;/td&gt;&lt;td&gt;米悠&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miyu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miyu_rank' value='3'&gt;3 &lt;input type='radio' name='Miyu_rank' value='4'&gt;4 &lt;input type='radio' name='Miyu_rank' value='5'&gt;5 &lt;input type='radio' name='Miyu_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Miyu_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q67" s="1" t="str">
+        <f t="shared" ref="Q67:Q124" si="5">"&lt;tr id='"&amp;SUBSTITUTE(B67," ","")&amp;"' class='"&amp;D67&amp;IF(J67="N"," Dream", " Free")&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A67&amp;"'&gt;"&amp;IF(H67="Y","&lt;img src='img/"&amp;B67&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B67&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C67&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;L67&amp;".png'&gt;"&amp;IF(M67="","","&lt;img src='img/type/"&amp;M67&amp;".png'&gt;")&amp;IF(N67="","","&lt;img src='img/type/"&amp;N67&amp;".png'&gt;")&amp;IF(O67="","","&lt;img src='img/type/"&amp;O67&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B67," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='3'"&amp;IF(E67="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='4'"&amp;IF(F67="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='5'"&amp;IF(G67="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='AS'"&amp;IF(H67="Y",""," disabled=''")&amp;"&gt;AS &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='Both'"&amp;IF(I67="Y",""," disabled=''")&amp;"&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr id='Miyu' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Miyu.jpg'&gt;&lt;/td&gt;&lt;td&gt;Miyu&lt;/td&gt;&lt;td&gt;米悠&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miyu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miyu_rank' value='3'&gt;3 &lt;input type='radio' name='Miyu_rank' value='4'&gt;4 &lt;input type='radio' name='Miyu_rank' value='5'&gt;5 &lt;input type='radio' name='Miyu_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Miyu_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -4065,18 +4287,21 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L68" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="M68" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="P68" s="1" t="str">
+      <c r="Q68" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Morgana' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Morgana.jpg'&gt;&lt;/td&gt;&lt;td&gt;Morgana&lt;/td&gt;&lt;td&gt;摩爾加納&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Morgana_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Morgana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Morgana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Morgana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Morgana_rank' value='5'&gt;5 &lt;input type='radio' name='Morgana_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Morgana_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Morgana' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Morgana.jpg'&gt;&lt;/td&gt;&lt;td&gt;Morgana&lt;/td&gt;&lt;td&gt;摩爾加納&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Morgana_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Morgana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Morgana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Morgana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Morgana_rank' value='5'&gt;5 &lt;input type='radio' name='Morgana_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Morgana_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
@@ -4106,23 +4331,26 @@
         <f t="shared" ref="I69:I100" si="6">IF(AND(G69="Y",H69="Y"),"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L69" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="M69" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P69" s="1" t="str">
+      <c r="Q69" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Myron' class='Light'&gt;&lt;td&gt;&lt;img src='img/Myron.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myron&lt;/td&gt;&lt;td&gt;繆倫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myron_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myron_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myron_rank' value='3'&gt;3 &lt;input type='radio' name='Myron_rank' value='4'&gt;4 &lt;input type='radio' name='Myron_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Myron_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Myron_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Myron' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Myron.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myron&lt;/td&gt;&lt;td&gt;繆倫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myron_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myron_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myron_rank' value='3'&gt;3 &lt;input type='radio' name='Myron_rank' value='4'&gt;4 &lt;input type='radio' name='Myron_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Myron_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Myron_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B70" s="1" t="str">
-        <f t="shared" ref="B70:B123" si="7">SUBSTITUTE(LEFT(A70,(FIND(".",A70,1)-1)),"-"," ")</f>
+        <f t="shared" ref="B70:B124" si="7">SUBSTITUTE(LEFT(A70,(FIND(".",A70,1)-1)),"-"," ")</f>
         <v>Myrus</v>
       </c>
       <c r="C70" t="s">
@@ -4147,15 +4375,18 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L70" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P70" s="1" t="str">
+      <c r="Q70" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Myrus' class='Light'&gt;&lt;td&gt;&lt;img src='img/Myrus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myrus&lt;/td&gt;&lt;td&gt;繆露絲&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myrus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myrus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myrus_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Myrus_rank' value='4'&gt;4 &lt;input type='radio' name='Myrus_rank' value='5'&gt;5 &lt;input type='radio' name='Myrus_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Myrus_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Myrus' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Myrus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myrus&lt;/td&gt;&lt;td&gt;繆露絲&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myrus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myrus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myrus_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Myrus_rank' value='4'&gt;4 &lt;input type='radio' name='Myrus_rank' value='5'&gt;5 &lt;input type='radio' name='Myrus_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Myrus_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
@@ -4185,18 +4416,21 @@
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L71" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="M71" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P71" s="1" t="str">
+      <c r="Q71" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Nagi' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Nagi.jpg'&gt;&lt;img src='img/Nagi_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nagi&lt;/td&gt;&lt;td&gt;娜基&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nagi_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nagi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nagi_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Nagi_rank' value='4'&gt;4 &lt;input type='radio' name='Nagi_rank' value='5'&gt;5 &lt;input type='radio' name='Nagi_rank' value='AS'&gt;AS &lt;input type='radio' name='Nagi_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Nagi' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Nagi.jpg'&gt;&lt;img src='img/Nagi_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nagi&lt;/td&gt;&lt;td&gt;娜基&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nagi_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nagi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nagi_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Nagi_rank' value='4'&gt;4 &lt;input type='radio' name='Nagi_rank' value='5'&gt;5 &lt;input type='radio' name='Nagi_rank' value='AS'&gt;AS &lt;input type='radio' name='Nagi_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
@@ -4226,15 +4460,18 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L72" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P72" s="1" t="str">
+      <c r="Q72" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Natore' class='Light'&gt;&lt;td&gt;&lt;img src='img/Natore.jpg'&gt;&lt;/td&gt;&lt;td&gt;Natore&lt;/td&gt;&lt;td&gt;娜托雷&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Natore_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Natore_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Natore_rank' value='3'&gt;3 &lt;input type='radio' name='Natore_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Natore_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Natore_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Natore_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Natore' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Natore.jpg'&gt;&lt;/td&gt;&lt;td&gt;Natore&lt;/td&gt;&lt;td&gt;娜托雷&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Natore_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Natore_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Natore_rank' value='3'&gt;3 &lt;input type='radio' name='Natore_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Natore_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Natore_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Natore_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
@@ -4264,15 +4501,18 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L73" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P73" s="1" t="str">
+      <c r="Q73" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Naylia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Naylia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Naylia&lt;/td&gt;&lt;td&gt;內莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Naylia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Naylia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Naylia_rank' value='3'&gt;3 &lt;input type='radio' name='Naylia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Naylia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Naylia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Naylia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Naylia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Naylia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Naylia&lt;/td&gt;&lt;td&gt;內莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Naylia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Naylia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Naylia_rank' value='3'&gt;3 &lt;input type='radio' name='Naylia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Naylia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Naylia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Naylia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -4302,15 +4542,18 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L74" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P74" s="1" t="str">
+      <c r="Q74" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Nero' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Nero.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nero&lt;/td&gt;&lt;td&gt;尼洛&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nero_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nero_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nero_rank' value='3'&gt;3 &lt;input type='radio' name='Nero_rank' value='4'&gt;4 &lt;input type='radio' name='Nero_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nero_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nero_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Nero' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Nero.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nero&lt;/td&gt;&lt;td&gt;尼洛&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nero_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nero_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nero_rank' value='3'&gt;3 &lt;input type='radio' name='Nero_rank' value='4'&gt;4 &lt;input type='radio' name='Nero_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nero_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nero_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -4340,18 +4583,21 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L75" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="M75" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P75" s="1" t="str">
+      <c r="Q75" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Nikeh' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Nikeh.jpg'&gt;&lt;img src='img/Nikeh_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nikeh&lt;/td&gt;&lt;td&gt;尼姬&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nikeh_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nikeh_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nikeh_rank' value='3'&gt;3 &lt;input type='radio' name='Nikeh_rank' value='4'&gt;4 &lt;input type='radio' name='Nikeh_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nikeh_rank' value='AS'&gt;AS &lt;input type='radio' name='Nikeh_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Nikeh' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Nikeh.jpg'&gt;&lt;img src='img/Nikeh_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nikeh&lt;/td&gt;&lt;td&gt;尼姬&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nikeh_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nikeh_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nikeh_rank' value='3'&gt;3 &lt;input type='radio' name='Nikeh_rank' value='4'&gt;4 &lt;input type='radio' name='Nikeh_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nikeh_rank' value='AS'&gt;AS &lt;input type='radio' name='Nikeh_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
@@ -4381,15 +4627,18 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="J76" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L76" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P76" s="1" t="str">
+      <c r="Q76" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Nixa' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nixa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nixa&lt;/td&gt;&lt;td&gt;妮克薩&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nixa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nixa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nixa_rank' value='3'&gt;3 &lt;input type='radio' name='Nixa_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Nixa_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nixa_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nixa_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Nixa' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Nixa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nixa&lt;/td&gt;&lt;td&gt;妮克薩&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nixa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nixa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nixa_rank' value='3'&gt;3 &lt;input type='radio' name='Nixa_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Nixa_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nixa_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nixa_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
@@ -4419,18 +4668,21 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L77" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="M77" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="P77" s="1" t="str">
+      <c r="Q77" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Nomar' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nomar.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nomar&lt;/td&gt;&lt;td&gt;諾馬爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nomar_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nomar_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nomar_rank' value='3'&gt;3 &lt;input type='radio' name='Nomar_rank' value='4'&gt;4 &lt;input type='radio' name='Nomar_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nomar_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nomar_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Nomar' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Nomar.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nomar&lt;/td&gt;&lt;td&gt;諾馬爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nomar_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nomar_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nomar_rank' value='3'&gt;3 &lt;input type='radio' name='Nomar_rank' value='4'&gt;4 &lt;input type='radio' name='Nomar_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nomar_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nomar_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
@@ -4460,15 +4712,18 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L78" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P78" s="1" t="str">
+      <c r="Q78" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Nonold' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nonold.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nonold&lt;/td&gt;&lt;td&gt;諾諾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nonold_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nonold_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nonold_rank' value='3'&gt;3 &lt;input type='radio' name='Nonold_rank' value='4'&gt;4 &lt;input type='radio' name='Nonold_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nonold_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nonold_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Nonold' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Nonold.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nonold&lt;/td&gt;&lt;td&gt;諾諾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nonold_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nonold_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nonold_rank' value='3'&gt;3 &lt;input type='radio' name='Nonold_rank' value='4'&gt;4 &lt;input type='radio' name='Nonold_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nonold_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nonold_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
@@ -4498,15 +4753,18 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L79" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P79" s="1" t="str">
+      <c r="Q79" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Noome' class='Light'&gt;&lt;td&gt;&lt;img src='img/Noome.jpg'&gt;&lt;/td&gt;&lt;td&gt;Noome&lt;/td&gt;&lt;td&gt;諾暮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Noome_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Noome_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Noome_rank' value='3'&gt;3 &lt;input type='radio' name='Noome_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Noome_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Noome_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Noome_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Noome' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Noome.jpg'&gt;&lt;/td&gt;&lt;td&gt;Noome&lt;/td&gt;&lt;td&gt;諾暮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Noome_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Noome_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Noome_rank' value='3'&gt;3 &lt;input type='radio' name='Noome_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Noome_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Noome_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Noome_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
@@ -4536,15 +4794,18 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L80" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="P80" s="1" t="str">
+      <c r="Q80" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Nopaew' class='Light'&gt;&lt;td&gt;&lt;img src='img/Nopaew.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nopaew&lt;/td&gt;&lt;td&gt;波波羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nopaew_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nopaew_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nopaew_rank' value='3'&gt;3 &lt;input type='radio' name='Nopaew_rank' value='4'&gt;4 &lt;input type='radio' name='Nopaew_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nopaew_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nopaew_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Nopaew' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Nopaew.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nopaew&lt;/td&gt;&lt;td&gt;波波羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nopaew_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nopaew_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nopaew_rank' value='3'&gt;3 &lt;input type='radio' name='Nopaew_rank' value='4'&gt;4 &lt;input type='radio' name='Nopaew_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Nopaew_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Nopaew_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>83</v>
       </c>
@@ -4574,15 +4835,18 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L81" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P81" s="1" t="str">
+      <c r="Q81" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Oor' class='Light'&gt;&lt;td&gt;&lt;img src='img/Oor.jpg'&gt;&lt;/td&gt;&lt;td&gt;Oor&lt;/td&gt;&lt;td&gt;歐爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Oor_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Oor_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Oor_rank' value='3'&gt;3 &lt;input type='radio' name='Oor_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Oor_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Oor_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Oor_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Oor' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Oor.jpg'&gt;&lt;/td&gt;&lt;td&gt;Oor&lt;/td&gt;&lt;td&gt;歐爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Oor_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Oor_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Oor_rank' value='3'&gt;3 &lt;input type='radio' name='Oor_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Oor_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Oor_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Oor_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
@@ -4612,18 +4876,21 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L82" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="M82" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P82" s="1" t="str">
+      <c r="Q82" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Otoha' class='Light'&gt;&lt;td&gt;&lt;img src='img/Otoha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Otoha&lt;/td&gt;&lt;td&gt;乙葉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Otoha_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Otoha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Otoha_rank' value='3'&gt;3 &lt;input type='radio' name='Otoha_rank' value='4'&gt;4 &lt;input type='radio' name='Otoha_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Otoha_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Otoha_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Otoha' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Otoha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Otoha&lt;/td&gt;&lt;td&gt;乙葉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Otoha_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Otoha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Otoha_rank' value='3'&gt;3 &lt;input type='radio' name='Otoha_rank' value='4'&gt;4 &lt;input type='radio' name='Otoha_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Otoha_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Otoha_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
@@ -4653,18 +4920,21 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="J83" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L83" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="M83" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="P83" s="1" t="str">
+      <c r="Q83" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Parisa' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Parisa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Parisa&lt;/td&gt;&lt;td&gt;帕莉莎&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Parisa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Parisa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Parisa_rank' value='3'&gt;3 &lt;input type='radio' name='Parisa_rank' value='4'&gt;4 &lt;input type='radio' name='Parisa_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Parisa_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Parisa_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Parisa' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Parisa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Parisa&lt;/td&gt;&lt;td&gt;帕莉莎&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Parisa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Parisa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Parisa_rank' value='3'&gt;3 &lt;input type='radio' name='Parisa_rank' value='4'&gt;4 &lt;input type='radio' name='Parisa_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Parisa_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Parisa_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
@@ -4694,15 +4964,18 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L84" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P84" s="1" t="str">
+      <c r="Q84" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Pasia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Pasia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pasia&lt;/td&gt;&lt;td&gt;帕希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pasia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pasia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pasia_rank' value='3'&gt;3 &lt;input type='radio' name='Pasia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Pasia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Pasia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Pasia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Pasia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Pasia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pasia&lt;/td&gt;&lt;td&gt;帕希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pasia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pasia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pasia_rank' value='3'&gt;3 &lt;input type='radio' name='Pasia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Pasia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Pasia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Pasia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>
@@ -4732,18 +5005,21 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L85" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L85" s="2" t="s">
+      <c r="M85" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P85" s="1" t="str">
+      <c r="Q85" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Philo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Philo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Philo&lt;/td&gt;&lt;td&gt;菲羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Philo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Philo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Philo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Philo_rank' value='4'&gt;4 &lt;input type='radio' name='Philo_rank' value='5'&gt;5 &lt;input type='radio' name='Philo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Philo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Philo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Philo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Philo&lt;/td&gt;&lt;td&gt;菲羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Philo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Philo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Philo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Philo_rank' value='4'&gt;4 &lt;input type='radio' name='Philo_rank' value='5'&gt;5 &lt;input type='radio' name='Philo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Philo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>88</v>
       </c>
@@ -4773,15 +5049,18 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L86" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P86" s="1" t="str">
+      <c r="Q86" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Pom' class='Light'&gt;&lt;td&gt;&lt;img src='img/Pom.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pom&lt;/td&gt;&lt;td&gt;波姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pom_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pom_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pom_rank' value='3'&gt;3 &lt;input type='radio' name='Pom_rank' value='4'&gt;4 &lt;input type='radio' name='Pom_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Pom_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Pom_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Pom' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Pom.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pom&lt;/td&gt;&lt;td&gt;波姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pom_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pom_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pom_rank' value='3'&gt;3 &lt;input type='radio' name='Pom_rank' value='4'&gt;4 &lt;input type='radio' name='Pom_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Pom_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Pom_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
@@ -4811,15 +5090,18 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L87" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P87" s="1" t="str">
+      <c r="Q87" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Prai' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Prai.jpg'&gt;&lt;/td&gt;&lt;td&gt;Prai&lt;/td&gt;&lt;td&gt;普萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Prai_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Prai_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Prai_rank' value='3'&gt;3 &lt;input type='radio' name='Prai_rank' value='4'&gt;4 &lt;input type='radio' name='Prai_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Prai_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Prai_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Prai' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Prai.jpg'&gt;&lt;/td&gt;&lt;td&gt;Prai&lt;/td&gt;&lt;td&gt;普萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Prai_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Prai_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Prai_rank' value='3'&gt;3 &lt;input type='radio' name='Prai_rank' value='4'&gt;4 &lt;input type='radio' name='Prai_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Prai_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Prai_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
@@ -4849,18 +5131,21 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L88" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L88" s="2" t="s">
+      <c r="M88" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P88" s="1" t="str">
+      <c r="Q88" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Premaya' class='Light'&gt;&lt;td&gt;&lt;img src='img/Premaya.jpg'&gt;&lt;/td&gt;&lt;td&gt;Premaya&lt;/td&gt;&lt;td&gt;普蕾米婭&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Premaya_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Premaya_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Premaya_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Premaya_rank' value='4'&gt;4 &lt;input type='radio' name='Premaya_rank' value='5'&gt;5 &lt;input type='radio' name='Premaya_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Premaya_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Premaya' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Premaya.jpg'&gt;&lt;/td&gt;&lt;td&gt;Premaya&lt;/td&gt;&lt;td&gt;普蕾米婭&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Premaya_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Premaya_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Premaya_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Premaya_rank' value='4'&gt;4 &lt;input type='radio' name='Premaya_rank' value='5'&gt;5 &lt;input type='radio' name='Premaya_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Premaya_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
@@ -4890,21 +5175,24 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L89" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L89" s="2" t="s">
+      <c r="M89" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="M89" s="2" t="s">
+      <c r="N89" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="P89" s="1" t="str">
+      <c r="Q89" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Radica' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Radica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Radica&lt;/td&gt;&lt;td&gt;拉蒂卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Radica_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Radica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Radica_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Radica_rank' value='4'&gt;4 &lt;input type='radio' name='Radica_rank' value='5'&gt;5 &lt;input type='radio' name='Radica_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Radica_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Radica' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Radica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Radica&lt;/td&gt;&lt;td&gt;拉蒂卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Radica_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Radica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Radica_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Radica_rank' value='4'&gt;4 &lt;input type='radio' name='Radica_rank' value='5'&gt;5 &lt;input type='radio' name='Radica_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Radica_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
@@ -4934,18 +5222,21 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L90" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L90" s="2" t="s">
+      <c r="M90" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P90" s="1" t="str">
+      <c r="Q90" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Raven' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Raven.jpg'&gt;&lt;/td&gt;&lt;td&gt;Raven&lt;/td&gt;&lt;td&gt;雷文&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Raven_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Raven_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Raven_rank' value='3'&gt;3 &lt;input type='radio' name='Raven_rank' value='4'&gt;4 &lt;input type='radio' name='Raven_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Raven_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Raven_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Raven' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Raven.jpg'&gt;&lt;/td&gt;&lt;td&gt;Raven&lt;/td&gt;&lt;td&gt;雷文&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Raven_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Raven_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Raven_rank' value='3'&gt;3 &lt;input type='radio' name='Raven_rank' value='4'&gt;4 &lt;input type='radio' name='Raven_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Raven_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Raven_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
@@ -4975,18 +5266,21 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L91" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L91" s="2" t="s">
+      <c r="M91" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P91" s="1" t="str">
+      <c r="Q91" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Renri' class='Light'&gt;&lt;td&gt;&lt;img src='img/Renri.jpg'&gt;&lt;/td&gt;&lt;td&gt;Renri&lt;/td&gt;&lt;td&gt;雷莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Renri_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Renri_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Renri_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Renri_rank' value='4'&gt;4 &lt;input type='radio' name='Renri_rank' value='5'&gt;5 &lt;input type='radio' name='Renri_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Renri_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Renri' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Renri.jpg'&gt;&lt;/td&gt;&lt;td&gt;Renri&lt;/td&gt;&lt;td&gt;雷莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Renri_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Renri_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Renri_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Renri_rank' value='4'&gt;4 &lt;input type='radio' name='Renri_rank' value='5'&gt;5 &lt;input type='radio' name='Renri_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Renri_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
@@ -5016,21 +5310,24 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L92" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L92" s="2" t="s">
+      <c r="M92" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="M92" s="2" t="s">
+      <c r="N92" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="P92" s="1" t="str">
+      <c r="Q92" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Riica' class='Light'&gt;&lt;td&gt;&lt;img src='img/Riica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Riica&lt;/td&gt;&lt;td&gt;莉卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Riica_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Riica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Riica_rank' value='3'&gt;3 &lt;input type='radio' name='Riica_rank' value='4'&gt;4 &lt;input type='radio' name='Riica_rank' value='5'&gt;5 &lt;input type='radio' name='Riica_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Riica_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Riica' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Riica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Riica&lt;/td&gt;&lt;td&gt;莉卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Riica_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Riica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Riica_rank' value='3'&gt;3 &lt;input type='radio' name='Riica_rank' value='4'&gt;4 &lt;input type='radio' name='Riica_rank' value='5'&gt;5 &lt;input type='radio' name='Riica_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Riica_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
@@ -5060,15 +5357,18 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L93" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P93" s="1" t="str">
+      <c r="Q93" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Rodeia' class='Light'&gt;&lt;td&gt;&lt;img src='img/Rodeia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rodeia&lt;/td&gt;&lt;td&gt;羅蒂亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rodeia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rodeia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rodeia_rank' value='3'&gt;3 &lt;input type='radio' name='Rodeia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Rodeia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rodeia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rodeia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Rodeia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Rodeia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rodeia&lt;/td&gt;&lt;td&gt;羅蒂亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rodeia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rodeia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rodeia_rank' value='3'&gt;3 &lt;input type='radio' name='Rodeia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Rodeia_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rodeia_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rodeia_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
@@ -5098,18 +5398,21 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L94" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L94" s="2" t="s">
+      <c r="M94" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="P94" s="1" t="str">
+      <c r="Q94" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Rosetta' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Rosetta.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rosetta&lt;/td&gt;&lt;td&gt;蘿潔塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rosetta_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rosetta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rosetta_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Rosetta_rank' value='4'&gt;4 &lt;input type='radio' name='Rosetta_rank' value='5'&gt;5 &lt;input type='radio' name='Rosetta_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rosetta_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Rosetta' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Rosetta.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rosetta&lt;/td&gt;&lt;td&gt;蘿潔塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rosetta_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rosetta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rosetta_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Rosetta_rank' value='4'&gt;4 &lt;input type='radio' name='Rosetta_rank' value='5'&gt;5 &lt;input type='radio' name='Rosetta_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rosetta_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>97</v>
       </c>
@@ -5139,18 +5442,21 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L95" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L95" s="2" t="s">
+      <c r="M95" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="P95" s="1" t="str">
+      <c r="Q95" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Rovella' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Rovella.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rovella&lt;/td&gt;&lt;td&gt;羅貝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rovella_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rovella_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rovella_rank' value='3'&gt;3 &lt;input type='radio' name='Rovella_rank' value='4'&gt;4 &lt;input type='radio' name='Rovella_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rovella_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rovella_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Rovella' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Rovella.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rovella&lt;/td&gt;&lt;td&gt;羅貝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rovella_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rovella_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rovella_rank' value='3'&gt;3 &lt;input type='radio' name='Rovella_rank' value='4'&gt;4 &lt;input type='radio' name='Rovella_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rovella_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rovella_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>98</v>
       </c>
@@ -5180,18 +5486,21 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L96" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L96" s="2" t="s">
+      <c r="M96" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="P96" s="1" t="str">
+      <c r="Q96" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Rufus' class='Light'&gt;&lt;td&gt;&lt;img src='img/Rufus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rufus&lt;/td&gt;&lt;td&gt;洛福斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rufus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rufus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rufus_rank' value='3'&gt;3 &lt;input type='radio' name='Rufus_rank' value='4'&gt;4 &lt;input type='radio' name='Rufus_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rufus_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rufus_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Rufus' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Rufus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rufus&lt;/td&gt;&lt;td&gt;洛福斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rufus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rufus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rufus_rank' value='3'&gt;3 &lt;input type='radio' name='Rufus_rank' value='4'&gt;4 &lt;input type='radio' name='Rufus_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Rufus_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Rufus_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
@@ -5221,18 +5530,21 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L97" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L97" s="2" t="s">
+      <c r="M97" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P97" s="1" t="str">
+      <c r="Q97" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Ruina' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Ruina.jpg'&gt;&lt;img src='img/Ruina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ruina&lt;/td&gt;&lt;td&gt;路伊娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ruina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ruina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ruina_rank' value='3'&gt;3 &lt;input type='radio' name='Ruina_rank' value='4'&gt;4 &lt;input type='radio' name='Ruina_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Ruina_rank' value='AS'&gt;AS &lt;input type='radio' name='Ruina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Ruina' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Ruina.jpg'&gt;&lt;img src='img/Ruina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ruina&lt;/td&gt;&lt;td&gt;路伊娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ruina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ruina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ruina_rank' value='3'&gt;3 &lt;input type='radio' name='Ruina_rank' value='4'&gt;4 &lt;input type='radio' name='Ruina_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Ruina_rank' value='AS'&gt;AS &lt;input type='radio' name='Ruina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>100</v>
       </c>
@@ -5262,15 +5574,18 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L98" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P98" s="1" t="str">
+      <c r="Q98" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Saithe' class='Light'&gt;&lt;td&gt;&lt;img src='img/Saithe.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saithe&lt;/td&gt;&lt;td&gt;賽斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saithe_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saithe_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saithe_rank' value='3'&gt;3 &lt;input type='radio' name='Saithe_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Saithe_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Saithe_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Saithe_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Saithe' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Saithe.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saithe&lt;/td&gt;&lt;td&gt;賽斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saithe_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saithe_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saithe_rank' value='3'&gt;3 &lt;input type='radio' name='Saithe_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Saithe_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Saithe_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Saithe_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>101</v>
       </c>
@@ -5300,15 +5615,18 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L99" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="P99" s="1" t="str">
+      <c r="Q99" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Saki' class='Light'&gt;&lt;td&gt;&lt;img src='img/Saki.jpg'&gt;&lt;img src='img/Saki_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saki&lt;/td&gt;&lt;td&gt;紗希&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saki_rank' value='3'&gt;3 &lt;input type='radio' name='Saki_rank' value='4'&gt;4 &lt;input type='radio' name='Saki_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Saki_rank' value='AS'&gt;AS &lt;input type='radio' name='Saki_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Saki' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Saki.jpg'&gt;&lt;img src='img/Saki_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saki&lt;/td&gt;&lt;td&gt;紗希&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saki_rank' value='3'&gt;3 &lt;input type='radio' name='Saki_rank' value='4'&gt;4 &lt;input type='radio' name='Saki_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Saki_rank' value='AS'&gt;AS &lt;input type='radio' name='Saki_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>102</v>
       </c>
@@ -5338,18 +5656,21 @@
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L100" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L100" s="2" t="s">
+      <c r="M100" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="P100" s="1" t="str">
+      <c r="Q100" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Samora' class='Light'&gt;&lt;td&gt;&lt;img src='img/Samora.jpg'&gt;&lt;/td&gt;&lt;td&gt;Samora&lt;/td&gt;&lt;td&gt;薩摩拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Samora_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Samora_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Samora_rank' value='3'&gt;3 &lt;input type='radio' name='Samora_rank' value='4'&gt;4 &lt;input type='radio' name='Samora_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Samora_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Samora_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Samora' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Samora.jpg'&gt;&lt;/td&gt;&lt;td&gt;Samora&lt;/td&gt;&lt;td&gt;薩摩拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Samora_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Samora_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Samora_rank' value='3'&gt;3 &lt;input type='radio' name='Samora_rank' value='4'&gt;4 &lt;input type='radio' name='Samora_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Samora_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Samora_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>103</v>
       </c>
@@ -5379,15 +5700,18 @@
         <f t="shared" ref="I101:I123" si="8">IF(AND(G101="Y",H101="Y"),"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L101" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P101" s="1" t="str">
+      <c r="Q101" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Sauria' class='Light'&gt;&lt;td&gt;&lt;img src='img/Sauria.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sauria&lt;/td&gt;&lt;td&gt;秀莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sauria_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sauria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sauria_rank' value='3'&gt;3 &lt;input type='radio' name='Sauria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Sauria_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sauria_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sauria_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Sauria' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Sauria.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sauria&lt;/td&gt;&lt;td&gt;秀莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sauria_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sauria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sauria_rank' value='3'&gt;3 &lt;input type='radio' name='Sauria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Sauria_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sauria_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sauria_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>104</v>
       </c>
@@ -5417,18 +5741,21 @@
         <f t="shared" si="8"/>
         <v>N</v>
       </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L102" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="L102" s="2" t="s">
+      <c r="M102" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P102" s="1" t="str">
+      <c r="Q102" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Sevyn' class='Light'&gt;&lt;td&gt;&lt;img src='img/Sevyn.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sevyn&lt;/td&gt;&lt;td&gt;賽溫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sevyn_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sevyn_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sevyn_rank' value='3'&gt;3 &lt;input type='radio' name='Sevyn_rank' value='4'&gt;4 &lt;input type='radio' name='Sevyn_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sevyn_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sevyn_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Sevyn' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Sevyn.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sevyn&lt;/td&gt;&lt;td&gt;賽溫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sevyn_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sevyn_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sevyn_rank' value='3'&gt;3 &lt;input type='radio' name='Sevyn_rank' value='4'&gt;4 &lt;input type='radio' name='Sevyn_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sevyn_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sevyn_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>105</v>
       </c>
@@ -5458,18 +5785,21 @@
         <f t="shared" si="8"/>
         <v>Y</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L103" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L103" s="2" t="s">
+      <c r="M103" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P103" s="1" t="str">
+      <c r="Q103" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Shanie' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shanie.jpg'&gt;&lt;img src='img/Shanie_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shanie&lt;/td&gt;&lt;td&gt;謝奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shanie_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shanie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shanie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shanie_rank' value='4'&gt;4 &lt;input type='radio' name='Shanie_rank' value='5'&gt;5 &lt;input type='radio' name='Shanie_rank' value='AS'&gt;AS &lt;input type='radio' name='Shanie_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Shanie' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Shanie.jpg'&gt;&lt;img src='img/Shanie_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shanie&lt;/td&gt;&lt;td&gt;謝奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shanie_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shanie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shanie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shanie_rank' value='4'&gt;4 &lt;input type='radio' name='Shanie_rank' value='5'&gt;5 &lt;input type='radio' name='Shanie_rank' value='AS'&gt;AS &lt;input type='radio' name='Shanie_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>106</v>
       </c>
@@ -5499,18 +5829,21 @@
         <f t="shared" si="8"/>
         <v>N</v>
       </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L104" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L104" s="2" t="s">
+      <c r="M104" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P104" s="1" t="str">
+      <c r="Q104" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Shannon' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shannon.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shannon&lt;/td&gt;&lt;td&gt;夏濃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shannon_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shannon_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shannon_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shannon_rank' value='4'&gt;4 &lt;input type='radio' name='Shannon_rank' value='5'&gt;5 &lt;input type='radio' name='Shannon_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Shannon_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Shannon' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Shannon.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shannon&lt;/td&gt;&lt;td&gt;夏濃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shannon_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shannon_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shannon_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shannon_rank' value='4'&gt;4 &lt;input type='radio' name='Shannon_rank' value='5'&gt;5 &lt;input type='radio' name='Shannon_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Shannon_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>107</v>
       </c>
@@ -5540,18 +5873,21 @@
         <f t="shared" si="8"/>
         <v>N</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L105" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L105" s="2" t="s">
+      <c r="M105" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="P105" s="1" t="str">
+      <c r="Q105" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Sheila' class='Light'&gt;&lt;td&gt;&lt;img src='img/Sheila.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sheila&lt;/td&gt;&lt;td&gt;謝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sheila_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sheila_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sheila_rank' value='3'&gt;3 &lt;input type='radio' name='Sheila_rank' value='4'&gt;4 &lt;input type='radio' name='Sheila_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sheila_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sheila_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Sheila' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Sheila.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sheila&lt;/td&gt;&lt;td&gt;謝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sheila_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sheila_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sheila_rank' value='3'&gt;3 &lt;input type='radio' name='Sheila_rank' value='4'&gt;4 &lt;input type='radio' name='Sheila_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Sheila_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Sheila_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
@@ -5581,18 +5917,21 @@
         <f t="shared" si="8"/>
         <v>N</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L106" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L106" s="2" t="s">
+      <c r="M106" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="P106" s="1" t="str">
+      <c r="Q106" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Shigure' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shigure.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shigure&lt;/td&gt;&lt;td&gt;時雨&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shigure_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shigure_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shigure_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shigure_rank' value='4'&gt;4 &lt;input type='radio' name='Shigure_rank' value='5'&gt;5 &lt;input type='radio' name='Shigure_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Shigure_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Shigure' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Shigure.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shigure&lt;/td&gt;&lt;td&gt;時雨&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shigure_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shigure_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shigure_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shigure_rank' value='4'&gt;4 &lt;input type='radio' name='Shigure_rank' value='5'&gt;5 &lt;input type='radio' name='Shigure_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Shigure_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>109</v>
       </c>
@@ -5622,18 +5961,21 @@
         <f t="shared" si="8"/>
         <v>Y</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L107" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L107" s="2" t="s">
+      <c r="M107" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P107" s="1" t="str">
+      <c r="Q107" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Shion' class='Light'&gt;&lt;td&gt;&lt;img src='img/Shion.jpg'&gt;&lt;img src='img/Shion_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shion&lt;/td&gt;&lt;td&gt;紫央&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shion_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shion_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shion_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shion_rank' value='4'&gt;4 &lt;input type='radio' name='Shion_rank' value='5'&gt;5 &lt;input type='radio' name='Shion_rank' value='AS'&gt;AS &lt;input type='radio' name='Shion_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Shion' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Shion.jpg'&gt;&lt;img src='img/Shion_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shion&lt;/td&gt;&lt;td&gt;紫央&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shion_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shion_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shion_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shion_rank' value='4'&gt;4 &lt;input type='radio' name='Shion_rank' value='5'&gt;5 &lt;input type='radio' name='Shion_rank' value='AS'&gt;AS &lt;input type='radio' name='Shion_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
@@ -5663,27 +6005,30 @@
         <f t="shared" si="8"/>
         <v>N</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L108" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L108" s="2" t="s">
+      <c r="M108" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="P108" s="1" t="str">
+      <c r="Q108" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Soira' class='Light'&gt;&lt;td&gt;&lt;img src='img/Soira.jpg'&gt;&lt;/td&gt;&lt;td&gt;Soira&lt;/td&gt;&lt;td&gt;蘇依萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Soira_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Soira_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Soira_rank' value='3'&gt;3 &lt;input type='radio' name='Soira_rank' value='4'&gt;4 &lt;input type='radio' name='Soira_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Soira_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Soira_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Soira' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Soira.jpg'&gt;&lt;/td&gt;&lt;td&gt;Soira&lt;/td&gt;&lt;td&gt;蘇依萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Soira_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Soira_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Soira_rank' value='3'&gt;3 &lt;input type='radio' name='Soira_rank' value='4'&gt;4 &lt;input type='radio' name='Soira_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Soira_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Soira_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>111</v>
+        <v>281</v>
       </c>
       <c r="B109" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Suzette</v>
-      </c>
-      <c r="C109" t="s">
-        <v>260</v>
+        <v>Strawboy</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>1</v>
@@ -5692,80 +6037,95 @@
         <v>129</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I109" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Y</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>143</v>
+        <v>N</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="P109" s="1" t="str">
+        <v>283</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q109" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Suzette' class='Light'&gt;&lt;td&gt;&lt;img src='img/Suzette.jpg'&gt;&lt;img src='img/Suzette_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Suzette&lt;/td&gt;&lt;td&gt;蘇賽特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Suzette_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Suzette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Suzette_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Suzette_rank' value='4'&gt;4 &lt;input type='radio' name='Suzette_rank' value='5'&gt;5 &lt;input type='radio' name='Suzette_rank' value='AS'&gt;AS &lt;input type='radio' name='Suzette_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Strawboy' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Strawboy.jpg'&gt;&lt;/td&gt;&lt;td&gt;Strawboy&lt;/td&gt;&lt;td&gt;草人小子 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/all_null.png'&gt;&lt;img src='img/type/all_slash.png'&gt;&lt;img src='img/type/all_pierce.png'&gt;&lt;img src='img/type/all_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Strawboy_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Strawboy_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Strawboy_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Strawboy_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Strawboy_rank' value='5'&gt;5 &lt;input type='radio' name='Strawboy_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Strawboy_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Tayme</v>
+        <v>Suzette</v>
       </c>
       <c r="C110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I110" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="P110" s="1" t="str">
+        <f>IF(AND(G110="Y",H110="Y"),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q110" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Tayme' class='Light'&gt;&lt;td&gt;&lt;img src='img/Tayme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tayme&lt;/td&gt;&lt;td&gt;提姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tayme_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tayme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tayme_rank' value='3'&gt;3 &lt;input type='radio' name='Tayme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tayme_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Tayme_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tayme_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Suzette' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Suzette.jpg'&gt;&lt;img src='img/Suzette_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Suzette&lt;/td&gt;&lt;td&gt;蘇賽特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Suzette_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Suzette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Suzette_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Suzette_rank' value='4'&gt;4 &lt;input type='radio' name='Suzette_rank' value='5'&gt;5 &lt;input type='radio' name='Suzette_rank' value='AS'&gt;AS &lt;input type='radio' name='Suzette_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Tohme</v>
+        <v>Tayme</v>
       </c>
       <c r="C111" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>128</v>
@@ -5780,33 +6140,33 @@
         <v>129</v>
       </c>
       <c r="I111" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>134</v>
+        <f>IF(AND(G111="Y",H111="Y"),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P111" s="1" t="str">
+      <c r="Q111" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Tohme' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Tohme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tohme&lt;/td&gt;&lt;td&gt;托姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tohme_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tohme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tohme_rank' value='3'&gt;3 &lt;input type='radio' name='Tohme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tohme_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Tohme_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tohme_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Tayme' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Tayme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tayme&lt;/td&gt;&lt;td&gt;提姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tayme_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tayme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tayme_rank' value='3'&gt;3 &lt;input type='radio' name='Tayme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tayme_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Tayme_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tayme_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Toole</v>
+        <v>Tohme</v>
       </c>
       <c r="C112" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>128</v>
@@ -5821,71 +6181,77 @@
         <v>129</v>
       </c>
       <c r="I112" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="K112" s="2" t="s">
+        <f>IF(AND(G112="Y",H112="Y"),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M112" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P112" s="1" t="str">
+      <c r="Q112" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Toole' class='Light'&gt;&lt;td&gt;&lt;img src='img/Toole.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toole&lt;/td&gt;&lt;td&gt;托爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toole_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toole_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toole_rank' value='3'&gt;3 &lt;input type='radio' name='Toole_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Toole_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Toole_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Toole_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Tohme' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Tohme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tohme&lt;/td&gt;&lt;td&gt;托姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tohme_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tohme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tohme_rank' value='3'&gt;3 &lt;input type='radio' name='Tohme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tohme_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Tohme_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tohme_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Toova</v>
+        <v>Toole</v>
       </c>
       <c r="C113" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I113" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Y</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>131</v>
+        <f>IF(AND(G113="Y",H113="Y"),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="P113" s="1" t="str">
+        <v>132</v>
+      </c>
+      <c r="Q113" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Toova' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Toova.jpg'&gt;&lt;img src='img/Toova_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toova&lt;/td&gt;&lt;td&gt;杜娃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toova_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toova_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toova_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Toova_rank' value='4'&gt;4 &lt;input type='radio' name='Toova_rank' value='5'&gt;5 &lt;input type='radio' name='Toova_rank' value='AS'&gt;AS &lt;input type='radio' name='Toova_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Toole' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Toole.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toole&lt;/td&gt;&lt;td&gt;托爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toole_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toole_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toole_rank' value='3'&gt;3 &lt;input type='radio' name='Toole_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Toole_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Toole_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Toole_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B114" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Tsubame</v>
+        <v>Toova</v>
       </c>
       <c r="C114" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>129</v>
@@ -5897,39 +6263,39 @@
         <v>128</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I114" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>134</v>
+        <f>IF(AND(G114="Y",H114="Y"),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="P114" s="1" t="str">
+        <v>155</v>
+      </c>
+      <c r="Q114" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Tsubame' class='Light'&gt;&lt;td&gt;&lt;img src='img/Tsubame.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsubame&lt;/td&gt;&lt;td&gt;燕&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsubame_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsubame_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsubame_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsubame_rank' value='4'&gt;4 &lt;input type='radio' name='Tsubame_rank' value='5'&gt;5 &lt;input type='radio' name='Tsubame_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tsubame_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Toova' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Toova.jpg'&gt;&lt;img src='img/Toova_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toova&lt;/td&gt;&lt;td&gt;杜娃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toova_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toova_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toova_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Toova_rank' value='4'&gt;4 &lt;input type='radio' name='Toova_rank' value='5'&gt;5 &lt;input type='radio' name='Toova_rank' value='AS'&gt;AS &lt;input type='radio' name='Toova_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B115" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Tsukiha</v>
+        <v>Tsubame</v>
       </c>
       <c r="C115" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>129</v>
@@ -5944,68 +6310,80 @@
         <v>129</v>
       </c>
       <c r="I115" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="K115" s="2" t="s">
+        <f>IF(AND(G115="Y",H115="Y"),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L115" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L115" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P115" s="1" t="str">
+      <c r="M115" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q115" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Tsukiha' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Tsukiha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsukiha&lt;/td&gt;&lt;td&gt;月華&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsukiha_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsukiha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsukiha_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsukiha_rank' value='4'&gt;4 &lt;input type='radio' name='Tsukiha_rank' value='5'&gt;5 &lt;input type='radio' name='Tsukiha_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tsukiha_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Tsubame' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Tsubame.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsubame&lt;/td&gt;&lt;td&gt;燕&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsubame_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsubame_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsubame_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsubame_rank' value='4'&gt;4 &lt;input type='radio' name='Tsubame_rank' value='5'&gt;5 &lt;input type='radio' name='Tsubame_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tsubame_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B116" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Urania</v>
+        <v>Tsukiha</v>
       </c>
       <c r="C116" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>129</v>
       </c>
       <c r="I116" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="P116" s="1" t="str">
+        <f>IF(AND(G116="Y",H116="Y"),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q116" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Urania' class='Light'&gt;&lt;td&gt;&lt;img src='img/Urania.jpg'&gt;&lt;/td&gt;&lt;td&gt;Urania&lt;/td&gt;&lt;td&gt;烏拉尼雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Urania_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Urania_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Urania_rank' value='3'&gt;3 &lt;input type='radio' name='Urania_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Urania_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Urania_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Urania_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Tsukiha' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Tsukiha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsukiha&lt;/td&gt;&lt;td&gt;月華&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsukiha_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsukiha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsukiha_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsukiha_rank' value='4'&gt;4 &lt;input type='radio' name='Tsukiha_rank' value='5'&gt;5 &lt;input type='radio' name='Tsukiha_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Tsukiha_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B117" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Uuo</v>
+        <v>Urania</v>
       </c>
       <c r="C117" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>1</v>
@@ -6023,106 +6401,115 @@
         <v>129</v>
       </c>
       <c r="I117" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P117" s="1" t="str">
+        <f>IF(AND(G117="Y",H117="Y"),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q117" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Uuo' class='Light'&gt;&lt;td&gt;&lt;img src='img/Uuo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Uuo&lt;/td&gt;&lt;td&gt;烏奧&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Uuo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Uuo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Uuo_rank' value='3'&gt;3 &lt;input type='radio' name='Uuo_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Uuo_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Uuo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Uuo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Urania' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Urania.jpg'&gt;&lt;/td&gt;&lt;td&gt;Urania&lt;/td&gt;&lt;td&gt;烏拉尼雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Urania_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Urania_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Urania_rank' value='3'&gt;3 &lt;input type='radio' name='Urania_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Urania_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Urania_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Urania_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B118" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Veina</v>
+        <v>Uuo</v>
       </c>
       <c r="C118" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I118" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N118" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="P118" s="1" t="str">
+        <f>IF(AND(G118="Y",H118="Y"),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q118" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Veina' class='Light'&gt;&lt;td&gt;&lt;img src='img/Veina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Veina&lt;/td&gt;&lt;td&gt;維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Veina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Veina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Veina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Veina_rank' value='4'&gt;4 &lt;input type='radio' name='Veina_rank' value='5'&gt;5 &lt;input type='radio' name='Veina_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Veina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Uuo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Uuo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Uuo&lt;/td&gt;&lt;td&gt;烏奧&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Uuo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Uuo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Uuo_rank' value='3'&gt;3 &lt;input type='radio' name='Uuo_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Uuo_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Uuo_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Uuo_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B119" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Yazuki</v>
+        <v>Veina</v>
       </c>
       <c r="C119" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>128</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I119" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="P119" s="1" t="str">
+        <f>IF(AND(G119="Y",H119="Y"),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q119" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Yazuki' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yazuki.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yazuki&lt;/td&gt;&lt;td&gt;耶月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yazuki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yazuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yazuki_rank' value='3'&gt;3 &lt;input type='radio' name='Yazuki_rank' value='4'&gt;4 &lt;input type='radio' name='Yazuki_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yazuki_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yazuki_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Veina' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Veina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Veina&lt;/td&gt;&lt;td&gt;維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Veina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Veina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Veina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Veina_rank' value='4'&gt;4 &lt;input type='radio' name='Veina_rank' value='5'&gt;5 &lt;input type='radio' name='Veina_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Veina_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B120" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Yio</v>
+        <v>Yazuki</v>
       </c>
       <c r="C120" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>1</v>
@@ -6140,30 +6527,30 @@
         <v>129</v>
       </c>
       <c r="I120" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>134</v>
+        <f>IF(AND(G120="Y",H120="Y"),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P120" s="1" t="str">
+        <v>144</v>
+      </c>
+      <c r="Q120" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Yio' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yio.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yio&lt;/td&gt;&lt;td&gt;伊俄&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yio_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yio_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yio_rank' value='3'&gt;3 &lt;input type='radio' name='Yio_rank' value='4'&gt;4 &lt;input type='radio' name='Yio_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yio_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yio_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Yazuki' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Yazuki.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yazuki&lt;/td&gt;&lt;td&gt;耶月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yazuki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yazuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yazuki_rank' value='3'&gt;3 &lt;input type='radio' name='Yazuki_rank' value='4'&gt;4 &lt;input type='radio' name='Yazuki_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yazuki_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yazuki_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B121" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Yssis</v>
+        <v>Yio</v>
       </c>
       <c r="C121" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>1</v>
@@ -6172,7 +6559,7 @@
         <v>128</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>129</v>
@@ -6181,109 +6568,162 @@
         <v>129</v>
       </c>
       <c r="I121" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="P121" s="1" t="str">
+        <f>IF(AND(G121="Y",H121="Y"),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q121" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Yssis' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yssis.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yssis&lt;/td&gt;&lt;td&gt;伊西斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yssis_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yssis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yssis_rank' value='3'&gt;3 &lt;input type='radio' name='Yssis_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Yssis_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yssis_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yssis_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Yio' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Yio.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yio&lt;/td&gt;&lt;td&gt;伊俄&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yio_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yio_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yio_rank' value='3'&gt;3 &lt;input type='radio' name='Yio_rank' value='4'&gt;4 &lt;input type='radio' name='Yio_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yio_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yio_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B122" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Yuna</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>273</v>
+        <v>Yssis</v>
+      </c>
+      <c r="C122" t="s">
+        <v>272</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I122" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Y</v>
-      </c>
-      <c r="K122" s="2" t="s">
+        <f>IF(AND(G122="Y",H122="Y"),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L122" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L122" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P122" s="1" t="str">
+      <c r="Q122" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Yuna' class='Light'&gt;&lt;td&gt;&lt;img src='img/Yuna.jpg'&gt;&lt;img src='img/Yuna_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yuna&lt;/td&gt;&lt;td&gt;由奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yuna_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yuna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yuna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Yuna_rank' value='4'&gt;4 &lt;input type='radio' name='Yuna_rank' value='5'&gt;5 &lt;input type='radio' name='Yuna_rank' value='AS'&gt;AS &lt;input type='radio' name='Yuna_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+        <v>&lt;tr id='Yssis' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Yssis.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yssis&lt;/td&gt;&lt;td&gt;伊西斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yssis_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yssis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yssis_rank' value='3'&gt;3 &lt;input type='radio' name='Yssis_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Yssis_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Yssis_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Yssis_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B123" s="1" t="str">
         <f t="shared" si="7"/>
+        <v>Yuna</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I123" s="3" t="str">
+        <f>IF(AND(G123="Y",H123="Y"),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q123" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;tr id='Yuna' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Yuna.jpg'&gt;&lt;img src='img/Yuna_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yuna&lt;/td&gt;&lt;td&gt;由奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yuna_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yuna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yuna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Yuna_rank' value='4'&gt;4 &lt;input type='radio' name='Yuna_rank' value='5'&gt;5 &lt;input type='radio' name='Yuna_rank' value='AS'&gt;AS &lt;input type='radio' name='Yuna_rank' value='Both'&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>Zilva</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C124" t="s">
         <v>274</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I123" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="E124" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I124" s="3" t="str">
+        <f>IF(AND(G124="Y",H124="Y"),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L124" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L123" s="2" t="s">
+      <c r="M124" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P123" s="1" t="str">
+      <c r="Q124" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;tr id='Zilva' class='Shadow'&gt;&lt;td&gt;&lt;img src='img/Zilva.jpg'&gt;&lt;/td&gt;&lt;td&gt;Zilva&lt;/td&gt;&lt;td&gt;茲爾巴&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Zilva_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Zilva_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Zilva_rank' value='3'&gt;3 &lt;input type='radio' name='Zilva_rank' value='4'&gt;4 &lt;input type='radio' name='Zilva_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Zilva_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Zilva_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Zilva' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Zilva.jpg'&gt;&lt;/td&gt;&lt;td&gt;Zilva&lt;/td&gt;&lt;td&gt;茲爾巴&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Zilva_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Zilva_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Zilva_rank' value='3'&gt;3 &lt;input type='radio' name='Zilva_rank' value='4'&gt;4 &lt;input type='radio' name='Zilva_rank' value='5' disabled=''&gt;5 &lt;input type='radio' name='Zilva_rank' value='AS' disabled=''&gt;AS &lt;input type='radio' name='Zilva_rank' value='Both' disabled=''&gt;5 &amp; AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N123" xr:uid="{BF78E18D-D95C-4E7F-AF90-E8358E4459D0}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N123">
+  <autoFilter ref="A1:O123" xr:uid="{BF78E18D-D95C-4E7F-AF90-E8358E4459D0}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O123">
       <sortCondition ref="B1:B123"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E1:I1048576">
+  <conditionalFormatting sqref="E125:J1048576 E1:J4 E5:I108 E110:I124 J5:J124">
     <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"N"</formula>
     </cfRule>
@@ -6296,26 +6736,26 @@
       <formula>NOT(ISERROR(SEARCH("Light",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:H1048576">
+  <conditionalFormatting sqref="E1:H108 E110:H1048576">
     <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:N1048576">
+  <conditionalFormatting sqref="L1:O108 L110:O1048576">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="zone">
-      <formula>NOT(ISERROR(SEARCH("zone",K1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("zone",L1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="earth">
-      <formula>NOT(ISERROR(SEARCH("earth",K1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("earth",L1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="water">
-      <formula>NOT(ISERROR(SEARCH("water",K1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("water",L1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="14" operator="containsText" text="wind">
-      <formula>NOT(ISERROR(SEARCH("wind",K1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("wind",L1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="15" operator="containsText" text="fire">
-      <formula>NOT(ISERROR(SEARCH("fire",K1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("fire",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6323,6 +6763,12 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DB1661DA-6BF9-4AEA-B6F0-005760FFC5A1}">
+          <x14:formula1>
+            <xm:f>Sheet2!$C$1:$C$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>L47:N48 L49 O47:O49 L1:O46 L50:O108 L110:O1048576</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B3CCCDB8-5325-4E39-B696-890B93E6D505}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$2</xm:f>
@@ -6333,13 +6779,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:I1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DB1661DA-6BF9-4AEA-B6F0-005760FFC5A1}">
-          <x14:formula1>
-            <xm:f>Sheet2!$C$1:$C$24</xm:f>
-          </x14:formula1>
-          <xm:sqref>K50:N1048576 K47:M48 K49 N47:N49 K1:N46</xm:sqref>
+          <xm:sqref>E110:I1048576 E1:I108</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/charList.xlsx
+++ b/charList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/another_picker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="113_{EDAF8704-33BD-42A1-9BF0-839D1C6DA06E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{54328620-0CBE-496D-955A-007D54FDFF76}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="113_{EDAF8704-33BD-42A1-9BF0-839D1C6DA06E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{74041CAE-EC4E-4A76-B85C-BA66B8D01A56}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{FB4A35C3-13BA-439C-92C2-A466A92FB7C5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="289">
   <si>
     <t xml:space="preserve">伊絲卡 </t>
   </si>
@@ -896,6 +896,12 @@
   </si>
   <si>
     <t>GoodMacky.jpg</t>
+  </si>
+  <si>
+    <t>Myunfa.jpg</t>
+  </si>
+  <si>
+    <t>霧華</t>
   </si>
 </sst>
 </file>
@@ -946,7 +952,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="28">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -998,6 +1004,112 @@
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1309,11 +1421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B535A930-5FFC-4C28-93C5-DE94369B070D}">
-  <dimension ref="A1:P124"/>
+  <dimension ref="A1:P125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I68" sqref="I68"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1368,7 +1480,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f t="shared" ref="B2:B4" si="0">LEFT(A2,(FIND(".",A2,1)-1))</f>
+        <f t="shared" ref="B2:B65" si="0">LEFT(A2,(FIND(".",A2,1)-1))</f>
         <v>Akane</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1402,7 +1514,7 @@
         <v>134</v>
       </c>
       <c r="P2" s="1" t="str">
-        <f t="shared" ref="P2:P33" si="1">"&lt;tr id='"&amp;SUBSTITUTE(B2," ","")&amp;"' class='"&amp;D2&amp;IF(I2="N"," Dream", " Free")&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A2&amp;"'&gt;"&amp;IF(H2="Y","&lt;img src='img/"&amp;B2&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K2&amp;".png'&gt;"&amp;IF(L2="","","&lt;img src='img/type/"&amp;L2&amp;".png'&gt;")&amp;IF(M2="","","&lt;img src='img/type/"&amp;M2&amp;".png'&gt;")&amp;IF(N2="","","&lt;img src='img/type/"&amp;N2&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B2," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='3'"&amp;IF(E2="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='4'"&amp;IF(F2="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='5'"&amp;IF(G2="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='checkbox' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='AS'"&amp;IF(H2="Y",""," disabled=''")&amp;"&gt;AS&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" ref="P2:P65" si="1">"&lt;tr id='"&amp;SUBSTITUTE(B2," ","")&amp;"' class='"&amp;D2&amp;IF(I2="N"," Dream", " Free")&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A2&amp;"'&gt;"&amp;IF(H2="Y","&lt;img src='img/"&amp;B2&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K2&amp;".png'&gt;"&amp;IF(L2="","","&lt;img src='img/type/"&amp;L2&amp;".png'&gt;")&amp;IF(M2="","","&lt;img src='img/type/"&amp;M2&amp;".png'&gt;")&amp;IF(N2="","","&lt;img src='img/type/"&amp;N2&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B2," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='3'"&amp;IF(E2="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='4'"&amp;IF(F2="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='5'"&amp;IF(G2="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='checkbox' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='AS'"&amp;IF(H2="Y",""," disabled=''")&amp;"&gt;AS&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr id='Akane' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Akane.jpg'&gt;&lt;img src='img/Akane_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Akane&lt;/td&gt;&lt;td&gt;茜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Akane_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Akane_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Akane_rank' value='3'&gt;3 &lt;input type='radio' name='Akane_rank' value='4'&gt;4 &lt;input type='radio' name='Akane_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Akane_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1491,7 +1603,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>SUBSTITUTE(LEFT(A5,(FIND(".",A5,1)-1)),"-"," ")</f>
+        <f t="shared" si="0"/>
         <v>Amy</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1531,7 +1643,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f t="shared" ref="B6:B69" si="2">SUBSTITUTE(LEFT(A6,(FIND(".",A6,1)-1)),"-"," ")</f>
+        <f t="shared" si="0"/>
         <v>Anabel</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1574,7 +1686,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Asia</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1611,7 +1723,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Azami</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1654,7 +1766,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Benedict</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1694,7 +1806,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Bertrand</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1734,7 +1846,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Biaka</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1774,7 +1886,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Bivette</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1811,7 +1923,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Breeno</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1851,7 +1963,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Bria</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1891,7 +2003,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Cerrine</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1934,7 +2046,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Cetie</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1977,7 +2089,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Chiyo</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2014,7 +2126,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Ciel</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2054,7 +2166,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Claude</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2097,7 +2209,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Ctos</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2134,7 +2246,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Cyrus</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2177,7 +2289,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Cyuca</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2217,7 +2329,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Darunis</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2257,7 +2369,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Deirdre</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2297,7 +2409,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Denny</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2337,7 +2449,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Dewey</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2377,7 +2489,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Dunarith</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2417,7 +2529,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Een</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2454,7 +2566,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Elga</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2494,7 +2606,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Emms</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2531,7 +2643,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Erina</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2568,7 +2680,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Esta</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2605,7 +2717,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Ewan</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2645,7 +2757,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Feinne</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2673,7 +2785,7 @@
         <v>130</v>
       </c>
       <c r="P34" s="1" t="str">
-        <f t="shared" ref="P34:P65" si="3">"&lt;tr id='"&amp;SUBSTITUTE(B34," ","")&amp;"' class='"&amp;D34&amp;IF(I34="N"," Dream", " Free")&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A34&amp;"'&gt;"&amp;IF(H34="Y","&lt;img src='img/"&amp;B34&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B34&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C34&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K34&amp;".png'&gt;"&amp;IF(L34="","","&lt;img src='img/type/"&amp;L34&amp;".png'&gt;")&amp;IF(M34="","","&lt;img src='img/type/"&amp;M34&amp;".png'&gt;")&amp;IF(N34="","","&lt;img src='img/type/"&amp;N34&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B34," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B34," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B34," ","")&amp;"_rank' value='3'"&amp;IF(E34="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B34," ","")&amp;"_rank' value='4'"&amp;IF(F34="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B34," ","")&amp;"_rank' value='5'"&amp;IF(G34="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='checkbox' name='"&amp;SUBSTITUTE(B34," ","")&amp;"_rank' value='AS'"&amp;IF(H34="Y",""," disabled=''")&amp;"&gt;AS&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Feinne' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Feinne.jpg'&gt;&lt;/td&gt;&lt;td&gt;Feinne&lt;/td&gt;&lt;td&gt;菲妮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Feinne_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Feinne_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Feinne_rank' value='3'&gt;3 &lt;input type='radio' name='Feinne_rank' value='4'&gt;4 &lt;input type='radio' name='Feinne_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Feinne_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2682,7 +2794,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Felmina</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2719,7 +2831,7 @@
         <v>137</v>
       </c>
       <c r="P35" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Felmina' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Felmina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Felmina&lt;/td&gt;&lt;td&gt;菲露米娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Felmina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Felmina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Felmina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Felmina_rank' value='4'&gt;4 &lt;input type='radio' name='Felmina_rank' value='5'&gt;5 &lt;input type='checkbox' name='Felmina_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2728,7 +2840,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Foran</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2759,7 +2871,7 @@
         <v>150</v>
       </c>
       <c r="P36" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Foran' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Foran.jpg'&gt;&lt;/td&gt;&lt;td&gt;Foran&lt;/td&gt;&lt;td&gt;芙朗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Foran_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Foran_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Foran_rank' value='3'&gt;3 &lt;input type='radio' name='Foran_rank' value='4'&gt;4 &lt;input type='radio' name='Foran_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Foran_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2768,7 +2880,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Galliard</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2799,7 +2911,7 @@
         <v>156</v>
       </c>
       <c r="P37" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Galliard' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Galliard.jpg'&gt;&lt;/td&gt;&lt;td&gt;Galliard&lt;/td&gt;&lt;td&gt;嘉里德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Galliard_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Galliard_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Galliard_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Galliard_rank' value='4'&gt;4 &lt;input type='radio' name='Galliard_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Galliard_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2808,7 +2920,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Gariyu</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2839,7 +2951,7 @@
         <v>185</v>
       </c>
       <c r="P38" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Gariyu' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Gariyu.jpg'&gt;&lt;img src='img/Gariyu_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Gariyu&lt;/td&gt;&lt;td&gt;伽琉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;img src='img/type/fire_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Gariyu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Gariyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Gariyu_rank' value='3'&gt;3 &lt;input type='radio' name='Gariyu_rank' value='4'&gt;4 &lt;input type='radio' name='Gariyu_rank' value='5'&gt;5 &lt;input type='checkbox' name='Gariyu_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2848,7 +2960,7 @@
         <v>286</v>
       </c>
       <c r="B39" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>GoodMacky</v>
       </c>
       <c r="C39" t="s">
@@ -2879,7 +2991,7 @@
         <v>137</v>
       </c>
       <c r="P39" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='GoodMacky' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/GoodMacky.jpg'&gt;&lt;/td&gt;&lt;td&gt;GoodMacky&lt;/td&gt;&lt;td&gt;善良的米可麥克&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='GoodMacky_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='GoodMacky_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='GoodMacky_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='GoodMacky_rank' value='4'&gt;4 &lt;input type='radio' name='GoodMacky_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='GoodMacky_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2888,7 +3000,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Guildna</v>
       </c>
       <c r="C40" t="s">
@@ -2919,7 +3031,7 @@
         <v>134</v>
       </c>
       <c r="P40" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Guildna' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Guildna.jpg'&gt;&lt;/td&gt;&lt;td&gt;Guildna&lt;/td&gt;&lt;td&gt;基爾德那&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Guildna_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Guildna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Guildna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Guildna_rank' value='4'&gt;4 &lt;input type='radio' name='Guildna_rank' value='5'&gt;5 &lt;input type='checkbox' name='Guildna_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2928,7 +3040,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Helena</v>
       </c>
       <c r="C41" t="s">
@@ -2959,7 +3071,7 @@
         <v>154</v>
       </c>
       <c r="P41" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Helena' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Helena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Helena&lt;/td&gt;&lt;td&gt;海蕾娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Helena_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Helena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Helena_rank' value='3'&gt;3 &lt;input type='radio' name='Helena_rank' value='4'&gt;4 &lt;input type='radio' name='Helena_rank' value='5'&gt;5 &lt;input type='checkbox' name='Helena_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2968,7 +3080,7 @@
         <v>44</v>
       </c>
       <c r="B42" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Hismena</v>
       </c>
       <c r="C42" t="s">
@@ -2999,7 +3111,7 @@
         <v>150</v>
       </c>
       <c r="P42" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Hismena' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Hismena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Hismena&lt;/td&gt;&lt;td&gt;希斯梅娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Hismena_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Hismena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Hismena_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Hismena_rank' value='4'&gt;4 &lt;input type='radio' name='Hismena_rank' value='5'&gt;5 &lt;input type='checkbox' name='Hismena_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3008,7 +3120,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Hozuki</v>
       </c>
       <c r="C43" t="s">
@@ -3039,7 +3151,7 @@
         <v>147</v>
       </c>
       <c r="P43" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Hozuki' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Hozuki.jpg'&gt;&lt;/td&gt;&lt;td&gt;Hozuki&lt;/td&gt;&lt;td&gt;皓月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Hozuki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Hozuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Hozuki_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Hozuki_rank' value='4'&gt;4 &lt;input type='radio' name='Hozuki_rank' value='5'&gt;5 &lt;input type='checkbox' name='Hozuki_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3048,7 +3160,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Ilulu</v>
       </c>
       <c r="C44" t="s">
@@ -3079,7 +3191,7 @@
         <v>143</v>
       </c>
       <c r="P44" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Ilulu' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Ilulu.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ilulu&lt;/td&gt;&lt;td&gt;伊露露&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ilulu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ilulu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ilulu_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Ilulu_rank' value='4'&gt;4 &lt;input type='radio' name='Ilulu_rank' value='5'&gt;5 &lt;input type='checkbox' name='Ilulu_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3088,7 +3200,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Isuka</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -3119,7 +3231,7 @@
         <v>143</v>
       </c>
       <c r="P45" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Isuka' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Isuka.jpg'&gt;&lt;img src='img/Isuka_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Isuka&lt;/td&gt;&lt;td&gt;伊絲卡 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Isuka_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Isuka_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Isuka_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Isuka_rank' value='4'&gt;4 &lt;input type='radio' name='Isuka_rank' value='5'&gt;5 &lt;input type='checkbox' name='Isuka_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3128,7 +3240,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Jade</v>
       </c>
       <c r="C46" t="s">
@@ -3159,7 +3271,7 @@
         <v>147</v>
       </c>
       <c r="P46" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Jade' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Jade.jpg'&gt;&lt;/td&gt;&lt;td&gt;Jade&lt;/td&gt;&lt;td&gt;賈德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Jade_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Jade_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Jade_rank' value='3'&gt;3 &lt;input type='radio' name='Jade_rank' value='4'&gt;4 &lt;input type='radio' name='Jade_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Jade_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3168,7 +3280,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Joker</v>
       </c>
       <c r="C47" t="s">
@@ -3202,7 +3314,7 @@
         <v>134</v>
       </c>
       <c r="P47" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Joker' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Joker.jpg'&gt;&lt;/td&gt;&lt;td&gt;Joker&lt;/td&gt;&lt;td&gt;JOKER&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Joker_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Joker_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Joker_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Joker_rank' value='4'&gt;4 &lt;input type='radio' name='Joker_rank' value='5'&gt;5 &lt;input type='checkbox' name='Joker_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3211,7 +3323,7 @@
         <v>274</v>
       </c>
       <c r="B48" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Kikyo</v>
       </c>
       <c r="C48" t="s">
@@ -3242,7 +3354,7 @@
         <v>143</v>
       </c>
       <c r="P48" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Kikyo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Kikyo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Kikyo&lt;/td&gt;&lt;td&gt;桔梗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Kikyo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Kikyo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Kikyo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Kikyo_rank' value='4'&gt;4 &lt;input type='radio' name='Kikyo_rank' value='5'&gt;5 &lt;input type='checkbox' name='Kikyo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3251,7 +3363,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Kilqia</v>
       </c>
       <c r="C49" t="s">
@@ -3279,7 +3391,7 @@
         <v>130</v>
       </c>
       <c r="P49" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Kilqia' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Kilqia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Kilqia&lt;/td&gt;&lt;td&gt;基露琪亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Kilqia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Kilqia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Kilqia_rank' value='3'&gt;3 &lt;input type='radio' name='Kilqia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Kilqia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Kilqia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3288,7 +3400,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Komachi</v>
       </c>
       <c r="C50" t="s">
@@ -3319,7 +3431,7 @@
         <v>156</v>
       </c>
       <c r="P50" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Komachi' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Komachi.jpg'&gt;&lt;/td&gt;&lt;td&gt;Komachi&lt;/td&gt;&lt;td&gt;小町&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Komachi_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Komachi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Komachi_rank' value='3'&gt;3 &lt;input type='radio' name='Komachi_rank' value='4'&gt;4 &lt;input type='radio' name='Komachi_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Komachi_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3328,7 +3440,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Koot</v>
       </c>
       <c r="C51" t="s">
@@ -3359,7 +3471,7 @@
         <v>131</v>
       </c>
       <c r="P51" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Koot' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Koot.jpg'&gt;&lt;/td&gt;&lt;td&gt;Koot&lt;/td&gt;&lt;td&gt;庫托&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Koot_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Koot_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Koot_rank' value='3'&gt;3 &lt;input type='radio' name='Koot_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Koot_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Koot_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3368,7 +3480,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Krervo</v>
       </c>
       <c r="C52" t="s">
@@ -3396,7 +3508,7 @@
         <v>130</v>
       </c>
       <c r="P52" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Krervo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Krervo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Krervo&lt;/td&gt;&lt;td&gt;克利霍&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Krervo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Krervo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Krervo_rank' value='3'&gt;3 &lt;input type='radio' name='Krervo_rank' value='4'&gt;4 &lt;input type='radio' name='Krervo_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Krervo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3405,7 +3517,7 @@
         <v>54</v>
       </c>
       <c r="B53" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Laclair</v>
       </c>
       <c r="C53" t="s">
@@ -3439,7 +3551,7 @@
         <v>139</v>
       </c>
       <c r="P53" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Laclair' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Laclair.jpg'&gt;&lt;img src='img/Laclair_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Laclair&lt;/td&gt;&lt;td&gt;拉克萊兒&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Laclair_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Laclair_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Laclair_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Laclair_rank' value='4'&gt;4 &lt;input type='radio' name='Laclair_rank' value='5'&gt;5 &lt;input type='checkbox' name='Laclair_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3448,7 +3560,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Lele</v>
       </c>
       <c r="C54" t="s">
@@ -3476,7 +3588,7 @@
         <v>149</v>
       </c>
       <c r="P54" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Lele' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Lele.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lele&lt;/td&gt;&lt;td&gt;蕾蕾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lele_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lele_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lele_rank' value='3'&gt;3 &lt;input type='radio' name='Lele_rank' value='4'&gt;4 &lt;input type='radio' name='Lele_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Lele_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3485,7 +3597,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Levia</v>
       </c>
       <c r="C55" t="s">
@@ -3513,7 +3625,7 @@
         <v>149</v>
       </c>
       <c r="P55" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Levia' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Levia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Levia&lt;/td&gt;&lt;td&gt;莉維雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Levia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Levia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Levia_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Levia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Levia_rank' value='5'&gt;5 &lt;input type='checkbox' name='Levia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3522,7 +3634,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Lingli</v>
       </c>
       <c r="C56" t="s">
@@ -3553,7 +3665,7 @@
         <v>148</v>
       </c>
       <c r="P56" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Lingli' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Lingli.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lingli&lt;/td&gt;&lt;td&gt;林麗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lingli_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lingli_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lingli_rank' value='3'&gt;3 &lt;input type='radio' name='Lingli_rank' value='4'&gt;4 &lt;input type='radio' name='Lingli_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Lingli_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3562,7 +3674,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Lokido</v>
       </c>
       <c r="C57" t="s">
@@ -3593,7 +3705,7 @@
         <v>157</v>
       </c>
       <c r="P57" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Lokido' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Lokido.jpg'&gt;&lt;img src='img/Lokido_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lokido&lt;/td&gt;&lt;td&gt;洛基德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lokido_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lokido_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lokido_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Lokido_rank' value='4'&gt;4 &lt;input type='radio' name='Lokido_rank' value='5'&gt;5 &lt;input type='checkbox' name='Lokido_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3602,7 +3714,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Lovely</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -3630,7 +3742,7 @@
         <v>148</v>
       </c>
       <c r="P58" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Lovely' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Lovely.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lovely&lt;/td&gt;&lt;td&gt;拉布莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lovely_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lovely_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lovely_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Lovely_rank' value='4'&gt;4 &lt;input type='radio' name='Lovely_rank' value='5'&gt;5 &lt;input type='checkbox' name='Lovely_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3639,7 +3751,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Lovinia</v>
       </c>
       <c r="C59" t="s">
@@ -3670,7 +3782,7 @@
         <v>153</v>
       </c>
       <c r="P59" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Lovinia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Lovinia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lovinia&lt;/td&gt;&lt;td&gt;羅維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lovinia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lovinia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lovinia_rank' value='3'&gt;3 &lt;input type='radio' name='Lovinia_rank' value='4'&gt;4 &lt;input type='radio' name='Lovinia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Lovinia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3679,7 +3791,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Mana</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -3707,7 +3819,7 @@
         <v>142</v>
       </c>
       <c r="P60" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Mana' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Mana.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mana&lt;/td&gt;&lt;td&gt;瑪娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mana_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Mana_rank' value='5'&gt;5 &lt;input type='checkbox' name='Mana_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3716,7 +3828,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Mariel</v>
       </c>
       <c r="C61" t="s">
@@ -3744,7 +3856,7 @@
         <v>130</v>
       </c>
       <c r="P61" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Mariel' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Mariel.jpg'&gt;&lt;img src='img/Mariel_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mariel&lt;/td&gt;&lt;td&gt;瑪莉艾爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mariel_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mariel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mariel_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mariel_rank' value='4'&gt;4 &lt;input type='radio' name='Mariel_rank' value='5'&gt;5 &lt;input type='checkbox' name='Mariel_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3753,7 +3865,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>May</v>
       </c>
       <c r="C62" t="s">
@@ -3784,7 +3896,7 @@
         <v>157</v>
       </c>
       <c r="P62" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='May' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/May.jpg'&gt;&lt;/td&gt;&lt;td&gt;May&lt;/td&gt;&lt;td&gt;玫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='May_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='May_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='May_rank' value='3'&gt;3 &lt;input type='radio' name='May_rank' value='4'&gt;4 &lt;input type='radio' name='May_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='May_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3793,7 +3905,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Melina</v>
       </c>
       <c r="C63" t="s">
@@ -3827,7 +3939,7 @@
         <v>151</v>
       </c>
       <c r="P63" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Melina' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Melina.jpg'&gt;&lt;img src='img/Melina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Melina&lt;/td&gt;&lt;td&gt;玫莉娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Melina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Melina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Melina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Melina_rank' value='4'&gt;4 &lt;input type='radio' name='Melina_rank' value='5'&gt;5 &lt;input type='checkbox' name='Melina_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3836,7 +3948,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Menesia</v>
       </c>
       <c r="C64" t="s">
@@ -3867,7 +3979,7 @@
         <v>131</v>
       </c>
       <c r="P64" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Menesia' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Menesia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Menesia&lt;/td&gt;&lt;td&gt;梅尼西雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Menesia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Menesia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Menesia_rank' value='3'&gt;3 &lt;input type='radio' name='Menesia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Menesia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Menesia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3876,7 +3988,7 @@
         <v>66</v>
       </c>
       <c r="B65" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Mighty</v>
       </c>
       <c r="C65" t="s">
@@ -3904,7 +4016,7 @@
         <v>149</v>
       </c>
       <c r="P65" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Mighty' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Mighty.jpg'&gt;&lt;img src='img/Mighty_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mighty&lt;/td&gt;&lt;td&gt;麥提&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mighty_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mighty_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mighty_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mighty_rank' value='4'&gt;4 &lt;input type='radio' name='Mighty_rank' value='5'&gt;5 &lt;input type='checkbox' name='Mighty_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3913,7 +4025,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B66:B125" si="2">LEFT(A66,(FIND(".",A66,1)-1))</f>
         <v>Miranda</v>
       </c>
       <c r="C66" t="s">
@@ -3944,7 +4056,7 @@
         <v>134</v>
       </c>
       <c r="P66" s="1" t="str">
-        <f t="shared" ref="P66:P97" si="4">"&lt;tr id='"&amp;SUBSTITUTE(B66," ","")&amp;"' class='"&amp;D66&amp;IF(I66="N"," Dream", " Free")&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A66&amp;"'&gt;"&amp;IF(H66="Y","&lt;img src='img/"&amp;B66&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B66&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C66&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K66&amp;".png'&gt;"&amp;IF(L66="","","&lt;img src='img/type/"&amp;L66&amp;".png'&gt;")&amp;IF(M66="","","&lt;img src='img/type/"&amp;M66&amp;".png'&gt;")&amp;IF(N66="","","&lt;img src='img/type/"&amp;N66&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B66," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='3'"&amp;IF(E66="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='4'"&amp;IF(F66="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='5'"&amp;IF(G66="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='checkbox' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='AS'"&amp;IF(H66="Y",""," disabled=''")&amp;"&gt;AS&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" ref="P66:P125" si="3">"&lt;tr id='"&amp;SUBSTITUTE(B66," ","")&amp;"' class='"&amp;D66&amp;IF(I66="N"," Dream", " Free")&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A66&amp;"'&gt;"&amp;IF(H66="Y","&lt;img src='img/"&amp;B66&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B66&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C66&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K66&amp;".png'&gt;"&amp;IF(L66="","","&lt;img src='img/type/"&amp;L66&amp;".png'&gt;")&amp;IF(M66="","","&lt;img src='img/type/"&amp;M66&amp;".png'&gt;")&amp;IF(N66="","","&lt;img src='img/type/"&amp;N66&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B66," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='3'"&amp;IF(E66="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='4'"&amp;IF(F66="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='5'"&amp;IF(G66="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='checkbox' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='AS'"&amp;IF(H66="Y",""," disabled=''")&amp;"&gt;AS&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr id='Miranda' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Miranda.jpg'&gt;&lt;/td&gt;&lt;td&gt;Miranda&lt;/td&gt;&lt;td&gt;米蘭達&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miranda_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miranda_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miranda_rank' value='3'&gt;3 &lt;input type='radio' name='Miranda_rank' value='4'&gt;4 &lt;input type='radio' name='Miranda_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Miranda_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3984,7 +4096,7 @@
         <v>134</v>
       </c>
       <c r="P67" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr id='Miyu' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Miyu.jpg'&gt;&lt;/td&gt;&lt;td&gt;Miyu&lt;/td&gt;&lt;td&gt;米悠&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miyu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miyu_rank' value='3'&gt;3 &lt;input type='radio' name='Miyu_rank' value='4'&gt;4 &lt;input type='radio' name='Miyu_rank' value='5'&gt;5 &lt;input type='checkbox' name='Miyu_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -4024,7 +4136,7 @@
         <v>137</v>
       </c>
       <c r="P68" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr id='Morgana' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Morgana.jpg'&gt;&lt;/td&gt;&lt;td&gt;Morgana&lt;/td&gt;&lt;td&gt;摩爾加納&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Morgana_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Morgana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Morgana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Morgana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Morgana_rank' value='5'&gt;5 &lt;input type='checkbox' name='Morgana_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -4064,7 +4176,7 @@
         <v>155</v>
       </c>
       <c r="P69" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr id='Myron' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Myron.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myron&lt;/td&gt;&lt;td&gt;繆倫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myron_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myron_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myron_rank' value='3'&gt;3 &lt;input type='radio' name='Myron_rank' value='4'&gt;4 &lt;input type='radio' name='Myron_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Myron_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -4073,7 +4185,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="1" t="str">
-        <f t="shared" ref="B70:B124" si="5">SUBSTITUTE(LEFT(A70,(FIND(".",A70,1)-1)),"-"," ")</f>
+        <f t="shared" si="2"/>
         <v>Myrus</v>
       </c>
       <c r="C70" t="s">
@@ -4092,7 +4204,7 @@
         <v>127</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>128</v>
@@ -4101,23 +4213,23 @@
         <v>154</v>
       </c>
       <c r="P70" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr id='Myrus' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Myrus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myrus&lt;/td&gt;&lt;td&gt;繆露絲&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myrus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myrus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myrus_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Myrus_rank' value='4'&gt;4 &lt;input type='radio' name='Myrus_rank' value='5'&gt;5 &lt;input type='checkbox' name='Myrus_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>287</v>
       </c>
       <c r="B71" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Nagi</v>
+        <f t="shared" si="2"/>
+        <v>Myunfa</v>
       </c>
       <c r="C71" t="s">
-        <v>221</v>
+        <v>288</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>128</v>
@@ -4129,7 +4241,7 @@
         <v>127</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>128</v>
@@ -4140,36 +4252,39 @@
       <c r="L71" s="2" t="s">
         <v>155</v>
       </c>
+      <c r="M71" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="P71" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Nagi' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Nagi.jpg'&gt;&lt;img src='img/Nagi_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nagi&lt;/td&gt;&lt;td&gt;娜基&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nagi_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nagi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nagi_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Nagi_rank' value='4'&gt;4 &lt;input type='radio' name='Nagi_rank' value='5'&gt;5 &lt;input type='checkbox' name='Nagi_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Myunfa' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Myunfa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myunfa&lt;/td&gt;&lt;td&gt;霧華&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;img src='img/type/earth_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myunfa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myunfa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myunfa_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Myunfa_rank' value='4'&gt;4 &lt;input type='radio' name='Myunfa_rank' value='5'&gt;5 &lt;input type='checkbox' name='Myunfa_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Natore</v>
+        <f t="shared" si="2"/>
+        <v>Nagi</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>128</v>
@@ -4177,21 +4292,24 @@
       <c r="K72" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="L72" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="P72" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Natore' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Natore.jpg'&gt;&lt;/td&gt;&lt;td&gt;Natore&lt;/td&gt;&lt;td&gt;娜托雷&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Natore_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Natore_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Natore_rank' value='3'&gt;3 &lt;input type='radio' name='Natore_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Natore_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Natore_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Nagi' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Nagi.jpg'&gt;&lt;img src='img/Nagi_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nagi&lt;/td&gt;&lt;td&gt;娜基&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nagi_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nagi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nagi_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Nagi_rank' value='4'&gt;4 &lt;input type='radio' name='Nagi_rank' value='5'&gt;5 &lt;input type='checkbox' name='Nagi_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Naylia</v>
+        <f t="shared" si="2"/>
+        <v>Natore</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>1</v>
@@ -4215,29 +4333,29 @@
         <v>133</v>
       </c>
       <c r="P73" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Naylia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Naylia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Naylia&lt;/td&gt;&lt;td&gt;內莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Naylia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Naylia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Naylia_rank' value='3'&gt;3 &lt;input type='radio' name='Naylia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Naylia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Naylia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Natore' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Natore.jpg'&gt;&lt;/td&gt;&lt;td&gt;Natore&lt;/td&gt;&lt;td&gt;娜托雷&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Natore_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Natore_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Natore_rank' value='3'&gt;3 &lt;input type='radio' name='Natore_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Natore_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Natore_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Nero</v>
+        <f t="shared" si="2"/>
+        <v>Naylia</v>
       </c>
       <c r="C74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>128</v>
@@ -4249,23 +4367,23 @@
         <v>128</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="P74" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Nero' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Nero.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nero&lt;/td&gt;&lt;td&gt;尼洛&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nero_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nero_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nero_rank' value='3'&gt;3 &lt;input type='radio' name='Nero_rank' value='4'&gt;4 &lt;input type='radio' name='Nero_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nero_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Naylia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Naylia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Naylia&lt;/td&gt;&lt;td&gt;內莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Naylia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Naylia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Naylia_rank' value='3'&gt;3 &lt;input type='radio' name='Naylia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Naylia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Naylia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Nikeh</v>
+        <f t="shared" si="2"/>
+        <v>Nero</v>
       </c>
       <c r="C75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>145</v>
@@ -4280,69 +4398,69 @@
         <v>128</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>128</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="P75" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Nikeh' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Nikeh.jpg'&gt;&lt;img src='img/Nikeh_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nikeh&lt;/td&gt;&lt;td&gt;尼姬&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nikeh_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nikeh_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nikeh_rank' value='3'&gt;3 &lt;input type='radio' name='Nikeh_rank' value='4'&gt;4 &lt;input type='radio' name='Nikeh_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nikeh_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Nero' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Nero.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nero&lt;/td&gt;&lt;td&gt;尼洛&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nero_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nero_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nero_rank' value='3'&gt;3 &lt;input type='radio' name='Nero_rank' value='4'&gt;4 &lt;input type='radio' name='Nero_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nero_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Nixa</v>
+        <f t="shared" si="2"/>
+        <v>Nikeh</v>
       </c>
       <c r="C76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>128</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="P76" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Nixa' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Nixa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nixa&lt;/td&gt;&lt;td&gt;妮克薩&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nixa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nixa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nixa_rank' value='3'&gt;3 &lt;input type='radio' name='Nixa_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Nixa_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nixa_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Nikeh' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Nikeh.jpg'&gt;&lt;img src='img/Nikeh_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nikeh&lt;/td&gt;&lt;td&gt;尼姬&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nikeh_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nikeh_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nikeh_rank' value='3'&gt;3 &lt;input type='radio' name='Nikeh_rank' value='4'&gt;4 &lt;input type='radio' name='Nikeh_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nikeh_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Nomar</v>
+        <f t="shared" si="2"/>
+        <v>Nixa</v>
       </c>
       <c r="C77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>1</v>
@@ -4351,7 +4469,7 @@
         <v>127</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>128</v>
@@ -4365,24 +4483,21 @@
       <c r="K77" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="L77" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="P77" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Nomar' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Nomar.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nomar&lt;/td&gt;&lt;td&gt;諾馬爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nomar_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nomar_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nomar_rank' value='3'&gt;3 &lt;input type='radio' name='Nomar_rank' value='4'&gt;4 &lt;input type='radio' name='Nomar_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nomar_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Nixa' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Nixa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nixa&lt;/td&gt;&lt;td&gt;妮克薩&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nixa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nixa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nixa_rank' value='3'&gt;3 &lt;input type='radio' name='Nixa_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Nixa_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nixa_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Nonold</v>
+        <f t="shared" si="2"/>
+        <v>Nomar</v>
       </c>
       <c r="C78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>1</v>
@@ -4403,23 +4518,26 @@
         <v>128</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="P78" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Nonold' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Nonold.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nonold&lt;/td&gt;&lt;td&gt;諾諾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nonold_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nonold_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nonold_rank' value='3'&gt;3 &lt;input type='radio' name='Nonold_rank' value='4'&gt;4 &lt;input type='radio' name='Nonold_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nonold_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Nomar' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Nomar.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nomar&lt;/td&gt;&lt;td&gt;諾馬爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nomar_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nomar_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nomar_rank' value='3'&gt;3 &lt;input type='radio' name='Nomar_rank' value='4'&gt;4 &lt;input type='radio' name='Nomar_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nomar_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Noome</v>
+        <f t="shared" si="2"/>
+        <v>Nonold</v>
       </c>
       <c r="C79" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>1</v>
@@ -4428,7 +4546,7 @@
         <v>127</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>128</v>
@@ -4443,20 +4561,20 @@
         <v>130</v>
       </c>
       <c r="P79" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Noome' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Noome.jpg'&gt;&lt;/td&gt;&lt;td&gt;Noome&lt;/td&gt;&lt;td&gt;諾暮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Noome_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Noome_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Noome_rank' value='3'&gt;3 &lt;input type='radio' name='Noome_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Noome_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Noome_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Nonold' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Nonold.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nonold&lt;/td&gt;&lt;td&gt;諾諾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nonold_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nonold_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nonold_rank' value='3'&gt;3 &lt;input type='radio' name='Nonold_rank' value='4'&gt;4 &lt;input type='radio' name='Nonold_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nonold_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Nopaew</v>
+        <f t="shared" si="2"/>
+        <v>Noome</v>
       </c>
       <c r="C80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>1</v>
@@ -4465,7 +4583,7 @@
         <v>127</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>128</v>
@@ -4474,26 +4592,26 @@
         <v>128</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="P80" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Nopaew' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Nopaew.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nopaew&lt;/td&gt;&lt;td&gt;波波羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nopaew_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nopaew_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nopaew_rank' value='3'&gt;3 &lt;input type='radio' name='Nopaew_rank' value='4'&gt;4 &lt;input type='radio' name='Nopaew_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nopaew_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Noome' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Noome.jpg'&gt;&lt;/td&gt;&lt;td&gt;Noome&lt;/td&gt;&lt;td&gt;諾暮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Noome_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Noome_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Noome_rank' value='3'&gt;3 &lt;input type='radio' name='Noome_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Noome_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Noome_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Oor</v>
+        <f t="shared" si="2"/>
+        <v>Nopaew</v>
       </c>
       <c r="C81" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>1</v>
@@ -4502,7 +4620,7 @@
         <v>127</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>128</v>
@@ -4511,26 +4629,26 @@
         <v>128</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="P81" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Oor' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Oor.jpg'&gt;&lt;/td&gt;&lt;td&gt;Oor&lt;/td&gt;&lt;td&gt;歐爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Oor_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Oor_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Oor_rank' value='3'&gt;3 &lt;input type='radio' name='Oor_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Oor_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Oor_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Nopaew' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Nopaew.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nopaew&lt;/td&gt;&lt;td&gt;波波羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nopaew_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nopaew_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nopaew_rank' value='3'&gt;3 &lt;input type='radio' name='Nopaew_rank' value='4'&gt;4 &lt;input type='radio' name='Nopaew_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nopaew_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Otoha</v>
+        <f t="shared" si="2"/>
+        <v>Oor</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>1</v>
@@ -4539,7 +4657,7 @@
         <v>127</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>128</v>
@@ -4553,27 +4671,24 @@
       <c r="K82" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L82" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="P82" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Otoha' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Otoha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Otoha&lt;/td&gt;&lt;td&gt;乙葉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Otoha_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Otoha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Otoha_rank' value='3'&gt;3 &lt;input type='radio' name='Otoha_rank' value='4'&gt;4 &lt;input type='radio' name='Otoha_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Otoha_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Oor' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Oor.jpg'&gt;&lt;/td&gt;&lt;td&gt;Oor&lt;/td&gt;&lt;td&gt;歐爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Oor_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Oor_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Oor_rank' value='3'&gt;3 &lt;input type='radio' name='Oor_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Oor_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Oor_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Parisa</v>
+        <f t="shared" si="2"/>
+        <v>Otoha</v>
       </c>
       <c r="C83" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>127</v>
@@ -4591,35 +4706,35 @@
         <v>128</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="P83" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Parisa' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Parisa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Parisa&lt;/td&gt;&lt;td&gt;帕莉莎&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Parisa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Parisa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Parisa_rank' value='3'&gt;3 &lt;input type='radio' name='Parisa_rank' value='4'&gt;4 &lt;input type='radio' name='Parisa_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Parisa_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Otoha' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Otoha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Otoha&lt;/td&gt;&lt;td&gt;乙葉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Otoha_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Otoha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Otoha_rank' value='3'&gt;3 &lt;input type='radio' name='Otoha_rank' value='4'&gt;4 &lt;input type='radio' name='Otoha_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Otoha_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Pasia</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>234</v>
+        <f t="shared" si="2"/>
+        <v>Parisa</v>
+      </c>
+      <c r="C84" t="s">
+        <v>233</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>128</v>
@@ -4631,35 +4746,38 @@
         <v>128</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="P84" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Pasia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Pasia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pasia&lt;/td&gt;&lt;td&gt;帕希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pasia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pasia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pasia_rank' value='3'&gt;3 &lt;input type='radio' name='Pasia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Pasia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Pasia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Parisa' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Parisa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Parisa&lt;/td&gt;&lt;td&gt;帕莉莎&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Parisa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Parisa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Parisa_rank' value='3'&gt;3 &lt;input type='radio' name='Parisa_rank' value='4'&gt;4 &lt;input type='radio' name='Parisa_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Parisa_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Philo</v>
-      </c>
-      <c r="C85" t="s">
-        <v>235</v>
+        <f t="shared" si="2"/>
+        <v>Pasia</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>128</v>
@@ -4668,38 +4786,35 @@
         <v>128</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="P85" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Philo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Philo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Philo&lt;/td&gt;&lt;td&gt;菲羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Philo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Philo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Philo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Philo_rank' value='4'&gt;4 &lt;input type='radio' name='Philo_rank' value='5'&gt;5 &lt;input type='checkbox' name='Philo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Pasia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Pasia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pasia&lt;/td&gt;&lt;td&gt;帕希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pasia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pasia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pasia_rank' value='3'&gt;3 &lt;input type='radio' name='Pasia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Pasia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Pasia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Pom</v>
+        <f t="shared" si="2"/>
+        <v>Philo</v>
       </c>
       <c r="C86" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>128</v>
@@ -4708,26 +4823,29 @@
         <v>128</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="P86" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Pom' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Pom.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pom&lt;/td&gt;&lt;td&gt;波姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pom_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pom_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pom_rank' value='3'&gt;3 &lt;input type='radio' name='Pom_rank' value='4'&gt;4 &lt;input type='radio' name='Pom_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Pom_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Philo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Philo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Philo&lt;/td&gt;&lt;td&gt;菲羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Philo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Philo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Philo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Philo_rank' value='4'&gt;4 &lt;input type='radio' name='Philo_rank' value='5'&gt;5 &lt;input type='checkbox' name='Philo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Prai</v>
+        <f t="shared" si="2"/>
+        <v>Pom</v>
       </c>
       <c r="C87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>127</v>
@@ -4745,35 +4863,35 @@
         <v>128</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P87" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Prai' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Prai.jpg'&gt;&lt;/td&gt;&lt;td&gt;Prai&lt;/td&gt;&lt;td&gt;普萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Prai_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Prai_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Prai_rank' value='3'&gt;3 &lt;input type='radio' name='Prai_rank' value='4'&gt;4 &lt;input type='radio' name='Prai_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Prai_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Pom' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Pom.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pom&lt;/td&gt;&lt;td&gt;波姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pom_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pom_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pom_rank' value='3'&gt;3 &lt;input type='radio' name='Pom_rank' value='4'&gt;4 &lt;input type='radio' name='Pom_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Pom_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Premaya</v>
+        <f t="shared" si="2"/>
+        <v>Prai</v>
       </c>
       <c r="C88" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>128</v>
@@ -4782,29 +4900,26 @@
         <v>128</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="P88" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Premaya' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Premaya.jpg'&gt;&lt;/td&gt;&lt;td&gt;Premaya&lt;/td&gt;&lt;td&gt;普蕾米婭&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Premaya_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Premaya_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Premaya_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Premaya_rank' value='4'&gt;4 &lt;input type='radio' name='Premaya_rank' value='5'&gt;5 &lt;input type='checkbox' name='Premaya_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Prai' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Prai.jpg'&gt;&lt;/td&gt;&lt;td&gt;Prai&lt;/td&gt;&lt;td&gt;普萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Prai_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Prai_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Prai_rank' value='3'&gt;3 &lt;input type='radio' name='Prai_rank' value='4'&gt;4 &lt;input type='radio' name='Prai_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Prai_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Radica</v>
+        <f t="shared" si="2"/>
+        <v>Premaya</v>
       </c>
       <c r="C89" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>128</v>
@@ -4822,41 +4937,38 @@
         <v>128</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P89" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Radica' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Radica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Radica&lt;/td&gt;&lt;td&gt;拉蒂卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Radica_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Radica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Radica_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Radica_rank' value='4'&gt;4 &lt;input type='radio' name='Radica_rank' value='5'&gt;5 &lt;input type='checkbox' name='Radica_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Premaya' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Premaya.jpg'&gt;&lt;/td&gt;&lt;td&gt;Premaya&lt;/td&gt;&lt;td&gt;普蕾米婭&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Premaya_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Premaya_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Premaya_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Premaya_rank' value='4'&gt;4 &lt;input type='radio' name='Premaya_rank' value='5'&gt;5 &lt;input type='checkbox' name='Premaya_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Raven</v>
+        <f t="shared" si="2"/>
+        <v>Radica</v>
       </c>
       <c r="C90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>128</v>
@@ -4868,69 +4980,72 @@
         <v>130</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="P90" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Raven' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Raven.jpg'&gt;&lt;/td&gt;&lt;td&gt;Raven&lt;/td&gt;&lt;td&gt;雷文&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Raven_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Raven_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Raven_rank' value='3'&gt;3 &lt;input type='radio' name='Raven_rank' value='4'&gt;4 &lt;input type='radio' name='Raven_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Raven_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Radica' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Radica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Radica&lt;/td&gt;&lt;td&gt;拉蒂卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Radica_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Radica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Radica_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Radica_rank' value='4'&gt;4 &lt;input type='radio' name='Radica_rank' value='5'&gt;5 &lt;input type='checkbox' name='Radica_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Renri</v>
+        <f t="shared" si="2"/>
+        <v>Raven</v>
       </c>
       <c r="C91" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>128</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="P91" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Renri' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Renri.jpg'&gt;&lt;/td&gt;&lt;td&gt;Renri&lt;/td&gt;&lt;td&gt;雷莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Renri_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Renri_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Renri_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Renri_rank' value='4'&gt;4 &lt;input type='radio' name='Renri_rank' value='5'&gt;5 &lt;input type='checkbox' name='Renri_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Raven' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Raven.jpg'&gt;&lt;/td&gt;&lt;td&gt;Raven&lt;/td&gt;&lt;td&gt;雷文&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Raven_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Raven_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Raven_rank' value='3'&gt;3 &lt;input type='radio' name='Raven_rank' value='4'&gt;4 &lt;input type='radio' name='Raven_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Raven_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Riica</v>
+        <f t="shared" si="2"/>
+        <v>Renri</v>
       </c>
       <c r="C92" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>127</v>
@@ -4939,35 +5054,32 @@
         <v>127</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="P92" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Riica' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Riica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Riica&lt;/td&gt;&lt;td&gt;莉卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Riica_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Riica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Riica_rank' value='3'&gt;3 &lt;input type='radio' name='Riica_rank' value='4'&gt;4 &lt;input type='radio' name='Riica_rank' value='5'&gt;5 &lt;input type='checkbox' name='Riica_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Renri' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Renri.jpg'&gt;&lt;/td&gt;&lt;td&gt;Renri&lt;/td&gt;&lt;td&gt;雷莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Renri_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Renri_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Renri_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Renri_rank' value='4'&gt;4 &lt;input type='radio' name='Renri_rank' value='5'&gt;5 &lt;input type='checkbox' name='Renri_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Rodeia</v>
+        <f t="shared" si="2"/>
+        <v>Riica</v>
       </c>
       <c r="C93" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>1</v>
@@ -4976,47 +5088,53 @@
         <v>127</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>128</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="P93" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Rodeia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Rodeia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rodeia&lt;/td&gt;&lt;td&gt;羅蒂亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rodeia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rodeia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rodeia_rank' value='3'&gt;3 &lt;input type='radio' name='Rodeia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Rodeia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Rodeia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Riica' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Riica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Riica&lt;/td&gt;&lt;td&gt;莉卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Riica_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Riica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Riica_rank' value='3'&gt;3 &lt;input type='radio' name='Riica_rank' value='4'&gt;4 &lt;input type='radio' name='Riica_rank' value='5'&gt;5 &lt;input type='checkbox' name='Riica_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Rosetta</v>
+        <f t="shared" si="2"/>
+        <v>Rodeia</v>
       </c>
       <c r="C94" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>128</v>
@@ -5025,38 +5143,35 @@
         <v>128</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="P94" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Rosetta' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Rosetta.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rosetta&lt;/td&gt;&lt;td&gt;蘿潔塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rosetta_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rosetta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rosetta_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Rosetta_rank' value='4'&gt;4 &lt;input type='radio' name='Rosetta_rank' value='5'&gt;5 &lt;input type='checkbox' name='Rosetta_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Rodeia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Rodeia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rodeia&lt;/td&gt;&lt;td&gt;羅蒂亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rodeia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rodeia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rodeia_rank' value='3'&gt;3 &lt;input type='radio' name='Rodeia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Rodeia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Rodeia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Rovella</v>
+        <f t="shared" si="2"/>
+        <v>Rosetta</v>
       </c>
       <c r="C95" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>128</v>
@@ -5065,29 +5180,29 @@
         <v>128</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P95" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Rovella' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Rovella.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rovella&lt;/td&gt;&lt;td&gt;羅貝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rovella_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rovella_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rovella_rank' value='3'&gt;3 &lt;input type='radio' name='Rovella_rank' value='4'&gt;4 &lt;input type='radio' name='Rovella_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Rovella_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Rosetta' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Rosetta.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rosetta&lt;/td&gt;&lt;td&gt;蘿潔塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rosetta_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rosetta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rosetta_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Rosetta_rank' value='4'&gt;4 &lt;input type='radio' name='Rosetta_rank' value='5'&gt;5 &lt;input type='checkbox' name='Rosetta_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Rufus</v>
+        <f t="shared" si="2"/>
+        <v>Rovella</v>
       </c>
       <c r="C96" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>127</v>
@@ -5105,29 +5220,29 @@
         <v>128</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P96" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Rufus' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Rufus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rufus&lt;/td&gt;&lt;td&gt;洛福斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rufus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rufus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rufus_rank' value='3'&gt;3 &lt;input type='radio' name='Rufus_rank' value='4'&gt;4 &lt;input type='radio' name='Rufus_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Rufus_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Rovella' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Rovella.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rovella&lt;/td&gt;&lt;td&gt;羅貝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rovella_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rovella_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rovella_rank' value='3'&gt;3 &lt;input type='radio' name='Rovella_rank' value='4'&gt;4 &lt;input type='radio' name='Rovella_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Rovella_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Ruina</v>
+        <f t="shared" si="2"/>
+        <v>Rufus</v>
       </c>
       <c r="C97" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>127</v>
@@ -5139,69 +5254,72 @@
         <v>128</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>128</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P97" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr id='Ruina' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Ruina.jpg'&gt;&lt;img src='img/Ruina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ruina&lt;/td&gt;&lt;td&gt;路伊娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ruina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ruina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ruina_rank' value='3'&gt;3 &lt;input type='radio' name='Ruina_rank' value='4'&gt;4 &lt;input type='radio' name='Ruina_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Ruina_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Rufus' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Rufus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rufus&lt;/td&gt;&lt;td&gt;洛福斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rufus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rufus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rufus_rank' value='3'&gt;3 &lt;input type='radio' name='Rufus_rank' value='4'&gt;4 &lt;input type='radio' name='Rufus_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Rufus_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Saithe</v>
+        <f t="shared" si="2"/>
+        <v>Ruina</v>
       </c>
       <c r="C98" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>128</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="P98" s="1" t="str">
-        <f t="shared" ref="P98:P124" si="6">"&lt;tr id='"&amp;SUBSTITUTE(B98," ","")&amp;"' class='"&amp;D98&amp;IF(I98="N"," Dream", " Free")&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A98&amp;"'&gt;"&amp;IF(H98="Y","&lt;img src='img/"&amp;B98&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B98&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C98&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K98&amp;".png'&gt;"&amp;IF(L98="","","&lt;img src='img/type/"&amp;L98&amp;".png'&gt;")&amp;IF(M98="","","&lt;img src='img/type/"&amp;M98&amp;".png'&gt;")&amp;IF(N98="","","&lt;img src='img/type/"&amp;N98&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B98," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B98," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B98," ","")&amp;"_rank' value='3'"&amp;IF(E98="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B98," ","")&amp;"_rank' value='4'"&amp;IF(F98="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B98," ","")&amp;"_rank' value='5'"&amp;IF(G98="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='checkbox' name='"&amp;SUBSTITUTE(B98," ","")&amp;"_rank' value='AS'"&amp;IF(H98="Y",""," disabled=''")&amp;"&gt;AS&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr id='Saithe' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Saithe.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saithe&lt;/td&gt;&lt;td&gt;賽斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saithe_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saithe_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saithe_rank' value='3'&gt;3 &lt;input type='radio' name='Saithe_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Saithe_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Saithe_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Ruina' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Ruina.jpg'&gt;&lt;img src='img/Ruina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ruina&lt;/td&gt;&lt;td&gt;路伊娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ruina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ruina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ruina_rank' value='3'&gt;3 &lt;input type='radio' name='Ruina_rank' value='4'&gt;4 &lt;input type='radio' name='Ruina_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Ruina_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Saki</v>
+        <f t="shared" si="2"/>
+        <v>Saithe</v>
       </c>
       <c r="C99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>1</v>
@@ -5210,35 +5328,35 @@
         <v>127</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="P99" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Saki' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Saki.jpg'&gt;&lt;img src='img/Saki_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saki&lt;/td&gt;&lt;td&gt;紗希&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saki_rank' value='3'&gt;3 &lt;input type='radio' name='Saki_rank' value='4'&gt;4 &lt;input type='radio' name='Saki_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Saki_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Saithe' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Saithe.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saithe&lt;/td&gt;&lt;td&gt;賽斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saithe_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saithe_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saithe_rank' value='3'&gt;3 &lt;input type='radio' name='Saithe_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Saithe_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Saithe_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Samora</v>
+        <f t="shared" si="2"/>
+        <v>Saki</v>
       </c>
       <c r="C100" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>1</v>
@@ -5253,32 +5371,29 @@
         <v>128</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P100" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Samora' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Samora.jpg'&gt;&lt;/td&gt;&lt;td&gt;Samora&lt;/td&gt;&lt;td&gt;薩摩拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Samora_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Samora_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Samora_rank' value='3'&gt;3 &lt;input type='radio' name='Samora_rank' value='4'&gt;4 &lt;input type='radio' name='Samora_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Samora_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Saki' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Saki.jpg'&gt;&lt;img src='img/Saki_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saki&lt;/td&gt;&lt;td&gt;紗希&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saki_rank' value='3'&gt;3 &lt;input type='radio' name='Saki_rank' value='4'&gt;4 &lt;input type='radio' name='Saki_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Saki_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Sauria</v>
+        <f t="shared" si="2"/>
+        <v>Samora</v>
       </c>
       <c r="C101" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
@@ -5287,7 +5402,7 @@
         <v>127</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>128</v>
@@ -5299,23 +5414,26 @@
         <v>128</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="P101" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Sauria' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Sauria.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sauria&lt;/td&gt;&lt;td&gt;秀莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sauria_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sauria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sauria_rank' value='3'&gt;3 &lt;input type='radio' name='Sauria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Sauria_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Sauria_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Samora' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Samora.jpg'&gt;&lt;/td&gt;&lt;td&gt;Samora&lt;/td&gt;&lt;td&gt;薩摩拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Samora_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Samora_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Samora_rank' value='3'&gt;3 &lt;input type='radio' name='Samora_rank' value='4'&gt;4 &lt;input type='radio' name='Samora_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Samora_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Sevyn</v>
+        <f t="shared" si="2"/>
+        <v>Sauria</v>
       </c>
       <c r="C102" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>1</v>
@@ -5324,7 +5442,7 @@
         <v>127</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>128</v>
@@ -5336,66 +5454,63 @@
         <v>128</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P102" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Sevyn' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Sevyn.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sevyn&lt;/td&gt;&lt;td&gt;賽溫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sevyn_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sevyn_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sevyn_rank' value='3'&gt;3 &lt;input type='radio' name='Sevyn_rank' value='4'&gt;4 &lt;input type='radio' name='Sevyn_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Sevyn_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Sauria' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Sauria.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sauria&lt;/td&gt;&lt;td&gt;秀莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sauria_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sauria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sauria_rank' value='3'&gt;3 &lt;input type='radio' name='Sauria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Sauria_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Sauria_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Shanie</v>
+        <f t="shared" si="2"/>
+        <v>Sevyn</v>
       </c>
       <c r="C103" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>128</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P103" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Shanie' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Shanie.jpg'&gt;&lt;img src='img/Shanie_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shanie&lt;/td&gt;&lt;td&gt;謝奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shanie_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shanie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shanie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shanie_rank' value='4'&gt;4 &lt;input type='radio' name='Shanie_rank' value='5'&gt;5 &lt;input type='checkbox' name='Shanie_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Sevyn' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Sevyn.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sevyn&lt;/td&gt;&lt;td&gt;賽溫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sevyn_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sevyn_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sevyn_rank' value='3'&gt;3 &lt;input type='radio' name='Sevyn_rank' value='4'&gt;4 &lt;input type='radio' name='Sevyn_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Sevyn_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Shannon</v>
+        <f t="shared" si="2"/>
+        <v>Shanie</v>
       </c>
       <c r="C104" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>1</v>
@@ -5410,7 +5525,7 @@
         <v>127</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>128</v>
@@ -5419,81 +5534,81 @@
         <v>133</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P104" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Shannon' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Shannon.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shannon&lt;/td&gt;&lt;td&gt;夏濃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shannon_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shannon_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shannon_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shannon_rank' value='4'&gt;4 &lt;input type='radio' name='Shannon_rank' value='5'&gt;5 &lt;input type='checkbox' name='Shannon_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Shanie' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Shanie.jpg'&gt;&lt;img src='img/Shanie_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shanie&lt;/td&gt;&lt;td&gt;謝奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shanie_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shanie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shanie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shanie_rank' value='4'&gt;4 &lt;input type='radio' name='Shanie_rank' value='5'&gt;5 &lt;input type='checkbox' name='Shanie_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Sheila</v>
+        <f t="shared" si="2"/>
+        <v>Shannon</v>
       </c>
       <c r="C105" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="P105" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Sheila' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Sheila.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sheila&lt;/td&gt;&lt;td&gt;謝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sheila_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sheila_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sheila_rank' value='3'&gt;3 &lt;input type='radio' name='Sheila_rank' value='4'&gt;4 &lt;input type='radio' name='Sheila_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Sheila_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Shannon' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Shannon.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shannon&lt;/td&gt;&lt;td&gt;夏濃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shannon_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shannon_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shannon_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shannon_rank' value='4'&gt;4 &lt;input type='radio' name='Shannon_rank' value='5'&gt;5 &lt;input type='checkbox' name='Shannon_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Shigure</v>
+        <f t="shared" si="2"/>
+        <v>Sheila</v>
       </c>
       <c r="C106" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>128</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>142</v>
@@ -5502,20 +5617,20 @@
         <v>150</v>
       </c>
       <c r="P106" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Shigure' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Shigure.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shigure&lt;/td&gt;&lt;td&gt;時雨&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shigure_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shigure_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shigure_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shigure_rank' value='4'&gt;4 &lt;input type='radio' name='Shigure_rank' value='5'&gt;5 &lt;input type='checkbox' name='Shigure_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Sheila' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Sheila.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sheila&lt;/td&gt;&lt;td&gt;謝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sheila_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sheila_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sheila_rank' value='3'&gt;3 &lt;input type='radio' name='Sheila_rank' value='4'&gt;4 &lt;input type='radio' name='Sheila_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Sheila_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Shion</v>
+        <f t="shared" si="2"/>
+        <v>Shigure</v>
       </c>
       <c r="C107" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>1</v>
@@ -5530,118 +5645,112 @@
         <v>127</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>128</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="P107" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Shion' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Shion.jpg'&gt;&lt;img src='img/Shion_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shion&lt;/td&gt;&lt;td&gt;紫央&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shion_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shion_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shion_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shion_rank' value='4'&gt;4 &lt;input type='radio' name='Shion_rank' value='5'&gt;5 &lt;input type='checkbox' name='Shion_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Shigure' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Shigure.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shigure&lt;/td&gt;&lt;td&gt;時雨&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shigure_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shigure_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shigure_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shigure_rank' value='4'&gt;4 &lt;input type='radio' name='Shigure_rank' value='5'&gt;5 &lt;input type='checkbox' name='Shigure_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Soira</v>
+        <f t="shared" si="2"/>
+        <v>Shion</v>
       </c>
       <c r="C108" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>128</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="P108" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Soira' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Soira.jpg'&gt;&lt;/td&gt;&lt;td&gt;Soira&lt;/td&gt;&lt;td&gt;蘇依萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Soira_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Soira_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Soira_rank' value='3'&gt;3 &lt;input type='radio' name='Soira_rank' value='4'&gt;4 &lt;input type='radio' name='Soira_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Soira_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Shion' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Shion.jpg'&gt;&lt;img src='img/Shion_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shion&lt;/td&gt;&lt;td&gt;紫央&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shion_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shion_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shion_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shion_rank' value='4'&gt;4 &lt;input type='radio' name='Shion_rank' value='5'&gt;5 &lt;input type='checkbox' name='Shion_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>279</v>
+        <v>109</v>
       </c>
       <c r="B109" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Strawboy</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>280</v>
+        <f t="shared" si="2"/>
+        <v>Soira</v>
+      </c>
+      <c r="C109" t="s">
+        <v>258</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>128</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>281</v>
+        <v>142</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="M109" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="N109" s="2" t="s">
-        <v>284</v>
+        <v>153</v>
       </c>
       <c r="P109" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Strawboy' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Strawboy.jpg'&gt;&lt;/td&gt;&lt;td&gt;Strawboy&lt;/td&gt;&lt;td&gt;草人小子 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/all_null.png'&gt;&lt;img src='img/type/all_slash.png'&gt;&lt;img src='img/type/all_pierce.png'&gt;&lt;img src='img/type/all_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Strawboy_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Strawboy_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Strawboy_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Strawboy_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Strawboy_rank' value='5'&gt;5 &lt;input type='checkbox' name='Strawboy_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Soira' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Soira.jpg'&gt;&lt;/td&gt;&lt;td&gt;Soira&lt;/td&gt;&lt;td&gt;蘇依萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Soira_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Soira_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Soira_rank' value='3'&gt;3 &lt;input type='radio' name='Soira_rank' value='4'&gt;4 &lt;input type='radio' name='Soira_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Soira_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>110</v>
+        <v>279</v>
       </c>
       <c r="B110" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Suzette</v>
-      </c>
-      <c r="C110" t="s">
-        <v>259</v>
+        <f t="shared" si="2"/>
+        <v>Strawboy</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>1</v>
@@ -5650,78 +5759,87 @@
         <v>128</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>127</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>142</v>
+        <v>281</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>153</v>
+        <v>282</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="P110" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Suzette' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Suzette.jpg'&gt;&lt;img src='img/Suzette_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Suzette&lt;/td&gt;&lt;td&gt;蘇賽特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Suzette_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Suzette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Suzette_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Suzette_rank' value='4'&gt;4 &lt;input type='radio' name='Suzette_rank' value='5'&gt;5 &lt;input type='checkbox' name='Suzette_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Strawboy' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Strawboy.jpg'&gt;&lt;/td&gt;&lt;td&gt;Strawboy&lt;/td&gt;&lt;td&gt;草人小子 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/all_null.png'&gt;&lt;img src='img/type/all_slash.png'&gt;&lt;img src='img/type/all_pierce.png'&gt;&lt;img src='img/type/all_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Strawboy_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Strawboy_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Strawboy_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Strawboy_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Strawboy_rank' value='5'&gt;5 &lt;input type='checkbox' name='Strawboy_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Tayme</v>
+        <f t="shared" si="2"/>
+        <v>Suzette</v>
       </c>
       <c r="C111" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>128</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="P111" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Tayme' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Tayme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tayme&lt;/td&gt;&lt;td&gt;提姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tayme_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tayme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tayme_rank' value='3'&gt;3 &lt;input type='radio' name='Tayme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tayme_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Tayme_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Suzette' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Suzette.jpg'&gt;&lt;img src='img/Suzette_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Suzette&lt;/td&gt;&lt;td&gt;蘇賽特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Suzette_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Suzette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Suzette_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Suzette_rank' value='4'&gt;4 &lt;input type='radio' name='Suzette_rank' value='5'&gt;5 &lt;input type='checkbox' name='Suzette_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Tohme</v>
+        <f t="shared" si="2"/>
+        <v>Tayme</v>
       </c>
       <c r="C112" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>127</v>
@@ -5739,29 +5857,26 @@
         <v>128</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L112" s="2" t="s">
         <v>131</v>
       </c>
       <c r="P112" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Tohme' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Tohme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tohme&lt;/td&gt;&lt;td&gt;托姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tohme_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tohme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tohme_rank' value='3'&gt;3 &lt;input type='radio' name='Tohme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tohme_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Tohme_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Tayme' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Tayme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tayme&lt;/td&gt;&lt;td&gt;提姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tayme_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tayme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tayme_rank' value='3'&gt;3 &lt;input type='radio' name='Tayme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tayme_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Tayme_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Toole</v>
+        <f t="shared" si="2"/>
+        <v>Tohme</v>
       </c>
       <c r="C113" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>127</v>
@@ -5779,66 +5894,66 @@
         <v>128</v>
       </c>
       <c r="K113" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L113" s="2" t="s">
         <v>131</v>
       </c>
       <c r="P113" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Toole' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Toole.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toole&lt;/td&gt;&lt;td&gt;托爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toole_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toole_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toole_rank' value='3'&gt;3 &lt;input type='radio' name='Toole_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Toole_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Toole_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Tohme' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Tohme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tohme&lt;/td&gt;&lt;td&gt;托姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tohme_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tohme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tohme_rank' value='3'&gt;3 &lt;input type='radio' name='Tohme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tohme_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Tohme_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Toova</v>
+        <f t="shared" si="2"/>
+        <v>Toole</v>
       </c>
       <c r="C114" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>128</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L114" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="P114" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Toova' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Toova.jpg'&gt;&lt;img src='img/Toova_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toova&lt;/td&gt;&lt;td&gt;杜娃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toova_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toova_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toova_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Toova_rank' value='4'&gt;4 &lt;input type='radio' name='Toova_rank' value='5'&gt;5 &lt;input type='checkbox' name='Toova_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Toole' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Toole.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toole&lt;/td&gt;&lt;td&gt;托爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toole_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toole_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toole_rank' value='3'&gt;3 &lt;input type='radio' name='Toole_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Toole_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Toole_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Tsubame</v>
+        <f t="shared" si="2"/>
+        <v>Toova</v>
       </c>
       <c r="C115" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>128</v>
@@ -5850,38 +5965,35 @@
         <v>127</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>128</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P115" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Tsubame' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Tsubame.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsubame&lt;/td&gt;&lt;td&gt;燕&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsubame_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsubame_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsubame_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsubame_rank' value='4'&gt;4 &lt;input type='radio' name='Tsubame_rank' value='5'&gt;5 &lt;input type='checkbox' name='Tsubame_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Toova' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Toova.jpg'&gt;&lt;img src='img/Toova_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toova&lt;/td&gt;&lt;td&gt;杜娃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toova_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toova_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toova_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Toova_rank' value='4'&gt;4 &lt;input type='radio' name='Toova_rank' value='5'&gt;5 &lt;input type='checkbox' name='Toova_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Tsukiha</v>
+        <f t="shared" si="2"/>
+        <v>Tsubame</v>
       </c>
       <c r="C116" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>128</v>
@@ -5902,35 +6014,38 @@
         <v>133</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="P116" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Tsukiha' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Tsukiha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsukiha&lt;/td&gt;&lt;td&gt;月華&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsukiha_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsukiha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsukiha_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsukiha_rank' value='4'&gt;4 &lt;input type='radio' name='Tsukiha_rank' value='5'&gt;5 &lt;input type='checkbox' name='Tsukiha_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Tsubame' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Tsubame.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsubame&lt;/td&gt;&lt;td&gt;燕&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsubame_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsubame_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsubame_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsubame_rank' value='4'&gt;4 &lt;input type='radio' name='Tsubame_rank' value='5'&gt;5 &lt;input type='checkbox' name='Tsubame_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Urania</v>
+        <f t="shared" si="2"/>
+        <v>Tsukiha</v>
       </c>
       <c r="C117" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>128</v>
@@ -5939,23 +6054,26 @@
         <v>128</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="P117" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Urania' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Urania.jpg'&gt;&lt;/td&gt;&lt;td&gt;Urania&lt;/td&gt;&lt;td&gt;烏拉尼雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Urania_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Urania_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Urania_rank' value='3'&gt;3 &lt;input type='radio' name='Urania_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Urania_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Urania_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Tsukiha' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Tsukiha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsukiha&lt;/td&gt;&lt;td&gt;月華&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsukiha_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsukiha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsukiha_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsukiha_rank' value='4'&gt;4 &lt;input type='radio' name='Tsukiha_rank' value='5'&gt;5 &lt;input type='checkbox' name='Tsukiha_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Uuo</v>
+        <f t="shared" si="2"/>
+        <v>Urania</v>
       </c>
       <c r="C118" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>1</v>
@@ -5976,100 +6094,100 @@
         <v>128</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P118" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Uuo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Uuo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Uuo&lt;/td&gt;&lt;td&gt;烏奧&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Uuo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Uuo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Uuo_rank' value='3'&gt;3 &lt;input type='radio' name='Uuo_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Uuo_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Uuo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Urania' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Urania.jpg'&gt;&lt;/td&gt;&lt;td&gt;Urania&lt;/td&gt;&lt;td&gt;烏拉尼雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Urania_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Urania_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Urania_rank' value='3'&gt;3 &lt;input type='radio' name='Urania_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Urania_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Urania_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Veina</v>
+        <f t="shared" si="2"/>
+        <v>Uuo</v>
       </c>
       <c r="C119" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>128</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="N119" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="P119" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Veina' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Veina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Veina&lt;/td&gt;&lt;td&gt;維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Veina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Veina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Veina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Veina_rank' value='4'&gt;4 &lt;input type='radio' name='Veina_rank' value='5'&gt;5 &lt;input type='checkbox' name='Veina_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Uuo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Uuo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Uuo&lt;/td&gt;&lt;td&gt;烏奧&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Uuo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Uuo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Uuo_rank' value='3'&gt;3 &lt;input type='radio' name='Uuo_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Uuo_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Uuo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Yazuki</v>
+        <f t="shared" si="2"/>
+        <v>Veina</v>
       </c>
       <c r="C120" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>128</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="P120" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Yazuki' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Yazuki.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yazuki&lt;/td&gt;&lt;td&gt;耶月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yazuki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yazuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yazuki_rank' value='3'&gt;3 &lt;input type='radio' name='Yazuki_rank' value='4'&gt;4 &lt;input type='radio' name='Yazuki_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Yazuki_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Veina' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Veina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Veina&lt;/td&gt;&lt;td&gt;維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Veina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Veina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Veina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Veina_rank' value='4'&gt;4 &lt;input type='radio' name='Veina_rank' value='5'&gt;5 &lt;input type='checkbox' name='Veina_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Yio</v>
+        <f t="shared" si="2"/>
+        <v>Yazuki</v>
       </c>
       <c r="C121" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>1</v>
@@ -6090,26 +6208,23 @@
         <v>128</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L121" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P121" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Yio' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Yio.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yio&lt;/td&gt;&lt;td&gt;伊俄&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yio_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yio_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yio_rank' value='3'&gt;3 &lt;input type='radio' name='Yio_rank' value='4'&gt;4 &lt;input type='radio' name='Yio_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Yio_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Yazuki' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Yazuki.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yazuki&lt;/td&gt;&lt;td&gt;耶月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yazuki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yazuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yazuki_rank' value='3'&gt;3 &lt;input type='radio' name='Yazuki_rank' value='4'&gt;4 &lt;input type='radio' name='Yazuki_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Yazuki_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Yssis</v>
+        <f t="shared" si="2"/>
+        <v>Yio</v>
       </c>
       <c r="C122" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>1</v>
@@ -6118,7 +6233,7 @@
         <v>127</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>128</v>
@@ -6130,38 +6245,41 @@
         <v>128</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="P122" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Yssis' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Yssis.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yssis&lt;/td&gt;&lt;td&gt;伊西斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yssis_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yssis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yssis_rank' value='3'&gt;3 &lt;input type='radio' name='Yssis_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Yssis_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Yssis_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Yio' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Yio.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yio&lt;/td&gt;&lt;td&gt;伊俄&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yio_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yio_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yio_rank' value='3'&gt;3 &lt;input type='radio' name='Yio_rank' value='4'&gt;4 &lt;input type='radio' name='Yio_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Yio_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Yuna</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>272</v>
+        <f t="shared" si="2"/>
+        <v>Yssis</v>
+      </c>
+      <c r="C123" t="s">
+        <v>271</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>128</v>
@@ -6169,54 +6287,91 @@
       <c r="K123" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="L123" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="N123" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="P123" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr id='Yuna' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Yuna.jpg'&gt;&lt;img src='img/Yuna_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yuna&lt;/td&gt;&lt;td&gt;由奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yuna_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yuna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yuna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Yuna_rank' value='4'&gt;4 &lt;input type='radio' name='Yuna_rank' value='5'&gt;5 &lt;input type='checkbox' name='Yuna_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Yssis' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Yssis.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yssis&lt;/td&gt;&lt;td&gt;伊西斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yssis_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yssis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yssis_rank' value='3'&gt;3 &lt;input type='radio' name='Yssis_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Yssis_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Yssis_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Yuna</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N124" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P124" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr id='Yuna' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Yuna.jpg'&gt;&lt;img src='img/Yuna_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yuna&lt;/td&gt;&lt;td&gt;由奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yuna_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yuna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yuna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Yuna_rank' value='4'&gt;4 &lt;input type='radio' name='Yuna_rank' value='5'&gt;5 &lt;input type='checkbox' name='Yuna_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B124" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B125" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>Zilva</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>273</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E124" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="E125" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K125" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L124" s="2" t="s">
+      <c r="L125" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P124" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="P125" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;tr id='Zilva' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Zilva.jpg'&gt;&lt;/td&gt;&lt;td&gt;Zilva&lt;/td&gt;&lt;td&gt;茲爾巴&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Zilva_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Zilva_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Zilva_rank' value='3'&gt;3 &lt;input type='radio' name='Zilva_rank' value='4'&gt;4 &lt;input type='radio' name='Zilva_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Zilva_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -6226,39 +6381,91 @@
       <sortCondition ref="B1:B123"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E5:H108 E110:H124 I5:I124 E125:I1048576 E1:I4">
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+  <conditionalFormatting sqref="E111:H125 E126:I1048576 E72:H109 E1:I70 I72:I125">
+    <cfRule type="cellIs" dxfId="17" priority="30" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Shadow">
+  <conditionalFormatting sqref="D1:D70 D72:D1048576">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Shadow">
       <formula>NOT(ISERROR(SEARCH("Shadow",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Light">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Light">
       <formula>NOT(ISERROR(SEARCH("Light",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:H108 E110:H1048576">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="U">
+  <conditionalFormatting sqref="E1:H70 E72:H109 E111:H1048576">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:N108 K110:N1048576">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="zone">
+  <conditionalFormatting sqref="K72:N109 K111:N1048576 K1:N70">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="zone">
       <formula>NOT(ISERROR(SEARCH("zone",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="earth">
+    <cfRule type="containsText" dxfId="12" priority="26" operator="containsText" text="earth">
       <formula>NOT(ISERROR(SEARCH("earth",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="water">
+    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="water">
       <formula>NOT(ISERROR(SEARCH("water",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="14" operator="containsText" text="wind">
+    <cfRule type="containsText" dxfId="10" priority="28" operator="containsText" text="wind">
       <formula>NOT(ISERROR(SEARCH("wind",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="15" operator="containsText" text="fire">
+    <cfRule type="containsText" dxfId="9" priority="29" operator="containsText" text="fire">
       <formula>NOT(ISERROR(SEARCH("fire",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:I71">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Shadow">
+      <formula>NOT(ISERROR(SEARCH("Shadow",D71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Light">
+      <formula>NOT(ISERROR(SEARCH("Light",D71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:H71">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="U">
+      <formula>NOT(ISERROR(SEARCH("U",E71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N71">
+    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="zone">
+      <formula>NOT(ISERROR(SEARCH("zone",N71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="earth">
+      <formula>NOT(ISERROR(SEARCH("earth",N71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",N71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="wind">
+      <formula>NOT(ISERROR(SEARCH("wind",N71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="fire">
+      <formula>NOT(ISERROR(SEARCH("fire",N71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K71:M71">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="zone">
+      <formula>NOT(ISERROR(SEARCH("zone",K71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="earth">
+      <formula>NOT(ISERROR(SEARCH("earth",K71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",K71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="wind">
+      <formula>NOT(ISERROR(SEARCH("wind",K71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="fire">
+      <formula>NOT(ISERROR(SEARCH("fire",K71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6270,7 +6477,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$C$1:$C$24</xm:f>
           </x14:formula1>
-          <xm:sqref>K47:M48 K49 N47:N49 K1:N46 K50:N108 K110:N1048576</xm:sqref>
+          <xm:sqref>K47:M48 K49 N47:N49 K1:N46 K111:N1048576 K50:N109</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B3CCCDB8-5325-4E39-B696-890B93E6D505}">
           <x14:formula1>
@@ -6282,7 +6489,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E110:H1048576 E1:H108</xm:sqref>
+          <xm:sqref>E1:H109 E111:H1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/charList.xlsx
+++ b/charList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/another_picker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="113_{EDAF8704-33BD-42A1-9BF0-839D1C6DA06E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{74041CAE-EC4E-4A76-B85C-BA66B8D01A56}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="109_{760505C6-7A17-4EF9-A669-9CD4BFDD73E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{FB4A35C3-13BA-439C-92C2-A466A92FB7C5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="290">
   <si>
     <t xml:space="preserve">伊絲卡 </t>
   </si>
@@ -280,9 +280,6 @@
     <t>Noome.jpg</t>
   </si>
   <si>
-    <t>Nopaew.jpg</t>
-  </si>
-  <si>
     <t>Oor.jpg</t>
   </si>
   <si>
@@ -871,9 +868,6 @@
     <t>阿露緹娜</t>
   </si>
   <si>
-    <t>Convertor</t>
-  </si>
-  <si>
     <t>Strawboy.jpg</t>
   </si>
   <si>
@@ -902,6 +896,15 @@
   </si>
   <si>
     <t>霧華</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;&lt;html lang="zh-hant"&gt;&lt;head&gt;&lt;title&gt;Another Eden Character Collection Generator (inspired by magic-panda-engineer's Another Picker)&lt;/title&gt;&lt;meta charset="utf-8" /&gt;&lt;link rel="stylesheet" href="css/collection.css"&gt;&lt;script src="https://ajax.googleapis.com/ajax/libs/jquery/3.5.1/jquery.min.js"&gt;&lt;/script&gt;&lt;script src="js/html2canvas.js"&gt;&lt;/script&gt;&lt;script src="js/collection.js"&gt;&lt;/script&gt;&lt;/head&gt;&lt;body&gt;&lt;p&gt;Last updated: 20/05/2020 by Snowdome&lt;br&gt; &lt;a id="toEn" href=# onClick="toEn()"&gt;Switch to English&lt;/a&gt;&lt;a id="toZh" href=# onClick="location.reload();"&gt;重設&lt;/a&gt;&lt;/p&gt;&lt;ol id="note-zh"&gt;&lt;li&gt;Forked / inspired by magic-panda-engineer's &lt;a href="https://magic-panda-engineer.github.io/another_picker/index.html"&gt;Another Picker&lt;/a&gt;&lt;/li&gt;&lt;li&gt;強烈建議先將遊戲語言轉成英文，再跟名稱排序，最後才填寫資料。(不要問我為什麼遊戲中Bertrand排得比Benedict前)&lt;/li&gt;&lt;li&gt;可以儲存最底的文字方塊內的CSV供日後使用。&lt;/li&gt;&lt;li&gt;如果以&lt;a href="https://forum.gamer.com.tw/C.php?bsn=29220&amp;snA=3676"&gt;普池的機率&lt;/a&gt;計算天值比，&lt;span id="zhaLS5"&gt;5星&lt;/span&gt; : &lt;span id="zhaLS4"&gt;4星&lt;/span&gt; : &lt;span id="zhaLS3"&gt;3星&lt;/span&gt;的比例大約為&lt;span id="zhbLS5"&gt;2.77&lt;/span&gt; : &lt;span id="zhbLS4"&gt;6.35&lt;/span&gt; : &lt;span id="zhbLS3"&gt;1&lt;/span&gt; (非洲人表示...)&lt;/li&gt;&lt;li&gt;直出PNG生成需要十數秒時間，點擊成品可以下載圖片。&lt;/li&gt;&lt;li&gt;已知iPad有bug，直出PNG有機會截圖出問題。可以改用系統內建的截圖功能或不顯示3星角以減少截圖尺寸。&lt;/li&gt;&lt;/ol&gt;&lt;ol id="note-en"&gt;&lt;li&gt;Forked / inspired by magic-panda-engineer's &lt;a href="https://magic-panda-engineer.github.io/another_picker/index.html"&gt;Another Picker&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Switching to English and sort by name beforehand is highly recommended. (Do not ask me why Bertrand is before Benedict)&lt;/li&gt;&lt;li&gt;You can save the CSV strings in the textbox below for later use.&lt;/li&gt;&lt;li&gt;Per &lt;a href="https://forum.gamer.com.tw/C.php?bsn=29220&amp;snA=3676"&gt;normal encounter&lt;/a&gt; proability，the light/shadow value ratio for &lt;span id="enaLS5"&gt;5-star&lt;/span&gt; : &lt;span id="enaLS4"&gt;4-star&lt;/span&gt; : &lt;span id="enaLS3"&gt;3-star&lt;/span&gt; should be about &lt;span id="enbLS5"&gt;2.77&lt;/span&gt; : &lt;span id="enbLS4"&gt;6.35&lt;/span&gt; : &lt;span id="enbLS3"&gt;1&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Direct output of PNG may take ten to twenty seconds. Clicking on the image will download the file.&lt;/li&gt;&lt;li&gt;It is known that direct output using iPad may generate corrupted canvas. You may use the system built-in screenshot or try to exclude 3-star characters to reduce image dimensions.&lt;/li&gt;&lt;/ol&gt;&lt;table id="charList"&gt;&lt;thead&gt;&lt;tr&gt;&lt;th colspan="3"&gt;&lt;Input type="text" id="title" value="自定義文字"&gt;&lt;/th&gt;&lt;th&gt;Attack/Zone type&lt;/th&gt;&lt;th&gt;Light/Shadow&lt;/th&gt;&lt;th&gt;Rank&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;&lt;tbody&gt;&lt;!-- Insert Excel output here--&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- Excel output ends here --&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div id="endNotes"&gt;&lt;p&gt;&lt;textarea id="csv" rows="5" cols="50"&gt;&lt;/textarea&gt;&lt;div id="buttons"&gt;&lt;p&gt;&lt;button type="button" id="generate" onclick="generate()"&gt;生成&lt;/button&gt;&lt;br&gt; &lt;button type="button" id="revise" onclick="revise()" autocomplete="off" disabled&gt;修改&lt;/button&gt;&lt;br&gt; &lt;button type="button" id="import" onclick="importCSV()"&gt;匯入&lt;/button&gt;&lt;br&gt; &lt;button type="button" id="downloadCSV" onclick="downloadCSV()"&gt;儲存&lt;/button&gt;&lt;/p&gt;&lt;/div&gt;&lt;div id="options"&gt;&lt;div id="optionsCol1"&gt;&lt;p&gt;&lt;label id="lab_opt5"&gt;&lt;input type="checkbox" id="opt5" name="toggle5" value="toggle5" checked&gt;顯示5★ + AS&lt;/label&gt;&lt;br&gt; &lt;label id="lab_opt4"&gt;&lt;input type="checkbox" id="opt4" name="toggle4" value="toggle4" checked&gt;顯示4★&lt;/label&gt;&lt;br&gt; &lt;label id="lab_opt3"&gt;&lt;input type="checkbox" id="opt3" name="toggle3" value="toggle3" checked&gt;顯示3★&lt;/label&gt;&lt;br&gt; &lt;label id="lab_optIncNo"&gt;&lt;input type="checkbox" id="optIncNo" name="optIncNo" value="optIncNo"&gt;標題包括角色數&lt;/label&gt;&lt;br&gt;&lt;/p&gt;&lt;/div&gt;&lt;div id="optionsCol2"&gt;&lt;p&gt;&lt;label id="lab_optIncDate"&gt;&lt;input type="checkbox" id="optIncDate" name="optIncDate" value="optIncDate"&gt;包括製圖日期&lt;/label&gt;&lt;br&gt;&lt;label id="lab_optSumLS"&gt;&lt;input type="checkbox" id="optSumLS" name="showSumLS" value="showSumLS" checked&gt;計算夢見角天冥總值&lt;/label&gt;&lt;br&gt; &lt;label id="lab_optRatioLS"&gt;&lt;input type="checkbox" id="optRatioLS" name="showRatioLS" value="showRatioLS" checked&gt;計算夢見角天冥比例&lt;/label&gt;&lt;br&gt; &lt;label id="lab_optPNG"&gt;&lt;input type="checkbox" id="optPNG" name="toPNG" value="toPNG"&gt;直出PNG (Beta，不支援iPhone)&lt;/label&gt;&lt;br&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div id="canvasHandler"&gt;&lt;table id="tableOutput"&gt;&lt;tr&gt;&lt;th id="tableTitle"&gt;&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td id="5-star"&gt;5★ + AS&lt;span id="ratioLS"&gt; 夢見角天冥比例 [&lt;span id="ratioLS5"&gt;&lt;/span&gt;:&lt;span id="ratioLS4"&gt;&lt;/span&gt;:&lt;span id="ratioLS3"&gt;1&lt;/span&gt;]&lt;/span&gt;&lt;span id="sumLS"&gt; 夢見角天冥總值 [&lt;span id="sumLS5"&gt;16&lt;/span&gt;:&lt;span id="sumLS4"&gt;4&lt;/span&gt;:&lt;span id="sumLS3"&gt;1&lt;/span&gt;]&lt;/span&gt;&lt;br&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td id="4-star"&gt;4★&lt;br&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td id="3-star"&gt;3★&lt;br&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/div&gt; &lt;a id="download" href="" download="charList.png" target="_blank"&gt;&lt;div id="canvasOutput"&gt;&lt;/div&gt;&lt;/a&gt;&lt;/body&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>Poporo.jpg</t>
   </si>
 </sst>
 </file>
@@ -952,7 +955,34 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1059,6 +1089,58 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -1110,6 +1192,83 @@
           <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1421,11 +1580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B535A930-5FFC-4C28-93C5-DE94369B070D}">
-  <dimension ref="A1:P125"/>
+  <dimension ref="A1:P127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K71" sqref="K71"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1440,9 +1599,9 @@
     <col min="15" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -1466,13 +1625,13 @@
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1480,41 +1639,41 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f t="shared" ref="B2:B65" si="0">LEFT(A2,(FIND(".",A2,1)-1))</f>
+        <f>LEFT(A2,(FIND(".",A2,1)-1))</f>
         <v>Akane</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="P2" s="1" t="str">
-        <f t="shared" ref="P2:P65" si="1">"&lt;tr id='"&amp;SUBSTITUTE(B2," ","")&amp;"' class='"&amp;D2&amp;IF(I2="N"," Dream", " Free")&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A2&amp;"'&gt;"&amp;IF(H2="Y","&lt;img src='img/"&amp;B2&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K2&amp;".png'&gt;"&amp;IF(L2="","","&lt;img src='img/type/"&amp;L2&amp;".png'&gt;")&amp;IF(M2="","","&lt;img src='img/type/"&amp;M2&amp;".png'&gt;")&amp;IF(N2="","","&lt;img src='img/type/"&amp;N2&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B2," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='3'"&amp;IF(E2="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='4'"&amp;IF(F2="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='5'"&amp;IF(G2="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='checkbox' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='AS'"&amp;IF(H2="Y",""," disabled=''")&amp;"&gt;AS&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" ref="P2:P65" si="0">"&lt;tr id='"&amp;SUBSTITUTE(B2," ","")&amp;"' class='"&amp;D2&amp;IF(I2="N"," Dream", " Free")&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A2&amp;"'&gt;"&amp;IF(H2="Y","&lt;img src='img/"&amp;B2&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K2&amp;".png'&gt;"&amp;IF(L2="","","&lt;img src='img/type/"&amp;L2&amp;".png'&gt;")&amp;IF(M2="","","&lt;img src='img/type/"&amp;M2&amp;".png'&gt;")&amp;IF(N2="","","&lt;img src='img/type/"&amp;N2&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B2," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='3'"&amp;IF(E2="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='4'"&amp;IF(F2="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='5'"&amp;IF(G2="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='checkbox' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='AS'"&amp;IF(H2="Y",""," disabled=''")&amp;"&gt;AS&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr id='Akane' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Akane.jpg'&gt;&lt;img src='img/Akane_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Akane&lt;/td&gt;&lt;td&gt;茜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Akane_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Akane_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Akane_rank' value='3'&gt;3 &lt;input type='radio' name='Akane_rank' value='4'&gt;4 &lt;input type='radio' name='Akane_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Akane_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1523,78 +1682,78 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="str">
+        <f>LEFT(A3,(FIND(".",A3,1)-1))</f>
+        <v>Aldo</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Aldo</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P3" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Aldo' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Aldo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Aldo&lt;/td&gt;&lt;td&gt;阿爾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Aldo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Aldo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Aldo_rank' value='3'&gt;3 &lt;input type='radio' name='Aldo_rank' value='4'&gt;4 &lt;input type='radio' name='Aldo_rank' value='5'&gt;5 &lt;input type='checkbox' name='Aldo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>LEFT(A4,(FIND(".",A4,1)-1))</f>
+        <v>Altena</v>
+      </c>
+      <c r="C4" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="D4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="P4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Altena</v>
-      </c>
-      <c r="C4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P4" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Altena' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Altena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Altena&lt;/td&gt;&lt;td&gt;阿露緹娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Altena_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Altena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Altena_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Altena_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Altena_rank' value='5'&gt;5 &lt;input type='checkbox' name='Altena_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1603,38 +1762,38 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="str">
+        <f>LEFT(A5,(FIND(".",A5,1)-1))</f>
+        <v>Amy</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Amy</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="P5" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Amy' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Amy.jpg'&gt;&lt;/td&gt;&lt;td&gt;Amy&lt;/td&gt;&lt;td&gt;艾米&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Amy_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Amy_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Amy_rank' value='3'&gt;3 &lt;input type='radio' name='Amy_rank' value='4'&gt;4 &lt;input type='radio' name='Amy_rank' value='5'&gt;5 &lt;input type='checkbox' name='Amy_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1643,41 +1802,41 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="str">
+        <f>LEFT(A6,(FIND(".",A6,1)-1))</f>
+        <v>Anabel</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Anabel</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="P6" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Anabel' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Anabel.jpg'&gt;&lt;/td&gt;&lt;td&gt;Anabel&lt;/td&gt;&lt;td&gt;安娜貝爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Anabel_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Anabel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Anabel_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Anabel_rank' value='4'&gt;4 &lt;input type='radio' name='Anabel_rank' value='5'&gt;5 &lt;input type='checkbox' name='Anabel_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1686,35 +1845,35 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="str">
+        <f>LEFT(A7,(FIND(".",A7,1)-1))</f>
+        <v>Asia</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Asia</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P7" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Asia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Asia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Asia&lt;/td&gt;&lt;td&gt;艾希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Asia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Asia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Asia_rank' value='3'&gt;3 &lt;input type='radio' name='Asia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Asia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Asia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1723,41 +1882,41 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="str">
+        <f>LEFT(A8,(FIND(".",A8,1)-1))</f>
+        <v>Azami</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Azami</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P8" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Azami' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Azami.jpg'&gt;&lt;/td&gt;&lt;td&gt;Azami&lt;/td&gt;&lt;td&gt;阿佐美&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Azami_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Azami_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Azami_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Azami_rank' value='4'&gt;4 &lt;input type='radio' name='Azami_rank' value='5'&gt;5 &lt;input type='checkbox' name='Azami_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1766,38 +1925,38 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="str">
+        <f>LEFT(A9,(FIND(".",A9,1)-1))</f>
+        <v>Benedict</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Benedict</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P9" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Benedict' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Benedict.jpg'&gt;&lt;/td&gt;&lt;td&gt;Benedict&lt;/td&gt;&lt;td&gt;貝內迪特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Benedict_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Benedict_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Benedict_rank' value='3'&gt;3 &lt;input type='radio' name='Benedict_rank' value='4'&gt;4 &lt;input type='radio' name='Benedict_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Benedict_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1806,38 +1965,38 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="str">
+        <f>LEFT(A10,(FIND(".",A10,1)-1))</f>
+        <v>Bertrand</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Bertrand</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P10" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Bertrand' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Bertrand.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bertrand&lt;/td&gt;&lt;td&gt;貝特朗 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bertrand_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bertrand_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bertrand_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Bertrand_rank' value='4'&gt;4 &lt;input type='radio' name='Bertrand_rank' value='5'&gt;5 &lt;input type='checkbox' name='Bertrand_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1846,38 +2005,38 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="str">
+        <f>LEFT(A11,(FIND(".",A11,1)-1))</f>
+        <v>Biaka</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Biaka</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="P11" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Biaka' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Biaka.jpg'&gt;&lt;/td&gt;&lt;td&gt;Biaka&lt;/td&gt;&lt;td&gt;維婭卡 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Biaka_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Biaka_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Biaka_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Biaka_rank' value='4'&gt;4 &lt;input type='radio' name='Biaka_rank' value='5'&gt;5 &lt;input type='checkbox' name='Biaka_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1886,35 +2045,35 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="str">
+        <f>LEFT(A12,(FIND(".",A12,1)-1))</f>
+        <v>Bivette</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Bivette</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P12" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Bivette' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Bivette.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bivette&lt;/td&gt;&lt;td&gt;碧薇特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bivette_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bivette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bivette_rank' value='3'&gt;3 &lt;input type='radio' name='Bivette_rank' value='4'&gt;4 &lt;input type='radio' name='Bivette_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Bivette_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1923,38 +2082,38 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="str">
+        <f>LEFT(A13,(FIND(".",A13,1)-1))</f>
+        <v>Breeno</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Breeno</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="P13" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Breeno' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Breeno.jpg'&gt;&lt;/td&gt;&lt;td&gt;Breeno&lt;/td&gt;&lt;td&gt;布里諾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Breeno_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Breeno_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Breeno_rank' value='3'&gt;3 &lt;input type='radio' name='Breeno_rank' value='4'&gt;4 &lt;input type='radio' name='Breeno_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Breeno_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1963,38 +2122,38 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="str">
+        <f>LEFT(A14,(FIND(".",A14,1)-1))</f>
+        <v>Bria</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="P14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Bria</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P14" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Bria' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Bria.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bria&lt;/td&gt;&lt;td&gt;布利亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bria_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bria_rank' value='3'&gt;3 &lt;input type='radio' name='Bria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Bria_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Bria_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2003,41 +2162,41 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="str">
+        <f>LEFT(A15,(FIND(".",A15,1)-1))</f>
+        <v>Cerrine</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Cerrine</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P15" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Cerrine' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Cerrine.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cerrine&lt;/td&gt;&lt;td&gt;思琳&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cerrine_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cerrine_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cerrine_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Cerrine_rank' value='4'&gt;4 &lt;input type='radio' name='Cerrine_rank' value='5'&gt;5 &lt;input type='checkbox' name='Cerrine_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2046,41 +2205,41 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="str">
+        <f>LEFT(A16,(FIND(".",A16,1)-1))</f>
+        <v>Cetie</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Cetie</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P16" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Cetie' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Cetie.jpg'&gt;&lt;img src='img/Cetie_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cetie&lt;/td&gt;&lt;td&gt;謝提&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cetie_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cetie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cetie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Cetie_rank' value='4'&gt;4 &lt;input type='radio' name='Cetie_rank' value='5'&gt;5 &lt;input type='checkbox' name='Cetie_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2089,35 +2248,35 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="str">
+        <f>LEFT(A17,(FIND(".",A17,1)-1))</f>
+        <v>Chiyo</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Chiyo</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="P17" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Chiyo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Chiyo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Chiyo&lt;/td&gt;&lt;td&gt;千代&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Chiyo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Chiyo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Chiyo_rank' value='3'&gt;3 &lt;input type='radio' name='Chiyo_rank' value='4'&gt;4 &lt;input type='radio' name='Chiyo_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Chiyo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2126,38 +2285,38 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="str">
+        <f>LEFT(A18,(FIND(".",A18,1)-1))</f>
+        <v>Ciel</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Ciel</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P18" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Ciel' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Ciel.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ciel&lt;/td&gt;&lt;td&gt;西雅爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ciel_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ciel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ciel_rank' value='3'&gt;3 &lt;input type='radio' name='Ciel_rank' value='4'&gt;4 &lt;input type='radio' name='Ciel_rank' value='5'&gt;5 &lt;input type='checkbox' name='Ciel_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2166,41 +2325,41 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="str">
+        <f>LEFT(A19,(FIND(".",A19,1)-1))</f>
+        <v>Claude</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Claude</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P19" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Claude' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Claude.jpg'&gt;&lt;img src='img/Claude_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Claude&lt;/td&gt;&lt;td&gt;克勞特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Claude_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Claude_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Claude_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Claude_rank' value='4'&gt;4 &lt;input type='radio' name='Claude_rank' value='5'&gt;5 &lt;input type='checkbox' name='Claude_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2209,35 +2368,35 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="str">
+        <f>LEFT(A20,(FIND(".",A20,1)-1))</f>
+        <v>Ctos</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Ctos</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="P20" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Ctos' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Ctos.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ctos&lt;/td&gt;&lt;td&gt;古拓斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ctos_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ctos_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ctos_rank' value='3'&gt;3 &lt;input type='radio' name='Ctos_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Ctos_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Ctos_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2246,41 +2405,41 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="str">
+        <f>LEFT(A21,(FIND(".",A21,1)-1))</f>
+        <v>Cyrus</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Cyrus</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P21" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Cyrus' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Cyrus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cyrus&lt;/td&gt;&lt;td&gt;賽勒斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cyrus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cyrus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cyrus_rank' value='3'&gt;3 &lt;input type='radio' name='Cyrus_rank' value='4'&gt;4 &lt;input type='radio' name='Cyrus_rank' value='5'&gt;5 &lt;input type='checkbox' name='Cyrus_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2289,38 +2448,38 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="str">
+        <f>LEFT(A22,(FIND(".",A22,1)-1))</f>
+        <v>Cyuca</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Cyuca</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P22" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Cyuca' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Cyuca.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cyuca&lt;/td&gt;&lt;td&gt;喬卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cyuca_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cyuca_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cyuca_rank' value='3'&gt;3 &lt;input type='radio' name='Cyuca_rank' value='4'&gt;4 &lt;input type='radio' name='Cyuca_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Cyuca_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2329,38 +2488,38 @@
         <v>26</v>
       </c>
       <c r="B23" s="1" t="str">
+        <f>LEFT(A23,(FIND(".",A23,1)-1))</f>
+        <v>Darunis</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Darunis</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="P23" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Darunis' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Darunis.jpg'&gt;&lt;/td&gt;&lt;td&gt;Darunis&lt;/td&gt;&lt;td&gt;達爾尼思&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Darunis_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Darunis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Darunis_rank' value='3'&gt;3 &lt;input type='radio' name='Darunis_rank' value='4'&gt;4 &lt;input type='radio' name='Darunis_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Darunis_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2369,38 +2528,38 @@
         <v>27</v>
       </c>
       <c r="B24" s="1" t="str">
+        <f>LEFT(A24,(FIND(".",A24,1)-1))</f>
+        <v>Deirdre</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Deirdre</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="P24" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Deirdre' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Deirdre.jpg'&gt;&lt;/td&gt;&lt;td&gt;Deirdre&lt;/td&gt;&lt;td&gt;蒂亞朵拉 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Deirdre_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Deirdre_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Deirdre_rank' value='3'&gt;3 &lt;input type='radio' name='Deirdre_rank' value='4'&gt;4 &lt;input type='radio' name='Deirdre_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Deirdre_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2409,38 +2568,38 @@
         <v>28</v>
       </c>
       <c r="B25" s="1" t="str">
+        <f>LEFT(A25,(FIND(".",A25,1)-1))</f>
+        <v>Denny</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Denny</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P25" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Denny' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Denny.jpg'&gt;&lt;/td&gt;&lt;td&gt;Denny&lt;/td&gt;&lt;td&gt;丹尼 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Denny_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Denny_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Denny_rank' value='3'&gt;3 &lt;input type='radio' name='Denny_rank' value='4'&gt;4 &lt;input type='radio' name='Denny_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Denny_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2449,38 +2608,38 @@
         <v>29</v>
       </c>
       <c r="B26" s="1" t="str">
+        <f>LEFT(A26,(FIND(".",A26,1)-1))</f>
+        <v>Dewey</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Dewey</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="P26" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Dewey' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Dewey.jpg'&gt;&lt;/td&gt;&lt;td&gt;Dewey&lt;/td&gt;&lt;td&gt;杜伊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Dewey_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Dewey_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Dewey_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Dewey_rank' value='4'&gt;4 &lt;input type='radio' name='Dewey_rank' value='5'&gt;5 &lt;input type='checkbox' name='Dewey_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2489,38 +2648,38 @@
         <v>30</v>
       </c>
       <c r="B27" s="1" t="str">
+        <f>LEFT(A27,(FIND(".",A27,1)-1))</f>
+        <v>Dunarith</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Dunarith</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P27" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Dunarith' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Dunarith.jpg'&gt;&lt;/td&gt;&lt;td&gt;Dunarith&lt;/td&gt;&lt;td&gt;杜拿利斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Dunarith_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Dunarith_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Dunarith_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Dunarith_rank' value='4'&gt;4 &lt;input type='radio' name='Dunarith_rank' value='5'&gt;5 &lt;input type='checkbox' name='Dunarith_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2529,35 +2688,35 @@
         <v>31</v>
       </c>
       <c r="B28" s="1" t="str">
+        <f>LEFT(A28,(FIND(".",A28,1)-1))</f>
+        <v>Een</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Een</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P28" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Een' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Een.jpg'&gt;&lt;/td&gt;&lt;td&gt;Een&lt;/td&gt;&lt;td&gt;伊因&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Een_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Een_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Een_rank' value='3'&gt;3 &lt;input type='radio' name='Een_rank' value='4'&gt;4 &lt;input type='radio' name='Een_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Een_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2566,38 +2725,38 @@
         <v>32</v>
       </c>
       <c r="B29" s="1" t="str">
+        <f>LEFT(A29,(FIND(".",A29,1)-1))</f>
+        <v>Elga</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Elga</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="P29" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Elga' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Elga.jpg'&gt;&lt;/td&gt;&lt;td&gt;Elga&lt;/td&gt;&lt;td&gt;艾露嘉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Elga_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Elga_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Elga_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Elga_rank' value='4'&gt;4 &lt;input type='radio' name='Elga_rank' value='5'&gt;5 &lt;input type='checkbox' name='Elga_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2606,35 +2765,35 @@
         <v>33</v>
       </c>
       <c r="B30" s="1" t="str">
+        <f>LEFT(A30,(FIND(".",A30,1)-1))</f>
+        <v>Emms</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Emms</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="P30" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Emms' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Emms.jpg'&gt;&lt;/td&gt;&lt;td&gt;Emms&lt;/td&gt;&lt;td&gt;艾姆斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Emms_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Emms_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Emms_rank' value='3'&gt;3 &lt;input type='radio' name='Emms_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Emms_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Emms_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2643,35 +2802,35 @@
         <v>34</v>
       </c>
       <c r="B31" s="1" t="str">
+        <f>LEFT(A31,(FIND(".",A31,1)-1))</f>
+        <v>Erina</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Erina</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="P31" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Erina' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Erina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Erina&lt;/td&gt;&lt;td&gt;艾莉娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Erina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Erina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Erina_rank' value='3'&gt;3 &lt;input type='radio' name='Erina_rank' value='4'&gt;4 &lt;input type='radio' name='Erina_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Erina_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2680,35 +2839,35 @@
         <v>35</v>
       </c>
       <c r="B32" s="1" t="str">
+        <f>LEFT(A32,(FIND(".",A32,1)-1))</f>
+        <v>Esta</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="P32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Esta</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P32" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Esta' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Esta.jpg'&gt;&lt;/td&gt;&lt;td&gt;Esta&lt;/td&gt;&lt;td&gt;艾斯塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Esta_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Esta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Esta_rank' value='3'&gt;3 &lt;input type='radio' name='Esta_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Esta_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Esta_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2717,38 +2876,38 @@
         <v>36</v>
       </c>
       <c r="B33" s="1" t="str">
+        <f>LEFT(A33,(FIND(".",A33,1)-1))</f>
+        <v>Ewan</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Ewan</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P33" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Ewan' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Ewan.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ewan&lt;/td&gt;&lt;td&gt;尤因&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ewan_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ewan_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ewan_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Ewan_rank' value='4'&gt;4 &lt;input type='radio' name='Ewan_rank' value='5'&gt;5 &lt;input type='checkbox' name='Ewan_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2757,35 +2916,35 @@
         <v>37</v>
       </c>
       <c r="B34" s="1" t="str">
+        <f>LEFT(A34,(FIND(".",A34,1)-1))</f>
+        <v>Feinne</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Feinne</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="P34" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Feinne' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Feinne.jpg'&gt;&lt;/td&gt;&lt;td&gt;Feinne&lt;/td&gt;&lt;td&gt;菲妮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Feinne_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Feinne_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Feinne_rank' value='3'&gt;3 &lt;input type='radio' name='Feinne_rank' value='4'&gt;4 &lt;input type='radio' name='Feinne_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Feinne_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2794,45 +2953,45 @@
         <v>38</v>
       </c>
       <c r="B35" s="1" t="str">
+        <f>LEFT(A35,(FIND(".",A35,1)-1))</f>
+        <v>Felmina</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Felmina</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="P35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Felmina' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Felmina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Felmina&lt;/td&gt;&lt;td&gt;菲露米娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Felmina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Felmina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Felmina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Felmina_rank' value='4'&gt;4 &lt;input type='radio' name='Felmina_rank' value='5'&gt;5 &lt;input type='checkbox' name='Felmina_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr id='Felmina' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Felmina.jpg'&gt;&lt;img src='img/Felmina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Felmina&lt;/td&gt;&lt;td&gt;菲露米娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Felmina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Felmina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Felmina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Felmina_rank' value='4'&gt;4 &lt;input type='radio' name='Felmina_rank' value='5'&gt;5 &lt;input type='checkbox' name='Felmina_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -2840,38 +2999,38 @@
         <v>39</v>
       </c>
       <c r="B36" s="1" t="str">
+        <f>LEFT(A36,(FIND(".",A36,1)-1))</f>
+        <v>Foran</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="P36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Foran</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P36" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Foran' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Foran.jpg'&gt;&lt;/td&gt;&lt;td&gt;Foran&lt;/td&gt;&lt;td&gt;芙朗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Foran_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Foran_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Foran_rank' value='3'&gt;3 &lt;input type='radio' name='Foran_rank' value='4'&gt;4 &lt;input type='radio' name='Foran_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Foran_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2880,38 +3039,38 @@
         <v>40</v>
       </c>
       <c r="B37" s="1" t="str">
+        <f>LEFT(A37,(FIND(".",A37,1)-1))</f>
+        <v>Galliard</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Galliard</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P37" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Galliard' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Galliard.jpg'&gt;&lt;/td&gt;&lt;td&gt;Galliard&lt;/td&gt;&lt;td&gt;嘉里德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Galliard_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Galliard_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Galliard_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Galliard_rank' value='4'&gt;4 &lt;input type='radio' name='Galliard_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Galliard_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2920,78 +3079,78 @@
         <v>41</v>
       </c>
       <c r="B38" s="1" t="str">
+        <f>LEFT(A38,(FIND(".",A38,1)-1))</f>
+        <v>Gariyu</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="P38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Gariyu</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="P38" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Gariyu' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Gariyu.jpg'&gt;&lt;img src='img/Gariyu_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Gariyu&lt;/td&gt;&lt;td&gt;伽琉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;img src='img/type/fire_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Gariyu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Gariyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Gariyu_rank' value='3'&gt;3 &lt;input type='radio' name='Gariyu_rank' value='4'&gt;4 &lt;input type='radio' name='Gariyu_rank' value='5'&gt;5 &lt;input type='checkbox' name='Gariyu_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B39" s="1" t="str">
+        <f>LEFT(A39,(FIND(".",A39,1)-1))</f>
+        <v>GoodMacky</v>
+      </c>
+      <c r="C39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>GoodMacky</v>
-      </c>
-      <c r="C39" t="s">
-        <v>191</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="P39" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='GoodMacky' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/GoodMacky.jpg'&gt;&lt;/td&gt;&lt;td&gt;GoodMacky&lt;/td&gt;&lt;td&gt;善良的米可麥克&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='GoodMacky_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='GoodMacky_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='GoodMacky_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='GoodMacky_rank' value='4'&gt;4 &lt;input type='radio' name='GoodMacky_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='GoodMacky_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3000,38 +3159,38 @@
         <v>42</v>
       </c>
       <c r="B40" s="1" t="str">
+        <f>LEFT(A40,(FIND(".",A40,1)-1))</f>
+        <v>Guildna</v>
+      </c>
+      <c r="C40" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Guildna</v>
-      </c>
-      <c r="C40" t="s">
-        <v>192</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P40" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Guildna' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Guildna.jpg'&gt;&lt;/td&gt;&lt;td&gt;Guildna&lt;/td&gt;&lt;td&gt;基爾德那&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Guildna_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Guildna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Guildna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Guildna_rank' value='4'&gt;4 &lt;input type='radio' name='Guildna_rank' value='5'&gt;5 &lt;input type='checkbox' name='Guildna_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3040,38 +3199,38 @@
         <v>43</v>
       </c>
       <c r="B41" s="1" t="str">
+        <f>LEFT(A41,(FIND(".",A41,1)-1))</f>
+        <v>Helena</v>
+      </c>
+      <c r="C41" t="s">
+        <v>192</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Helena</v>
-      </c>
-      <c r="C41" t="s">
-        <v>193</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="P41" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Helena' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Helena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Helena&lt;/td&gt;&lt;td&gt;海蕾娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Helena_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Helena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Helena_rank' value='3'&gt;3 &lt;input type='radio' name='Helena_rank' value='4'&gt;4 &lt;input type='radio' name='Helena_rank' value='5'&gt;5 &lt;input type='checkbox' name='Helena_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3080,38 +3239,38 @@
         <v>44</v>
       </c>
       <c r="B42" s="1" t="str">
+        <f>LEFT(A42,(FIND(".",A42,1)-1))</f>
+        <v>Hismena</v>
+      </c>
+      <c r="C42" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="P42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hismena</v>
-      </c>
-      <c r="C42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P42" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Hismena' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Hismena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Hismena&lt;/td&gt;&lt;td&gt;希斯梅娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Hismena_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Hismena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Hismena_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Hismena_rank' value='4'&gt;4 &lt;input type='radio' name='Hismena_rank' value='5'&gt;5 &lt;input type='checkbox' name='Hismena_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3120,38 +3279,38 @@
         <v>45</v>
       </c>
       <c r="B43" s="1" t="str">
+        <f>LEFT(A43,(FIND(".",A43,1)-1))</f>
+        <v>Hozuki</v>
+      </c>
+      <c r="C43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hozuki</v>
-      </c>
-      <c r="C43" t="s">
-        <v>195</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="P43" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Hozuki' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Hozuki.jpg'&gt;&lt;/td&gt;&lt;td&gt;Hozuki&lt;/td&gt;&lt;td&gt;皓月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Hozuki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Hozuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Hozuki_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Hozuki_rank' value='4'&gt;4 &lt;input type='radio' name='Hozuki_rank' value='5'&gt;5 &lt;input type='checkbox' name='Hozuki_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3160,38 +3319,38 @@
         <v>46</v>
       </c>
       <c r="B44" s="1" t="str">
+        <f>LEFT(A44,(FIND(".",A44,1)-1))</f>
+        <v>Ilulu</v>
+      </c>
+      <c r="C44" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Ilulu</v>
-      </c>
-      <c r="C44" t="s">
-        <v>196</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P44" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Ilulu' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Ilulu.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ilulu&lt;/td&gt;&lt;td&gt;伊露露&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ilulu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ilulu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ilulu_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Ilulu_rank' value='4'&gt;4 &lt;input type='radio' name='Ilulu_rank' value='5'&gt;5 &lt;input type='checkbox' name='Ilulu_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3200,7 +3359,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A45,(FIND(".",A45,1)-1))</f>
         <v>Isuka</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -3210,28 +3369,28 @@
         <v>1</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P45" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>&lt;tr id='Isuka' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Isuka.jpg'&gt;&lt;img src='img/Isuka_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Isuka&lt;/td&gt;&lt;td&gt;伊絲卡 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Isuka_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Isuka_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Isuka_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Isuka_rank' value='4'&gt;4 &lt;input type='radio' name='Isuka_rank' value='5'&gt;5 &lt;input type='checkbox' name='Isuka_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3240,38 +3399,38 @@
         <v>48</v>
       </c>
       <c r="B46" s="1" t="str">
+        <f>LEFT(A46,(FIND(".",A46,1)-1))</f>
+        <v>Jade</v>
+      </c>
+      <c r="C46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Jade</v>
-      </c>
-      <c r="C46" t="s">
-        <v>197</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="P46" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Jade' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Jade.jpg'&gt;&lt;/td&gt;&lt;td&gt;Jade&lt;/td&gt;&lt;td&gt;賈德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Jade_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Jade_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Jade_rank' value='3'&gt;3 &lt;input type='radio' name='Jade_rank' value='4'&gt;4 &lt;input type='radio' name='Jade_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Jade_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3280,81 +3439,81 @@
         <v>49</v>
       </c>
       <c r="B47" s="1" t="str">
+        <f>LEFT(A47,(FIND(".",A47,1)-1))</f>
+        <v>Joker</v>
+      </c>
+      <c r="C47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Joker</v>
-      </c>
-      <c r="C47" t="s">
-        <v>198</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P47" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Joker' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Joker.jpg'&gt;&lt;/td&gt;&lt;td&gt;Joker&lt;/td&gt;&lt;td&gt;JOKER&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Joker_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Joker_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Joker_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Joker_rank' value='4'&gt;4 &lt;input type='radio' name='Joker_rank' value='5'&gt;5 &lt;input type='checkbox' name='Joker_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f>LEFT(A48,(FIND(".",A48,1)-1))</f>
+        <v>Kikyo</v>
+      </c>
+      <c r="C48" t="s">
         <v>274</v>
       </c>
-      <c r="B48" s="1" t="str">
+      <c r="D48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Kikyo</v>
-      </c>
-      <c r="C48" t="s">
-        <v>275</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P48" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Kikyo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Kikyo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Kikyo&lt;/td&gt;&lt;td&gt;桔梗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Kikyo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Kikyo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Kikyo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Kikyo_rank' value='4'&gt;4 &lt;input type='radio' name='Kikyo_rank' value='5'&gt;5 &lt;input type='checkbox' name='Kikyo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3363,35 +3522,35 @@
         <v>50</v>
       </c>
       <c r="B49" s="1" t="str">
+        <f>LEFT(A49,(FIND(".",A49,1)-1))</f>
+        <v>Kilqia</v>
+      </c>
+      <c r="C49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Kilqia</v>
-      </c>
-      <c r="C49" t="s">
-        <v>199</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="P49" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Kilqia' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Kilqia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Kilqia&lt;/td&gt;&lt;td&gt;基露琪亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Kilqia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Kilqia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Kilqia_rank' value='3'&gt;3 &lt;input type='radio' name='Kilqia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Kilqia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Kilqia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3400,38 +3559,38 @@
         <v>51</v>
       </c>
       <c r="B50" s="1" t="str">
+        <f>LEFT(A50,(FIND(".",A50,1)-1))</f>
+        <v>Komachi</v>
+      </c>
+      <c r="C50" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Komachi</v>
-      </c>
-      <c r="C50" t="s">
-        <v>200</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P50" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Komachi' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Komachi.jpg'&gt;&lt;/td&gt;&lt;td&gt;Komachi&lt;/td&gt;&lt;td&gt;小町&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Komachi_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Komachi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Komachi_rank' value='3'&gt;3 &lt;input type='radio' name='Komachi_rank' value='4'&gt;4 &lt;input type='radio' name='Komachi_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Komachi_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3440,38 +3599,38 @@
         <v>52</v>
       </c>
       <c r="B51" s="1" t="str">
+        <f>LEFT(A51,(FIND(".",A51,1)-1))</f>
+        <v>Koot</v>
+      </c>
+      <c r="C51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Koot</v>
-      </c>
-      <c r="C51" t="s">
-        <v>201</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="P51" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Koot' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Koot.jpg'&gt;&lt;/td&gt;&lt;td&gt;Koot&lt;/td&gt;&lt;td&gt;庫托&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Koot_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Koot_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Koot_rank' value='3'&gt;3 &lt;input type='radio' name='Koot_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Koot_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Koot_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3480,35 +3639,35 @@
         <v>53</v>
       </c>
       <c r="B52" s="1" t="str">
+        <f>LEFT(A52,(FIND(".",A52,1)-1))</f>
+        <v>Krervo</v>
+      </c>
+      <c r="C52" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Krervo</v>
-      </c>
-      <c r="C52" t="s">
-        <v>202</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="P52" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Krervo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Krervo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Krervo&lt;/td&gt;&lt;td&gt;克利霍&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Krervo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Krervo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Krervo_rank' value='3'&gt;3 &lt;input type='radio' name='Krervo_rank' value='4'&gt;4 &lt;input type='radio' name='Krervo_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Krervo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3517,41 +3676,41 @@
         <v>54</v>
       </c>
       <c r="B53" s="1" t="str">
+        <f>LEFT(A53,(FIND(".",A53,1)-1))</f>
+        <v>Laclair</v>
+      </c>
+      <c r="C53" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P53" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Laclair</v>
-      </c>
-      <c r="C53" t="s">
-        <v>203</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P53" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Laclair' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Laclair.jpg'&gt;&lt;img src='img/Laclair_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Laclair&lt;/td&gt;&lt;td&gt;拉克萊兒&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Laclair_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Laclair_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Laclair_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Laclair_rank' value='4'&gt;4 &lt;input type='radio' name='Laclair_rank' value='5'&gt;5 &lt;input type='checkbox' name='Laclair_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3560,35 +3719,35 @@
         <v>55</v>
       </c>
       <c r="B54" s="1" t="str">
+        <f>LEFT(A54,(FIND(".",A54,1)-1))</f>
+        <v>Lele</v>
+      </c>
+      <c r="C54" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Lele</v>
-      </c>
-      <c r="C54" t="s">
-        <v>204</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="P54" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Lele' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Lele.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lele&lt;/td&gt;&lt;td&gt;蕾蕾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lele_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lele_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lele_rank' value='3'&gt;3 &lt;input type='radio' name='Lele_rank' value='4'&gt;4 &lt;input type='radio' name='Lele_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Lele_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3597,35 +3756,35 @@
         <v>56</v>
       </c>
       <c r="B55" s="1" t="str">
+        <f>LEFT(A55,(FIND(".",A55,1)-1))</f>
+        <v>Levia</v>
+      </c>
+      <c r="C55" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P55" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Levia</v>
-      </c>
-      <c r="C55" t="s">
-        <v>205</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="P55" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Levia' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Levia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Levia&lt;/td&gt;&lt;td&gt;莉維雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Levia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Levia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Levia_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Levia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Levia_rank' value='5'&gt;5 &lt;input type='checkbox' name='Levia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3634,38 +3793,38 @@
         <v>57</v>
       </c>
       <c r="B56" s="1" t="str">
+        <f>LEFT(A56,(FIND(".",A56,1)-1))</f>
+        <v>Lingli</v>
+      </c>
+      <c r="C56" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Lingli</v>
-      </c>
-      <c r="C56" t="s">
-        <v>206</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P56" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Lingli' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Lingli.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lingli&lt;/td&gt;&lt;td&gt;林麗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lingli_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lingli_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lingli_rank' value='3'&gt;3 &lt;input type='radio' name='Lingli_rank' value='4'&gt;4 &lt;input type='radio' name='Lingli_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Lingli_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3674,38 +3833,38 @@
         <v>58</v>
       </c>
       <c r="B57" s="1" t="str">
+        <f>LEFT(A57,(FIND(".",A57,1)-1))</f>
+        <v>Lokido</v>
+      </c>
+      <c r="C57" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P57" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Lokido</v>
-      </c>
-      <c r="C57" t="s">
-        <v>207</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P57" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Lokido' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Lokido.jpg'&gt;&lt;img src='img/Lokido_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lokido&lt;/td&gt;&lt;td&gt;洛基德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lokido_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lokido_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lokido_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Lokido_rank' value='4'&gt;4 &lt;input type='radio' name='Lokido_rank' value='5'&gt;5 &lt;input type='checkbox' name='Lokido_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3714,35 +3873,35 @@
         <v>59</v>
       </c>
       <c r="B58" s="1" t="str">
+        <f>LEFT(A58,(FIND(".",A58,1)-1))</f>
+        <v>Lovely</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P58" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Lovely</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P58" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Lovely' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Lovely.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lovely&lt;/td&gt;&lt;td&gt;拉布莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lovely_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lovely_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lovely_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Lovely_rank' value='4'&gt;4 &lt;input type='radio' name='Lovely_rank' value='5'&gt;5 &lt;input type='checkbox' name='Lovely_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3751,38 +3910,38 @@
         <v>60</v>
       </c>
       <c r="B59" s="1" t="str">
+        <f>LEFT(A59,(FIND(".",A59,1)-1))</f>
+        <v>Lovinia</v>
+      </c>
+      <c r="C59" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P59" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Lovinia</v>
-      </c>
-      <c r="C59" t="s">
-        <v>209</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="P59" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Lovinia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Lovinia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lovinia&lt;/td&gt;&lt;td&gt;羅維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lovinia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lovinia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lovinia_rank' value='3'&gt;3 &lt;input type='radio' name='Lovinia_rank' value='4'&gt;4 &lt;input type='radio' name='Lovinia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Lovinia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3791,35 +3950,35 @@
         <v>61</v>
       </c>
       <c r="B60" s="1" t="str">
+        <f>LEFT(A60,(FIND(".",A60,1)-1))</f>
+        <v>Mana</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P60" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Mana</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P60" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Mana' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Mana.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mana&lt;/td&gt;&lt;td&gt;瑪娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mana_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Mana_rank' value='5'&gt;5 &lt;input type='checkbox' name='Mana_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3828,35 +3987,35 @@
         <v>62</v>
       </c>
       <c r="B61" s="1" t="str">
+        <f>LEFT(A61,(FIND(".",A61,1)-1))</f>
+        <v>Mariel</v>
+      </c>
+      <c r="C61" t="s">
+        <v>210</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Mariel</v>
-      </c>
-      <c r="C61" t="s">
-        <v>211</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="P61" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Mariel' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Mariel.jpg'&gt;&lt;img src='img/Mariel_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mariel&lt;/td&gt;&lt;td&gt;瑪莉艾爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mariel_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mariel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mariel_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mariel_rank' value='4'&gt;4 &lt;input type='radio' name='Mariel_rank' value='5'&gt;5 &lt;input type='checkbox' name='Mariel_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3865,38 +4024,38 @@
         <v>63</v>
       </c>
       <c r="B62" s="1" t="str">
+        <f>LEFT(A62,(FIND(".",A62,1)-1))</f>
+        <v>May</v>
+      </c>
+      <c r="C62" t="s">
+        <v>211</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>May</v>
-      </c>
-      <c r="C62" t="s">
-        <v>212</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P62" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='May' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/May.jpg'&gt;&lt;/td&gt;&lt;td&gt;May&lt;/td&gt;&lt;td&gt;玫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='May_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='May_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='May_rank' value='3'&gt;3 &lt;input type='radio' name='May_rank' value='4'&gt;4 &lt;input type='radio' name='May_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='May_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3905,41 +4064,41 @@
         <v>64</v>
       </c>
       <c r="B63" s="1" t="str">
+        <f>LEFT(A63,(FIND(".",A63,1)-1))</f>
+        <v>Melina</v>
+      </c>
+      <c r="C63" t="s">
+        <v>212</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Melina</v>
-      </c>
-      <c r="C63" t="s">
-        <v>213</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="P63" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Melina' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Melina.jpg'&gt;&lt;img src='img/Melina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Melina&lt;/td&gt;&lt;td&gt;玫莉娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Melina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Melina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Melina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Melina_rank' value='4'&gt;4 &lt;input type='radio' name='Melina_rank' value='5'&gt;5 &lt;input type='checkbox' name='Melina_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3948,38 +4107,38 @@
         <v>65</v>
       </c>
       <c r="B64" s="1" t="str">
+        <f>LEFT(A64,(FIND(".",A64,1)-1))</f>
+        <v>Menesia</v>
+      </c>
+      <c r="C64" t="s">
+        <v>213</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P64" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Menesia</v>
-      </c>
-      <c r="C64" t="s">
-        <v>214</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="P64" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Menesia' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Menesia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Menesia&lt;/td&gt;&lt;td&gt;梅尼西雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Menesia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Menesia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Menesia_rank' value='3'&gt;3 &lt;input type='radio' name='Menesia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Menesia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Menesia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3988,35 +4147,35 @@
         <v>66</v>
       </c>
       <c r="B65" s="1" t="str">
+        <f>LEFT(A65,(FIND(".",A65,1)-1))</f>
+        <v>Mighty</v>
+      </c>
+      <c r="C65" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P65" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Mighty</v>
-      </c>
-      <c r="C65" t="s">
-        <v>215</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="P65" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;tr id='Mighty' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Mighty.jpg'&gt;&lt;img src='img/Mighty_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mighty&lt;/td&gt;&lt;td&gt;麥提&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mighty_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mighty_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mighty_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mighty_rank' value='4'&gt;4 &lt;input type='radio' name='Mighty_rank' value='5'&gt;5 &lt;input type='checkbox' name='Mighty_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -4025,38 +4184,38 @@
         <v>67</v>
       </c>
       <c r="B66" s="1" t="str">
-        <f t="shared" ref="B66:B125" si="2">LEFT(A66,(FIND(".",A66,1)-1))</f>
+        <f>LEFT(A66,(FIND(".",A66,1)-1))</f>
         <v>Miranda</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K66" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L66" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L66" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="P66" s="1" t="str">
-        <f t="shared" ref="P66:P125" si="3">"&lt;tr id='"&amp;SUBSTITUTE(B66," ","")&amp;"' class='"&amp;D66&amp;IF(I66="N"," Dream", " Free")&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A66&amp;"'&gt;"&amp;IF(H66="Y","&lt;img src='img/"&amp;B66&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B66&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C66&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K66&amp;".png'&gt;"&amp;IF(L66="","","&lt;img src='img/type/"&amp;L66&amp;".png'&gt;")&amp;IF(M66="","","&lt;img src='img/type/"&amp;M66&amp;".png'&gt;")&amp;IF(N66="","","&lt;img src='img/type/"&amp;N66&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B66," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='3'"&amp;IF(E66="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='4'"&amp;IF(F66="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='5'"&amp;IF(G66="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='checkbox' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='AS'"&amp;IF(H66="Y",""," disabled=''")&amp;"&gt;AS&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" ref="P66:P125" si="1">"&lt;tr id='"&amp;SUBSTITUTE(B66," ","")&amp;"' class='"&amp;D66&amp;IF(I66="N"," Dream", " Free")&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A66&amp;"'&gt;"&amp;IF(H66="Y","&lt;img src='img/"&amp;B66&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B66&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C66&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K66&amp;".png'&gt;"&amp;IF(L66="","","&lt;img src='img/type/"&amp;L66&amp;".png'&gt;")&amp;IF(M66="","","&lt;img src='img/type/"&amp;M66&amp;".png'&gt;")&amp;IF(N66="","","&lt;img src='img/type/"&amp;N66&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B66," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='3'"&amp;IF(E66="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='4'"&amp;IF(F66="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='5'"&amp;IF(G66="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='checkbox' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='AS'"&amp;IF(H66="Y",""," disabled=''")&amp;"&gt;AS&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr id='Miranda' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Miranda.jpg'&gt;&lt;/td&gt;&lt;td&gt;Miranda&lt;/td&gt;&lt;td&gt;米蘭達&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miranda_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miranda_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miranda_rank' value='3'&gt;3 &lt;input type='radio' name='Miranda_rank' value='4'&gt;4 &lt;input type='radio' name='Miranda_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Miranda_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -4065,38 +4224,38 @@
         <v>68</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A67,(FIND(".",A67,1)-1))</f>
         <v>Miyu</v>
       </c>
       <c r="C67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L67" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L67" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="P67" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Miyu' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Miyu.jpg'&gt;&lt;/td&gt;&lt;td&gt;Miyu&lt;/td&gt;&lt;td&gt;米悠&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miyu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miyu_rank' value='3'&gt;3 &lt;input type='radio' name='Miyu_rank' value='4'&gt;4 &lt;input type='radio' name='Miyu_rank' value='5'&gt;5 &lt;input type='checkbox' name='Miyu_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -4105,38 +4264,38 @@
         <v>69</v>
       </c>
       <c r="B68" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A68,(FIND(".",A68,1)-1))</f>
         <v>Morgana</v>
       </c>
       <c r="C68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P68" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Morgana' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Morgana.jpg'&gt;&lt;/td&gt;&lt;td&gt;Morgana&lt;/td&gt;&lt;td&gt;摩爾加納&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Morgana_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Morgana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Morgana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Morgana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Morgana_rank' value='5'&gt;5 &lt;input type='checkbox' name='Morgana_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -4145,38 +4304,38 @@
         <v>70</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A69,(FIND(".",A69,1)-1))</f>
         <v>Myron</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P69" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Myron' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Myron.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myron&lt;/td&gt;&lt;td&gt;繆倫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myron_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myron_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myron_rank' value='3'&gt;3 &lt;input type='radio' name='Myron_rank' value='4'&gt;4 &lt;input type='radio' name='Myron_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Myron_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -4185,78 +4344,78 @@
         <v>71</v>
       </c>
       <c r="B70" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A70,(FIND(".",A70,1)-1))</f>
         <v>Myrus</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P70" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Myrus' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Myrus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myrus&lt;/td&gt;&lt;td&gt;繆露絲&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myrus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myrus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myrus_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Myrus_rank' value='4'&gt;4 &lt;input type='radio' name='Myrus_rank' value='5'&gt;5 &lt;input type='checkbox' name='Myrus_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B71" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A71,(FIND(".",A71,1)-1))</f>
         <v>Myunfa</v>
       </c>
       <c r="C71" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="I71" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P71" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Myunfa' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Myunfa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myunfa&lt;/td&gt;&lt;td&gt;霧華&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;img src='img/type/earth_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myunfa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myunfa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myunfa_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Myunfa_rank' value='4'&gt;4 &lt;input type='radio' name='Myunfa_rank' value='5'&gt;5 &lt;input type='checkbox' name='Myunfa_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -4265,38 +4424,38 @@
         <v>72</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A72,(FIND(".",A72,1)-1))</f>
         <v>Nagi</v>
       </c>
       <c r="C72" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P72" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Nagi' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Nagi.jpg'&gt;&lt;img src='img/Nagi_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nagi&lt;/td&gt;&lt;td&gt;娜基&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nagi_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nagi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nagi_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Nagi_rank' value='4'&gt;4 &lt;input type='radio' name='Nagi_rank' value='5'&gt;5 &lt;input type='checkbox' name='Nagi_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -4305,35 +4464,35 @@
         <v>73</v>
       </c>
       <c r="B73" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A73,(FIND(".",A73,1)-1))</f>
         <v>Natore</v>
       </c>
       <c r="C73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P73" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Natore' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Natore.jpg'&gt;&lt;/td&gt;&lt;td&gt;Natore&lt;/td&gt;&lt;td&gt;娜托雷&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Natore_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Natore_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Natore_rank' value='3'&gt;3 &lt;input type='radio' name='Natore_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Natore_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Natore_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -4342,35 +4501,35 @@
         <v>74</v>
       </c>
       <c r="B74" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A74,(FIND(".",A74,1)-1))</f>
         <v>Naylia</v>
       </c>
       <c r="C74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P74" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Naylia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Naylia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Naylia&lt;/td&gt;&lt;td&gt;內莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Naylia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Naylia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Naylia_rank' value='3'&gt;3 &lt;input type='radio' name='Naylia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Naylia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Naylia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -4379,35 +4538,35 @@
         <v>75</v>
       </c>
       <c r="B75" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A75,(FIND(".",A75,1)-1))</f>
         <v>Nero</v>
       </c>
       <c r="C75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P75" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Nero' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Nero.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nero&lt;/td&gt;&lt;td&gt;尼洛&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nero_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nero_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nero_rank' value='3'&gt;3 &lt;input type='radio' name='Nero_rank' value='4'&gt;4 &lt;input type='radio' name='Nero_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nero_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -4416,38 +4575,38 @@
         <v>76</v>
       </c>
       <c r="B76" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A76,(FIND(".",A76,1)-1))</f>
         <v>Nikeh</v>
       </c>
       <c r="C76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P76" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Nikeh' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Nikeh.jpg'&gt;&lt;img src='img/Nikeh_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nikeh&lt;/td&gt;&lt;td&gt;尼姬&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nikeh_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nikeh_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nikeh_rank' value='3'&gt;3 &lt;input type='radio' name='Nikeh_rank' value='4'&gt;4 &lt;input type='radio' name='Nikeh_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nikeh_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -4456,35 +4615,35 @@
         <v>77</v>
       </c>
       <c r="B77" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A77,(FIND(".",A77,1)-1))</f>
         <v>Nixa</v>
       </c>
       <c r="C77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P77" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Nixa' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Nixa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nixa&lt;/td&gt;&lt;td&gt;妮克薩&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nixa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nixa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nixa_rank' value='3'&gt;3 &lt;input type='radio' name='Nixa_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Nixa_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nixa_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -4493,38 +4652,38 @@
         <v>78</v>
       </c>
       <c r="B78" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A78,(FIND(".",A78,1)-1))</f>
         <v>Nomar</v>
       </c>
       <c r="C78" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P78" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Nomar' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Nomar.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nomar&lt;/td&gt;&lt;td&gt;諾馬爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nomar_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nomar_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nomar_rank' value='3'&gt;3 &lt;input type='radio' name='Nomar_rank' value='4'&gt;4 &lt;input type='radio' name='Nomar_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nomar_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -4533,35 +4692,35 @@
         <v>79</v>
       </c>
       <c r="B79" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A79,(FIND(".",A79,1)-1))</f>
         <v>Nonold</v>
       </c>
       <c r="C79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P79" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Nonold' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Nonold.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nonold&lt;/td&gt;&lt;td&gt;諾諾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nonold_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nonold_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nonold_rank' value='3'&gt;3 &lt;input type='radio' name='Nonold_rank' value='4'&gt;4 &lt;input type='radio' name='Nonold_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nonold_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -4570,35 +4729,35 @@
         <v>80</v>
       </c>
       <c r="B80" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A80,(FIND(".",A80,1)-1))</f>
         <v>Noome</v>
       </c>
       <c r="C80" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P80" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Noome' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Noome.jpg'&gt;&lt;/td&gt;&lt;td&gt;Noome&lt;/td&gt;&lt;td&gt;諾暮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Noome_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Noome_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Noome_rank' value='3'&gt;3 &lt;input type='radio' name='Noome_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Noome_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Noome_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -4607,8 +4766,8 @@
         <v>81</v>
       </c>
       <c r="B81" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Nopaew</v>
+        <f>LEFT(A81,(FIND(".",A81,1)-1))</f>
+        <v>Oor</v>
       </c>
       <c r="C81" t="s">
         <v>230</v>
@@ -4617,26 +4776,26 @@
         <v>1</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="P81" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr id='Nopaew' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Nopaew.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nopaew&lt;/td&gt;&lt;td&gt;波波羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nopaew_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nopaew_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nopaew_rank' value='3'&gt;3 &lt;input type='radio' name='Nopaew_rank' value='4'&gt;4 &lt;input type='radio' name='Nopaew_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nopaew_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Oor' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Oor.jpg'&gt;&lt;/td&gt;&lt;td&gt;Oor&lt;/td&gt;&lt;td&gt;歐爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Oor_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Oor_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Oor_rank' value='3'&gt;3 &lt;input type='radio' name='Oor_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Oor_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Oor_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -4644,8 +4803,8 @@
         <v>82</v>
       </c>
       <c r="B82" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Oor</v>
+        <f>LEFT(A82,(FIND(".",A82,1)-1))</f>
+        <v>Otoha</v>
       </c>
       <c r="C82" t="s">
         <v>231</v>
@@ -4654,26 +4813,29 @@
         <v>1</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="P82" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr id='Oor' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Oor.jpg'&gt;&lt;/td&gt;&lt;td&gt;Oor&lt;/td&gt;&lt;td&gt;歐爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Oor_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Oor_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Oor_rank' value='3'&gt;3 &lt;input type='radio' name='Oor_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Oor_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Oor_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Otoha' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Otoha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Otoha&lt;/td&gt;&lt;td&gt;乙葉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Otoha_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Otoha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Otoha_rank' value='3'&gt;3 &lt;input type='radio' name='Otoha_rank' value='4'&gt;4 &lt;input type='radio' name='Otoha_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Otoha_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -4681,39 +4843,39 @@
         <v>83</v>
       </c>
       <c r="B83" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Otoha</v>
+        <f>LEFT(A83,(FIND(".",A83,1)-1))</f>
+        <v>Parisa</v>
       </c>
       <c r="C83" t="s">
         <v>232</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="P83" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr id='Otoha' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Otoha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Otoha&lt;/td&gt;&lt;td&gt;乙葉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Otoha_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Otoha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Otoha_rank' value='3'&gt;3 &lt;input type='radio' name='Otoha_rank' value='4'&gt;4 &lt;input type='radio' name='Otoha_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Otoha_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Parisa' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Parisa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Parisa&lt;/td&gt;&lt;td&gt;帕莉莎&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Parisa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Parisa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Parisa_rank' value='3'&gt;3 &lt;input type='radio' name='Parisa_rank' value='4'&gt;4 &lt;input type='radio' name='Parisa_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Parisa_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
@@ -4721,39 +4883,36 @@
         <v>84</v>
       </c>
       <c r="B84" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Parisa</v>
-      </c>
-      <c r="C84" t="s">
+        <f>LEFT(A84,(FIND(".",A84,1)-1))</f>
+        <v>Pasia</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>233</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="P84" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr id='Parisa' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Parisa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Parisa&lt;/td&gt;&lt;td&gt;帕莉莎&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Parisa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Parisa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Parisa_rank' value='3'&gt;3 &lt;input type='radio' name='Parisa_rank' value='4'&gt;4 &lt;input type='radio' name='Parisa_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Parisa_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Pasia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Pasia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pasia&lt;/td&gt;&lt;td&gt;帕希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pasia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pasia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pasia_rank' value='3'&gt;3 &lt;input type='radio' name='Pasia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Pasia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Pasia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
@@ -4761,10 +4920,10 @@
         <v>85</v>
       </c>
       <c r="B85" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Pasia</v>
-      </c>
-      <c r="C85" s="1" t="s">
+        <f>LEFT(A85,(FIND(".",A85,1)-1))</f>
+        <v>Philo</v>
+      </c>
+      <c r="C85" t="s">
         <v>234</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -4774,23 +4933,26 @@
         <v>127</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="P85" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr id='Pasia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Pasia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pasia&lt;/td&gt;&lt;td&gt;帕希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pasia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pasia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pasia_rank' value='3'&gt;3 &lt;input type='radio' name='Pasia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Pasia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Pasia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Philo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Philo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Philo&lt;/td&gt;&lt;td&gt;菲羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Philo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Philo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Philo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Philo_rank' value='4'&gt;4 &lt;input type='radio' name='Philo_rank' value='5'&gt;5 &lt;input type='checkbox' name='Philo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
@@ -4798,8 +4960,8 @@
         <v>86</v>
       </c>
       <c r="B86" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Philo</v>
+        <f>LEFT(A86,(FIND(".",A86,1)-1))</f>
+        <v>Pom</v>
       </c>
       <c r="C86" t="s">
         <v>235</v>
@@ -4808,1664 +4970,1612 @@
         <v>1</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>127</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="P86" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr id='Philo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Philo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Philo&lt;/td&gt;&lt;td&gt;菲羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Philo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Philo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Philo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Philo_rank' value='4'&gt;4 &lt;input type='radio' name='Philo_rank' value='5'&gt;5 &lt;input type='checkbox' name='Philo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Pom' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Pom.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pom&lt;/td&gt;&lt;td&gt;波姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pom_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pom_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pom_rank' value='3'&gt;3 &lt;input type='radio' name='Pom_rank' value='4'&gt;4 &lt;input type='radio' name='Pom_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Pom_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>289</v>
       </c>
       <c r="B87" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Pom</v>
+        <f>LEFT(A87,(FIND(".",A87,1)-1))</f>
+        <v>Poporo</v>
       </c>
       <c r="C87" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="P87" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr id='Pom' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Pom.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pom&lt;/td&gt;&lt;td&gt;波姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pom_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pom_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pom_rank' value='3'&gt;3 &lt;input type='radio' name='Pom_rank' value='4'&gt;4 &lt;input type='radio' name='Pom_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Pom_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Poporo' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Poporo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Poporo&lt;/td&gt;&lt;td&gt;波波羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Poporo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Poporo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Poporo_rank' value='3'&gt;3 &lt;input type='radio' name='Poporo_rank' value='4'&gt;4 &lt;input type='radio' name='Poporo_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Poporo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A88,(FIND(".",A88,1)-1))</f>
         <v>Prai</v>
       </c>
       <c r="C88" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P88" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Prai' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Prai.jpg'&gt;&lt;/td&gt;&lt;td&gt;Prai&lt;/td&gt;&lt;td&gt;普萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Prai_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Prai_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Prai_rank' value='3'&gt;3 &lt;input type='radio' name='Prai_rank' value='4'&gt;4 &lt;input type='radio' name='Prai_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Prai_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A89,(FIND(".",A89,1)-1))</f>
         <v>Premaya</v>
       </c>
       <c r="C89" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P89" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Premaya' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Premaya.jpg'&gt;&lt;/td&gt;&lt;td&gt;Premaya&lt;/td&gt;&lt;td&gt;普蕾米婭&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Premaya_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Premaya_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Premaya_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Premaya_rank' value='4'&gt;4 &lt;input type='radio' name='Premaya_rank' value='5'&gt;5 &lt;input type='checkbox' name='Premaya_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A90,(FIND(".",A90,1)-1))</f>
         <v>Radica</v>
       </c>
       <c r="C90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M90" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="P90" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Radica' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Radica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Radica&lt;/td&gt;&lt;td&gt;拉蒂卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Radica_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Radica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Radica_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Radica_rank' value='4'&gt;4 &lt;input type='radio' name='Radica_rank' value='5'&gt;5 &lt;input type='checkbox' name='Radica_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A91,(FIND(".",A91,1)-1))</f>
         <v>Raven</v>
       </c>
       <c r="C91" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P91" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Raven' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Raven.jpg'&gt;&lt;/td&gt;&lt;td&gt;Raven&lt;/td&gt;&lt;td&gt;雷文&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Raven_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Raven_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Raven_rank' value='3'&gt;3 &lt;input type='radio' name='Raven_rank' value='4'&gt;4 &lt;input type='radio' name='Raven_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Raven_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A92,(FIND(".",A92,1)-1))</f>
         <v>Renri</v>
       </c>
       <c r="C92" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E92" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="I92" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K92" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L92" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L92" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="P92" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Renri' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Renri.jpg'&gt;&lt;/td&gt;&lt;td&gt;Renri&lt;/td&gt;&lt;td&gt;雷莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Renri_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Renri_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Renri_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Renri_rank' value='4'&gt;4 &lt;input type='radio' name='Renri_rank' value='5'&gt;5 &lt;input type='checkbox' name='Renri_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A93,(FIND(".",A93,1)-1))</f>
         <v>Riica</v>
       </c>
       <c r="C93" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K93" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L93" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="L93" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="M93" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P93" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Riica' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Riica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Riica&lt;/td&gt;&lt;td&gt;莉卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Riica_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Riica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Riica_rank' value='3'&gt;3 &lt;input type='radio' name='Riica_rank' value='4'&gt;4 &lt;input type='radio' name='Riica_rank' value='5'&gt;5 &lt;input type='checkbox' name='Riica_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A94,(FIND(".",A94,1)-1))</f>
         <v>Rodeia</v>
       </c>
       <c r="C94" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P94" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Rodeia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Rodeia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rodeia&lt;/td&gt;&lt;td&gt;羅蒂亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rodeia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rodeia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rodeia_rank' value='3'&gt;3 &lt;input type='radio' name='Rodeia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Rodeia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Rodeia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A95,(FIND(".",A95,1)-1))</f>
         <v>Rosetta</v>
       </c>
       <c r="C95" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L95" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="P95" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Rosetta' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Rosetta.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rosetta&lt;/td&gt;&lt;td&gt;蘿潔塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rosetta_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rosetta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rosetta_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Rosetta_rank' value='4'&gt;4 &lt;input type='radio' name='Rosetta_rank' value='5'&gt;5 &lt;input type='checkbox' name='Rosetta_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A96,(FIND(".",A96,1)-1))</f>
         <v>Rovella</v>
       </c>
       <c r="C96" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P96" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Rovella' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Rovella.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rovella&lt;/td&gt;&lt;td&gt;羅貝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rovella_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rovella_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rovella_rank' value='3'&gt;3 &lt;input type='radio' name='Rovella_rank' value='4'&gt;4 &lt;input type='radio' name='Rovella_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Rovella_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A97,(FIND(".",A97,1)-1))</f>
         <v>Rufus</v>
       </c>
       <c r="C97" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P97" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Rufus' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Rufus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rufus&lt;/td&gt;&lt;td&gt;洛福斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rufus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rufus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rufus_rank' value='3'&gt;3 &lt;input type='radio' name='Rufus_rank' value='4'&gt;4 &lt;input type='radio' name='Rufus_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Rufus_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A98,(FIND(".",A98,1)-1))</f>
         <v>Ruina</v>
       </c>
       <c r="C98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P98" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Ruina' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Ruina.jpg'&gt;&lt;img src='img/Ruina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ruina&lt;/td&gt;&lt;td&gt;路伊娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ruina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ruina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ruina_rank' value='3'&gt;3 &lt;input type='radio' name='Ruina_rank' value='4'&gt;4 &lt;input type='radio' name='Ruina_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Ruina_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A99,(FIND(".",A99,1)-1))</f>
         <v>Saithe</v>
       </c>
       <c r="C99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P99" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Saithe' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Saithe.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saithe&lt;/td&gt;&lt;td&gt;賽斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saithe_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saithe_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saithe_rank' value='3'&gt;3 &lt;input type='radio' name='Saithe_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Saithe_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Saithe_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A100,(FIND(".",A100,1)-1))</f>
         <v>Saki</v>
       </c>
       <c r="C100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P100" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Saki' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Saki.jpg'&gt;&lt;img src='img/Saki_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saki&lt;/td&gt;&lt;td&gt;紗希&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saki_rank' value='3'&gt;3 &lt;input type='radio' name='Saki_rank' value='4'&gt;4 &lt;input type='radio' name='Saki_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Saki_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A101,(FIND(".",A101,1)-1))</f>
         <v>Samora</v>
       </c>
       <c r="C101" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P101" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Samora' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Samora.jpg'&gt;&lt;/td&gt;&lt;td&gt;Samora&lt;/td&gt;&lt;td&gt;薩摩拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Samora_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Samora_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Samora_rank' value='3'&gt;3 &lt;input type='radio' name='Samora_rank' value='4'&gt;4 &lt;input type='radio' name='Samora_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Samora_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A102,(FIND(".",A102,1)-1))</f>
         <v>Sauria</v>
       </c>
       <c r="C102" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P102" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Sauria' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Sauria.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sauria&lt;/td&gt;&lt;td&gt;秀莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sauria_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sauria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sauria_rank' value='3'&gt;3 &lt;input type='radio' name='Sauria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Sauria_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Sauria_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A103,(FIND(".",A103,1)-1))</f>
         <v>Sevyn</v>
       </c>
       <c r="C103" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P103" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Sevyn' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Sevyn.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sevyn&lt;/td&gt;&lt;td&gt;賽溫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sevyn_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sevyn_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sevyn_rank' value='3'&gt;3 &lt;input type='radio' name='Sevyn_rank' value='4'&gt;4 &lt;input type='radio' name='Sevyn_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Sevyn_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A104,(FIND(".",A104,1)-1))</f>
         <v>Shanie</v>
       </c>
       <c r="C104" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P104" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Shanie' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Shanie.jpg'&gt;&lt;img src='img/Shanie_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shanie&lt;/td&gt;&lt;td&gt;謝奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shanie_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shanie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shanie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shanie_rank' value='4'&gt;4 &lt;input type='radio' name='Shanie_rank' value='5'&gt;5 &lt;input type='checkbox' name='Shanie_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A105,(FIND(".",A105,1)-1))</f>
         <v>Shannon</v>
       </c>
       <c r="C105" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E105" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H105" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F105" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="I105" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P105" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Shannon' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Shannon.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shannon&lt;/td&gt;&lt;td&gt;夏濃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shannon_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shannon_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shannon_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shannon_rank' value='4'&gt;4 &lt;input type='radio' name='Shannon_rank' value='5'&gt;5 &lt;input type='checkbox' name='Shannon_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A106,(FIND(".",A106,1)-1))</f>
         <v>Sheila</v>
       </c>
       <c r="C106" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P106" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Sheila' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Sheila.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sheila&lt;/td&gt;&lt;td&gt;謝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sheila_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sheila_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sheila_rank' value='3'&gt;3 &lt;input type='radio' name='Sheila_rank' value='4'&gt;4 &lt;input type='radio' name='Sheila_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Sheila_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A107,(FIND(".",A107,1)-1))</f>
         <v>Shigure</v>
       </c>
       <c r="C107" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P107" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Shigure' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Shigure.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shigure&lt;/td&gt;&lt;td&gt;時雨&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shigure_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shigure_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shigure_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shigure_rank' value='4'&gt;4 &lt;input type='radio' name='Shigure_rank' value='5'&gt;5 &lt;input type='checkbox' name='Shigure_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A108,(FIND(".",A108,1)-1))</f>
         <v>Shion</v>
       </c>
       <c r="C108" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K108" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L108" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L108" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="P108" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Shion' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Shion.jpg'&gt;&lt;img src='img/Shion_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shion&lt;/td&gt;&lt;td&gt;紫央&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shion_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shion_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shion_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shion_rank' value='4'&gt;4 &lt;input type='radio' name='Shion_rank' value='5'&gt;5 &lt;input type='checkbox' name='Shion_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A109,(FIND(".",A109,1)-1))</f>
         <v>Soira</v>
       </c>
       <c r="C109" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P109" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Soira' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Soira.jpg'&gt;&lt;/td&gt;&lt;td&gt;Soira&lt;/td&gt;&lt;td&gt;蘇依萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Soira_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Soira_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Soira_rank' value='3'&gt;3 &lt;input type='radio' name='Soira_rank' value='4'&gt;4 &lt;input type='radio' name='Soira_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Soira_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B110" s="1" t="str">
+        <f>LEFT(A110,(FIND(".",A110,1)-1))</f>
+        <v>Strawboy</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K110" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B110" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Strawboy</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="L110" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="M110" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="L110" s="2" t="s">
+      <c r="N110" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="M110" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="N110" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="P110" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Strawboy' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Strawboy.jpg'&gt;&lt;/td&gt;&lt;td&gt;Strawboy&lt;/td&gt;&lt;td&gt;草人小子 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/all_null.png'&gt;&lt;img src='img/type/all_slash.png'&gt;&lt;img src='img/type/all_pierce.png'&gt;&lt;img src='img/type/all_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Strawboy_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Strawboy_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Strawboy_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Strawboy_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Strawboy_rank' value='5'&gt;5 &lt;input type='checkbox' name='Strawboy_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A111,(FIND(".",A111,1)-1))</f>
         <v>Suzette</v>
       </c>
       <c r="C111" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P111" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Suzette' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Suzette.jpg'&gt;&lt;img src='img/Suzette_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Suzette&lt;/td&gt;&lt;td&gt;蘇賽特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Suzette_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Suzette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Suzette_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Suzette_rank' value='4'&gt;4 &lt;input type='radio' name='Suzette_rank' value='5'&gt;5 &lt;input type='checkbox' name='Suzette_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A112,(FIND(".",A112,1)-1))</f>
         <v>Tayme</v>
       </c>
       <c r="C112" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P112" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Tayme' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Tayme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tayme&lt;/td&gt;&lt;td&gt;提姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tayme_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tayme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tayme_rank' value='3'&gt;3 &lt;input type='radio' name='Tayme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tayme_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Tayme_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A113,(FIND(".",A113,1)-1))</f>
         <v>Tohme</v>
       </c>
       <c r="C113" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P113" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Tohme' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Tohme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tohme&lt;/td&gt;&lt;td&gt;托姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tohme_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tohme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tohme_rank' value='3'&gt;3 &lt;input type='radio' name='Tohme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tohme_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Tohme_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A114,(FIND(".",A114,1)-1))</f>
         <v>Toole</v>
       </c>
       <c r="C114" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P114" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Toole' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Toole.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toole&lt;/td&gt;&lt;td&gt;托爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toole_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toole_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toole_rank' value='3'&gt;3 &lt;input type='radio' name='Toole_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Toole_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Toole_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A115,(FIND(".",A115,1)-1))</f>
         <v>Toova</v>
       </c>
       <c r="C115" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P115" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Toova' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Toova.jpg'&gt;&lt;img src='img/Toova_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toova&lt;/td&gt;&lt;td&gt;杜娃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toova_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toova_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toova_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Toova_rank' value='4'&gt;4 &lt;input type='radio' name='Toova_rank' value='5'&gt;5 &lt;input type='checkbox' name='Toova_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A116,(FIND(".",A116,1)-1))</f>
         <v>Tsubame</v>
       </c>
       <c r="C116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P116" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Tsubame' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Tsubame.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsubame&lt;/td&gt;&lt;td&gt;燕&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsubame_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsubame_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsubame_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsubame_rank' value='4'&gt;4 &lt;input type='radio' name='Tsubame_rank' value='5'&gt;5 &lt;input type='checkbox' name='Tsubame_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A117,(FIND(".",A117,1)-1))</f>
         <v>Tsukiha</v>
       </c>
       <c r="C117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K117" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L117" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L117" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="P117" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Tsukiha' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Tsukiha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsukiha&lt;/td&gt;&lt;td&gt;月華&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsukiha_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsukiha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsukiha_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsukiha_rank' value='4'&gt;4 &lt;input type='radio' name='Tsukiha_rank' value='5'&gt;5 &lt;input type='checkbox' name='Tsukiha_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A118,(FIND(".",A118,1)-1))</f>
         <v>Urania</v>
       </c>
       <c r="C118" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P118" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Urania' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Urania.jpg'&gt;&lt;/td&gt;&lt;td&gt;Urania&lt;/td&gt;&lt;td&gt;烏拉尼雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Urania_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Urania_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Urania_rank' value='3'&gt;3 &lt;input type='radio' name='Urania_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Urania_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Urania_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A119,(FIND(".",A119,1)-1))</f>
         <v>Uuo</v>
       </c>
       <c r="C119" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P119" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Uuo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Uuo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Uuo&lt;/td&gt;&lt;td&gt;烏奧&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Uuo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Uuo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Uuo_rank' value='3'&gt;3 &lt;input type='radio' name='Uuo_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Uuo_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Uuo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A120,(FIND(".",A120,1)-1))</f>
         <v>Veina</v>
       </c>
       <c r="C120" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E120" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H120" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F120" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="I120" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P120" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Veina' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Veina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Veina&lt;/td&gt;&lt;td&gt;維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Veina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Veina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Veina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Veina_rank' value='4'&gt;4 &lt;input type='radio' name='Veina_rank' value='5'&gt;5 &lt;input type='checkbox' name='Veina_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A121,(FIND(".",A121,1)-1))</f>
         <v>Yazuki</v>
       </c>
       <c r="C121" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P121" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Yazuki' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Yazuki.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yazuki&lt;/td&gt;&lt;td&gt;耶月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yazuki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yazuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yazuki_rank' value='3'&gt;3 &lt;input type='radio' name='Yazuki_rank' value='4'&gt;4 &lt;input type='radio' name='Yazuki_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Yazuki_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A122,(FIND(".",A122,1)-1))</f>
         <v>Yio</v>
       </c>
       <c r="C122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P122" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Yio' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Yio.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yio&lt;/td&gt;&lt;td&gt;伊俄&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yio_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yio_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yio_rank' value='3'&gt;3 &lt;input type='radio' name='Yio_rank' value='4'&gt;4 &lt;input type='radio' name='Yio_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Yio_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A123,(FIND(".",A123,1)-1))</f>
         <v>Yssis</v>
       </c>
       <c r="C123" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P123" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Yssis' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Yssis.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yssis&lt;/td&gt;&lt;td&gt;伊西斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yssis_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yssis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yssis_rank' value='3'&gt;3 &lt;input type='radio' name='Yssis_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Yssis_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Yssis_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A124,(FIND(".",A124,1)-1))</f>
         <v>Yuna</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P124" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Yuna' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Yuna.jpg'&gt;&lt;img src='img/Yuna_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yuna&lt;/td&gt;&lt;td&gt;由奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yuna_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yuna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yuna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Yuna_rank' value='4'&gt;4 &lt;input type='radio' name='Yuna_rank' value='5'&gt;5 &lt;input type='checkbox' name='Yuna_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(A125,(FIND(".",A125,1)-1))</f>
         <v>Zilva</v>
       </c>
       <c r="C125" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P125" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr id='Zilva' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Zilva.jpg'&gt;&lt;/td&gt;&lt;td&gt;Zilva&lt;/td&gt;&lt;td&gt;茲爾巴&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Zilva_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Zilva_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Zilva_rank' value='3'&gt;3 &lt;input type='radio' name='Zilva_rank' value='4'&gt;4 &lt;input type='radio' name='Zilva_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Zilva_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P127" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N123" xr:uid="{BF78E18D-D95C-4E7F-AF90-E8358E4459D0}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N123">
-      <sortCondition ref="B1:B123"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N125">
+      <sortCondition ref="A1:A123"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E111:H125 E126:I1048576 E72:H109 E1:I70 I72:I125">
-    <cfRule type="cellIs" dxfId="17" priority="30" operator="equal">
+  <conditionalFormatting sqref="E1:I1048576">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D70 D72:D1048576">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Shadow">
-      <formula>NOT(ISERROR(SEARCH("Shadow",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Light">
-      <formula>NOT(ISERROR(SEARCH("Light",D1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:H70 E72:H109 E111:H1048576">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="25" priority="16" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K72:N109 K111:N1048576 K1:N70">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="zone">
+  <conditionalFormatting sqref="K1:N1048576">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="zone">
       <formula>NOT(ISERROR(SEARCH("zone",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="26" operator="containsText" text="earth">
+    <cfRule type="containsText" dxfId="29" priority="2" operator="containsText" text="earth">
       <formula>NOT(ISERROR(SEARCH("earth",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="water">
+    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="water">
       <formula>NOT(ISERROR(SEARCH("water",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="28" operator="containsText" text="wind">
+    <cfRule type="containsText" dxfId="27" priority="4" operator="containsText" text="wind">
       <formula>NOT(ISERROR(SEARCH("wind",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="29" operator="containsText" text="fire">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="fire">
       <formula>NOT(ISERROR(SEARCH("fire",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71:I71">
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
-      <formula>"N"</formula>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="24" priority="17" operator="containsText" text="Shadow">
+      <formula>NOT(ISERROR(SEARCH("Shadow",D1)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Shadow">
-      <formula>NOT(ISERROR(SEARCH("Shadow",D71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Light">
-      <formula>NOT(ISERROR(SEARCH("Light",D71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71:H71">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="U">
-      <formula>NOT(ISERROR(SEARCH("U",E71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N71">
-    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="zone">
-      <formula>NOT(ISERROR(SEARCH("zone",N71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="earth">
-      <formula>NOT(ISERROR(SEARCH("earth",N71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="water">
-      <formula>NOT(ISERROR(SEARCH("water",N71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="wind">
-      <formula>NOT(ISERROR(SEARCH("wind",N71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="fire">
-      <formula>NOT(ISERROR(SEARCH("fire",N71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K71:M71">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="zone">
-      <formula>NOT(ISERROR(SEARCH("zone",K71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="earth">
-      <formula>NOT(ISERROR(SEARCH("earth",K71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="water">
-      <formula>NOT(ISERROR(SEARCH("water",K71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="wind">
-      <formula>NOT(ISERROR(SEARCH("wind",K71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="fire">
-      <formula>NOT(ISERROR(SEARCH("fire",K71)))</formula>
+    <cfRule type="containsText" dxfId="23" priority="18" operator="containsText" text="Light">
+      <formula>NOT(ISERROR(SEARCH("Light",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6509,137 +6619,137 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/charList.xlsx
+++ b/charList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/another_picker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="109_{760505C6-7A17-4EF9-A669-9CD4BFDD73E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="109_{760505C6-7A17-4EF9-A669-9CD4BFDD73E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D746D4EE-CE14-426B-A863-1837BBD80BC4}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{FB4A35C3-13BA-439C-92C2-A466A92FB7C5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="293">
   <si>
     <t xml:space="preserve">伊絲卡 </t>
   </si>
@@ -889,22 +889,31 @@
     <t>Free</t>
   </si>
   <si>
-    <t>GoodMacky.jpg</t>
-  </si>
-  <si>
     <t>Myunfa.jpg</t>
   </si>
   <si>
     <t>霧華</t>
   </si>
   <si>
-    <t>&lt;!DOCTYPE html&gt;&lt;html lang="zh-hant"&gt;&lt;head&gt;&lt;title&gt;Another Eden Character Collection Generator (inspired by magic-panda-engineer's Another Picker)&lt;/title&gt;&lt;meta charset="utf-8" /&gt;&lt;link rel="stylesheet" href="css/collection.css"&gt;&lt;script src="https://ajax.googleapis.com/ajax/libs/jquery/3.5.1/jquery.min.js"&gt;&lt;/script&gt;&lt;script src="js/html2canvas.js"&gt;&lt;/script&gt;&lt;script src="js/collection.js"&gt;&lt;/script&gt;&lt;/head&gt;&lt;body&gt;&lt;p&gt;Last updated: 20/05/2020 by Snowdome&lt;br&gt; &lt;a id="toEn" href=# onClick="toEn()"&gt;Switch to English&lt;/a&gt;&lt;a id="toZh" href=# onClick="location.reload();"&gt;重設&lt;/a&gt;&lt;/p&gt;&lt;ol id="note-zh"&gt;&lt;li&gt;Forked / inspired by magic-panda-engineer's &lt;a href="https://magic-panda-engineer.github.io/another_picker/index.html"&gt;Another Picker&lt;/a&gt;&lt;/li&gt;&lt;li&gt;強烈建議先將遊戲語言轉成英文，再跟名稱排序，最後才填寫資料。(不要問我為什麼遊戲中Bertrand排得比Benedict前)&lt;/li&gt;&lt;li&gt;可以儲存最底的文字方塊內的CSV供日後使用。&lt;/li&gt;&lt;li&gt;如果以&lt;a href="https://forum.gamer.com.tw/C.php?bsn=29220&amp;snA=3676"&gt;普池的機率&lt;/a&gt;計算天值比，&lt;span id="zhaLS5"&gt;5星&lt;/span&gt; : &lt;span id="zhaLS4"&gt;4星&lt;/span&gt; : &lt;span id="zhaLS3"&gt;3星&lt;/span&gt;的比例大約為&lt;span id="zhbLS5"&gt;2.77&lt;/span&gt; : &lt;span id="zhbLS4"&gt;6.35&lt;/span&gt; : &lt;span id="zhbLS3"&gt;1&lt;/span&gt; (非洲人表示...)&lt;/li&gt;&lt;li&gt;直出PNG生成需要十數秒時間，點擊成品可以下載圖片。&lt;/li&gt;&lt;li&gt;已知iPad有bug，直出PNG有機會截圖出問題。可以改用系統內建的截圖功能或不顯示3星角以減少截圖尺寸。&lt;/li&gt;&lt;/ol&gt;&lt;ol id="note-en"&gt;&lt;li&gt;Forked / inspired by magic-panda-engineer's &lt;a href="https://magic-panda-engineer.github.io/another_picker/index.html"&gt;Another Picker&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Switching to English and sort by name beforehand is highly recommended. (Do not ask me why Bertrand is before Benedict)&lt;/li&gt;&lt;li&gt;You can save the CSV strings in the textbox below for later use.&lt;/li&gt;&lt;li&gt;Per &lt;a href="https://forum.gamer.com.tw/C.php?bsn=29220&amp;snA=3676"&gt;normal encounter&lt;/a&gt; proability，the light/shadow value ratio for &lt;span id="enaLS5"&gt;5-star&lt;/span&gt; : &lt;span id="enaLS4"&gt;4-star&lt;/span&gt; : &lt;span id="enaLS3"&gt;3-star&lt;/span&gt; should be about &lt;span id="enbLS5"&gt;2.77&lt;/span&gt; : &lt;span id="enbLS4"&gt;6.35&lt;/span&gt; : &lt;span id="enbLS3"&gt;1&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Direct output of PNG may take ten to twenty seconds. Clicking on the image will download the file.&lt;/li&gt;&lt;li&gt;It is known that direct output using iPad may generate corrupted canvas. You may use the system built-in screenshot or try to exclude 3-star characters to reduce image dimensions.&lt;/li&gt;&lt;/ol&gt;&lt;table id="charList"&gt;&lt;thead&gt;&lt;tr&gt;&lt;th colspan="3"&gt;&lt;Input type="text" id="title" value="自定義文字"&gt;&lt;/th&gt;&lt;th&gt;Attack/Zone type&lt;/th&gt;&lt;th&gt;Light/Shadow&lt;/th&gt;&lt;th&gt;Rank&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;&lt;tbody&gt;&lt;!-- Insert Excel output here--&gt;</t>
-  </si>
-  <si>
-    <t>&lt;!-- Excel output ends here --&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div id="endNotes"&gt;&lt;p&gt;&lt;textarea id="csv" rows="5" cols="50"&gt;&lt;/textarea&gt;&lt;div id="buttons"&gt;&lt;p&gt;&lt;button type="button" id="generate" onclick="generate()"&gt;生成&lt;/button&gt;&lt;br&gt; &lt;button type="button" id="revise" onclick="revise()" autocomplete="off" disabled&gt;修改&lt;/button&gt;&lt;br&gt; &lt;button type="button" id="import" onclick="importCSV()"&gt;匯入&lt;/button&gt;&lt;br&gt; &lt;button type="button" id="downloadCSV" onclick="downloadCSV()"&gt;儲存&lt;/button&gt;&lt;/p&gt;&lt;/div&gt;&lt;div id="options"&gt;&lt;div id="optionsCol1"&gt;&lt;p&gt;&lt;label id="lab_opt5"&gt;&lt;input type="checkbox" id="opt5" name="toggle5" value="toggle5" checked&gt;顯示5★ + AS&lt;/label&gt;&lt;br&gt; &lt;label id="lab_opt4"&gt;&lt;input type="checkbox" id="opt4" name="toggle4" value="toggle4" checked&gt;顯示4★&lt;/label&gt;&lt;br&gt; &lt;label id="lab_opt3"&gt;&lt;input type="checkbox" id="opt3" name="toggle3" value="toggle3" checked&gt;顯示3★&lt;/label&gt;&lt;br&gt; &lt;label id="lab_optIncNo"&gt;&lt;input type="checkbox" id="optIncNo" name="optIncNo" value="optIncNo"&gt;標題包括角色數&lt;/label&gt;&lt;br&gt;&lt;/p&gt;&lt;/div&gt;&lt;div id="optionsCol2"&gt;&lt;p&gt;&lt;label id="lab_optIncDate"&gt;&lt;input type="checkbox" id="optIncDate" name="optIncDate" value="optIncDate"&gt;包括製圖日期&lt;/label&gt;&lt;br&gt;&lt;label id="lab_optSumLS"&gt;&lt;input type="checkbox" id="optSumLS" name="showSumLS" value="showSumLS" checked&gt;計算夢見角天冥總值&lt;/label&gt;&lt;br&gt; &lt;label id="lab_optRatioLS"&gt;&lt;input type="checkbox" id="optRatioLS" name="showRatioLS" value="showRatioLS" checked&gt;計算夢見角天冥比例&lt;/label&gt;&lt;br&gt; &lt;label id="lab_optPNG"&gt;&lt;input type="checkbox" id="optPNG" name="toPNG" value="toPNG"&gt;直出PNG (Beta，不支援iPhone)&lt;/label&gt;&lt;br&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div id="canvasHandler"&gt;&lt;table id="tableOutput"&gt;&lt;tr&gt;&lt;th id="tableTitle"&gt;&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td id="5-star"&gt;5★ + AS&lt;span id="ratioLS"&gt; 夢見角天冥比例 [&lt;span id="ratioLS5"&gt;&lt;/span&gt;:&lt;span id="ratioLS4"&gt;&lt;/span&gt;:&lt;span id="ratioLS3"&gt;1&lt;/span&gt;]&lt;/span&gt;&lt;span id="sumLS"&gt; 夢見角天冥總值 [&lt;span id="sumLS5"&gt;16&lt;/span&gt;:&lt;span id="sumLS4"&gt;4&lt;/span&gt;:&lt;span id="sumLS3"&gt;1&lt;/span&gt;]&lt;/span&gt;&lt;br&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td id="4-star"&gt;4★&lt;br&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td id="3-star"&gt;3★&lt;br&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/div&gt; &lt;a id="download" href="" download="charList.png" target="_blank"&gt;&lt;div id="canvasOutput"&gt;&lt;/div&gt;&lt;/a&gt;&lt;/body&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
     <t>Poporo.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!DOCTYPE html&gt;&lt;html lang='zh-hant'&gt;&lt;head&gt;&lt;title&gt;Another Eden Character Collection Generator (inspired by magic-panda-engineer's Another Picker)&lt;/title&gt;&lt;meta charset='utf-8' /&gt;&lt;link rel='stylesheet' href='css/collection.css'&gt;&lt;script src='https://ajax.googleapis.com/ajax/libs/jquery/3.5.1/jquery.min.js'&gt;&lt;/script&gt;&lt;script src='js/html2canvas.js'&gt;&lt;/script&gt;&lt;script src='js/collection.js'&gt;&lt;/script&gt;&lt;/head&gt;&lt;body&gt;&lt;p&gt;Last updated: </t>
+  </si>
+  <si>
+    <t>Tiramisu.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提拉米蘇 </t>
+  </si>
+  <si>
+    <t>Good_Macky.jpg</t>
+  </si>
+  <si>
+    <t>&lt;/tbody&gt;&lt;/table&gt;&lt;div id="endNotes"&gt;&lt;p&gt;&lt;textarea id="csv" rows="5" cols="50"&gt;&lt;/textarea&gt;&lt;div id="buttons"&gt;&lt;p&gt;&lt;button type="button" id="generate" onclick="generate()"&gt;生成&lt;/button&gt;&lt;br&gt; &lt;button type="button" id="revise" onclick="revise()" autocomplete="off" disabled&gt;修改&lt;/button&gt;&lt;br&gt; &lt;button type="button" id="import" onclick="importCSV()"&gt;匯入&lt;/button&gt;&lt;br&gt; &lt;button type="button" id="downloadCSV" onclick="downloadCSV()"&gt;儲存&lt;/button&gt;&lt;/p&gt;&lt;/div&gt;&lt;div id="options"&gt;&lt;div id="optionsCol1"&gt;&lt;p&gt;&lt;label id="lab_opt5"&gt;&lt;input type="checkbox" id="opt5" name="toggle5" value="toggle5" checked&gt;顯示5★ + AS&lt;/label&gt;&lt;br&gt; &lt;label id="lab_opt4"&gt;&lt;input type="checkbox" id="opt4" name="toggle4" value="toggle4" checked&gt;顯示4★&lt;/label&gt;&lt;br&gt; &lt;label id="lab_opt3"&gt;&lt;input type="checkbox" id="opt3" name="toggle3" value="toggle3" checked&gt;顯示3★&lt;/label&gt;&lt;br&gt; &lt;label id="lab_optIncNo"&gt;&lt;input type="checkbox" id="optIncNo" name="optIncNo" value="optIncNo"&gt;標題包括角色數&lt;/label&gt;&lt;br&gt;&lt;/p&gt;&lt;/div&gt;&lt;div id="optionsCol2"&gt;&lt;p&gt;&lt;label id="lab_optIncDate"&gt;&lt;input type="checkbox" id="optIncDate" name="optIncDate" value="optIncDate"&gt;包括製圖日期&lt;/label&gt;&lt;br&gt;&lt;label id="lab_optSumLS"&gt;&lt;input type="checkbox" id="optSumLS" name="showSumLS" value="showSumLS" checked&gt;計算夢見角天冥總值&lt;/label&gt;&lt;br&gt; &lt;label id="lab_optRatioLS"&gt;&lt;input type="checkbox" id="optRatioLS" name="showRatioLS" value="showRatioLS" checked&gt;計算夢見角天冥比例&lt;/label&gt;&lt;br&gt; &lt;label id="lab_optPNG"&gt;&lt;input type="checkbox" id="optPNG" name="toPNG" value="toPNG"&gt;直出PNG (Beta，不支援iPhone)&lt;/label&gt;&lt;br&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div id="canvasHandler"&gt;&lt;table id="tableOutput"&gt;&lt;tr&gt;&lt;th id="tableTitle"&gt;&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td id="5-star"&gt;5★ + AS&lt;span id="ratioLS"&gt; 夢見角天冥比例 [&lt;span id="ratioLS5"&gt;&lt;/span&gt;:&lt;span id="ratioLS4"&gt;&lt;/span&gt;:&lt;span id="ratioLS3"&gt;1&lt;/span&gt;]&lt;/span&gt;&lt;span id="sumLS"&gt; 夢見角天冥總值 [&lt;span id="sumLS5"&gt;16&lt;/span&gt;:&lt;span id="sumLS4"&gt;4&lt;/span&gt;:&lt;span id="sumLS3"&gt;1&lt;/span&gt;]&lt;/span&gt;&lt;br&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td id="4-star"&gt;4★&lt;br&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td id="3-star"&gt;3★&lt;br&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/div&gt; &lt;a id="download" href="" download="charList.png" target="_blank"&gt;&lt;div id="canvasOutput"&gt;&lt;/div&gt;&lt;/a&gt;&lt;/body&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> by Snowdome&lt;br&gt; &lt;a id='toEn' href=# onClick='toEn()'&gt;Switch to English&lt;/a&gt;&lt;a id='toZh' href=# onClick='location.reload();'&gt;重設&lt;/a&gt;&lt;/p&gt;&lt;ol id='note-zh'&gt;&lt;li&gt;Forked / inspired by magic-panda-engineer's &lt;a href='https://magic-panda-engineer.github.io/another_picker/index.html'&gt;Another Picker&lt;/a&gt;&lt;/li&gt;&lt;li&gt;強烈建議先將遊戲語言轉成英文，再跟名稱排序，最後才填寫資料。(不要問我為什麼遊戲中Bertrand排得比Benedict前)&lt;/li&gt;&lt;li&gt;可以儲存最底的文字方塊內的CSV供日後使用。&lt;/li&gt;&lt;li&gt;如果以&lt;a href='https://forum.gamer.com.tw/C.php?bsn=29220&amp;snA=3676'&gt;普池的機率&lt;/a&gt;計算天值比，&lt;span id='zhaLS5'&gt;5星&lt;/span&gt; : &lt;span id='zhaLS4'&gt;4星&lt;/span&gt; : &lt;span id='zhaLS3'&gt;3星&lt;/span&gt;的比例大約為&lt;span id='zhbLS5'&gt;2.77&lt;/span&gt; : &lt;span id='zhbLS4'&gt;6.35&lt;/span&gt; : &lt;span id='zhbLS3'&gt;1&lt;/span&gt; (非洲人表示...)&lt;/li&gt;&lt;li&gt;直出PNG生成需要十數秒時間，點擊成品可以下載圖片。&lt;/li&gt;&lt;li&gt;已知iPad有bug，直出PNG有機會截圖出問題。可以改用系統內建的截圖功能或不顯示3星角以減少截圖尺寸。&lt;/li&gt;&lt;li&gt;按角色縮圖會傳送至該角色的英文&lt;a href='https://anothereden.miraheze.org'&gt;Wiki&lt;/a&gt;頁面。&lt;/li&gt;&lt;/ol&gt;&lt;ol id='note-en'&gt;&lt;li&gt;Forked / inspired by magic-panda-engineer's &lt;a href='https://magic-panda-engineer.github.io/another_picker/index.html'&gt;Another Picker&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Switching to English and sort by name beforehand is highly recommended. (Do not ask me why Bertrand is before Benedict)&lt;/li&gt;&lt;li&gt;You can save the CSV strings in the textbox below for later use.&lt;/li&gt;&lt;li&gt;Per &lt;a href='https://forum.gamer.com.tw/C.php?bsn=29220&amp;snA=3676'&gt;normal encounter&lt;/a&gt; proability，the light/shadow value ratio for &lt;span id='enaLS5'&gt;5-star&lt;/span&gt; : &lt;span id='enaLS4'&gt;4-star&lt;/span&gt; : &lt;span id='enaLS3'&gt;3-star&lt;/span&gt; should be about &lt;span id='enbLS5'&gt;2.77&lt;/span&gt; : &lt;span id='enbLS4'&gt;6.35&lt;/span&gt; : &lt;span id='enbLS3'&gt;1&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Direct output of PNG may take ten to twenty seconds. Clicking on the image will download the file.&lt;/li&gt;&lt;li&gt;It is known that direct output using iPad may generate corrupted canvas. You may use the system built-in screenshot or try to exclude 3-star characters to reduce image dimensions.&lt;/li&gt;&lt;li&gt;Clicking the character's thumbnail will redirect to the character's page in &lt;a href='https://anothereden.miraheze.org'&gt;Another Eden Wiki&lt;/a&gt;.&lt;/li&gt;&lt;/ol&gt;&lt;table id='charList'&gt;&lt;thead&gt;&lt;tr&gt;&lt;th colspan='3'&gt;&lt;Input type='text' id='title' value='自定義文字'&gt;&lt;/th&gt;&lt;th&gt;Attack/Zone type&lt;/th&gt;&lt;th&gt;Light/Shadow&lt;/th&gt;&lt;th&gt;Rank&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;&lt;tbody&gt;</t>
   </si>
 </sst>
 </file>
@@ -955,133 +964,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1133,142 +1016,6 @@
           <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1580,11 +1327,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B535A930-5FFC-4C28-93C5-DE94369B070D}">
-  <dimension ref="A1:P127"/>
+  <dimension ref="A1:P128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1:P1048576"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1:P128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1630,8 +1377,9 @@
       <c r="K1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>287</v>
+      <c r="P1" s="1" t="str">
+        <f ca="1">Sheet2!L1&amp;TEXT(TODAY(),"DD/MM/YYYY")&amp;Sheet2!L2</f>
+        <v>&lt;!DOCTYPE html&gt;&lt;html lang='zh-hant'&gt;&lt;head&gt;&lt;title&gt;Another Eden Character Collection Generator (inspired by magic-panda-engineer's Another Picker)&lt;/title&gt;&lt;meta charset='utf-8' /&gt;&lt;link rel='stylesheet' href='css/collection.css'&gt;&lt;script src='https://ajax.googleapis.com/ajax/libs/jquery/3.5.1/jquery.min.js'&gt;&lt;/script&gt;&lt;script src='js/html2canvas.js'&gt;&lt;/script&gt;&lt;script src='js/collection.js'&gt;&lt;/script&gt;&lt;/head&gt;&lt;body&gt;&lt;p&gt;Last updated: 01/07/2020 by Snowdome&lt;br&gt; &lt;a id='toEn' href=# onClick='toEn()'&gt;Switch to English&lt;/a&gt;&lt;a id='toZh' href=# onClick='location.reload();'&gt;重設&lt;/a&gt;&lt;/p&gt;&lt;ol id='note-zh'&gt;&lt;li&gt;Forked / inspired by magic-panda-engineer's &lt;a href='https://magic-panda-engineer.github.io/another_picker/index.html'&gt;Another Picker&lt;/a&gt;&lt;/li&gt;&lt;li&gt;強烈建議先將遊戲語言轉成英文，再跟名稱排序，最後才填寫資料。(不要問我為什麼遊戲中Bertrand排得比Benedict前)&lt;/li&gt;&lt;li&gt;可以儲存最底的文字方塊內的CSV供日後使用。&lt;/li&gt;&lt;li&gt;如果以&lt;a href='https://forum.gamer.com.tw/C.php?bsn=29220&amp;snA=3676'&gt;普池的機率&lt;/a&gt;計算天值比，&lt;span id='zhaLS5'&gt;5星&lt;/span&gt; : &lt;span id='zhaLS4'&gt;4星&lt;/span&gt; : &lt;span id='zhaLS3'&gt;3星&lt;/span&gt;的比例大約為&lt;span id='zhbLS5'&gt;2.77&lt;/span&gt; : &lt;span id='zhbLS4'&gt;6.35&lt;/span&gt; : &lt;span id='zhbLS3'&gt;1&lt;/span&gt; (非洲人表示...)&lt;/li&gt;&lt;li&gt;直出PNG生成需要十數秒時間，點擊成品可以下載圖片。&lt;/li&gt;&lt;li&gt;已知iPad有bug，直出PNG有機會截圖出問題。可以改用系統內建的截圖功能或不顯示3星角以減少截圖尺寸。&lt;/li&gt;&lt;li&gt;按角色縮圖會傳送至該角色的英文&lt;a href='https://anothereden.miraheze.org'&gt;Wiki&lt;/a&gt;頁面。&lt;/li&gt;&lt;/ol&gt;&lt;ol id='note-en'&gt;&lt;li&gt;Forked / inspired by magic-panda-engineer's &lt;a href='https://magic-panda-engineer.github.io/another_picker/index.html'&gt;Another Picker&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Switching to English and sort by name beforehand is highly recommended. (Do not ask me why Bertrand is before Benedict)&lt;/li&gt;&lt;li&gt;You can save the CSV strings in the textbox below for later use.&lt;/li&gt;&lt;li&gt;Per &lt;a href='https://forum.gamer.com.tw/C.php?bsn=29220&amp;snA=3676'&gt;normal encounter&lt;/a&gt; proability，the light/shadow value ratio for &lt;span id='enaLS5'&gt;5-star&lt;/span&gt; : &lt;span id='enaLS4'&gt;4-star&lt;/span&gt; : &lt;span id='enaLS3'&gt;3-star&lt;/span&gt; should be about &lt;span id='enbLS5'&gt;2.77&lt;/span&gt; : &lt;span id='enbLS4'&gt;6.35&lt;/span&gt; : &lt;span id='enbLS3'&gt;1&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Direct output of PNG may take ten to twenty seconds. Clicking on the image will download the file.&lt;/li&gt;&lt;li&gt;It is known that direct output using iPad may generate corrupted canvas. You may use the system built-in screenshot or try to exclude 3-star characters to reduce image dimensions.&lt;/li&gt;&lt;li&gt;Clicking the character's thumbnail will redirect to the character's page in &lt;a href='https://anothereden.miraheze.org'&gt;Another Eden Wiki&lt;/a&gt;.&lt;/li&gt;&lt;/ol&gt;&lt;table id='charList'&gt;&lt;thead&gt;&lt;tr&gt;&lt;th colspan='3'&gt;&lt;Input type='text' id='title' value='自定義文字'&gt;&lt;/th&gt;&lt;th&gt;Attack/Zone type&lt;/th&gt;&lt;th&gt;Light/Shadow&lt;/th&gt;&lt;th&gt;Rank&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;&lt;tbody&gt;</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1639,7 +1387,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>LEFT(A2,(FIND(".",A2,1)-1))</f>
+        <f t="shared" ref="B2:B33" si="0">LEFT(A2,(FIND(".",A2,1)-1))</f>
         <v>Akane</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1673,8 +1421,8 @@
         <v>133</v>
       </c>
       <c r="P2" s="1" t="str">
-        <f t="shared" ref="P2:P65" si="0">"&lt;tr id='"&amp;SUBSTITUTE(B2," ","")&amp;"' class='"&amp;D2&amp;IF(I2="N"," Dream", " Free")&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A2&amp;"'&gt;"&amp;IF(H2="Y","&lt;img src='img/"&amp;B2&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K2&amp;".png'&gt;"&amp;IF(L2="","","&lt;img src='img/type/"&amp;L2&amp;".png'&gt;")&amp;IF(M2="","","&lt;img src='img/type/"&amp;M2&amp;".png'&gt;")&amp;IF(N2="","","&lt;img src='img/type/"&amp;N2&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B2," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='3'"&amp;IF(E2="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='4'"&amp;IF(F2="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='5'"&amp;IF(G2="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='checkbox' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='AS'"&amp;IF(H2="Y",""," disabled=''")&amp;"&gt;AS&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr id='Akane' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Akane.jpg'&gt;&lt;img src='img/Akane_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Akane&lt;/td&gt;&lt;td&gt;茜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Akane_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Akane_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Akane_rank' value='3'&gt;3 &lt;input type='radio' name='Akane_rank' value='4'&gt;4 &lt;input type='radio' name='Akane_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Akane_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr id='"&amp;SUBSTITUTE(B2," ","")&amp;"' class='"&amp;D2&amp;IF(I2="N"," Dream", " Free")&amp;"'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/"&amp;B2&amp;"'&gt;&lt;img src='img/"&amp;A2&amp;"'&gt;&lt;/a&gt; "&amp;IF(H2="Y","&lt;a href='https://anothereden.miraheze.org/wiki/"&amp;B2&amp;"_(Another_Style)'&gt;&lt;img src='img/"&amp;B2&amp;"_AS.jpg'&gt;&lt;/a&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K2&amp;".png'&gt;"&amp;IF(L2="","","&lt;img src='img/type/"&amp;L2&amp;".png'&gt;")&amp;IF(M2="","","&lt;img src='img/type/"&amp;M2&amp;".png'&gt;")&amp;IF(N2="","","&lt;img src='img/type/"&amp;N2&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B2," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='3'"&amp;IF(E2="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='4'"&amp;IF(F2="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='5'"&amp;IF(G2="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='checkbox' name='"&amp;SUBSTITUTE(B2," ","")&amp;"_rank' value='AS'"&amp;IF(H2="Y",""," disabled=''")&amp;"&gt;AS&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr id='Akane' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Akane'&gt;&lt;img src='img/Akane.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Akane_(Another_Style)'&gt;&lt;img src='img/Akane_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Akane&lt;/td&gt;&lt;td&gt;茜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Akane_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Akane_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Akane_rank' value='3'&gt;3 &lt;input type='radio' name='Akane_rank' value='4'&gt;4 &lt;input type='radio' name='Akane_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Akane_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1682,7 +1430,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>LEFT(A3,(FIND(".",A3,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Aldo</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1713,8 +1461,8 @@
         <v>133</v>
       </c>
       <c r="P3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Aldo' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Aldo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Aldo&lt;/td&gt;&lt;td&gt;阿爾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Aldo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Aldo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Aldo_rank' value='3'&gt;3 &lt;input type='radio' name='Aldo_rank' value='4'&gt;4 &lt;input type='radio' name='Aldo_rank' value='5'&gt;5 &lt;input type='checkbox' name='Aldo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="P3:P66" si="1">"&lt;tr id='"&amp;SUBSTITUTE(B3," ","")&amp;"' class='"&amp;D3&amp;IF(I3="N"," Dream", " Free")&amp;"'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/"&amp;B3&amp;"'&gt;&lt;img src='img/"&amp;A3&amp;"'&gt;&lt;/a&gt; "&amp;IF(H3="Y","&lt;a href='https://anothereden.miraheze.org/wiki/"&amp;B3&amp;"_(Another_Style)'&gt;&lt;img src='img/"&amp;B3&amp;"_AS.jpg'&gt;&lt;/a&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C3&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K3&amp;".png'&gt;"&amp;IF(L3="","","&lt;img src='img/type/"&amp;L3&amp;".png'&gt;")&amp;IF(M3="","","&lt;img src='img/type/"&amp;M3&amp;".png'&gt;")&amp;IF(N3="","","&lt;img src='img/type/"&amp;N3&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B3," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='3'"&amp;IF(E3="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='4'"&amp;IF(F3="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='5'"&amp;IF(G3="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='checkbox' name='"&amp;SUBSTITUTE(B3," ","")&amp;"_rank' value='AS'"&amp;IF(H3="Y",""," disabled=''")&amp;"&gt;AS&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr id='Aldo' class='Light Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Aldo'&gt;&lt;img src='img/Aldo.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Aldo&lt;/td&gt;&lt;td&gt;阿爾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Aldo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Aldo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Aldo_rank' value='3'&gt;3 &lt;input type='radio' name='Aldo_rank' value='4'&gt;4 &lt;input type='radio' name='Aldo_rank' value='5'&gt;5 &lt;input type='checkbox' name='Aldo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1722,7 +1470,7 @@
         <v>275</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>LEFT(A4,(FIND(".",A4,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Altena</v>
       </c>
       <c r="C4" t="s">
@@ -1753,8 +1501,8 @@
         <v>132</v>
       </c>
       <c r="P4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Altena' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Altena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Altena&lt;/td&gt;&lt;td&gt;阿露緹娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Altena_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Altena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Altena_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Altena_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Altena_rank' value='5'&gt;5 &lt;input type='checkbox' name='Altena_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Altena' class='Shadow Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Altena'&gt;&lt;img src='img/Altena.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Altena&lt;/td&gt;&lt;td&gt;阿露緹娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Altena_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Altena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Altena_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Altena_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Altena_rank' value='5'&gt;5 &lt;input type='checkbox' name='Altena_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1762,7 +1510,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>LEFT(A5,(FIND(".",A5,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Amy</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1793,8 +1541,8 @@
         <v>136</v>
       </c>
       <c r="P5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Amy' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Amy.jpg'&gt;&lt;/td&gt;&lt;td&gt;Amy&lt;/td&gt;&lt;td&gt;艾米&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Amy_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Amy_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Amy_rank' value='3'&gt;3 &lt;input type='radio' name='Amy_rank' value='4'&gt;4 &lt;input type='radio' name='Amy_rank' value='5'&gt;5 &lt;input type='checkbox' name='Amy_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Amy' class='Light Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Amy'&gt;&lt;img src='img/Amy.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Amy&lt;/td&gt;&lt;td&gt;艾米&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Amy_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Amy_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Amy_rank' value='3'&gt;3 &lt;input type='radio' name='Amy_rank' value='4'&gt;4 &lt;input type='radio' name='Amy_rank' value='5'&gt;5 &lt;input type='checkbox' name='Amy_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1802,7 +1550,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>LEFT(A6,(FIND(".",A6,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Anabel</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1836,8 +1584,8 @@
         <v>185</v>
       </c>
       <c r="P6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Anabel' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Anabel.jpg'&gt;&lt;/td&gt;&lt;td&gt;Anabel&lt;/td&gt;&lt;td&gt;安娜貝爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Anabel_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Anabel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Anabel_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Anabel_rank' value='4'&gt;4 &lt;input type='radio' name='Anabel_rank' value='5'&gt;5 &lt;input type='checkbox' name='Anabel_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Anabel' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Anabel'&gt;&lt;img src='img/Anabel.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Anabel&lt;/td&gt;&lt;td&gt;安娜貝爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Anabel_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Anabel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Anabel_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Anabel_rank' value='4'&gt;4 &lt;input type='radio' name='Anabel_rank' value='5'&gt;5 &lt;input type='checkbox' name='Anabel_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1845,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>LEFT(A7,(FIND(".",A7,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Asia</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1873,8 +1621,8 @@
         <v>141</v>
       </c>
       <c r="P7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Asia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Asia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Asia&lt;/td&gt;&lt;td&gt;艾希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Asia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Asia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Asia_rank' value='3'&gt;3 &lt;input type='radio' name='Asia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Asia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Asia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Asia' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Asia'&gt;&lt;img src='img/Asia.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Asia&lt;/td&gt;&lt;td&gt;艾希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Asia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Asia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Asia_rank' value='3'&gt;3 &lt;input type='radio' name='Asia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Asia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Asia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1882,7 +1630,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f>LEFT(A8,(FIND(".",A8,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Azami</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1916,8 +1664,8 @@
         <v>142</v>
       </c>
       <c r="P8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Azami' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Azami.jpg'&gt;&lt;/td&gt;&lt;td&gt;Azami&lt;/td&gt;&lt;td&gt;阿佐美&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Azami_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Azami_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Azami_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Azami_rank' value='4'&gt;4 &lt;input type='radio' name='Azami_rank' value='5'&gt;5 &lt;input type='checkbox' name='Azami_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Azami' class='Light Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Azami'&gt;&lt;img src='img/Azami.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Azami&lt;/td&gt;&lt;td&gt;阿佐美&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Azami_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Azami_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Azami_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Azami_rank' value='4'&gt;4 &lt;input type='radio' name='Azami_rank' value='5'&gt;5 &lt;input type='checkbox' name='Azami_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1925,7 +1673,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f>LEFT(A9,(FIND(".",A9,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Benedict</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1956,8 +1704,8 @@
         <v>142</v>
       </c>
       <c r="P9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Benedict' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Benedict.jpg'&gt;&lt;/td&gt;&lt;td&gt;Benedict&lt;/td&gt;&lt;td&gt;貝內迪特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Benedict_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Benedict_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Benedict_rank' value='3'&gt;3 &lt;input type='radio' name='Benedict_rank' value='4'&gt;4 &lt;input type='radio' name='Benedict_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Benedict_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Benedict' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Benedict'&gt;&lt;img src='img/Benedict.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Benedict&lt;/td&gt;&lt;td&gt;貝內迪特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Benedict_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Benedict_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Benedict_rank' value='3'&gt;3 &lt;input type='radio' name='Benedict_rank' value='4'&gt;4 &lt;input type='radio' name='Benedict_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Benedict_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1965,7 +1713,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f>LEFT(A10,(FIND(".",A10,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Bertrand</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1996,8 +1744,8 @@
         <v>155</v>
       </c>
       <c r="P10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Bertrand' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Bertrand.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bertrand&lt;/td&gt;&lt;td&gt;貝特朗 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bertrand_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bertrand_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bertrand_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Bertrand_rank' value='4'&gt;4 &lt;input type='radio' name='Bertrand_rank' value='5'&gt;5 &lt;input type='checkbox' name='Bertrand_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Bertrand' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Bertrand'&gt;&lt;img src='img/Bertrand.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Bertrand&lt;/td&gt;&lt;td&gt;貝特朗 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bertrand_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bertrand_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bertrand_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Bertrand_rank' value='4'&gt;4 &lt;input type='radio' name='Bertrand_rank' value='5'&gt;5 &lt;input type='checkbox' name='Bertrand_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -2005,7 +1753,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f>LEFT(A11,(FIND(".",A11,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Biaka</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2036,8 +1784,8 @@
         <v>136</v>
       </c>
       <c r="P11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Biaka' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Biaka.jpg'&gt;&lt;/td&gt;&lt;td&gt;Biaka&lt;/td&gt;&lt;td&gt;維婭卡 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Biaka_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Biaka_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Biaka_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Biaka_rank' value='4'&gt;4 &lt;input type='radio' name='Biaka_rank' value='5'&gt;5 &lt;input type='checkbox' name='Biaka_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Biaka' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Biaka'&gt;&lt;img src='img/Biaka.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Biaka&lt;/td&gt;&lt;td&gt;維婭卡 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Biaka_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Biaka_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Biaka_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Biaka_rank' value='4'&gt;4 &lt;input type='radio' name='Biaka_rank' value='5'&gt;5 &lt;input type='checkbox' name='Biaka_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -2045,7 +1793,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f>LEFT(A12,(FIND(".",A12,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Bivette</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2061,7 +1809,7 @@
         <v>126</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>127</v>
@@ -2073,8 +1821,8 @@
         <v>145</v>
       </c>
       <c r="P12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Bivette' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Bivette.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bivette&lt;/td&gt;&lt;td&gt;碧薇特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bivette_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bivette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bivette_rank' value='3'&gt;3 &lt;input type='radio' name='Bivette_rank' value='4'&gt;4 &lt;input type='radio' name='Bivette_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Bivette_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Bivette' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Bivette'&gt;&lt;img src='img/Bivette.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Bivette&lt;/td&gt;&lt;td&gt;碧薇特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bivette_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bivette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bivette_rank' value='3'&gt;3 &lt;input type='radio' name='Bivette_rank' value='4'&gt;4 &lt;input type='radio' name='Bivette_rank' value='5'&gt;5 &lt;input type='checkbox' name='Bivette_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -2082,7 +1830,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f>LEFT(A13,(FIND(".",A13,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Breeno</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2113,8 +1861,8 @@
         <v>154</v>
       </c>
       <c r="P13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Breeno' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Breeno.jpg'&gt;&lt;/td&gt;&lt;td&gt;Breeno&lt;/td&gt;&lt;td&gt;布里諾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Breeno_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Breeno_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Breeno_rank' value='3'&gt;3 &lt;input type='radio' name='Breeno_rank' value='4'&gt;4 &lt;input type='radio' name='Breeno_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Breeno_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Breeno' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Breeno'&gt;&lt;img src='img/Breeno.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Breeno&lt;/td&gt;&lt;td&gt;布里諾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Breeno_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Breeno_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Breeno_rank' value='3'&gt;3 &lt;input type='radio' name='Breeno_rank' value='4'&gt;4 &lt;input type='radio' name='Breeno_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Breeno_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -2122,7 +1870,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f>LEFT(A14,(FIND(".",A14,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Bria</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2153,8 +1901,8 @@
         <v>149</v>
       </c>
       <c r="P14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Bria' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Bria.jpg'&gt;&lt;/td&gt;&lt;td&gt;Bria&lt;/td&gt;&lt;td&gt;布利亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bria_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bria_rank' value='3'&gt;3 &lt;input type='radio' name='Bria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Bria_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Bria_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Bria' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Bria'&gt;&lt;img src='img/Bria.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Bria&lt;/td&gt;&lt;td&gt;布利亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Bria_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Bria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Bria_rank' value='3'&gt;3 &lt;input type='radio' name='Bria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Bria_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Bria_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -2162,7 +1910,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f>LEFT(A15,(FIND(".",A15,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Cerrine</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2196,8 +1944,8 @@
         <v>156</v>
       </c>
       <c r="P15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Cerrine' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Cerrine.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cerrine&lt;/td&gt;&lt;td&gt;思琳&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cerrine_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cerrine_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cerrine_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Cerrine_rank' value='4'&gt;4 &lt;input type='radio' name='Cerrine_rank' value='5'&gt;5 &lt;input type='checkbox' name='Cerrine_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Cerrine' class='Light Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Cerrine'&gt;&lt;img src='img/Cerrine.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Cerrine&lt;/td&gt;&lt;td&gt;思琳&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cerrine_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cerrine_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cerrine_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Cerrine_rank' value='4'&gt;4 &lt;input type='radio' name='Cerrine_rank' value='5'&gt;5 &lt;input type='checkbox' name='Cerrine_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -2205,7 +1953,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f>LEFT(A16,(FIND(".",A16,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Cetie</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2239,8 +1987,8 @@
         <v>147</v>
       </c>
       <c r="P16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Cetie' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Cetie.jpg'&gt;&lt;img src='img/Cetie_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cetie&lt;/td&gt;&lt;td&gt;謝提&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cetie_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cetie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cetie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Cetie_rank' value='4'&gt;4 &lt;input type='radio' name='Cetie_rank' value='5'&gt;5 &lt;input type='checkbox' name='Cetie_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Cetie' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Cetie'&gt;&lt;img src='img/Cetie.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Cetie_(Another_Style)'&gt;&lt;img src='img/Cetie_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Cetie&lt;/td&gt;&lt;td&gt;謝提&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cetie_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cetie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cetie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Cetie_rank' value='4'&gt;4 &lt;input type='radio' name='Cetie_rank' value='5'&gt;5 &lt;input type='checkbox' name='Cetie_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -2248,7 +1996,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f>LEFT(A17,(FIND(".",A17,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Chiyo</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2276,8 +2024,8 @@
         <v>153</v>
       </c>
       <c r="P17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Chiyo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Chiyo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Chiyo&lt;/td&gt;&lt;td&gt;千代&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Chiyo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Chiyo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Chiyo_rank' value='3'&gt;3 &lt;input type='radio' name='Chiyo_rank' value='4'&gt;4 &lt;input type='radio' name='Chiyo_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Chiyo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Chiyo' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Chiyo'&gt;&lt;img src='img/Chiyo.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Chiyo&lt;/td&gt;&lt;td&gt;千代&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Chiyo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Chiyo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Chiyo_rank' value='3'&gt;3 &lt;input type='radio' name='Chiyo_rank' value='4'&gt;4 &lt;input type='radio' name='Chiyo_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Chiyo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -2285,7 +2033,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>LEFT(A18,(FIND(".",A18,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Ciel</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2316,8 +2064,8 @@
         <v>155</v>
       </c>
       <c r="P18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Ciel' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Ciel.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ciel&lt;/td&gt;&lt;td&gt;西雅爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ciel_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ciel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ciel_rank' value='3'&gt;3 &lt;input type='radio' name='Ciel_rank' value='4'&gt;4 &lt;input type='radio' name='Ciel_rank' value='5'&gt;5 &lt;input type='checkbox' name='Ciel_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Ciel' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Ciel'&gt;&lt;img src='img/Ciel.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Ciel&lt;/td&gt;&lt;td&gt;西雅爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ciel_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ciel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ciel_rank' value='3'&gt;3 &lt;input type='radio' name='Ciel_rank' value='4'&gt;4 &lt;input type='radio' name='Ciel_rank' value='5'&gt;5 &lt;input type='checkbox' name='Ciel_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -2325,7 +2073,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f>LEFT(A19,(FIND(".",A19,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Claude</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2359,8 +2107,8 @@
         <v>186</v>
       </c>
       <c r="P19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Claude' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Claude.jpg'&gt;&lt;img src='img/Claude_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Claude&lt;/td&gt;&lt;td&gt;克勞特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Claude_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Claude_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Claude_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Claude_rank' value='4'&gt;4 &lt;input type='radio' name='Claude_rank' value='5'&gt;5 &lt;input type='checkbox' name='Claude_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Claude' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Claude'&gt;&lt;img src='img/Claude.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Claude_(Another_Style)'&gt;&lt;img src='img/Claude_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Claude&lt;/td&gt;&lt;td&gt;克勞特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Claude_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Claude_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Claude_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Claude_rank' value='4'&gt;4 &lt;input type='radio' name='Claude_rank' value='5'&gt;5 &lt;input type='checkbox' name='Claude_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -2368,7 +2116,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f>LEFT(A20,(FIND(".",A20,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Ctos</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2396,8 +2144,8 @@
         <v>130</v>
       </c>
       <c r="P20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Ctos' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Ctos.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ctos&lt;/td&gt;&lt;td&gt;古拓斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ctos_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ctos_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ctos_rank' value='3'&gt;3 &lt;input type='radio' name='Ctos_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Ctos_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Ctos_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Ctos' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Ctos'&gt;&lt;img src='img/Ctos.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Ctos&lt;/td&gt;&lt;td&gt;古拓斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ctos_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ctos_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ctos_rank' value='3'&gt;3 &lt;input type='radio' name='Ctos_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Ctos_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Ctos_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -2405,7 +2153,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f>LEFT(A21,(FIND(".",A21,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Cyrus</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2439,8 +2187,8 @@
         <v>138</v>
       </c>
       <c r="P21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Cyrus' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Cyrus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cyrus&lt;/td&gt;&lt;td&gt;賽勒斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cyrus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cyrus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cyrus_rank' value='3'&gt;3 &lt;input type='radio' name='Cyrus_rank' value='4'&gt;4 &lt;input type='radio' name='Cyrus_rank' value='5'&gt;5 &lt;input type='checkbox' name='Cyrus_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Cyrus' class='Light Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Cyrus'&gt;&lt;img src='img/Cyrus.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Cyrus&lt;/td&gt;&lt;td&gt;賽勒斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cyrus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cyrus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cyrus_rank' value='3'&gt;3 &lt;input type='radio' name='Cyrus_rank' value='4'&gt;4 &lt;input type='radio' name='Cyrus_rank' value='5'&gt;5 &lt;input type='checkbox' name='Cyrus_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -2448,7 +2196,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f>LEFT(A22,(FIND(".",A22,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Cyuca</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2479,8 +2227,8 @@
         <v>142</v>
       </c>
       <c r="P22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Cyuca' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Cyuca.jpg'&gt;&lt;/td&gt;&lt;td&gt;Cyuca&lt;/td&gt;&lt;td&gt;喬卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cyuca_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cyuca_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cyuca_rank' value='3'&gt;3 &lt;input type='radio' name='Cyuca_rank' value='4'&gt;4 &lt;input type='radio' name='Cyuca_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Cyuca_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Cyuca' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Cyuca'&gt;&lt;img src='img/Cyuca.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Cyuca&lt;/td&gt;&lt;td&gt;喬卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Cyuca_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Cyuca_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Cyuca_rank' value='3'&gt;3 &lt;input type='radio' name='Cyuca_rank' value='4'&gt;4 &lt;input type='radio' name='Cyuca_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Cyuca_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2488,7 +2236,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f>LEFT(A23,(FIND(".",A23,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Darunis</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2519,8 +2267,8 @@
         <v>152</v>
       </c>
       <c r="P23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Darunis' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Darunis.jpg'&gt;&lt;/td&gt;&lt;td&gt;Darunis&lt;/td&gt;&lt;td&gt;達爾尼思&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Darunis_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Darunis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Darunis_rank' value='3'&gt;3 &lt;input type='radio' name='Darunis_rank' value='4'&gt;4 &lt;input type='radio' name='Darunis_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Darunis_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Darunis' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Darunis'&gt;&lt;img src='img/Darunis.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Darunis&lt;/td&gt;&lt;td&gt;達爾尼思&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Darunis_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Darunis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Darunis_rank' value='3'&gt;3 &lt;input type='radio' name='Darunis_rank' value='4'&gt;4 &lt;input type='radio' name='Darunis_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Darunis_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2528,7 +2276,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f>LEFT(A24,(FIND(".",A24,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Deirdre</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2544,7 +2292,7 @@
         <v>126</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>127</v>
@@ -2559,8 +2307,8 @@
         <v>154</v>
       </c>
       <c r="P24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Deirdre' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Deirdre.jpg'&gt;&lt;/td&gt;&lt;td&gt;Deirdre&lt;/td&gt;&lt;td&gt;蒂亞朵拉 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Deirdre_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Deirdre_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Deirdre_rank' value='3'&gt;3 &lt;input type='radio' name='Deirdre_rank' value='4'&gt;4 &lt;input type='radio' name='Deirdre_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Deirdre_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Deirdre' class='Shadow Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Deirdre'&gt;&lt;img src='img/Deirdre.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Deirdre&lt;/td&gt;&lt;td&gt;蒂亞朵拉 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Deirdre_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Deirdre_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Deirdre_rank' value='3'&gt;3 &lt;input type='radio' name='Deirdre_rank' value='4'&gt;4 &lt;input type='radio' name='Deirdre_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Deirdre_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2568,7 +2316,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f>LEFT(A25,(FIND(".",A25,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Denny</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2599,8 +2347,8 @@
         <v>138</v>
       </c>
       <c r="P25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Denny' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Denny.jpg'&gt;&lt;/td&gt;&lt;td&gt;Denny&lt;/td&gt;&lt;td&gt;丹尼 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Denny_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Denny_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Denny_rank' value='3'&gt;3 &lt;input type='radio' name='Denny_rank' value='4'&gt;4 &lt;input type='radio' name='Denny_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Denny_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Denny' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Denny'&gt;&lt;img src='img/Denny.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Denny&lt;/td&gt;&lt;td&gt;丹尼 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Denny_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Denny_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Denny_rank' value='3'&gt;3 &lt;input type='radio' name='Denny_rank' value='4'&gt;4 &lt;input type='radio' name='Denny_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Denny_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2608,7 +2356,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f>LEFT(A26,(FIND(".",A26,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Dewey</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2639,8 +2387,8 @@
         <v>150</v>
       </c>
       <c r="P26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Dewey' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Dewey.jpg'&gt;&lt;/td&gt;&lt;td&gt;Dewey&lt;/td&gt;&lt;td&gt;杜伊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Dewey_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Dewey_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Dewey_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Dewey_rank' value='4'&gt;4 &lt;input type='radio' name='Dewey_rank' value='5'&gt;5 &lt;input type='checkbox' name='Dewey_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Dewey' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Dewey'&gt;&lt;img src='img/Dewey.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Dewey&lt;/td&gt;&lt;td&gt;杜伊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Dewey_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Dewey_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Dewey_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Dewey_rank' value='4'&gt;4 &lt;input type='radio' name='Dewey_rank' value='5'&gt;5 &lt;input type='checkbox' name='Dewey_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2648,7 +2396,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f>LEFT(A27,(FIND(".",A27,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Dunarith</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2679,8 +2427,8 @@
         <v>142</v>
       </c>
       <c r="P27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Dunarith' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Dunarith.jpg'&gt;&lt;/td&gt;&lt;td&gt;Dunarith&lt;/td&gt;&lt;td&gt;杜拿利斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Dunarith_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Dunarith_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Dunarith_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Dunarith_rank' value='4'&gt;4 &lt;input type='radio' name='Dunarith_rank' value='5'&gt;5 &lt;input type='checkbox' name='Dunarith_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Dunarith' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Dunarith'&gt;&lt;img src='img/Dunarith.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Dunarith&lt;/td&gt;&lt;td&gt;杜拿利斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Dunarith_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Dunarith_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Dunarith_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Dunarith_rank' value='4'&gt;4 &lt;input type='radio' name='Dunarith_rank' value='5'&gt;5 &lt;input type='checkbox' name='Dunarith_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2688,7 +2436,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f>LEFT(A28,(FIND(".",A28,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Een</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2716,8 +2464,8 @@
         <v>141</v>
       </c>
       <c r="P28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Een' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Een.jpg'&gt;&lt;/td&gt;&lt;td&gt;Een&lt;/td&gt;&lt;td&gt;伊因&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Een_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Een_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Een_rank' value='3'&gt;3 &lt;input type='radio' name='Een_rank' value='4'&gt;4 &lt;input type='radio' name='Een_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Een_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Een' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Een'&gt;&lt;img src='img/Een.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Een&lt;/td&gt;&lt;td&gt;伊因&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Een_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Een_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Een_rank' value='3'&gt;3 &lt;input type='radio' name='Een_rank' value='4'&gt;4 &lt;input type='radio' name='Een_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Een_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2725,7 +2473,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f>LEFT(A29,(FIND(".",A29,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Elga</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2744,7 +2492,7 @@
         <v>126</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>127</v>
@@ -2756,8 +2504,8 @@
         <v>154</v>
       </c>
       <c r="P29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Elga' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Elga.jpg'&gt;&lt;/td&gt;&lt;td&gt;Elga&lt;/td&gt;&lt;td&gt;艾露嘉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Elga_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Elga_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Elga_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Elga_rank' value='4'&gt;4 &lt;input type='radio' name='Elga_rank' value='5'&gt;5 &lt;input type='checkbox' name='Elga_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Elga' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Elga'&gt;&lt;img src='img/Elga.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Elga_(Another_Style)'&gt;&lt;img src='img/Elga_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Elga&lt;/td&gt;&lt;td&gt;艾露嘉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Elga_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Elga_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Elga_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Elga_rank' value='4'&gt;4 &lt;input type='radio' name='Elga_rank' value='5'&gt;5 &lt;input type='checkbox' name='Elga_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2765,7 +2513,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f>LEFT(A30,(FIND(".",A30,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Emms</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2793,8 +2541,8 @@
         <v>130</v>
       </c>
       <c r="P30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Emms' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Emms.jpg'&gt;&lt;/td&gt;&lt;td&gt;Emms&lt;/td&gt;&lt;td&gt;艾姆斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Emms_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Emms_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Emms_rank' value='3'&gt;3 &lt;input type='radio' name='Emms_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Emms_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Emms_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Emms' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Emms'&gt;&lt;img src='img/Emms.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Emms&lt;/td&gt;&lt;td&gt;艾姆斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Emms_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Emms_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Emms_rank' value='3'&gt;3 &lt;input type='radio' name='Emms_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Emms_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Emms_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2802,7 +2550,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="1" t="str">
-        <f>LEFT(A31,(FIND(".",A31,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Erina</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2830,8 +2578,8 @@
         <v>129</v>
       </c>
       <c r="P31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Erina' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Erina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Erina&lt;/td&gt;&lt;td&gt;艾莉娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Erina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Erina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Erina_rank' value='3'&gt;3 &lt;input type='radio' name='Erina_rank' value='4'&gt;4 &lt;input type='radio' name='Erina_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Erina_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Erina' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Erina'&gt;&lt;img src='img/Erina.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Erina&lt;/td&gt;&lt;td&gt;艾莉娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Erina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Erina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Erina_rank' value='3'&gt;3 &lt;input type='radio' name='Erina_rank' value='4'&gt;4 &lt;input type='radio' name='Erina_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Erina_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -2839,7 +2587,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f>LEFT(A32,(FIND(".",A32,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Esta</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2867,8 +2615,8 @@
         <v>132</v>
       </c>
       <c r="P32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Esta' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Esta.jpg'&gt;&lt;/td&gt;&lt;td&gt;Esta&lt;/td&gt;&lt;td&gt;艾斯塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Esta_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Esta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Esta_rank' value='3'&gt;3 &lt;input type='radio' name='Esta_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Esta_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Esta_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Esta' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Esta'&gt;&lt;img src='img/Esta.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Esta&lt;/td&gt;&lt;td&gt;艾斯塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Esta_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Esta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Esta_rank' value='3'&gt;3 &lt;input type='radio' name='Esta_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Esta_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Esta_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -2876,7 +2624,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f>LEFT(A33,(FIND(".",A33,1)-1))</f>
+        <f t="shared" si="0"/>
         <v>Ewan</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2907,8 +2655,8 @@
         <v>147</v>
       </c>
       <c r="P33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Ewan' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Ewan.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ewan&lt;/td&gt;&lt;td&gt;尤因&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ewan_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ewan_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ewan_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Ewan_rank' value='4'&gt;4 &lt;input type='radio' name='Ewan_rank' value='5'&gt;5 &lt;input type='checkbox' name='Ewan_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Ewan' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Ewan'&gt;&lt;img src='img/Ewan.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Ewan&lt;/td&gt;&lt;td&gt;尤因&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ewan_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ewan_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ewan_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Ewan_rank' value='4'&gt;4 &lt;input type='radio' name='Ewan_rank' value='5'&gt;5 &lt;input type='checkbox' name='Ewan_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -2916,7 +2664,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f>LEFT(A34,(FIND(".",A34,1)-1))</f>
+        <f t="shared" ref="B34:B65" si="2">LEFT(A34,(FIND(".",A34,1)-1))</f>
         <v>Feinne</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2944,8 +2692,8 @@
         <v>129</v>
       </c>
       <c r="P34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Feinne' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Feinne.jpg'&gt;&lt;/td&gt;&lt;td&gt;Feinne&lt;/td&gt;&lt;td&gt;菲妮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Feinne_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Feinne_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Feinne_rank' value='3'&gt;3 &lt;input type='radio' name='Feinne_rank' value='4'&gt;4 &lt;input type='radio' name='Feinne_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Feinne_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Feinne' class='Shadow Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Feinne'&gt;&lt;img src='img/Feinne.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Feinne&lt;/td&gt;&lt;td&gt;菲妮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Feinne_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Feinne_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Feinne_rank' value='3'&gt;3 &lt;input type='radio' name='Feinne_rank' value='4'&gt;4 &lt;input type='radio' name='Feinne_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Feinne_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -2953,7 +2701,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f>LEFT(A35,(FIND(".",A35,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Felmina</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2990,8 +2738,8 @@
         <v>136</v>
       </c>
       <c r="P35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Felmina' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Felmina.jpg'&gt;&lt;img src='img/Felmina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Felmina&lt;/td&gt;&lt;td&gt;菲露米娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Felmina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Felmina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Felmina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Felmina_rank' value='4'&gt;4 &lt;input type='radio' name='Felmina_rank' value='5'&gt;5 &lt;input type='checkbox' name='Felmina_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Felmina' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Felmina'&gt;&lt;img src='img/Felmina.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Felmina_(Another_Style)'&gt;&lt;img src='img/Felmina_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Felmina&lt;/td&gt;&lt;td&gt;菲露米娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Felmina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Felmina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Felmina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Felmina_rank' value='4'&gt;4 &lt;input type='radio' name='Felmina_rank' value='5'&gt;5 &lt;input type='checkbox' name='Felmina_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -2999,7 +2747,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f>LEFT(A36,(FIND(".",A36,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Foran</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -3030,8 +2778,8 @@
         <v>149</v>
       </c>
       <c r="P36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Foran' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Foran.jpg'&gt;&lt;/td&gt;&lt;td&gt;Foran&lt;/td&gt;&lt;td&gt;芙朗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Foran_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Foran_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Foran_rank' value='3'&gt;3 &lt;input type='radio' name='Foran_rank' value='4'&gt;4 &lt;input type='radio' name='Foran_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Foran_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Foran' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Foran'&gt;&lt;img src='img/Foran.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Foran&lt;/td&gt;&lt;td&gt;芙朗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Foran_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Foran_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Foran_rank' value='3'&gt;3 &lt;input type='radio' name='Foran_rank' value='4'&gt;4 &lt;input type='radio' name='Foran_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Foran_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -3039,7 +2787,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f>LEFT(A37,(FIND(".",A37,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Galliard</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -3070,8 +2818,8 @@
         <v>155</v>
       </c>
       <c r="P37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Galliard' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Galliard.jpg'&gt;&lt;/td&gt;&lt;td&gt;Galliard&lt;/td&gt;&lt;td&gt;嘉里德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Galliard_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Galliard_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Galliard_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Galliard_rank' value='4'&gt;4 &lt;input type='radio' name='Galliard_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Galliard_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Galliard' class='Shadow Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Galliard'&gt;&lt;img src='img/Galliard.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Galliard&lt;/td&gt;&lt;td&gt;嘉里德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Galliard_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Galliard_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Galliard_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Galliard_rank' value='4'&gt;4 &lt;input type='radio' name='Galliard_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Galliard_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -3079,7 +2827,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f>LEFT(A38,(FIND(".",A38,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Gariyu</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3110,17 +2858,17 @@
         <v>184</v>
       </c>
       <c r="P38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Gariyu' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Gariyu.jpg'&gt;&lt;img src='img/Gariyu_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Gariyu&lt;/td&gt;&lt;td&gt;伽琉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;img src='img/type/fire_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Gariyu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Gariyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Gariyu_rank' value='3'&gt;3 &lt;input type='radio' name='Gariyu_rank' value='4'&gt;4 &lt;input type='radio' name='Gariyu_rank' value='5'&gt;5 &lt;input type='checkbox' name='Gariyu_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Gariyu' class='Shadow Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Gariyu'&gt;&lt;img src='img/Gariyu.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Gariyu_(Another_Style)'&gt;&lt;img src='img/Gariyu_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Gariyu&lt;/td&gt;&lt;td&gt;伽琉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;img src='img/type/fire_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Gariyu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Gariyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Gariyu_rank' value='3'&gt;3 &lt;input type='radio' name='Gariyu_rank' value='4'&gt;4 &lt;input type='radio' name='Gariyu_rank' value='5'&gt;5 &lt;input type='checkbox' name='Gariyu_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B39" s="1" t="str">
-        <f>LEFT(A39,(FIND(".",A39,1)-1))</f>
-        <v>GoodMacky</v>
+        <f t="shared" si="2"/>
+        <v>Good_Macky</v>
       </c>
       <c r="C39" t="s">
         <v>190</v>
@@ -3150,8 +2898,8 @@
         <v>136</v>
       </c>
       <c r="P39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='GoodMacky' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/GoodMacky.jpg'&gt;&lt;/td&gt;&lt;td&gt;GoodMacky&lt;/td&gt;&lt;td&gt;善良的米可麥克&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='GoodMacky_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='GoodMacky_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='GoodMacky_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='GoodMacky_rank' value='4'&gt;4 &lt;input type='radio' name='GoodMacky_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='GoodMacky_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Good_Macky' class='Light Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Good_Macky'&gt;&lt;img src='img/Good_Macky.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Good_Macky&lt;/td&gt;&lt;td&gt;善良的米可麥克&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Good_Macky_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Good_Macky_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Good_Macky_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Good_Macky_rank' value='4'&gt;4 &lt;input type='radio' name='Good_Macky_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Good_Macky_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -3159,7 +2907,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f>LEFT(A40,(FIND(".",A40,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Guildna</v>
       </c>
       <c r="C40" t="s">
@@ -3190,8 +2938,8 @@
         <v>133</v>
       </c>
       <c r="P40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Guildna' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Guildna.jpg'&gt;&lt;/td&gt;&lt;td&gt;Guildna&lt;/td&gt;&lt;td&gt;基爾德那&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Guildna_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Guildna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Guildna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Guildna_rank' value='4'&gt;4 &lt;input type='radio' name='Guildna_rank' value='5'&gt;5 &lt;input type='checkbox' name='Guildna_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Guildna' class='Shadow Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Guildna'&gt;&lt;img src='img/Guildna.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Guildna&lt;/td&gt;&lt;td&gt;基爾德那&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Guildna_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Guildna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Guildna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Guildna_rank' value='4'&gt;4 &lt;input type='radio' name='Guildna_rank' value='5'&gt;5 &lt;input type='checkbox' name='Guildna_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -3199,7 +2947,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f>LEFT(A41,(FIND(".",A41,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Helena</v>
       </c>
       <c r="C41" t="s">
@@ -3230,8 +2978,8 @@
         <v>153</v>
       </c>
       <c r="P41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Helena' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Helena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Helena&lt;/td&gt;&lt;td&gt;海蕾娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Helena_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Helena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Helena_rank' value='3'&gt;3 &lt;input type='radio' name='Helena_rank' value='4'&gt;4 &lt;input type='radio' name='Helena_rank' value='5'&gt;5 &lt;input type='checkbox' name='Helena_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Helena' class='Shadow Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Helena'&gt;&lt;img src='img/Helena.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Helena&lt;/td&gt;&lt;td&gt;海蕾娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Helena_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Helena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Helena_rank' value='3'&gt;3 &lt;input type='radio' name='Helena_rank' value='4'&gt;4 &lt;input type='radio' name='Helena_rank' value='5'&gt;5 &lt;input type='checkbox' name='Helena_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -3239,7 +2987,7 @@
         <v>44</v>
       </c>
       <c r="B42" s="1" t="str">
-        <f>LEFT(A42,(FIND(".",A42,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Hismena</v>
       </c>
       <c r="C42" t="s">
@@ -3270,8 +3018,8 @@
         <v>149</v>
       </c>
       <c r="P42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Hismena' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Hismena.jpg'&gt;&lt;/td&gt;&lt;td&gt;Hismena&lt;/td&gt;&lt;td&gt;希斯梅娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Hismena_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Hismena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Hismena_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Hismena_rank' value='4'&gt;4 &lt;input type='radio' name='Hismena_rank' value='5'&gt;5 &lt;input type='checkbox' name='Hismena_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Hismena' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Hismena'&gt;&lt;img src='img/Hismena.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Hismena&lt;/td&gt;&lt;td&gt;希斯梅娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Hismena_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Hismena_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Hismena_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Hismena_rank' value='4'&gt;4 &lt;input type='radio' name='Hismena_rank' value='5'&gt;5 &lt;input type='checkbox' name='Hismena_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -3279,7 +3027,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="1" t="str">
-        <f>LEFT(A43,(FIND(".",A43,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Hozuki</v>
       </c>
       <c r="C43" t="s">
@@ -3310,8 +3058,8 @@
         <v>146</v>
       </c>
       <c r="P43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Hozuki' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Hozuki.jpg'&gt;&lt;/td&gt;&lt;td&gt;Hozuki&lt;/td&gt;&lt;td&gt;皓月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Hozuki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Hozuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Hozuki_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Hozuki_rank' value='4'&gt;4 &lt;input type='radio' name='Hozuki_rank' value='5'&gt;5 &lt;input type='checkbox' name='Hozuki_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Hozuki' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Hozuki'&gt;&lt;img src='img/Hozuki.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Hozuki&lt;/td&gt;&lt;td&gt;皓月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Hozuki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Hozuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Hozuki_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Hozuki_rank' value='4'&gt;4 &lt;input type='radio' name='Hozuki_rank' value='5'&gt;5 &lt;input type='checkbox' name='Hozuki_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -3319,7 +3067,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f>LEFT(A44,(FIND(".",A44,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Ilulu</v>
       </c>
       <c r="C44" t="s">
@@ -3350,8 +3098,8 @@
         <v>142</v>
       </c>
       <c r="P44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Ilulu' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Ilulu.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ilulu&lt;/td&gt;&lt;td&gt;伊露露&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ilulu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ilulu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ilulu_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Ilulu_rank' value='4'&gt;4 &lt;input type='radio' name='Ilulu_rank' value='5'&gt;5 &lt;input type='checkbox' name='Ilulu_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Ilulu' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Ilulu'&gt;&lt;img src='img/Ilulu.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Ilulu&lt;/td&gt;&lt;td&gt;伊露露&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ilulu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ilulu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ilulu_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Ilulu_rank' value='4'&gt;4 &lt;input type='radio' name='Ilulu_rank' value='5'&gt;5 &lt;input type='checkbox' name='Ilulu_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -3359,7 +3107,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="1" t="str">
-        <f>LEFT(A45,(FIND(".",A45,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Isuka</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -3390,8 +3138,8 @@
         <v>142</v>
       </c>
       <c r="P45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Isuka' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Isuka.jpg'&gt;&lt;img src='img/Isuka_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Isuka&lt;/td&gt;&lt;td&gt;伊絲卡 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Isuka_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Isuka_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Isuka_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Isuka_rank' value='4'&gt;4 &lt;input type='radio' name='Isuka_rank' value='5'&gt;5 &lt;input type='checkbox' name='Isuka_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Isuka' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Isuka'&gt;&lt;img src='img/Isuka.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Isuka_(Another_Style)'&gt;&lt;img src='img/Isuka_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Isuka&lt;/td&gt;&lt;td&gt;伊絲卡 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Isuka_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Isuka_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Isuka_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Isuka_rank' value='4'&gt;4 &lt;input type='radio' name='Isuka_rank' value='5'&gt;5 &lt;input type='checkbox' name='Isuka_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -3399,7 +3147,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="1" t="str">
-        <f>LEFT(A46,(FIND(".",A46,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Jade</v>
       </c>
       <c r="C46" t="s">
@@ -3430,8 +3178,8 @@
         <v>146</v>
       </c>
       <c r="P46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Jade' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Jade.jpg'&gt;&lt;/td&gt;&lt;td&gt;Jade&lt;/td&gt;&lt;td&gt;賈德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Jade_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Jade_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Jade_rank' value='3'&gt;3 &lt;input type='radio' name='Jade_rank' value='4'&gt;4 &lt;input type='radio' name='Jade_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Jade_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Jade' class='Shadow Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Jade'&gt;&lt;img src='img/Jade.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Jade&lt;/td&gt;&lt;td&gt;賈德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Jade_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Jade_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Jade_rank' value='3'&gt;3 &lt;input type='radio' name='Jade_rank' value='4'&gt;4 &lt;input type='radio' name='Jade_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Jade_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -3439,7 +3187,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="1" t="str">
-        <f>LEFT(A47,(FIND(".",A47,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Joker</v>
       </c>
       <c r="C47" t="s">
@@ -3473,8 +3221,8 @@
         <v>133</v>
       </c>
       <c r="P47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Joker' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Joker.jpg'&gt;&lt;/td&gt;&lt;td&gt;Joker&lt;/td&gt;&lt;td&gt;JOKER&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Joker_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Joker_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Joker_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Joker_rank' value='4'&gt;4 &lt;input type='radio' name='Joker_rank' value='5'&gt;5 &lt;input type='checkbox' name='Joker_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Joker' class='Shadow Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Joker'&gt;&lt;img src='img/Joker.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Joker&lt;/td&gt;&lt;td&gt;JOKER&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Joker_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Joker_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Joker_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Joker_rank' value='4'&gt;4 &lt;input type='radio' name='Joker_rank' value='5'&gt;5 &lt;input type='checkbox' name='Joker_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -3482,7 +3230,7 @@
         <v>273</v>
       </c>
       <c r="B48" s="1" t="str">
-        <f>LEFT(A48,(FIND(".",A48,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Kikyo</v>
       </c>
       <c r="C48" t="s">
@@ -3513,8 +3261,8 @@
         <v>142</v>
       </c>
       <c r="P48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Kikyo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Kikyo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Kikyo&lt;/td&gt;&lt;td&gt;桔梗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Kikyo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Kikyo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Kikyo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Kikyo_rank' value='4'&gt;4 &lt;input type='radio' name='Kikyo_rank' value='5'&gt;5 &lt;input type='checkbox' name='Kikyo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Kikyo' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Kikyo'&gt;&lt;img src='img/Kikyo.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Kikyo&lt;/td&gt;&lt;td&gt;桔梗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Kikyo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Kikyo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Kikyo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Kikyo_rank' value='4'&gt;4 &lt;input type='radio' name='Kikyo_rank' value='5'&gt;5 &lt;input type='checkbox' name='Kikyo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -3522,7 +3270,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="1" t="str">
-        <f>LEFT(A49,(FIND(".",A49,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Kilqia</v>
       </c>
       <c r="C49" t="s">
@@ -3550,8 +3298,8 @@
         <v>129</v>
       </c>
       <c r="P49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Kilqia' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Kilqia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Kilqia&lt;/td&gt;&lt;td&gt;基露琪亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Kilqia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Kilqia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Kilqia_rank' value='3'&gt;3 &lt;input type='radio' name='Kilqia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Kilqia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Kilqia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Kilqia' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Kilqia'&gt;&lt;img src='img/Kilqia.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Kilqia&lt;/td&gt;&lt;td&gt;基露琪亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Kilqia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Kilqia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Kilqia_rank' value='3'&gt;3 &lt;input type='radio' name='Kilqia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Kilqia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Kilqia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -3559,7 +3307,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="1" t="str">
-        <f>LEFT(A50,(FIND(".",A50,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Komachi</v>
       </c>
       <c r="C50" t="s">
@@ -3590,8 +3338,8 @@
         <v>155</v>
       </c>
       <c r="P50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Komachi' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Komachi.jpg'&gt;&lt;/td&gt;&lt;td&gt;Komachi&lt;/td&gt;&lt;td&gt;小町&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Komachi_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Komachi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Komachi_rank' value='3'&gt;3 &lt;input type='radio' name='Komachi_rank' value='4'&gt;4 &lt;input type='radio' name='Komachi_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Komachi_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Komachi' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Komachi'&gt;&lt;img src='img/Komachi.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Komachi&lt;/td&gt;&lt;td&gt;小町&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Komachi_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Komachi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Komachi_rank' value='3'&gt;3 &lt;input type='radio' name='Komachi_rank' value='4'&gt;4 &lt;input type='radio' name='Komachi_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Komachi_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -3599,7 +3347,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="1" t="str">
-        <f>LEFT(A51,(FIND(".",A51,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Koot</v>
       </c>
       <c r="C51" t="s">
@@ -3630,8 +3378,8 @@
         <v>130</v>
       </c>
       <c r="P51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Koot' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Koot.jpg'&gt;&lt;/td&gt;&lt;td&gt;Koot&lt;/td&gt;&lt;td&gt;庫托&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Koot_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Koot_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Koot_rank' value='3'&gt;3 &lt;input type='radio' name='Koot_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Koot_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Koot_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Koot' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Koot'&gt;&lt;img src='img/Koot.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Koot&lt;/td&gt;&lt;td&gt;庫托&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Koot_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Koot_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Koot_rank' value='3'&gt;3 &lt;input type='radio' name='Koot_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Koot_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Koot_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -3639,7 +3387,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="1" t="str">
-        <f>LEFT(A52,(FIND(".",A52,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Krervo</v>
       </c>
       <c r="C52" t="s">
@@ -3667,8 +3415,8 @@
         <v>129</v>
       </c>
       <c r="P52" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Krervo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Krervo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Krervo&lt;/td&gt;&lt;td&gt;克利霍&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Krervo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Krervo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Krervo_rank' value='3'&gt;3 &lt;input type='radio' name='Krervo_rank' value='4'&gt;4 &lt;input type='radio' name='Krervo_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Krervo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Krervo' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Krervo'&gt;&lt;img src='img/Krervo.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Krervo&lt;/td&gt;&lt;td&gt;克利霍&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Krervo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Krervo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Krervo_rank' value='3'&gt;3 &lt;input type='radio' name='Krervo_rank' value='4'&gt;4 &lt;input type='radio' name='Krervo_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Krervo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -3676,7 +3424,7 @@
         <v>54</v>
       </c>
       <c r="B53" s="1" t="str">
-        <f>LEFT(A53,(FIND(".",A53,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Laclair</v>
       </c>
       <c r="C53" t="s">
@@ -3710,8 +3458,8 @@
         <v>138</v>
       </c>
       <c r="P53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Laclair' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Laclair.jpg'&gt;&lt;img src='img/Laclair_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Laclair&lt;/td&gt;&lt;td&gt;拉克萊兒&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Laclair_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Laclair_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Laclair_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Laclair_rank' value='4'&gt;4 &lt;input type='radio' name='Laclair_rank' value='5'&gt;5 &lt;input type='checkbox' name='Laclair_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Laclair' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Laclair'&gt;&lt;img src='img/Laclair.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Laclair_(Another_Style)'&gt;&lt;img src='img/Laclair_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Laclair&lt;/td&gt;&lt;td&gt;拉克萊兒&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Laclair_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Laclair_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Laclair_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Laclair_rank' value='4'&gt;4 &lt;input type='radio' name='Laclair_rank' value='5'&gt;5 &lt;input type='checkbox' name='Laclair_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -3719,7 +3467,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="1" t="str">
-        <f>LEFT(A54,(FIND(".",A54,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Lele</v>
       </c>
       <c r="C54" t="s">
@@ -3747,8 +3495,8 @@
         <v>148</v>
       </c>
       <c r="P54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Lele' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Lele.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lele&lt;/td&gt;&lt;td&gt;蕾蕾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lele_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lele_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lele_rank' value='3'&gt;3 &lt;input type='radio' name='Lele_rank' value='4'&gt;4 &lt;input type='radio' name='Lele_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Lele_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Lele' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Lele'&gt;&lt;img src='img/Lele.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Lele&lt;/td&gt;&lt;td&gt;蕾蕾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lele_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lele_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lele_rank' value='3'&gt;3 &lt;input type='radio' name='Lele_rank' value='4'&gt;4 &lt;input type='radio' name='Lele_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Lele_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -3756,7 +3504,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="1" t="str">
-        <f>LEFT(A55,(FIND(".",A55,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Levia</v>
       </c>
       <c r="C55" t="s">
@@ -3784,8 +3532,8 @@
         <v>148</v>
       </c>
       <c r="P55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Levia' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Levia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Levia&lt;/td&gt;&lt;td&gt;莉維雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Levia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Levia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Levia_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Levia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Levia_rank' value='5'&gt;5 &lt;input type='checkbox' name='Levia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Levia' class='Light Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Levia'&gt;&lt;img src='img/Levia.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Levia&lt;/td&gt;&lt;td&gt;莉維雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Levia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Levia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Levia_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Levia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Levia_rank' value='5'&gt;5 &lt;input type='checkbox' name='Levia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -3793,7 +3541,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="1" t="str">
-        <f>LEFT(A56,(FIND(".",A56,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Lingli</v>
       </c>
       <c r="C56" t="s">
@@ -3824,8 +3572,8 @@
         <v>147</v>
       </c>
       <c r="P56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Lingli' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Lingli.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lingli&lt;/td&gt;&lt;td&gt;林麗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lingli_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lingli_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lingli_rank' value='3'&gt;3 &lt;input type='radio' name='Lingli_rank' value='4'&gt;4 &lt;input type='radio' name='Lingli_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Lingli_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Lingli' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Lingli'&gt;&lt;img src='img/Lingli.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Lingli&lt;/td&gt;&lt;td&gt;林麗&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lingli_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lingli_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lingli_rank' value='3'&gt;3 &lt;input type='radio' name='Lingli_rank' value='4'&gt;4 &lt;input type='radio' name='Lingli_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Lingli_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -3833,7 +3581,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="1" t="str">
-        <f>LEFT(A57,(FIND(".",A57,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Lokido</v>
       </c>
       <c r="C57" t="s">
@@ -3864,8 +3612,8 @@
         <v>156</v>
       </c>
       <c r="P57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Lokido' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Lokido.jpg'&gt;&lt;img src='img/Lokido_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lokido&lt;/td&gt;&lt;td&gt;洛基德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lokido_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lokido_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lokido_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Lokido_rank' value='4'&gt;4 &lt;input type='radio' name='Lokido_rank' value='5'&gt;5 &lt;input type='checkbox' name='Lokido_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Lokido' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Lokido'&gt;&lt;img src='img/Lokido.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Lokido_(Another_Style)'&gt;&lt;img src='img/Lokido_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Lokido&lt;/td&gt;&lt;td&gt;洛基德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lokido_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lokido_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lokido_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Lokido_rank' value='4'&gt;4 &lt;input type='radio' name='Lokido_rank' value='5'&gt;5 &lt;input type='checkbox' name='Lokido_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -3873,7 +3621,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="1" t="str">
-        <f>LEFT(A58,(FIND(".",A58,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Lovely</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -3901,8 +3649,8 @@
         <v>147</v>
       </c>
       <c r="P58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Lovely' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Lovely.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lovely&lt;/td&gt;&lt;td&gt;拉布莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lovely_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lovely_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lovely_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Lovely_rank' value='4'&gt;4 &lt;input type='radio' name='Lovely_rank' value='5'&gt;5 &lt;input type='checkbox' name='Lovely_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Lovely' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Lovely'&gt;&lt;img src='img/Lovely.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Lovely&lt;/td&gt;&lt;td&gt;拉布莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lovely_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lovely_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lovely_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Lovely_rank' value='4'&gt;4 &lt;input type='radio' name='Lovely_rank' value='5'&gt;5 &lt;input type='checkbox' name='Lovely_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -3910,7 +3658,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="1" t="str">
-        <f>LEFT(A59,(FIND(".",A59,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Lovinia</v>
       </c>
       <c r="C59" t="s">
@@ -3941,8 +3689,8 @@
         <v>152</v>
       </c>
       <c r="P59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Lovinia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Lovinia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Lovinia&lt;/td&gt;&lt;td&gt;羅維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lovinia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lovinia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lovinia_rank' value='3'&gt;3 &lt;input type='radio' name='Lovinia_rank' value='4'&gt;4 &lt;input type='radio' name='Lovinia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Lovinia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Lovinia' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Lovinia'&gt;&lt;img src='img/Lovinia.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Lovinia&lt;/td&gt;&lt;td&gt;羅維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Lovinia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Lovinia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Lovinia_rank' value='3'&gt;3 &lt;input type='radio' name='Lovinia_rank' value='4'&gt;4 &lt;input type='radio' name='Lovinia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Lovinia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -3950,7 +3698,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="1" t="str">
-        <f>LEFT(A60,(FIND(".",A60,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Mana</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -3978,8 +3726,8 @@
         <v>141</v>
       </c>
       <c r="P60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Mana' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Mana.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mana&lt;/td&gt;&lt;td&gt;瑪娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mana_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Mana_rank' value='5'&gt;5 &lt;input type='checkbox' name='Mana_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Mana' class='Light Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Mana'&gt;&lt;img src='img/Mana.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Mana&lt;/td&gt;&lt;td&gt;瑪娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mana_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Mana_rank' value='5'&gt;5 &lt;input type='checkbox' name='Mana_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -3987,7 +3735,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="1" t="str">
-        <f>LEFT(A61,(FIND(".",A61,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Mariel</v>
       </c>
       <c r="C61" t="s">
@@ -4015,8 +3763,8 @@
         <v>129</v>
       </c>
       <c r="P61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Mariel' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Mariel.jpg'&gt;&lt;img src='img/Mariel_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mariel&lt;/td&gt;&lt;td&gt;瑪莉艾爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mariel_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mariel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mariel_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mariel_rank' value='4'&gt;4 &lt;input type='radio' name='Mariel_rank' value='5'&gt;5 &lt;input type='checkbox' name='Mariel_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Mariel' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Mariel'&gt;&lt;img src='img/Mariel.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Mariel_(Another_Style)'&gt;&lt;img src='img/Mariel_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Mariel&lt;/td&gt;&lt;td&gt;瑪莉艾爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mariel_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mariel_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mariel_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mariel_rank' value='4'&gt;4 &lt;input type='radio' name='Mariel_rank' value='5'&gt;5 &lt;input type='checkbox' name='Mariel_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -4024,7 +3772,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="1" t="str">
-        <f>LEFT(A62,(FIND(".",A62,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>May</v>
       </c>
       <c r="C62" t="s">
@@ -4055,8 +3803,8 @@
         <v>156</v>
       </c>
       <c r="P62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='May' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/May.jpg'&gt;&lt;/td&gt;&lt;td&gt;May&lt;/td&gt;&lt;td&gt;玫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='May_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='May_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='May_rank' value='3'&gt;3 &lt;input type='radio' name='May_rank' value='4'&gt;4 &lt;input type='radio' name='May_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='May_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='May' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/May'&gt;&lt;img src='img/May.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;May&lt;/td&gt;&lt;td&gt;玫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='May_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='May_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='May_rank' value='3'&gt;3 &lt;input type='radio' name='May_rank' value='4'&gt;4 &lt;input type='radio' name='May_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='May_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -4064,7 +3812,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="1" t="str">
-        <f>LEFT(A63,(FIND(".",A63,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Melina</v>
       </c>
       <c r="C63" t="s">
@@ -4098,8 +3846,8 @@
         <v>150</v>
       </c>
       <c r="P63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Melina' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Melina.jpg'&gt;&lt;img src='img/Melina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Melina&lt;/td&gt;&lt;td&gt;玫莉娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Melina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Melina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Melina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Melina_rank' value='4'&gt;4 &lt;input type='radio' name='Melina_rank' value='5'&gt;5 &lt;input type='checkbox' name='Melina_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Melina' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Melina'&gt;&lt;img src='img/Melina.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Melina_(Another_Style)'&gt;&lt;img src='img/Melina_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Melina&lt;/td&gt;&lt;td&gt;玫莉娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Melina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Melina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Melina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Melina_rank' value='4'&gt;4 &lt;input type='radio' name='Melina_rank' value='5'&gt;5 &lt;input type='checkbox' name='Melina_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -4107,7 +3855,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="1" t="str">
-        <f>LEFT(A64,(FIND(".",A64,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Menesia</v>
       </c>
       <c r="C64" t="s">
@@ -4138,8 +3886,8 @@
         <v>130</v>
       </c>
       <c r="P64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Menesia' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Menesia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Menesia&lt;/td&gt;&lt;td&gt;梅尼西雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Menesia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Menesia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Menesia_rank' value='3'&gt;3 &lt;input type='radio' name='Menesia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Menesia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Menesia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Menesia' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Menesia'&gt;&lt;img src='img/Menesia.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Menesia&lt;/td&gt;&lt;td&gt;梅尼西雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Menesia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Menesia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Menesia_rank' value='3'&gt;3 &lt;input type='radio' name='Menesia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Menesia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Menesia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -4147,7 +3895,7 @@
         <v>66</v>
       </c>
       <c r="B65" s="1" t="str">
-        <f>LEFT(A65,(FIND(".",A65,1)-1))</f>
+        <f t="shared" si="2"/>
         <v>Mighty</v>
       </c>
       <c r="C65" t="s">
@@ -4175,8 +3923,8 @@
         <v>148</v>
       </c>
       <c r="P65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr id='Mighty' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Mighty.jpg'&gt;&lt;img src='img/Mighty_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Mighty&lt;/td&gt;&lt;td&gt;麥提&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mighty_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mighty_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mighty_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mighty_rank' value='4'&gt;4 &lt;input type='radio' name='Mighty_rank' value='5'&gt;5 &lt;input type='checkbox' name='Mighty_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Mighty' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Mighty'&gt;&lt;img src='img/Mighty.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Mighty_(Another_Style)'&gt;&lt;img src='img/Mighty_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Mighty&lt;/td&gt;&lt;td&gt;麥提&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Mighty_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Mighty_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Mighty_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Mighty_rank' value='4'&gt;4 &lt;input type='radio' name='Mighty_rank' value='5'&gt;5 &lt;input type='checkbox' name='Mighty_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -4184,7 +3932,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="1" t="str">
-        <f>LEFT(A66,(FIND(".",A66,1)-1))</f>
+        <f t="shared" ref="B66:B97" si="3">LEFT(A66,(FIND(".",A66,1)-1))</f>
         <v>Miranda</v>
       </c>
       <c r="C66" t="s">
@@ -4215,8 +3963,8 @@
         <v>133</v>
       </c>
       <c r="P66" s="1" t="str">
-        <f t="shared" ref="P66:P125" si="1">"&lt;tr id='"&amp;SUBSTITUTE(B66," ","")&amp;"' class='"&amp;D66&amp;IF(I66="N"," Dream", " Free")&amp;"'&gt;&lt;td&gt;&lt;img src='img/"&amp;A66&amp;"'&gt;"&amp;IF(H66="Y","&lt;img src='img/"&amp;B66&amp;"_AS.jpg'&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B66&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C66&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K66&amp;".png'&gt;"&amp;IF(L66="","","&lt;img src='img/type/"&amp;L66&amp;".png'&gt;")&amp;IF(M66="","","&lt;img src='img/type/"&amp;M66&amp;".png'&gt;")&amp;IF(N66="","","&lt;img src='img/type/"&amp;N66&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B66," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='3'"&amp;IF(E66="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='4'"&amp;IF(F66="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='5'"&amp;IF(G66="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='checkbox' name='"&amp;SUBSTITUTE(B66," ","")&amp;"_rank' value='AS'"&amp;IF(H66="Y",""," disabled=''")&amp;"&gt;AS&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr id='Miranda' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Miranda.jpg'&gt;&lt;/td&gt;&lt;td&gt;Miranda&lt;/td&gt;&lt;td&gt;米蘭達&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miranda_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miranda_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miranda_rank' value='3'&gt;3 &lt;input type='radio' name='Miranda_rank' value='4'&gt;4 &lt;input type='radio' name='Miranda_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Miranda_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr id='Miranda' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Miranda'&gt;&lt;img src='img/Miranda.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Miranda&lt;/td&gt;&lt;td&gt;米蘭達&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miranda_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miranda_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miranda_rank' value='3'&gt;3 &lt;input type='radio' name='Miranda_rank' value='4'&gt;4 &lt;input type='radio' name='Miranda_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Miranda_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -4224,7 +3972,7 @@
         <v>68</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f>LEFT(A67,(FIND(".",A67,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Miyu</v>
       </c>
       <c r="C67" t="s">
@@ -4255,8 +4003,8 @@
         <v>133</v>
       </c>
       <c r="P67" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Miyu' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Miyu.jpg'&gt;&lt;/td&gt;&lt;td&gt;Miyu&lt;/td&gt;&lt;td&gt;米悠&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miyu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miyu_rank' value='3'&gt;3 &lt;input type='radio' name='Miyu_rank' value='4'&gt;4 &lt;input type='radio' name='Miyu_rank' value='5'&gt;5 &lt;input type='checkbox' name='Miyu_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="P67:P126" si="4">"&lt;tr id='"&amp;SUBSTITUTE(B67," ","")&amp;"' class='"&amp;D67&amp;IF(I67="N"," Dream", " Free")&amp;"'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/"&amp;B67&amp;"'&gt;&lt;img src='img/"&amp;A67&amp;"'&gt;&lt;/a&gt; "&amp;IF(H67="Y","&lt;a href='https://anothereden.miraheze.org/wiki/"&amp;B67&amp;"_(Another_Style)'&gt;&lt;img src='img/"&amp;B67&amp;"_AS.jpg'&gt;&lt;/a&gt;","")&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B67&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C67&amp;"&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/"&amp;K67&amp;".png'&gt;"&amp;IF(L67="","","&lt;img src='img/type/"&amp;L67&amp;".png'&gt;")&amp;IF(M67="","","&lt;img src='img/type/"&amp;M67&amp;".png'&gt;")&amp;IF(N67="","","&lt;img src='img/type/"&amp;N67&amp;".png'&gt;")&amp;"&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='"&amp;SUBSTITUTE(B67," ","")&amp;"_LS'"&amp;" min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='3'"&amp;IF(E67="Y",""," disabled=''")&amp;"&gt;3 &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='4'"&amp;IF(F67="Y",""," disabled=''")&amp;"&gt;4 &lt;input type='radio' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='5'"&amp;IF(G67="Y",""," disabled=''")&amp;"&gt;5 &lt;input type='checkbox' name='"&amp;SUBSTITUTE(B67," ","")&amp;"_rank' value='AS'"&amp;IF(H67="Y",""," disabled=''")&amp;"&gt;AS&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr id='Miyu' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Miyu'&gt;&lt;img src='img/Miyu.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Miyu&lt;/td&gt;&lt;td&gt;米悠&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Miyu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Miyu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Miyu_rank' value='3'&gt;3 &lt;input type='radio' name='Miyu_rank' value='4'&gt;4 &lt;input type='radio' name='Miyu_rank' value='5'&gt;5 &lt;input type='checkbox' name='Miyu_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -4264,7 +4012,7 @@
         <v>69</v>
       </c>
       <c r="B68" s="1" t="str">
-        <f>LEFT(A68,(FIND(".",A68,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Morgana</v>
       </c>
       <c r="C68" t="s">
@@ -4295,8 +4043,8 @@
         <v>136</v>
       </c>
       <c r="P68" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Morgana' class='Shadow Free'&gt;&lt;td&gt;&lt;img src='img/Morgana.jpg'&gt;&lt;/td&gt;&lt;td&gt;Morgana&lt;/td&gt;&lt;td&gt;摩爾加納&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Morgana_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Morgana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Morgana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Morgana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Morgana_rank' value='5'&gt;5 &lt;input type='checkbox' name='Morgana_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Morgana' class='Shadow Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Morgana'&gt;&lt;img src='img/Morgana.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Morgana&lt;/td&gt;&lt;td&gt;摩爾加納&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Morgana_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Morgana_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Morgana_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Morgana_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Morgana_rank' value='5'&gt;5 &lt;input type='checkbox' name='Morgana_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4304,7 +4052,7 @@
         <v>70</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f>LEFT(A69,(FIND(".",A69,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Myron</v>
       </c>
       <c r="C69" t="s">
@@ -4335,8 +4083,8 @@
         <v>154</v>
       </c>
       <c r="P69" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Myron' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Myron.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myron&lt;/td&gt;&lt;td&gt;繆倫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myron_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myron_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myron_rank' value='3'&gt;3 &lt;input type='radio' name='Myron_rank' value='4'&gt;4 &lt;input type='radio' name='Myron_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Myron_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Myron' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Myron'&gt;&lt;img src='img/Myron.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Myron&lt;/td&gt;&lt;td&gt;繆倫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myron_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myron_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myron_rank' value='3'&gt;3 &lt;input type='radio' name='Myron_rank' value='4'&gt;4 &lt;input type='radio' name='Myron_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Myron_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -4344,7 +4092,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="1" t="str">
-        <f>LEFT(A70,(FIND(".",A70,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Myrus</v>
       </c>
       <c r="C70" t="s">
@@ -4363,7 +4111,7 @@
         <v>126</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>127</v>
@@ -4372,20 +4120,20 @@
         <v>153</v>
       </c>
       <c r="P70" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Myrus' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Myrus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myrus&lt;/td&gt;&lt;td&gt;繆露絲&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myrus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myrus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myrus_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Myrus_rank' value='4'&gt;4 &lt;input type='radio' name='Myrus_rank' value='5'&gt;5 &lt;input type='checkbox' name='Myrus_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Myrus' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Myrus'&gt;&lt;img src='img/Myrus.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Myrus&lt;/td&gt;&lt;td&gt;繆露絲&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myrus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myrus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myrus_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Myrus_rank' value='4'&gt;4 &lt;input type='radio' name='Myrus_rank' value='5'&gt;5 &lt;input type='checkbox' name='Myrus_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Myunfa</v>
+      </c>
+      <c r="C71" t="s">
         <v>285</v>
-      </c>
-      <c r="B71" s="1" t="str">
-        <f>LEFT(A71,(FIND(".",A71,1)-1))</f>
-        <v>Myunfa</v>
-      </c>
-      <c r="C71" t="s">
-        <v>286</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>1</v>
@@ -4415,8 +4163,8 @@
         <v>187</v>
       </c>
       <c r="P71" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Myunfa' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Myunfa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Myunfa&lt;/td&gt;&lt;td&gt;霧華&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;img src='img/type/earth_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myunfa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myunfa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myunfa_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Myunfa_rank' value='4'&gt;4 &lt;input type='radio' name='Myunfa_rank' value='5'&gt;5 &lt;input type='checkbox' name='Myunfa_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Myunfa' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Myunfa'&gt;&lt;img src='img/Myunfa.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Myunfa&lt;/td&gt;&lt;td&gt;霧華&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;img src='img/type/earth_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Myunfa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Myunfa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Myunfa_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Myunfa_rank' value='4'&gt;4 &lt;input type='radio' name='Myunfa_rank' value='5'&gt;5 &lt;input type='checkbox' name='Myunfa_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -4424,7 +4172,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f>LEFT(A72,(FIND(".",A72,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Nagi</v>
       </c>
       <c r="C72" t="s">
@@ -4455,8 +4203,8 @@
         <v>154</v>
       </c>
       <c r="P72" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Nagi' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Nagi.jpg'&gt;&lt;img src='img/Nagi_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nagi&lt;/td&gt;&lt;td&gt;娜基&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nagi_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nagi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nagi_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Nagi_rank' value='4'&gt;4 &lt;input type='radio' name='Nagi_rank' value='5'&gt;5 &lt;input type='checkbox' name='Nagi_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Nagi' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Nagi'&gt;&lt;img src='img/Nagi.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Nagi_(Another_Style)'&gt;&lt;img src='img/Nagi_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Nagi&lt;/td&gt;&lt;td&gt;娜基&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nagi_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nagi_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nagi_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Nagi_rank' value='4'&gt;4 &lt;input type='radio' name='Nagi_rank' value='5'&gt;5 &lt;input type='checkbox' name='Nagi_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -4464,7 +4212,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="1" t="str">
-        <f>LEFT(A73,(FIND(".",A73,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Natore</v>
       </c>
       <c r="C73" t="s">
@@ -4492,8 +4240,8 @@
         <v>132</v>
       </c>
       <c r="P73" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Natore' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Natore.jpg'&gt;&lt;/td&gt;&lt;td&gt;Natore&lt;/td&gt;&lt;td&gt;娜托雷&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Natore_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Natore_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Natore_rank' value='3'&gt;3 &lt;input type='radio' name='Natore_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Natore_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Natore_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Natore' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Natore'&gt;&lt;img src='img/Natore.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Natore&lt;/td&gt;&lt;td&gt;娜托雷&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Natore_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Natore_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Natore_rank' value='3'&gt;3 &lt;input type='radio' name='Natore_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Natore_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Natore_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -4501,7 +4249,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="1" t="str">
-        <f>LEFT(A74,(FIND(".",A74,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Naylia</v>
       </c>
       <c r="C74" t="s">
@@ -4529,8 +4277,8 @@
         <v>132</v>
       </c>
       <c r="P74" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Naylia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Naylia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Naylia&lt;/td&gt;&lt;td&gt;內莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Naylia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Naylia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Naylia_rank' value='3'&gt;3 &lt;input type='radio' name='Naylia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Naylia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Naylia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Naylia' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Naylia'&gt;&lt;img src='img/Naylia.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Naylia&lt;/td&gt;&lt;td&gt;內莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Naylia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Naylia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Naylia_rank' value='3'&gt;3 &lt;input type='radio' name='Naylia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Naylia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Naylia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -4538,7 +4286,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="1" t="str">
-        <f>LEFT(A75,(FIND(".",A75,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Nero</v>
       </c>
       <c r="C75" t="s">
@@ -4566,8 +4314,8 @@
         <v>150</v>
       </c>
       <c r="P75" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Nero' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Nero.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nero&lt;/td&gt;&lt;td&gt;尼洛&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nero_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nero_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nero_rank' value='3'&gt;3 &lt;input type='radio' name='Nero_rank' value='4'&gt;4 &lt;input type='radio' name='Nero_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nero_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Nero' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Nero'&gt;&lt;img src='img/Nero.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Nero&lt;/td&gt;&lt;td&gt;尼洛&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nero_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nero_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nero_rank' value='3'&gt;3 &lt;input type='radio' name='Nero_rank' value='4'&gt;4 &lt;input type='radio' name='Nero_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nero_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -4575,7 +4323,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="1" t="str">
-        <f>LEFT(A76,(FIND(".",A76,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Nikeh</v>
       </c>
       <c r="C76" t="s">
@@ -4606,8 +4354,8 @@
         <v>138</v>
       </c>
       <c r="P76" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Nikeh' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Nikeh.jpg'&gt;&lt;img src='img/Nikeh_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nikeh&lt;/td&gt;&lt;td&gt;尼姬&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nikeh_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nikeh_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nikeh_rank' value='3'&gt;3 &lt;input type='radio' name='Nikeh_rank' value='4'&gt;4 &lt;input type='radio' name='Nikeh_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nikeh_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Nikeh' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Nikeh'&gt;&lt;img src='img/Nikeh.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Nikeh_(Another_Style)'&gt;&lt;img src='img/Nikeh_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Nikeh&lt;/td&gt;&lt;td&gt;尼姬&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nikeh_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nikeh_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nikeh_rank' value='3'&gt;3 &lt;input type='radio' name='Nikeh_rank' value='4'&gt;4 &lt;input type='radio' name='Nikeh_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nikeh_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -4615,7 +4363,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="1" t="str">
-        <f>LEFT(A77,(FIND(".",A77,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Nixa</v>
       </c>
       <c r="C77" t="s">
@@ -4643,8 +4391,8 @@
         <v>141</v>
       </c>
       <c r="P77" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Nixa' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Nixa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nixa&lt;/td&gt;&lt;td&gt;妮克薩&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nixa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nixa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nixa_rank' value='3'&gt;3 &lt;input type='radio' name='Nixa_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Nixa_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nixa_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Nixa' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Nixa'&gt;&lt;img src='img/Nixa.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Nixa&lt;/td&gt;&lt;td&gt;妮克薩&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nixa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nixa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nixa_rank' value='3'&gt;3 &lt;input type='radio' name='Nixa_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Nixa_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nixa_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -4652,7 +4400,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="1" t="str">
-        <f>LEFT(A78,(FIND(".",A78,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Nomar</v>
       </c>
       <c r="C78" t="s">
@@ -4683,8 +4431,8 @@
         <v>149</v>
       </c>
       <c r="P78" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Nomar' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Nomar.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nomar&lt;/td&gt;&lt;td&gt;諾馬爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nomar_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nomar_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nomar_rank' value='3'&gt;3 &lt;input type='radio' name='Nomar_rank' value='4'&gt;4 &lt;input type='radio' name='Nomar_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nomar_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Nomar' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Nomar'&gt;&lt;img src='img/Nomar.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Nomar&lt;/td&gt;&lt;td&gt;諾馬爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nomar_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nomar_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nomar_rank' value='3'&gt;3 &lt;input type='radio' name='Nomar_rank' value='4'&gt;4 &lt;input type='radio' name='Nomar_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nomar_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -4692,7 +4440,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="1" t="str">
-        <f>LEFT(A79,(FIND(".",A79,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Nonold</v>
       </c>
       <c r="C79" t="s">
@@ -4720,8 +4468,8 @@
         <v>129</v>
       </c>
       <c r="P79" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Nonold' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Nonold.jpg'&gt;&lt;/td&gt;&lt;td&gt;Nonold&lt;/td&gt;&lt;td&gt;諾諾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nonold_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nonold_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nonold_rank' value='3'&gt;3 &lt;input type='radio' name='Nonold_rank' value='4'&gt;4 &lt;input type='radio' name='Nonold_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nonold_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Nonold' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Nonold'&gt;&lt;img src='img/Nonold.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Nonold&lt;/td&gt;&lt;td&gt;諾諾德&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Nonold_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Nonold_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Nonold_rank' value='3'&gt;3 &lt;input type='radio' name='Nonold_rank' value='4'&gt;4 &lt;input type='radio' name='Nonold_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Nonold_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -4729,7 +4477,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="1" t="str">
-        <f>LEFT(A80,(FIND(".",A80,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Noome</v>
       </c>
       <c r="C80" t="s">
@@ -4757,8 +4505,8 @@
         <v>129</v>
       </c>
       <c r="P80" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Noome' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Noome.jpg'&gt;&lt;/td&gt;&lt;td&gt;Noome&lt;/td&gt;&lt;td&gt;諾暮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Noome_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Noome_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Noome_rank' value='3'&gt;3 &lt;input type='radio' name='Noome_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Noome_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Noome_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Noome' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Noome'&gt;&lt;img src='img/Noome.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Noome&lt;/td&gt;&lt;td&gt;諾暮&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Noome_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Noome_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Noome_rank' value='3'&gt;3 &lt;input type='radio' name='Noome_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Noome_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Noome_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
@@ -4766,7 +4514,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="1" t="str">
-        <f>LEFT(A81,(FIND(".",A81,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Oor</v>
       </c>
       <c r="C81" t="s">
@@ -4794,8 +4542,8 @@
         <v>132</v>
       </c>
       <c r="P81" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Oor' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Oor.jpg'&gt;&lt;/td&gt;&lt;td&gt;Oor&lt;/td&gt;&lt;td&gt;歐爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Oor_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Oor_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Oor_rank' value='3'&gt;3 &lt;input type='radio' name='Oor_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Oor_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Oor_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Oor' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Oor'&gt;&lt;img src='img/Oor.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Oor&lt;/td&gt;&lt;td&gt;歐爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Oor_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Oor_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Oor_rank' value='3'&gt;3 &lt;input type='radio' name='Oor_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Oor_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Oor_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -4803,7 +4551,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="1" t="str">
-        <f>LEFT(A82,(FIND(".",A82,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Otoha</v>
       </c>
       <c r="C82" t="s">
@@ -4834,8 +4582,8 @@
         <v>154</v>
       </c>
       <c r="P82" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Otoha' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Otoha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Otoha&lt;/td&gt;&lt;td&gt;乙葉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Otoha_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Otoha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Otoha_rank' value='3'&gt;3 &lt;input type='radio' name='Otoha_rank' value='4'&gt;4 &lt;input type='radio' name='Otoha_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Otoha_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Otoha' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Otoha'&gt;&lt;img src='img/Otoha.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Otoha&lt;/td&gt;&lt;td&gt;乙葉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Otoha_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Otoha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Otoha_rank' value='3'&gt;3 &lt;input type='radio' name='Otoha_rank' value='4'&gt;4 &lt;input type='radio' name='Otoha_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Otoha_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -4843,7 +4591,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="1" t="str">
-        <f>LEFT(A83,(FIND(".",A83,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Parisa</v>
       </c>
       <c r="C83" t="s">
@@ -4874,8 +4622,8 @@
         <v>146</v>
       </c>
       <c r="P83" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Parisa' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Parisa.jpg'&gt;&lt;/td&gt;&lt;td&gt;Parisa&lt;/td&gt;&lt;td&gt;帕莉莎&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Parisa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Parisa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Parisa_rank' value='3'&gt;3 &lt;input type='radio' name='Parisa_rank' value='4'&gt;4 &lt;input type='radio' name='Parisa_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Parisa_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Parisa' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Parisa'&gt;&lt;img src='img/Parisa.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Parisa&lt;/td&gt;&lt;td&gt;帕莉莎&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/fire_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Parisa_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Parisa_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Parisa_rank' value='3'&gt;3 &lt;input type='radio' name='Parisa_rank' value='4'&gt;4 &lt;input type='radio' name='Parisa_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Parisa_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
@@ -4883,7 +4631,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="1" t="str">
-        <f>LEFT(A84,(FIND(".",A84,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Pasia</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -4911,8 +4659,8 @@
         <v>130</v>
       </c>
       <c r="P84" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Pasia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Pasia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pasia&lt;/td&gt;&lt;td&gt;帕希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pasia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pasia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pasia_rank' value='3'&gt;3 &lt;input type='radio' name='Pasia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Pasia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Pasia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Pasia' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Pasia'&gt;&lt;img src='img/Pasia.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Pasia&lt;/td&gt;&lt;td&gt;帕希雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pasia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pasia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pasia_rank' value='3'&gt;3 &lt;input type='radio' name='Pasia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Pasia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Pasia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
@@ -4920,7 +4668,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="1" t="str">
-        <f>LEFT(A85,(FIND(".",A85,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Philo</v>
       </c>
       <c r="C85" t="s">
@@ -4951,8 +4699,8 @@
         <v>138</v>
       </c>
       <c r="P85" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Philo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Philo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Philo&lt;/td&gt;&lt;td&gt;菲羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Philo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Philo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Philo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Philo_rank' value='4'&gt;4 &lt;input type='radio' name='Philo_rank' value='5'&gt;5 &lt;input type='checkbox' name='Philo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Philo' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Philo'&gt;&lt;img src='img/Philo.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Philo&lt;/td&gt;&lt;td&gt;菲羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Philo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Philo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Philo_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Philo_rank' value='4'&gt;4 &lt;input type='radio' name='Philo_rank' value='5'&gt;5 &lt;input type='checkbox' name='Philo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
@@ -4960,7 +4708,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="1" t="str">
-        <f>LEFT(A86,(FIND(".",A86,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Pom</v>
       </c>
       <c r="C86" t="s">
@@ -4988,16 +4736,16 @@
         <v>129</v>
       </c>
       <c r="P86" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Pom' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Pom.jpg'&gt;&lt;/td&gt;&lt;td&gt;Pom&lt;/td&gt;&lt;td&gt;波姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pom_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pom_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pom_rank' value='3'&gt;3 &lt;input type='radio' name='Pom_rank' value='4'&gt;4 &lt;input type='radio' name='Pom_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Pom_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Pom' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Pom'&gt;&lt;img src='img/Pom.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Pom&lt;/td&gt;&lt;td&gt;波姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Pom_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Pom_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Pom_rank' value='3'&gt;3 &lt;input type='radio' name='Pom_rank' value='4'&gt;4 &lt;input type='radio' name='Pom_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Pom_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B87" s="1" t="str">
-        <f>LEFT(A87,(FIND(".",A87,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Poporo</v>
       </c>
       <c r="C87" t="s">
@@ -5025,8 +4773,8 @@
         <v>151</v>
       </c>
       <c r="P87" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Poporo' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Poporo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Poporo&lt;/td&gt;&lt;td&gt;波波羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Poporo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Poporo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Poporo_rank' value='3'&gt;3 &lt;input type='radio' name='Poporo_rank' value='4'&gt;4 &lt;input type='radio' name='Poporo_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Poporo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Poporo' class='Light Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Poporo'&gt;&lt;img src='img/Poporo.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Poporo&lt;/td&gt;&lt;td&gt;波波羅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Poporo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Poporo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Poporo_rank' value='3'&gt;3 &lt;input type='radio' name='Poporo_rank' value='4'&gt;4 &lt;input type='radio' name='Poporo_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Poporo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
@@ -5034,7 +4782,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="str">
-        <f>LEFT(A88,(FIND(".",A88,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Prai</v>
       </c>
       <c r="C88" t="s">
@@ -5062,8 +4810,8 @@
         <v>130</v>
       </c>
       <c r="P88" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Prai' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Prai.jpg'&gt;&lt;/td&gt;&lt;td&gt;Prai&lt;/td&gt;&lt;td&gt;普萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Prai_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Prai_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Prai_rank' value='3'&gt;3 &lt;input type='radio' name='Prai_rank' value='4'&gt;4 &lt;input type='radio' name='Prai_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Prai_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Prai' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Prai'&gt;&lt;img src='img/Prai.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Prai&lt;/td&gt;&lt;td&gt;普萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Prai_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Prai_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Prai_rank' value='3'&gt;3 &lt;input type='radio' name='Prai_rank' value='4'&gt;4 &lt;input type='radio' name='Prai_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Prai_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
@@ -5071,7 +4819,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="str">
-        <f>LEFT(A89,(FIND(".",A89,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Premaya</v>
       </c>
       <c r="C89" t="s">
@@ -5102,8 +4850,8 @@
         <v>155</v>
       </c>
       <c r="P89" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Premaya' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Premaya.jpg'&gt;&lt;/td&gt;&lt;td&gt;Premaya&lt;/td&gt;&lt;td&gt;普蕾米婭&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Premaya_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Premaya_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Premaya_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Premaya_rank' value='4'&gt;4 &lt;input type='radio' name='Premaya_rank' value='5'&gt;5 &lt;input type='checkbox' name='Premaya_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Premaya' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Premaya'&gt;&lt;img src='img/Premaya.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Premaya&lt;/td&gt;&lt;td&gt;普蕾米婭&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Premaya_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Premaya_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Premaya_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Premaya_rank' value='4'&gt;4 &lt;input type='radio' name='Premaya_rank' value='5'&gt;5 &lt;input type='checkbox' name='Premaya_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
@@ -5111,7 +4859,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="str">
-        <f>LEFT(A90,(FIND(".",A90,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Radica</v>
       </c>
       <c r="C90" t="s">
@@ -5145,8 +4893,8 @@
         <v>145</v>
       </c>
       <c r="P90" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Radica' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Radica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Radica&lt;/td&gt;&lt;td&gt;拉蒂卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Radica_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Radica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Radica_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Radica_rank' value='4'&gt;4 &lt;input type='radio' name='Radica_rank' value='5'&gt;5 &lt;input type='checkbox' name='Radica_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Radica' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Radica'&gt;&lt;img src='img/Radica.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Radica&lt;/td&gt;&lt;td&gt;拉蒂卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Radica_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Radica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Radica_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Radica_rank' value='4'&gt;4 &lt;input type='radio' name='Radica_rank' value='5'&gt;5 &lt;input type='checkbox' name='Radica_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
@@ -5154,7 +4902,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="str">
-        <f>LEFT(A91,(FIND(".",A91,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Raven</v>
       </c>
       <c r="C91" t="s">
@@ -5185,8 +4933,8 @@
         <v>153</v>
       </c>
       <c r="P91" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Raven' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Raven.jpg'&gt;&lt;/td&gt;&lt;td&gt;Raven&lt;/td&gt;&lt;td&gt;雷文&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Raven_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Raven_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Raven_rank' value='3'&gt;3 &lt;input type='radio' name='Raven_rank' value='4'&gt;4 &lt;input type='radio' name='Raven_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Raven_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Raven' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Raven'&gt;&lt;img src='img/Raven.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Raven&lt;/td&gt;&lt;td&gt;雷文&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Raven_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Raven_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Raven_rank' value='3'&gt;3 &lt;input type='radio' name='Raven_rank' value='4'&gt;4 &lt;input type='radio' name='Raven_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Raven_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
@@ -5194,7 +4942,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="str">
-        <f>LEFT(A92,(FIND(".",A92,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Renri</v>
       </c>
       <c r="C92" t="s">
@@ -5225,8 +4973,8 @@
         <v>133</v>
       </c>
       <c r="P92" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Renri' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Renri.jpg'&gt;&lt;/td&gt;&lt;td&gt;Renri&lt;/td&gt;&lt;td&gt;雷莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Renri_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Renri_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Renri_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Renri_rank' value='4'&gt;4 &lt;input type='radio' name='Renri_rank' value='5'&gt;5 &lt;input type='checkbox' name='Renri_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Renri' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Renri'&gt;&lt;img src='img/Renri.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Renri&lt;/td&gt;&lt;td&gt;雷莉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Renri_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Renri_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Renri_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Renri_rank' value='4'&gt;4 &lt;input type='radio' name='Renri_rank' value='5'&gt;5 &lt;input type='checkbox' name='Renri_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
@@ -5234,7 +4982,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="str">
-        <f>LEFT(A93,(FIND(".",A93,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Riica</v>
       </c>
       <c r="C93" t="s">
@@ -5268,8 +5016,8 @@
         <v>156</v>
       </c>
       <c r="P93" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Riica' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Riica.jpg'&gt;&lt;/td&gt;&lt;td&gt;Riica&lt;/td&gt;&lt;td&gt;莉卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Riica_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Riica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Riica_rank' value='3'&gt;3 &lt;input type='radio' name='Riica_rank' value='4'&gt;4 &lt;input type='radio' name='Riica_rank' value='5'&gt;5 &lt;input type='checkbox' name='Riica_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Riica' class='Light Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Riica'&gt;&lt;img src='img/Riica.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Riica&lt;/td&gt;&lt;td&gt;莉卡&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Riica_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Riica_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Riica_rank' value='3'&gt;3 &lt;input type='radio' name='Riica_rank' value='4'&gt;4 &lt;input type='radio' name='Riica_rank' value='5'&gt;5 &lt;input type='checkbox' name='Riica_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
@@ -5277,7 +5025,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="str">
-        <f>LEFT(A94,(FIND(".",A94,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Rodeia</v>
       </c>
       <c r="C94" t="s">
@@ -5305,8 +5053,8 @@
         <v>132</v>
       </c>
       <c r="P94" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Rodeia' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Rodeia.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rodeia&lt;/td&gt;&lt;td&gt;羅蒂亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rodeia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rodeia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rodeia_rank' value='3'&gt;3 &lt;input type='radio' name='Rodeia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Rodeia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Rodeia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Rodeia' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Rodeia'&gt;&lt;img src='img/Rodeia.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Rodeia&lt;/td&gt;&lt;td&gt;羅蒂亞&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rodeia_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rodeia_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rodeia_rank' value='3'&gt;3 &lt;input type='radio' name='Rodeia_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Rodeia_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Rodeia_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
@@ -5314,7 +5062,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="str">
-        <f>LEFT(A95,(FIND(".",A95,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Rosetta</v>
       </c>
       <c r="C95" t="s">
@@ -5345,8 +5093,8 @@
         <v>145</v>
       </c>
       <c r="P95" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Rosetta' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Rosetta.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rosetta&lt;/td&gt;&lt;td&gt;蘿潔塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rosetta_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rosetta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rosetta_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Rosetta_rank' value='4'&gt;4 &lt;input type='radio' name='Rosetta_rank' value='5'&gt;5 &lt;input type='checkbox' name='Rosetta_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Rosetta' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Rosetta'&gt;&lt;img src='img/Rosetta.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Rosetta&lt;/td&gt;&lt;td&gt;蘿潔塔&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/fire_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rosetta_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rosetta_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rosetta_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Rosetta_rank' value='4'&gt;4 &lt;input type='radio' name='Rosetta_rank' value='5'&gt;5 &lt;input type='checkbox' name='Rosetta_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
@@ -5354,7 +5102,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="str">
-        <f>LEFT(A96,(FIND(".",A96,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Rovella</v>
       </c>
       <c r="C96" t="s">
@@ -5385,8 +5133,8 @@
         <v>149</v>
       </c>
       <c r="P96" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Rovella' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Rovella.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rovella&lt;/td&gt;&lt;td&gt;羅貝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rovella_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rovella_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rovella_rank' value='3'&gt;3 &lt;input type='radio' name='Rovella_rank' value='4'&gt;4 &lt;input type='radio' name='Rovella_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Rovella_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Rovella' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Rovella'&gt;&lt;img src='img/Rovella.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Rovella&lt;/td&gt;&lt;td&gt;羅貝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rovella_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rovella_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rovella_rank' value='3'&gt;3 &lt;input type='radio' name='Rovella_rank' value='4'&gt;4 &lt;input type='radio' name='Rovella_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Rovella_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
@@ -5394,7 +5142,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="str">
-        <f>LEFT(A97,(FIND(".",A97,1)-1))</f>
+        <f t="shared" si="3"/>
         <v>Rufus</v>
       </c>
       <c r="C97" t="s">
@@ -5425,8 +5173,8 @@
         <v>147</v>
       </c>
       <c r="P97" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Rufus' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Rufus.jpg'&gt;&lt;/td&gt;&lt;td&gt;Rufus&lt;/td&gt;&lt;td&gt;洛福斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rufus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rufus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rufus_rank' value='3'&gt;3 &lt;input type='radio' name='Rufus_rank' value='4'&gt;4 &lt;input type='radio' name='Rufus_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Rufus_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Rufus' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Rufus'&gt;&lt;img src='img/Rufus.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Rufus&lt;/td&gt;&lt;td&gt;洛福斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Rufus_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Rufus_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Rufus_rank' value='3'&gt;3 &lt;input type='radio' name='Rufus_rank' value='4'&gt;4 &lt;input type='radio' name='Rufus_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Rufus_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
@@ -5434,7 +5182,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f>LEFT(A98,(FIND(".",A98,1)-1))</f>
+        <f t="shared" ref="B98:B126" si="5">LEFT(A98,(FIND(".",A98,1)-1))</f>
         <v>Ruina</v>
       </c>
       <c r="C98" t="s">
@@ -5465,8 +5213,8 @@
         <v>142</v>
       </c>
       <c r="P98" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Ruina' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Ruina.jpg'&gt;&lt;img src='img/Ruina_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Ruina&lt;/td&gt;&lt;td&gt;路伊娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ruina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ruina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ruina_rank' value='3'&gt;3 &lt;input type='radio' name='Ruina_rank' value='4'&gt;4 &lt;input type='radio' name='Ruina_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Ruina_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Ruina' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Ruina'&gt;&lt;img src='img/Ruina.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Ruina_(Another_Style)'&gt;&lt;img src='img/Ruina_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Ruina&lt;/td&gt;&lt;td&gt;路伊娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Ruina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Ruina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Ruina_rank' value='3'&gt;3 &lt;input type='radio' name='Ruina_rank' value='4'&gt;4 &lt;input type='radio' name='Ruina_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Ruina_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -5474,7 +5222,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="str">
-        <f>LEFT(A99,(FIND(".",A99,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Saithe</v>
       </c>
       <c r="C99" t="s">
@@ -5502,8 +5250,8 @@
         <v>141</v>
       </c>
       <c r="P99" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Saithe' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Saithe.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saithe&lt;/td&gt;&lt;td&gt;賽斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saithe_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saithe_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saithe_rank' value='3'&gt;3 &lt;input type='radio' name='Saithe_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Saithe_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Saithe_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Saithe' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Saithe'&gt;&lt;img src='img/Saithe.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Saithe&lt;/td&gt;&lt;td&gt;賽斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saithe_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saithe_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saithe_rank' value='3'&gt;3 &lt;input type='radio' name='Saithe_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Saithe_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Saithe_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
@@ -5511,7 +5259,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f>LEFT(A100,(FIND(".",A100,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Saki</v>
       </c>
       <c r="C100" t="s">
@@ -5539,8 +5287,8 @@
         <v>148</v>
       </c>
       <c r="P100" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Saki' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Saki.jpg'&gt;&lt;img src='img/Saki_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Saki&lt;/td&gt;&lt;td&gt;紗希&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saki_rank' value='3'&gt;3 &lt;input type='radio' name='Saki_rank' value='4'&gt;4 &lt;input type='radio' name='Saki_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Saki_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Saki' class='Light Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Saki'&gt;&lt;img src='img/Saki.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Saki_(Another_Style)'&gt;&lt;img src='img/Saki_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Saki&lt;/td&gt;&lt;td&gt;紗希&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/water_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Saki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Saki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Saki_rank' value='3'&gt;3 &lt;input type='radio' name='Saki_rank' value='4'&gt;4 &lt;input type='radio' name='Saki_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Saki_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
@@ -5548,7 +5296,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f>LEFT(A101,(FIND(".",A101,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Samora</v>
       </c>
       <c r="C101" t="s">
@@ -5579,8 +5327,8 @@
         <v>147</v>
       </c>
       <c r="P101" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Samora' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Samora.jpg'&gt;&lt;/td&gt;&lt;td&gt;Samora&lt;/td&gt;&lt;td&gt;薩摩拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Samora_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Samora_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Samora_rank' value='3'&gt;3 &lt;input type='radio' name='Samora_rank' value='4'&gt;4 &lt;input type='radio' name='Samora_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Samora_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Samora' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Samora'&gt;&lt;img src='img/Samora.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Samora&lt;/td&gt;&lt;td&gt;薩摩拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/fire_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Samora_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Samora_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Samora_rank' value='3'&gt;3 &lt;input type='radio' name='Samora_rank' value='4'&gt;4 &lt;input type='radio' name='Samora_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Samora_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
@@ -5588,7 +5336,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="str">
-        <f>LEFT(A102,(FIND(".",A102,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Sauria</v>
       </c>
       <c r="C102" t="s">
@@ -5616,8 +5364,8 @@
         <v>141</v>
       </c>
       <c r="P102" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Sauria' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Sauria.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sauria&lt;/td&gt;&lt;td&gt;秀莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sauria_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sauria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sauria_rank' value='3'&gt;3 &lt;input type='radio' name='Sauria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Sauria_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Sauria_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Sauria' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Sauria'&gt;&lt;img src='img/Sauria.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Sauria&lt;/td&gt;&lt;td&gt;秀莉雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sauria_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sauria_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sauria_rank' value='3'&gt;3 &lt;input type='radio' name='Sauria_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Sauria_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Sauria_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
@@ -5625,7 +5373,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="str">
-        <f>LEFT(A103,(FIND(".",A103,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Sevyn</v>
       </c>
       <c r="C103" t="s">
@@ -5656,8 +5404,8 @@
         <v>142</v>
       </c>
       <c r="P103" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Sevyn' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Sevyn.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sevyn&lt;/td&gt;&lt;td&gt;賽溫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sevyn_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sevyn_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sevyn_rank' value='3'&gt;3 &lt;input type='radio' name='Sevyn_rank' value='4'&gt;4 &lt;input type='radio' name='Sevyn_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Sevyn_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Sevyn' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Sevyn'&gt;&lt;img src='img/Sevyn.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Sevyn&lt;/td&gt;&lt;td&gt;賽溫&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sevyn_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sevyn_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sevyn_rank' value='3'&gt;3 &lt;input type='radio' name='Sevyn_rank' value='4'&gt;4 &lt;input type='radio' name='Sevyn_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Sevyn_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
@@ -5665,7 +5413,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="str">
-        <f>LEFT(A104,(FIND(".",A104,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Shanie</v>
       </c>
       <c r="C104" t="s">
@@ -5696,8 +5444,8 @@
         <v>138</v>
       </c>
       <c r="P104" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Shanie' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Shanie.jpg'&gt;&lt;img src='img/Shanie_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shanie&lt;/td&gt;&lt;td&gt;謝奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shanie_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shanie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shanie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shanie_rank' value='4'&gt;4 &lt;input type='radio' name='Shanie_rank' value='5'&gt;5 &lt;input type='checkbox' name='Shanie_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Shanie' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Shanie'&gt;&lt;img src='img/Shanie.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Shanie_(Another_Style)'&gt;&lt;img src='img/Shanie_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Shanie&lt;/td&gt;&lt;td&gt;謝奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/water_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shanie_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shanie_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shanie_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shanie_rank' value='4'&gt;4 &lt;input type='radio' name='Shanie_rank' value='5'&gt;5 &lt;input type='checkbox' name='Shanie_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
@@ -5705,7 +5453,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="str">
-        <f>LEFT(A105,(FIND(".",A105,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Shannon</v>
       </c>
       <c r="C105" t="s">
@@ -5736,8 +5484,8 @@
         <v>142</v>
       </c>
       <c r="P105" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Shannon' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Shannon.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shannon&lt;/td&gt;&lt;td&gt;夏濃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shannon_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shannon_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shannon_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shannon_rank' value='4'&gt;4 &lt;input type='radio' name='Shannon_rank' value='5'&gt;5 &lt;input type='checkbox' name='Shannon_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Shannon' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Shannon'&gt;&lt;img src='img/Shannon.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Shannon&lt;/td&gt;&lt;td&gt;夏濃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shannon_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shannon_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shannon_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shannon_rank' value='4'&gt;4 &lt;input type='radio' name='Shannon_rank' value='5'&gt;5 &lt;input type='checkbox' name='Shannon_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
@@ -5745,7 +5493,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="str">
-        <f>LEFT(A106,(FIND(".",A106,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Sheila</v>
       </c>
       <c r="C106" t="s">
@@ -5776,8 +5524,8 @@
         <v>149</v>
       </c>
       <c r="P106" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Sheila' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Sheila.jpg'&gt;&lt;/td&gt;&lt;td&gt;Sheila&lt;/td&gt;&lt;td&gt;謝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sheila_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sheila_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sheila_rank' value='3'&gt;3 &lt;input type='radio' name='Sheila_rank' value='4'&gt;4 &lt;input type='radio' name='Sheila_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Sheila_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Sheila' class='Light Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Sheila'&gt;&lt;img src='img/Sheila.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Sheila&lt;/td&gt;&lt;td&gt;謝拉&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Sheila_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Sheila_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Sheila_rank' value='3'&gt;3 &lt;input type='radio' name='Sheila_rank' value='4'&gt;4 &lt;input type='radio' name='Sheila_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Sheila_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
@@ -5785,7 +5533,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="str">
-        <f>LEFT(A107,(FIND(".",A107,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Shigure</v>
       </c>
       <c r="C107" t="s">
@@ -5816,8 +5564,8 @@
         <v>149</v>
       </c>
       <c r="P107" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Shigure' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Shigure.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shigure&lt;/td&gt;&lt;td&gt;時雨&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shigure_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shigure_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shigure_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shigure_rank' value='4'&gt;4 &lt;input type='radio' name='Shigure_rank' value='5'&gt;5 &lt;input type='checkbox' name='Shigure_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Shigure' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Shigure'&gt;&lt;img src='img/Shigure.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Shigure&lt;/td&gt;&lt;td&gt;時雨&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/water_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shigure_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shigure_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shigure_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shigure_rank' value='4'&gt;4 &lt;input type='radio' name='Shigure_rank' value='5'&gt;5 &lt;input type='checkbox' name='Shigure_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
@@ -5825,7 +5573,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="str">
-        <f>LEFT(A108,(FIND(".",A108,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Shion</v>
       </c>
       <c r="C108" t="s">
@@ -5856,8 +5604,8 @@
         <v>133</v>
       </c>
       <c r="P108" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Shion' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Shion.jpg'&gt;&lt;img src='img/Shion_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Shion&lt;/td&gt;&lt;td&gt;紫央&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shion_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shion_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shion_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shion_rank' value='4'&gt;4 &lt;input type='radio' name='Shion_rank' value='5'&gt;5 &lt;input type='checkbox' name='Shion_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Shion' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Shion'&gt;&lt;img src='img/Shion.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Shion_(Another_Style)'&gt;&lt;img src='img/Shion_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Shion&lt;/td&gt;&lt;td&gt;紫央&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Shion_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Shion_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Shion_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Shion_rank' value='4'&gt;4 &lt;input type='radio' name='Shion_rank' value='5'&gt;5 &lt;input type='checkbox' name='Shion_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
@@ -5865,7 +5613,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="str">
-        <f>LEFT(A109,(FIND(".",A109,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Soira</v>
       </c>
       <c r="C109" t="s">
@@ -5896,8 +5644,8 @@
         <v>152</v>
       </c>
       <c r="P109" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Soira' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Soira.jpg'&gt;&lt;/td&gt;&lt;td&gt;Soira&lt;/td&gt;&lt;td&gt;蘇依萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Soira_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Soira_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Soira_rank' value='3'&gt;3 &lt;input type='radio' name='Soira_rank' value='4'&gt;4 &lt;input type='radio' name='Soira_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Soira_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Soira' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Soira'&gt;&lt;img src='img/Soira.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Soira&lt;/td&gt;&lt;td&gt;蘇依萊&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Soira_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Soira_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Soira_rank' value='3'&gt;3 &lt;input type='radio' name='Soira_rank' value='4'&gt;4 &lt;input type='radio' name='Soira_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Soira_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
@@ -5905,7 +5653,7 @@
         <v>277</v>
       </c>
       <c r="B110" s="1" t="str">
-        <f>LEFT(A110,(FIND(".",A110,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Strawboy</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -5942,8 +5690,8 @@
         <v>282</v>
       </c>
       <c r="P110" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Strawboy' class='Light Free'&gt;&lt;td&gt;&lt;img src='img/Strawboy.jpg'&gt;&lt;/td&gt;&lt;td&gt;Strawboy&lt;/td&gt;&lt;td&gt;草人小子 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/all_null.png'&gt;&lt;img src='img/type/all_slash.png'&gt;&lt;img src='img/type/all_pierce.png'&gt;&lt;img src='img/type/all_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Strawboy_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Strawboy_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Strawboy_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Strawboy_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Strawboy_rank' value='5'&gt;5 &lt;input type='checkbox' name='Strawboy_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Strawboy' class='Light Free'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Strawboy'&gt;&lt;img src='img/Strawboy.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Strawboy&lt;/td&gt;&lt;td&gt;草人小子 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/all_null.png'&gt;&lt;img src='img/type/all_slash.png'&gt;&lt;img src='img/type/all_pierce.png'&gt;&lt;img src='img/type/all_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Strawboy_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Strawboy_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Strawboy_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Strawboy_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Strawboy_rank' value='5'&gt;5 &lt;input type='checkbox' name='Strawboy_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
@@ -5951,7 +5699,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="str">
-        <f>LEFT(A111,(FIND(".",A111,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Suzette</v>
       </c>
       <c r="C111" t="s">
@@ -5982,8 +5730,8 @@
         <v>152</v>
       </c>
       <c r="P111" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Suzette' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Suzette.jpg'&gt;&lt;img src='img/Suzette_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Suzette&lt;/td&gt;&lt;td&gt;蘇賽特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Suzette_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Suzette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Suzette_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Suzette_rank' value='4'&gt;4 &lt;input type='radio' name='Suzette_rank' value='5'&gt;5 &lt;input type='checkbox' name='Suzette_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Suzette' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Suzette'&gt;&lt;img src='img/Suzette.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Suzette_(Another_Style)'&gt;&lt;img src='img/Suzette_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Suzette&lt;/td&gt;&lt;td&gt;蘇賽特&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/wind_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Suzette_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Suzette_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Suzette_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Suzette_rank' value='4'&gt;4 &lt;input type='radio' name='Suzette_rank' value='5'&gt;5 &lt;input type='checkbox' name='Suzette_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
@@ -5991,7 +5739,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="str">
-        <f>LEFT(A112,(FIND(".",A112,1)-1))</f>
+        <f t="shared" si="5"/>
         <v>Tayme</v>
       </c>
       <c r="C112" t="s">
@@ -6019,32 +5767,32 @@
         <v>130</v>
       </c>
       <c r="P112" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Tayme' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Tayme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tayme&lt;/td&gt;&lt;td&gt;提姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tayme_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tayme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tayme_rank' value='3'&gt;3 &lt;input type='radio' name='Tayme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tayme_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Tayme_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Tayme' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Tayme'&gt;&lt;img src='img/Tayme.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Tayme&lt;/td&gt;&lt;td&gt;提姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tayme_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tayme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tayme_rank' value='3'&gt;3 &lt;input type='radio' name='Tayme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tayme_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Tayme_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>111</v>
+        <v>288</v>
       </c>
       <c r="B113" s="1" t="str">
-        <f>LEFT(A113,(FIND(".",A113,1)-1))</f>
-        <v>Tohme</v>
-      </c>
-      <c r="C113" t="s">
-        <v>260</v>
+        <f t="shared" si="5"/>
+        <v>Tiramisu</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>127</v>
@@ -6053,29 +5801,29 @@
         <v>127</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="P113" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Tohme' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Tohme.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tohme&lt;/td&gt;&lt;td&gt;托姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tohme_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tohme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tohme_rank' value='3'&gt;3 &lt;input type='radio' name='Tohme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tohme_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Tohme_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Tiramisu' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Tiramisu'&gt;&lt;img src='img/Tiramisu.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Tiramisu&lt;/td&gt;&lt;td&gt;提拉米蘇 &lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_pierce.png'&gt;&lt;img src='img/type/earth_pierce.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tiramisu_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tiramisu_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tiramisu_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tiramisu_rank' value='4'&gt;4 &lt;input type='radio' name='Tiramisu_rank' value='5'&gt;5 &lt;input type='checkbox' name='Tiramisu_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" s="1" t="str">
-        <f>LEFT(A114,(FIND(".",A114,1)-1))</f>
-        <v>Toole</v>
+        <f t="shared" si="5"/>
+        <v>Tohme</v>
       </c>
       <c r="C114" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>126</v>
@@ -6093,66 +5841,66 @@
         <v>127</v>
       </c>
       <c r="K114" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L114" s="2" t="s">
         <v>130</v>
       </c>
       <c r="P114" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Toole' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Toole.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toole&lt;/td&gt;&lt;td&gt;托爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toole_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toole_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toole_rank' value='3'&gt;3 &lt;input type='radio' name='Toole_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Toole_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Toole_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Tohme' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Tohme'&gt;&lt;img src='img/Tohme.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Tohme&lt;/td&gt;&lt;td&gt;托姆&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tohme_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tohme_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tohme_rank' value='3'&gt;3 &lt;input type='radio' name='Tohme_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Tohme_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Tohme_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" s="1" t="str">
-        <f>LEFT(A115,(FIND(".",A115,1)-1))</f>
-        <v>Toova</v>
+        <f t="shared" si="5"/>
+        <v>Toole</v>
       </c>
       <c r="C115" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L115" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="P115" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Toova' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Toova.jpg'&gt;&lt;img src='img/Toova_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Toova&lt;/td&gt;&lt;td&gt;杜娃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toova_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toova_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toova_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Toova_rank' value='4'&gt;4 &lt;input type='radio' name='Toova_rank' value='5'&gt;5 &lt;input type='checkbox' name='Toova_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Toole' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Toole'&gt;&lt;img src='img/Toole.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Toole&lt;/td&gt;&lt;td&gt;托爾&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toole_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toole_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toole_rank' value='3'&gt;3 &lt;input type='radio' name='Toole_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Toole_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Toole_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116" s="1" t="str">
-        <f>LEFT(A116,(FIND(".",A116,1)-1))</f>
-        <v>Tsubame</v>
+        <f t="shared" si="5"/>
+        <v>Toova</v>
       </c>
       <c r="C116" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>127</v>
@@ -6164,38 +5912,35 @@
         <v>126</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P116" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Tsubame' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Tsubame.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsubame&lt;/td&gt;&lt;td&gt;燕&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsubame_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsubame_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsubame_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsubame_rank' value='4'&gt;4 &lt;input type='radio' name='Tsubame_rank' value='5'&gt;5 &lt;input type='checkbox' name='Tsubame_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Toova' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Toova'&gt;&lt;img src='img/Toova.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Toova_(Another_Style)'&gt;&lt;img src='img/Toova_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Toova&lt;/td&gt;&lt;td&gt;杜娃&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/earth_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Toova_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Toova_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Toova_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Toova_rank' value='4'&gt;4 &lt;input type='radio' name='Toova_rank' value='5'&gt;5 &lt;input type='checkbox' name='Toova_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" s="1" t="str">
-        <f>LEFT(A117,(FIND(".",A117,1)-1))</f>
-        <v>Tsukiha</v>
+        <f t="shared" si="5"/>
+        <v>Tsubame</v>
       </c>
       <c r="C117" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>127</v>
@@ -6216,60 +5961,66 @@
         <v>132</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="P117" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Tsukiha' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Tsukiha.jpg'&gt;&lt;/td&gt;&lt;td&gt;Tsukiha&lt;/td&gt;&lt;td&gt;月華&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsukiha_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsukiha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsukiha_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsukiha_rank' value='4'&gt;4 &lt;input type='radio' name='Tsukiha_rank' value='5'&gt;5 &lt;input type='checkbox' name='Tsukiha_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Tsubame' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Tsubame'&gt;&lt;img src='img/Tsubame.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Tsubame&lt;/td&gt;&lt;td&gt;燕&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;img src='img/type/earth_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsubame_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsubame_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsubame_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsubame_rank' value='4'&gt;4 &lt;input type='radio' name='Tsubame_rank' value='5'&gt;5 &lt;input type='checkbox' name='Tsubame_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" s="1" t="str">
-        <f>LEFT(A118,(FIND(".",A118,1)-1))</f>
-        <v>Urania</v>
+        <f t="shared" si="5"/>
+        <v>Tsukiha</v>
       </c>
       <c r="C118" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="P118" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Urania' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Urania.jpg'&gt;&lt;/td&gt;&lt;td&gt;Urania&lt;/td&gt;&lt;td&gt;烏拉尼雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Urania_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Urania_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Urania_rank' value='3'&gt;3 &lt;input type='radio' name='Urania_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Urania_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Urania_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Tsukiha' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Tsukiha'&gt;&lt;img src='img/Tsukiha.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Tsukiha&lt;/td&gt;&lt;td&gt;月華&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/fire_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Tsukiha_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Tsukiha_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Tsukiha_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Tsukiha_rank' value='4'&gt;4 &lt;input type='radio' name='Tsukiha_rank' value='5'&gt;5 &lt;input type='checkbox' name='Tsukiha_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" s="1" t="str">
-        <f>LEFT(A119,(FIND(".",A119,1)-1))</f>
-        <v>Uuo</v>
+        <f t="shared" si="5"/>
+        <v>Urania</v>
       </c>
       <c r="C119" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>1</v>
@@ -6290,100 +6041,100 @@
         <v>127</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P119" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Uuo' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Uuo.jpg'&gt;&lt;/td&gt;&lt;td&gt;Uuo&lt;/td&gt;&lt;td&gt;烏奧&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Uuo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Uuo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Uuo_rank' value='3'&gt;3 &lt;input type='radio' name='Uuo_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Uuo_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Uuo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Urania' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Urania'&gt;&lt;img src='img/Urania.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Urania&lt;/td&gt;&lt;td&gt;烏拉尼雅&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_blunt.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Urania_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Urania_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Urania_rank' value='3'&gt;3 &lt;input type='radio' name='Urania_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Urania_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Urania_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" s="1" t="str">
-        <f>LEFT(A120,(FIND(".",A120,1)-1))</f>
-        <v>Veina</v>
+        <f t="shared" si="5"/>
+        <v>Uuo</v>
       </c>
       <c r="C120" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="N120" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="P120" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Veina' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Veina.jpg'&gt;&lt;/td&gt;&lt;td&gt;Veina&lt;/td&gt;&lt;td&gt;維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Veina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Veina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Veina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Veina_rank' value='4'&gt;4 &lt;input type='radio' name='Veina_rank' value='5'&gt;5 &lt;input type='checkbox' name='Veina_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Uuo' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Uuo'&gt;&lt;img src='img/Uuo.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Uuo&lt;/td&gt;&lt;td&gt;烏奧&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Uuo_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Uuo_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Uuo_rank' value='3'&gt;3 &lt;input type='radio' name='Uuo_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Uuo_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Uuo_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121" s="1" t="str">
-        <f>LEFT(A121,(FIND(".",A121,1)-1))</f>
-        <v>Yazuki</v>
+        <f t="shared" si="5"/>
+        <v>Veina</v>
       </c>
       <c r="C121" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="P121" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Yazuki' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Yazuki.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yazuki&lt;/td&gt;&lt;td&gt;耶月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yazuki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yazuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yazuki_rank' value='3'&gt;3 &lt;input type='radio' name='Yazuki_rank' value='4'&gt;4 &lt;input type='radio' name='Yazuki_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Yazuki_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Veina' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Veina'&gt;&lt;img src='img/Veina.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Veina&lt;/td&gt;&lt;td&gt;維娜&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_null.png'&gt;&lt;img src='img/type/wind_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Veina_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Veina_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Veina_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Veina_rank' value='4'&gt;4 &lt;input type='radio' name='Veina_rank' value='5'&gt;5 &lt;input type='checkbox' name='Veina_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" s="1" t="str">
-        <f>LEFT(A122,(FIND(".",A122,1)-1))</f>
-        <v>Yio</v>
+        <f t="shared" si="5"/>
+        <v>Yazuki</v>
       </c>
       <c r="C122" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>1</v>
@@ -6404,26 +6155,23 @@
         <v>127</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L122" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="P122" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Yio' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Yio.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yio&lt;/td&gt;&lt;td&gt;伊俄&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yio_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yio_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yio_rank' value='3'&gt;3 &lt;input type='radio' name='Yio_rank' value='4'&gt;4 &lt;input type='radio' name='Yio_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Yio_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Yazuki' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Yazuki'&gt;&lt;img src='img/Yazuki.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Yazuki&lt;/td&gt;&lt;td&gt;耶月&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/wind_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yazuki_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yazuki_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yazuki_rank' value='3'&gt;3 &lt;input type='radio' name='Yazuki_rank' value='4'&gt;4 &lt;input type='radio' name='Yazuki_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Yazuki_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" s="1" t="str">
-        <f>LEFT(A123,(FIND(".",A123,1)-1))</f>
-        <v>Yssis</v>
+        <f t="shared" si="5"/>
+        <v>Yio</v>
       </c>
       <c r="C123" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>1</v>
@@ -6432,7 +6180,7 @@
         <v>126</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>127</v>
@@ -6444,38 +6192,41 @@
         <v>127</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="P123" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Yssis' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Yssis.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yssis&lt;/td&gt;&lt;td&gt;伊西斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yssis_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yssis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yssis_rank' value='3'&gt;3 &lt;input type='radio' name='Yssis_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Yssis_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Yssis_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Yio' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Yio'&gt;&lt;img src='img/Yio.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Yio&lt;/td&gt;&lt;td&gt;伊俄&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yio_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yio_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yio_rank' value='3'&gt;3 &lt;input type='radio' name='Yio_rank' value='4'&gt;4 &lt;input type='radio' name='Yio_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Yio_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" s="1" t="str">
-        <f>LEFT(A124,(FIND(".",A124,1)-1))</f>
-        <v>Yuna</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>271</v>
+        <f t="shared" si="5"/>
+        <v>Yssis</v>
+      </c>
+      <c r="C124" t="s">
+        <v>270</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>127</v>
@@ -6483,60 +6234,98 @@
       <c r="K124" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L124" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N124" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="P124" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Yuna' class='Light Dream'&gt;&lt;td&gt;&lt;img src='img/Yuna.jpg'&gt;&lt;img src='img/Yuna_AS.jpg'&gt;&lt;/td&gt;&lt;td&gt;Yuna&lt;/td&gt;&lt;td&gt;由奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yuna_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yuna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yuna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Yuna_rank' value='4'&gt;4 &lt;input type='radio' name='Yuna_rank' value='5'&gt;5 &lt;input type='checkbox' name='Yuna_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Yssis' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Yssis'&gt;&lt;img src='img/Yssis.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Yssis&lt;/td&gt;&lt;td&gt;伊西斯&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yssis_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yssis_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yssis_rank' value='3'&gt;3 &lt;input type='radio' name='Yssis_rank' value='4' disabled=''&gt;4 &lt;input type='radio' name='Yssis_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Yssis_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B125" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Yuna</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N125" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P125" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Yuna' class='Light Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Yuna'&gt;&lt;img src='img/Yuna.jpg'&gt;&lt;/a&gt; &lt;a href='https://anothereden.miraheze.org/wiki/Yuna_(Another_Style)'&gt;&lt;img src='img/Yuna_AS.jpg'&gt;&lt;/a&gt;&lt;/td&gt;&lt;td&gt;Yuna&lt;/td&gt;&lt;td&gt;由奈&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_null.png'&gt;&lt;img src='img/type/water_null.png'&gt;&lt;img src='img/type/water_zone.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Yuna_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Yuna_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Yuna_rank' value='3' disabled=''&gt;3 &lt;input type='radio' name='Yuna_rank' value='4'&gt;4 &lt;input type='radio' name='Yuna_rank' value='5'&gt;5 &lt;input type='checkbox' name='Yuna_rank' value='AS'&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B125" s="1" t="str">
-        <f>LEFT(A125,(FIND(".",A125,1)-1))</f>
+      <c r="B126" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>Zilva</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>272</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E125" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="E126" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K126" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L125" s="2" t="s">
+      <c r="L126" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="P125" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr id='Zilva' class='Shadow Dream'&gt;&lt;td&gt;&lt;img src='img/Zilva.jpg'&gt;&lt;/td&gt;&lt;td&gt;Zilva&lt;/td&gt;&lt;td&gt;茲爾巴&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Zilva_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Zilva_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Zilva_rank' value='3'&gt;3 &lt;input type='radio' name='Zilva_rank' value='4'&gt;4 &lt;input type='radio' name='Zilva_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Zilva_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P127" s="1" t="s">
-        <v>288</v>
+      <c r="P126" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;tr id='Zilva' class='Shadow Dream'&gt;&lt;td&gt;&lt;a href='https://anothereden.miraheze.org/wiki/Zilva'&gt;&lt;img src='img/Zilva.jpg'&gt;&lt;/a&gt; &lt;/td&gt;&lt;td&gt;Zilva&lt;/td&gt;&lt;td&gt;茲爾巴&lt;/td&gt;&lt;td&gt;&lt;img src='img/type/null_slash.png'&gt;&lt;img src='img/type/earth_slash.png'&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='number' id='Zilva_LS' min='0' max='255' value=''&gt;&lt;/td&gt;&lt;td&gt;&lt;input type='radio' name='Zilva_rank' value='0' checked=''&gt;N/A &lt;input type='radio' name='Zilva_rank' value='3'&gt;3 &lt;input type='radio' name='Zilva_rank' value='4'&gt;4 &lt;input type='radio' name='Zilva_rank' value='5' disabled=''&gt;5 &lt;input type='checkbox' name='Zilva_rank' value='AS' disabled=''&gt;AS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P128" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -6545,36 +6334,36 @@
       <sortCondition ref="A1:A123"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E1:I1048576">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="16" operator="containsText" text="U">
-      <formula>NOT(ISERROR(SEARCH("U",E1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:N1048576">
-    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="zone">
+  <conditionalFormatting sqref="K1:N999">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="zone">
       <formula>NOT(ISERROR(SEARCH("zone",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="2" operator="containsText" text="earth">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="earth">
       <formula>NOT(ISERROR(SEARCH("earth",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="water">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="water">
       <formula>NOT(ISERROR(SEARCH("water",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="4" operator="containsText" text="wind">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="wind">
       <formula>NOT(ISERROR(SEARCH("wind",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="fire">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="fire">
       <formula>NOT(ISERROR(SEARCH("fire",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="24" priority="17" operator="containsText" text="Shadow">
+  <conditionalFormatting sqref="E1:I999">
+    <cfRule type="containsText" dxfId="3" priority="16" operator="containsText" text="U">
+      <formula>NOT(ISERROR(SEARCH("U",E1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D999">
+    <cfRule type="containsText" dxfId="2" priority="17" operator="containsText" text="Shadow">
       <formula>NOT(ISERROR(SEARCH("Shadow",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="18" operator="containsText" text="Light">
+    <cfRule type="containsText" dxfId="1" priority="18" operator="containsText" text="Light">
       <formula>NOT(ISERROR(SEARCH("Light",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6587,19 +6376,19 @@
           <x14:formula1>
             <xm:f>Sheet2!$C$1:$C$24</xm:f>
           </x14:formula1>
-          <xm:sqref>K47:M48 K49 N47:N49 K1:N46 K111:N1048576 K50:N109</xm:sqref>
+          <xm:sqref>K47:M48 K49 N47:N49 K1:N46 K50:N109 K111:N112 K114:N1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2B612D60-C0E5-4235-9DB8-C132C9B51D30}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:H109 E111:H112 E114:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B3CCCDB8-5325-4E39-B696-890B93E6D505}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2B612D60-C0E5-4235-9DB8-C132C9B51D30}">
-          <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:H109 E111:H1048576</xm:sqref>
+          <xm:sqref>D1:D112 D114:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6609,15 +6398,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE52424-9ABA-4143-A8F5-D00539957EFA}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -6627,8 +6416,11 @@
       <c r="C1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -6638,8 +6430,11 @@
       <c r="C2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -6647,67 +6442,67 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>186</v>
       </c>
